--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="118">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -371,6 +371,12 @@
   <si>
     <t>Model SHPf from Model Nf, shp</t>
   </si>
+  <si>
+    <t>from fr_OL_P_T_461_var_06_1ms.xlsx</t>
+  </si>
+  <si>
+    <t>TauF data</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,6 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,11 +1331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="499029432"/>
-        <c:axId val="499029824"/>
+        <c:axId val="590374976"/>
+        <c:axId val="589039672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="499029432"/>
+        <c:axId val="590374976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,12 +1392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499029824"/>
+        <c:crossAx val="589039672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499029824"/>
+        <c:axId val="589039672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499029432"/>
+        <c:crossAx val="590374976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,6 +1504,420 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Between Speeds is Linear</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduinoTurnigy!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fan,RPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduinoTurnigy!$O$5:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12987.012987012988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18404.907975460123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22388.059701492537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27906.976744186049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29702.970297029704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33898.305084745763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39473.68421052632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43988.269794721404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45592.705167173255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduinoTurnigy!$P$5:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9360.3744149765989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13239.187996469551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18867.92452830189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21052.631578947367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34482.758620689652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35714.285714285717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="621616232"/>
+        <c:axId val="621615448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="621616232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621615448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="621615448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621616232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1739,8 +2166,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157616952"/>
-        <c:axId val="157617736"/>
+        <c:axId val="621606824"/>
+        <c:axId val="621608784"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1921,11 +2348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157618520"/>
-        <c:axId val="157618128"/>
+        <c:axId val="621616624"/>
+        <c:axId val="621615840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157616952"/>
+        <c:axId val="621606824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2044,13 +2471,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157617736"/>
+        <c:crossAx val="621608784"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157617736"/>
+        <c:axId val="621608784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2164,12 +2591,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157616952"/>
+        <c:crossAx val="621606824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157618128"/>
+        <c:axId val="621615840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -2269,13 +2696,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157618520"/>
+        <c:crossAx val="621616624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157618520"/>
+        <c:axId val="621616624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157618128"/>
+        <c:crossAx val="621615840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2375,7 +2802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2552,11 +2979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157619304"/>
-        <c:axId val="156967264"/>
+        <c:axId val="621617016"/>
+        <c:axId val="621617408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157619304"/>
+        <c:axId val="621617016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2586,12 +3013,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156967264"/>
+        <c:crossAx val="621617408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156967264"/>
+        <c:axId val="621617408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,7 +3047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157619304"/>
+        <c:crossAx val="621617016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,7 +3064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3067,11 +3494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489329016"/>
-        <c:axId val="489327840"/>
+        <c:axId val="621605256"/>
+        <c:axId val="621606040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489329016"/>
+        <c:axId val="621605256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3177,12 +3604,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489327840"/>
+        <c:crossAx val="621606040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489327840"/>
+        <c:axId val="621606040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3234,7 +3661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489329016"/>
+        <c:crossAx val="621605256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3324,7 +3751,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3459,11 +3886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489322352"/>
-        <c:axId val="489324312"/>
+        <c:axId val="621611920"/>
+        <c:axId val="621609568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489322352"/>
+        <c:axId val="621611920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,12 +3900,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489324312"/>
+        <c:crossAx val="621609568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489324312"/>
+        <c:axId val="621609568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3489,7 +3916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489322352"/>
+        <c:crossAx val="621611920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3510,7 +3937,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3635,11 +4062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489321960"/>
-        <c:axId val="489324704"/>
+        <c:axId val="621607608"/>
+        <c:axId val="621609960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489321960"/>
+        <c:axId val="621607608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +4076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489324704"/>
+        <c:crossAx val="621609960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -3658,7 +4085,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489324704"/>
+        <c:axId val="621609960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +4096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489321960"/>
+        <c:crossAx val="621607608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3690,7 +4117,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3945,11 +4372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489327448"/>
-        <c:axId val="489327056"/>
+        <c:axId val="621610352"/>
+        <c:axId val="621611528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489327448"/>
+        <c:axId val="621610352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3977,12 +4404,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489327056"/>
+        <c:crossAx val="621611528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489327056"/>
+        <c:axId val="621611528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3993,7 +4420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489327448"/>
+        <c:crossAx val="621610352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4024,7 +4451,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4194,11 +4621,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489322744"/>
-        <c:axId val="489323136"/>
+        <c:axId val="621618584"/>
+        <c:axId val="621620544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489322744"/>
+        <c:axId val="621618584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,12 +4635,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489323136"/>
+        <c:crossAx val="621620544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489323136"/>
+        <c:axId val="621620544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4224,7 +4651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489322744"/>
+        <c:crossAx val="621618584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4255,7 +4682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4458,11 +4885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489325096"/>
-        <c:axId val="489325488"/>
+        <c:axId val="621617800"/>
+        <c:axId val="621618192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489325096"/>
+        <c:axId val="621617800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4574,12 +5001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489325488"/>
+        <c:crossAx val="621618192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489325488"/>
+        <c:axId val="621618192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4691,7 +5118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489325096"/>
+        <c:crossAx val="621617800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4740,7 +5167,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4970,11 +5397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489325880"/>
-        <c:axId val="157616560"/>
+        <c:axId val="621619368"/>
+        <c:axId val="621619760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489325880"/>
+        <c:axId val="621619368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5031,12 +5458,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157616560"/>
+        <c:crossAx val="621619760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157616560"/>
+        <c:axId val="621619760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5093,7 +5520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489325880"/>
+        <c:crossAx val="621619368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5105,817 +5532,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Linear Throttle to Ng</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14569259560043785"/>
-          <c:y val="0.12151534481085631"/>
-          <c:w val="0.76602897731953912"/>
-          <c:h val="0.59682244516945593"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CalArduinoHiTec!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ng, %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="5.5"/>
-            <c:backward val="20"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.29817991360945351"/>
-                  <c:y val="0.14924067325327806"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>CalArduinoHiTec!$K$2:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.089999999999989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.699999999999974</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.40000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>121.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128.57999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>153.82499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.46799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CalArduinoHiTec!$P$2:$P$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>27.192101740294518</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.26475694444445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.58385744234802</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.272108843537424</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.708333333333343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.164075993091544</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.10973084886129</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96.176609848484858</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="157621656"/>
-        <c:axId val="157621264"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CalArduinoHiTec!$X$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Charger Pwr, W</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.6373767232584297E-2"/>
-                  <c:y val="0.3571603652849179"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>CalArduinoHiTec!$K$2:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.089999999999989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.699999999999974</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.40000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>121.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128.57999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>153.82499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.46799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CalArduinoHiTec!$X$2:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104.39999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="489589704"/>
-        <c:axId val="157622440"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="157621656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="180"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Throttle,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> deg</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="157621264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="157621264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Ng, %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="157621656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="157622440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489589704"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="489589704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157622440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.3915115991666955E-2"/>
-          <c:y val="0.82389355699646971"/>
-          <c:w val="0.75743135247107563"/>
-          <c:h val="0.13927395036459092"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6203,8 +5819,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="499031000"/>
-        <c:axId val="499025120"/>
+        <c:axId val="589036536"/>
+        <c:axId val="589040064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6385,11 +6001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="499031392"/>
-        <c:axId val="499030608"/>
+        <c:axId val="589034576"/>
+        <c:axId val="589035360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="499031000"/>
+        <c:axId val="589036536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -6509,13 +6125,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499025120"/>
+        <c:crossAx val="589040064"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499025120"/>
+        <c:axId val="589040064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6630,12 +6246,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499031000"/>
+        <c:crossAx val="589036536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499030608"/>
+        <c:axId val="589035360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -6736,13 +6352,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499031392"/>
+        <c:crossAx val="589034576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499031392"/>
+        <c:axId val="589034576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6752,7 +6368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499030608"/>
+        <c:crossAx val="589035360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6859,6 +6475,817 @@
     <c:title>
       <c:tx>
         <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Throttle to Ng</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14569259560043785"/>
+          <c:y val="0.12151534481085631"/>
+          <c:w val="0.76602897731953912"/>
+          <c:h val="0.59682244516945593"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduinoHiTec!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ng, %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5.5"/>
+            <c:backward val="20"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29817991360945351"/>
+                  <c:y val="0.14924067325327806"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.089999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.699999999999974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.46799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27.192101740294518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.26475694444445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.58385744234802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.272108843537424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.708333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.164075993091544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.10973084886129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.176609848484858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="622103216"/>
+        <c:axId val="622103608"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduinoHiTec!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Charger Pwr, W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6373767232584297E-2"/>
+                  <c:y val="0.3571603652849179"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.089999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.699999999999974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.46799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$X$2:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.39999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="622100864"/>
+        <c:axId val="622104000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="622103216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throttle,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> deg</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622103608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="622103608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ng, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622103216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="622104000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622100864"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="622100864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="622104000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3915115991666955E-2"/>
+          <c:y val="0.82389355699646971"/>
+          <c:w val="0.75743135247107563"/>
+          <c:h val="0.13927395036459092"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
@@ -7006,11 +7433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489590096"/>
-        <c:axId val="489591272"/>
+        <c:axId val="622101256"/>
+        <c:axId val="622102040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489590096"/>
+        <c:axId val="622101256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7040,12 +7467,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489591272"/>
+        <c:crossAx val="622102040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489591272"/>
+        <c:axId val="622102040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,7 +7501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489590096"/>
+        <c:crossAx val="622101256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7091,7 +7518,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7209,11 +7636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489590880"/>
-        <c:axId val="489584608"/>
+        <c:axId val="622102824"/>
+        <c:axId val="622096552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489590880"/>
+        <c:axId val="622102824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7241,12 +7668,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489584608"/>
+        <c:crossAx val="622096552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489584608"/>
+        <c:axId val="622096552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7257,7 +7684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489590880"/>
+        <c:crossAx val="622102824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7270,358 +7697,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CalArduinoHiTec!$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calc Ng from Nf, %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="5"/>
-            <c:backward val="32"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>CalArduinoHiTec!$Q$2:$Q$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.3541666666666668E-11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.799635701275045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.345984598459847</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.26475694444445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.44183445190157</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.064009661835762</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62.117737003058117</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.030141843971634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CalArduinoHiTec!$T$2:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>18.869943356217771</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.560601222019052</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.561283203103258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.257839052092237</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.047634454261498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.887885193961779</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.727521095750703</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.236709032912501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="489583824"/>
-        <c:axId val="489586176"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="489583824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="-20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489586176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="489586176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489583824"/>
-        <c:crossesAt val="-20"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7685,11 +7760,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoHiTec!$S$1</c:f>
+              <c:f>CalArduinoHiTec!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throttle, deg</c:v>
+                  <c:v>Calc Ng from Nf, %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7727,109 +7802,73 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="7500"/>
-            <c:intercept val="0"/>
+            <c:forward val="5"/>
+            <c:backward val="32"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11207458442694664"/>
-                  <c:y val="3.4240303295421402E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoHiTec!$N$2:$N$9</c:f>
+              <c:f>CalArduinoHiTec!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6024.0963855421696</c:v>
+                  <c:v>1.3541666666666668E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7812.5000000000009</c:v>
+                  <c:v>14.799635701275045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9433.962264150945</c:v>
+                  <c:v>22.345984598459847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12244.897959183674</c:v>
+                  <c:v>35.26475694444445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15000.000000000002</c:v>
+                  <c:v>45.44183445190157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15544.041450777202</c:v>
+                  <c:v>49.064009661835762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18633.540372670806</c:v>
+                  <c:v>62.117737003058117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21306.818181818184</c:v>
+                  <c:v>72.030141843971634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoHiTec!$S$2:$S$9</c:f>
+              <c:f>CalArduinoHiTec!$T$2:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>18.869943356217771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.089999999999989</c:v>
+                  <c:v>34.560601222019052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.699999999999974</c:v>
+                  <c:v>42.561283203103258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.40000000000002</c:v>
+                  <c:v>56.257839052092237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.10000000000002</c:v>
+                  <c:v>67.047634454261498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.57999999999998</c:v>
+                  <c:v>70.887885193961779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153.82499999999999</c:v>
+                  <c:v>84.727521095750703</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.46799999999999</c:v>
+                  <c:v>95.236709032912501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7844,13 +7883,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489585000"/>
-        <c:axId val="489589312"/>
+        <c:axId val="622097336"/>
+        <c:axId val="622091848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489585000"/>
+        <c:axId val="622097336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7905,12 +7946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489589312"/>
+        <c:crossAx val="622091848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489589312"/>
+        <c:axId val="622091848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7967,8 +8008,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489585000"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="622097336"/>
+        <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -8062,6 +8103,392 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduinoHiTec!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throttle, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="7500"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11207458442694664"/>
+                  <c:y val="3.4240303295421402E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6024.0963855421696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7812.5000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9433.962264150945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12244.897959183674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15544.041450777202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18633.540372670806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21306.818181818184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$S$2:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.089999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.699999999999974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.46799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="622092632"/>
+        <c:axId val="622089104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="622092632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622089104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="622089104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622092632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -8233,11 +8660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489585392"/>
-        <c:axId val="489585784"/>
+        <c:axId val="622093024"/>
+        <c:axId val="622091064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489585392"/>
+        <c:axId val="622093024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8294,12 +8721,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489585784"/>
+        <c:crossAx val="622091064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489585784"/>
+        <c:axId val="622091064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8356,7 +8783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489585392"/>
+        <c:crossAx val="622093024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8405,7 +8832,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8629,11 +9056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489587744"/>
-        <c:axId val="489588136"/>
+        <c:axId val="622096160"/>
+        <c:axId val="622090672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489587744"/>
+        <c:axId val="622096160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8745,12 +9172,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489588136"/>
+        <c:crossAx val="622090672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489588136"/>
+        <c:axId val="622090672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8863,7 +9290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489587744"/>
+        <c:crossAx val="622096160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9090,11 +9517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="499025512"/>
-        <c:axId val="499024728"/>
+        <c:axId val="589034968"/>
+        <c:axId val="589036928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="499025512"/>
+        <c:axId val="589034968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9125,12 +9552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499024728"/>
+        <c:crossAx val="589036928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499024728"/>
+        <c:axId val="589036928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9160,7 +9587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499025512"/>
+        <c:crossAx val="589034968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9608,11 +10035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492329800"/>
-        <c:axId val="492327840"/>
+        <c:axId val="616199840"/>
+        <c:axId val="616200624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492329800"/>
+        <c:axId val="616199840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9719,12 +10146,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492327840"/>
+        <c:crossAx val="616200624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492327840"/>
+        <c:axId val="616200624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9776,7 +10203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492329800"/>
+        <c:crossAx val="616199840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10003,11 +10430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492327056"/>
-        <c:axId val="492329408"/>
+        <c:axId val="586736320"/>
+        <c:axId val="195331576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492327056"/>
+        <c:axId val="586736320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10017,12 +10444,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492329408"/>
+        <c:crossAx val="195331576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492329408"/>
+        <c:axId val="195331576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10033,7 +10460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492327056"/>
+        <c:crossAx val="586736320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10070,6 +10497,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10144,28 +10572,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="2">
-                  <c:v>8.6869543123372139E-2</c:v>
+                  <c:v>5.7913028748914755E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5097378875630716E-2</c:v>
+                  <c:v>3.6731585917087139E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2737664274397333E-2</c:v>
+                  <c:v>2.8491776182931555E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9071151704477884E-2</c:v>
+                  <c:v>2.6047434469651919E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6789291938147554E-2</c:v>
+                  <c:v>2.4526194625431701E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4492824747713272E-2</c:v>
+                  <c:v>2.2995216498475513E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3412481322885462E-2</c:v>
+                  <c:v>2.2274987548590308E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3137755680272003E-2</c:v>
+                  <c:v>2.2091837120181333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10180,11 +10608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492328624"/>
-        <c:axId val="492329016"/>
+        <c:axId val="621613096"/>
+        <c:axId val="621605648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492328624"/>
+        <c:axId val="621613096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10194,16 +10622,18 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492329016"/>
+        <c:crossAx val="621605648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492329016"/>
+        <c:axId val="621605648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10214,13 +10644,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492328624"/>
+        <c:crossAx val="621613096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10355,23 +10786,29 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.000">
-                  <c:v>7.316426693911926E-2</c:v>
+                  <c:v>4.8776177959412838E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.000">
-                  <c:v>5.3960761109431862E-2</c:v>
+                  <c:v>3.5973840739621239E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.000">
-                  <c:v>4.6091732575128885E-2</c:v>
+                  <c:v>3.0727821716752587E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.000">
-                  <c:v>4.0011800836253233E-2</c:v>
+                  <c:v>2.6674533890835489E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>3.7616118995942104E-2</c:v>
+                  <c:v>2.50774126639614E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
-                  <c:v>3.7046097136226967E-2</c:v>
+                  <c:v>2.4697398090817977E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10455,28 +10892,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>8.6869543123372139E-2</c:v>
+                  <c:v>5.7913028748914755E-2</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
-                  <c:v>5.5097378875630716E-2</c:v>
+                  <c:v>3.6731585917087139E-2</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.000">
-                  <c:v>4.2737664274397333E-2</c:v>
+                  <c:v>2.8491776182931555E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.000">
-                  <c:v>3.9071151704477884E-2</c:v>
+                  <c:v>2.6047434469651919E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.000">
-                  <c:v>3.6789291938147554E-2</c:v>
+                  <c:v>2.4526194625431701E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.000">
-                  <c:v>3.4492824747713272E-2</c:v>
+                  <c:v>2.2995216498475513E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>3.3412481322885462E-2</c:v>
+                  <c:v>2.2274987548590308E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
-                  <c:v>3.3137755680272003E-2</c:v>
+                  <c:v>2.2091837120181333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10491,11 +10928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492320784"/>
-        <c:axId val="492323528"/>
+        <c:axId val="621615056"/>
+        <c:axId val="621608392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492320784"/>
+        <c:axId val="621615056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10524,12 +10961,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492323528"/>
+        <c:crossAx val="621608392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492323528"/>
+        <c:axId val="621608392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10540,7 +10977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492320784"/>
+        <c:crossAx val="621615056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10606,6 +11043,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10741,11 +11179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492315688"/>
-        <c:axId val="492314120"/>
+        <c:axId val="621610744"/>
+        <c:axId val="621613880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492315688"/>
+        <c:axId val="621610744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10755,12 +11193,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492314120"/>
+        <c:crossAx val="621613880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492314120"/>
+        <c:axId val="621613880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10771,7 +11209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492315688"/>
+        <c:crossAx val="621610744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10819,66 +11257,35 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Correlation</a:t>
+              <a:t>calibration20161019</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Between Speeds is Linear</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12586240804406493"/>
+          <c:y val="5.3635483210810325E-2"/>
+          <c:w val="0.80399689475435288"/>
+          <c:h val="0.72290172216909465"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -10887,149 +11294,299 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoTurnigy!$P$1</c:f>
+              <c:f>CalPhotonTurnigy!$AU$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fan,RPM</c:v>
+                  <c:v>Model TauF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalPhotonTurnigy!$AL$2:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.138467712878235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.777112036937371</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.487898572106765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.784103318462122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.286002466951672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.025987241920845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.827420491757252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.804201243764425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.555343808258939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalPhotonTurnigy!$AU$2:$AU$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>4.8776177959412838E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>3.5973840739621239E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>3.0727821716752587E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>2.6674533890835489E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>2.50774126639614E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>2.4697398090817977E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalPhotonTurnigy!$AQ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model TauG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalPhotonTurnigy!$AI$2:$AI$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5613972302423034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.512267429019339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.649471024806083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.010895849896535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.364409667042004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.444433699664401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.75084997835306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.210974546743557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.835177516070971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.760447741647312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.439901626636328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalPhotonTurnigy!$AQ$2:$AQ$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>5.7913028748914755E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>3.6731585917087139E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>2.8491776182931555E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>2.6047434469651919E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>2.4526194625431701E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>2.2995216498475513E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>2.2274987548590308E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>2.2091837120181333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalPhotonTurnigy!$BA$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TauF data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln>
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$O$5:$O$13</c:f>
+              <c:f>CalPhotonTurnigy!$AZ$18:$AZ$25</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>12987.012987012988</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18404.907975460123</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22388.059701492537</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27906.976744186049</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29702.970297029704</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33898.305084745763</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39473.68421052632</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43988.269794721404</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45592.705167173255</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$P$5:$P$13</c:f>
+              <c:f>CalPhotonTurnigy!$BA$18:$BA$25</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9360.3744149765989</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13239.187996469551</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18867.92452830189</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21052.631578947367</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25000</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30000.000000000004</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34482.758620689652</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35714.285714285717</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11044,170 +11601,78 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157619696"/>
-        <c:axId val="157616168"/>
+        <c:axId val="616191216"/>
+        <c:axId val="616197880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157619696"/>
+        <c:axId val="616191216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ng or Nf, rpm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="157616168"/>
+        <c:crossAx val="616197880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157616168"/>
+        <c:axId val="616197880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="157619696"/>
+        <c:crossAx val="616191216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.54050615504047905"/>
+          <c:y val="0.18075814391907774"/>
+          <c:w val="0.27478444618679387"/>
+          <c:h val="0.25925382384516998"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -18669,6 +19134,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>272415</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165729</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19499,11 +19996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW61"/>
+  <dimension ref="A1:BA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU19" sqref="AU18:AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19538,7 +20035,7 @@
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -19677,7 +20174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B2" s="113">
         <f t="shared" ref="B2" si="1">C2/180+1</f>
         <v>1.0000055555555556</v>
@@ -19757,8 +20254,12 @@
         <f t="shared" ref="AK2:AK14" si="11">($AD$37+$AE$37*AJ2*$AD$31)/$AD$31</f>
         <v>0.50486728578350204</v>
       </c>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL5" si="12">AM2/$AD$31</f>
+        <v>0</v>
+      </c>
       <c r="AM2">
-        <f t="shared" ref="AM2:AM5" si="12">MAX($AD$36+$AE$36*AH2, 0)</f>
+        <f t="shared" ref="AM2:AM5" si="13">MAX($AD$36+$AE$36*AH2, 0)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="127">
@@ -19777,7 +20278,7 @@
       </c>
       <c r="AT2" s="127"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B3" s="113">
         <f>C3/180+1</f>
         <v>1.0408972290491105</v>
@@ -19853,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="96">
-        <f t="shared" ref="AI3:AI14" si="13">MAX(($AD$35+$AE$35*LN(AG3))/$AD$31,0)</f>
+        <f t="shared" ref="AI3:AI14" si="14">MAX(($AD$35+$AE$35*LN(AG3))/$AD$31,0)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="96">
@@ -19864,12 +20365,16 @@
         <f t="shared" si="11"/>
         <v>0.50486728578350204</v>
       </c>
-      <c r="AM3">
+      <c r="AL3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="AM3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="AN3" s="127">
-        <f t="shared" ref="AN3:AN14" si="14">MAX($AD$39+$AH3*($AE$39+$AH3*$AF$39), 0)</f>
+        <f t="shared" ref="AN3:AN14" si="15">MAX($AD$39+$AH3*($AE$39+$AH3*$AF$39), 0)</f>
         <v>0</v>
       </c>
       <c r="AO3" s="127"/>
@@ -19878,16 +20383,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR3" s="127">
-        <f t="shared" ref="AR3:AR14" si="15">MAX($AD$39+$AM3*($AE$39+$AM3*$AF$39), 0)</f>
+        <f t="shared" ref="AR3:AR14" si="16">MAX($AD$39+$AM3*($AE$39+$AM3*$AF$39), 0)</f>
         <v>0</v>
       </c>
       <c r="AS3" s="127">
-        <f t="shared" ref="AS3:AS14" si="16">AR3/MAX(AM3,0.00000001)*5252</f>
+        <f t="shared" ref="AS3:AS14" si="17">AR3/MAX(AM3,0.00000001)*5252</f>
         <v>0</v>
       </c>
       <c r="AT3" s="127"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B4" s="113">
         <f>C4/180+1</f>
         <v>1.0444444444444445</v>
@@ -19926,19 +20431,19 @@
         <v>2.0794415416798357</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:N13" si="17">1/G4/0.000001</f>
+        <f t="shared" ref="M4:N13" si="18">1/G4/0.000001</f>
         <v>149.25373134328359</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:P13" si="18">M4*60/$W$27</f>
+        <f t="shared" ref="O4:P13" si="19">M4*60/$W$27</f>
         <v>8955.2238805970155</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.6</v>
       </c>
       <c r="Q4" s="3">
@@ -19962,11 +20467,11 @@
         <v>7.9576245480000012E-3</v>
       </c>
       <c r="V4" s="127">
-        <f t="shared" ref="V4:V13" si="19">U4/O4*5252</f>
+        <f t="shared" ref="V4:V13" si="20">U4/O4*5252</f>
         <v>4.6669345940807206E-3</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W13" si="20">-V4/2/O4</f>
+        <f t="shared" ref="W4:W13" si="21">-V4/2/O4</f>
         <v>-2.6057051483617353E-7</v>
       </c>
       <c r="X4" s="4"/>
@@ -19993,7 +20498,7 @@
         <v>1180.2918436956534</v>
       </c>
       <c r="AI4" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5613972302423034</v>
       </c>
       <c r="AJ4" s="96">
@@ -20004,16 +20509,20 @@
         <f t="shared" si="11"/>
         <v>3.0452304636888843</v>
       </c>
-      <c r="AM4">
+      <c r="AL4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="AM4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="AN4" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO4" s="127">
-        <f t="shared" ref="AO4:AO7" si="21">AN4/AH4*5252</f>
+        <f t="shared" ref="AO4:AO7" si="22">AN4/AH4*5252</f>
         <v>0</v>
       </c>
       <c r="AP4">
@@ -20022,11 +20531,11 @@
       </c>
       <c r="AQ4" s="95"/>
       <c r="AR4" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AS4" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU4" s="95"/>
@@ -20035,13 +20544,13 @@
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW4" t="e">
-        <f t="shared" ref="AW4:AW14" si="22">$W$33/$W$30/$W$28/AP4</f>
+        <f t="shared" ref="AW4:AW14" si="23">$W$33/$W$30/$W$28/AP4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="113">
-        <f t="shared" ref="B5:B24" si="23">C5/180+1</f>
+        <f t="shared" ref="B5:B24" si="24">C5/180+1</f>
         <v>1.0722222222222222</v>
       </c>
       <c r="C5" s="73">
@@ -20074,23 +20583,23 @@
         <v>13</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L14" si="24">LN(K5)</f>
+        <f t="shared" ref="L5:L14" si="25">LN(K5)</f>
         <v>2.5649493574615367</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>216.45021645021646</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12987.012987012988</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.6</v>
       </c>
       <c r="Q5" s="3">
@@ -20114,11 +20623,11 @@
         <v>9.9192715296000013E-3</v>
       </c>
       <c r="V5" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.011393083656359E-3</v>
       </c>
       <c r="W5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.5443863372076981E-7</v>
       </c>
       <c r="AB5" s="97"/>
@@ -20135,7 +20644,7 @@
         <v>8069.6528312921109</v>
       </c>
       <c r="AI5" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.512267429019339</v>
       </c>
       <c r="AJ5" s="96">
@@ -20146,47 +20655,51 @@
         <f t="shared" si="11"/>
         <v>17.873324943600256</v>
       </c>
-      <c r="AM5">
+      <c r="AL5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="AM5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="AN5" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO5" s="127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP14" si="25">AO5/AH5*2</f>
+        <f t="shared" ref="AP5:AP14" si="26">AO5/AH5*2</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="95"/>
       <c r="AR5" s="127">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AS5" s="127">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="AS5" s="127">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="AU5" s="95"/>
       <c r="AV5" s="128">
-        <f t="shared" ref="AV5:AV14" si="26">$W$31/$W$30</f>
+        <f t="shared" ref="AV5:AV14" si="27">$W$31/$W$30</f>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW5" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>28</v>
       </c>
       <c r="B6" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1388888888888888</v>
       </c>
       <c r="C6" s="140">
@@ -20219,23 +20732,23 @@
         <v>25</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>306.74846625766872</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>148.36795252225519</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18404.907975460123</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8902.077151335312</v>
       </c>
       <c r="Q6" s="3">
@@ -20259,11 +20772,11 @@
         <v>2.7329491951200002E-2</v>
       </c>
       <c r="V6" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.7987073838718312E-3</v>
       </c>
       <c r="W6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.118648839285181E-7</v>
       </c>
       <c r="AB6" s="97"/>
@@ -20280,7 +20793,7 @@
         <v>17348.876248230645</v>
       </c>
       <c r="AI6" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37.649471024806083</v>
       </c>
       <c r="AJ6" s="96">
@@ -20291,51 +20804,57 @@
         <f t="shared" si="11"/>
         <v>37.845162937616266</v>
       </c>
+      <c r="AL6">
+        <f>AM6/$AD$31</f>
+        <v>16.138467712878235</v>
+      </c>
       <c r="AM6">
         <f>MAX($AD$36+$AE$36*AH6, 0)</f>
         <v>7436.6059220942916</v>
       </c>
       <c r="AN6" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4843385324309564E-2</v>
       </c>
       <c r="AO6" s="127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.4935163873351426E-3</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.1801814976845215E-7</v>
       </c>
       <c r="AQ6" s="95">
-        <f t="shared" ref="AQ6:AQ13" si="27">$W$34/AP6</f>
-        <v>8.6869543123372139E-2</v>
+        <f t="shared" ref="AQ6:AQ13" si="28">$W$34/AP6</f>
+        <v>5.7913028748914755E-2</v>
       </c>
       <c r="AR6" s="127">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AS6" s="127">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AT6">
-        <f t="shared" ref="AT6:AT8" si="28">AS6/AM6*2</f>
+      <c r="AS6" s="127">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU6" s="95"/>
+      <c r="AT6" s="142">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="AU6" s="95">
+        <f t="shared" ref="AU6:AU13" si="29">$W$34/AT6</f>
+        <v>0.15</v>
+      </c>
       <c r="AV6" s="128">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>140.36831132451306</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C7" s="73">
@@ -20360,7 +20879,7 @@
         <v>6.04</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J13" si="29">E7*F7</f>
+        <f t="shared" ref="J7:J13" si="30">E7*F7</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K7" s="1">
@@ -20368,23 +20887,23 @@
         <v>35</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>373.13432835820896</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>220.65313327449252</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22388.059701492537</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13239.187996469551</v>
       </c>
       <c r="Q7" s="3">
@@ -20404,31 +20923,31 @@
         <v>29.981099999999998</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U14" si="30">T7*0.001341022</f>
+        <f t="shared" ref="U7:U14" si="31">T7*0.001341022</f>
         <v>4.0205314684200001E-2</v>
       </c>
       <c r="V7" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.4317379682233565E-3</v>
       </c>
       <c r="W7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.106421479569883E-7</v>
       </c>
       <c r="X7">
-        <v>0.18</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y7:Y12" si="31">-X7*W7</f>
-        <v>3.7915586632257891E-8</v>
+        <f t="shared" ref="Y7:Y12" si="32">-X7*W7</f>
+        <v>1.3691739617204239E-8</v>
       </c>
       <c r="Z7">
-        <f t="shared" ref="Z7:Z12" si="32">Y7/6.66*2048.5</f>
-        <v>1.1662174056483527E-5</v>
+        <f t="shared" ref="Z7:Z12" si="33">Y7/6.66*2048.5</f>
+        <v>4.2113406315079406E-6</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA7:AA12" si="33">Z7*144</f>
-        <v>1.6793530641336278E-3</v>
+        <f t="shared" ref="AA7:AA12" si="34">Z7*144</f>
+        <v>6.0643305093714347E-4</v>
       </c>
       <c r="AB7" s="97"/>
       <c r="AF7" s="95">
@@ -20444,7 +20963,7 @@
         <v>22123.420807632323</v>
       </c>
       <c r="AI7" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.010895849896535</v>
       </c>
       <c r="AJ7" s="96">
@@ -20455,51 +20974,57 @@
         <f t="shared" si="11"/>
         <v>48.121500315323402</v>
       </c>
+      <c r="AL7">
+        <f t="shared" ref="AL7:AL14" si="35">AM7/$AD$31</f>
+        <v>26.777112036937371</v>
+      </c>
       <c r="AM7">
-        <f t="shared" ref="AM7:AM14" si="34">MAX($AD$36+$AE$36*AH7, 0)</f>
+        <f t="shared" ref="AM7:AM14" si="36">MAX($AD$36+$AE$36*AH7, 0)</f>
         <v>12338.893226620741</v>
       </c>
       <c r="AN7" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.8056725878256127E-2</v>
       </c>
       <c r="AO7" s="127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.0344945318604156E-3</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.1673576707844562E-7</v>
       </c>
       <c r="AQ7" s="95">
-        <f t="shared" si="27"/>
-        <v>5.5097378875630716E-2</v>
+        <f t="shared" si="28"/>
+        <v>3.6731585917087139E-2</v>
       </c>
       <c r="AR7" s="127">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AS7" s="127">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AT7">
-        <f t="shared" si="28"/>
+      <c r="AS7" s="127">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU7" s="95"/>
+      <c r="AT7" s="142">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="AU7" s="95">
+        <f t="shared" si="29"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="AV7" s="128">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>89.02920118038908</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3</v>
       </c>
       <c r="C8" s="73">
@@ -20524,7 +21049,7 @@
         <v>8.24</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>53.526600000000002</v>
       </c>
       <c r="K8" s="1">
@@ -20532,23 +21057,23 @@
         <v>54</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.9889840465642745</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>465.11627906976747</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>314.46540880503147</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27906.976744186049</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18867.92452830189</v>
       </c>
       <c r="Q8" s="3">
@@ -20568,31 +21093,31 @@
         <v>53.526600000000002</v>
       </c>
       <c r="U8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.1780348185200002E-2</v>
       </c>
       <c r="V8" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3508822260627353E-2</v>
       </c>
       <c r="W8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.4203306550290671E-7</v>
       </c>
       <c r="X8">
-        <v>0.18</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="31"/>
-        <v>4.3565951790523206E-8</v>
+        <f t="shared" si="32"/>
+        <v>1.3311818602659869E-8</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="32"/>
-        <v>1.3400127964397415E-5</v>
+        <f t="shared" si="33"/>
+        <v>4.0944835446769885E-6</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="33"/>
-        <v>1.9296184268732279E-3</v>
+        <f t="shared" si="34"/>
+        <v>5.8960563043348633E-4</v>
       </c>
       <c r="AB8" s="97"/>
       <c r="AF8" s="95">
@@ -20608,7 +21133,7 @@
         <v>28276.719974572956</v>
       </c>
       <c r="AI8" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>61.364409667042004</v>
       </c>
       <c r="AJ8" s="96">
@@ -20619,12 +21144,16 @@
         <f t="shared" si="11"/>
         <v>61.365355815830107</v>
       </c>
+      <c r="AL8">
+        <f t="shared" si="35"/>
+        <v>40.487898572106765</v>
+      </c>
       <c r="AM8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>18656.823662026796</v>
       </c>
       <c r="AN8" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.0150286593492603E-2</v>
       </c>
       <c r="AO8" s="127">
@@ -20632,44 +21161,44 @@
         <v>1.488677985167834E-2</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0529354087082843E-6</v>
       </c>
       <c r="AQ8" s="95">
+        <f t="shared" si="28"/>
+        <v>2.8491776182931555E-2</v>
+      </c>
+      <c r="AR8" s="127">
+        <f t="shared" si="16"/>
+        <v>2.0381408268167943E-2</v>
+      </c>
+      <c r="AS8" s="127">
+        <f t="shared" si="17"/>
+        <v>5.7374801929595621E-3</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ref="AT6:AT8" si="37">AS8/AM8*2</f>
+        <v>6.1505434117784517E-7</v>
+      </c>
+      <c r="AU8" s="95">
+        <f t="shared" si="29"/>
+        <v>4.8776177959412838E-2</v>
+      </c>
+      <c r="AV8" s="128">
         <f t="shared" si="27"/>
-        <v>4.2737664274397333E-2</v>
-      </c>
-      <c r="AR8" s="127">
-        <f t="shared" si="15"/>
-        <v>2.0381408268167943E-2</v>
-      </c>
-      <c r="AS8" s="127">
-        <f t="shared" si="16"/>
-        <v>5.7374801929595621E-3</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="28"/>
-        <v>6.1505434117784517E-7</v>
-      </c>
-      <c r="AU8" s="95">
-        <f t="shared" ref="AU8:AU13" si="35">$W$34/AT8</f>
-        <v>7.316426693911926E-2</v>
-      </c>
-      <c r="AV8" s="128">
-        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>69.057733567578751</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>64</v>
       </c>
       <c r="B9" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C9" s="140">
@@ -20694,7 +21223,7 @@
         <v>9</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>62.419400000000003</v>
       </c>
       <c r="K9" s="1">
@@ -20702,23 +21231,23 @@
         <v>64</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>348.43205574912895</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29702.970297029704</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20905.923344947736</v>
       </c>
       <c r="Q9" s="3">
@@ -20738,31 +21267,31 @@
         <v>62.419400000000003</v>
       </c>
       <c r="U9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.3705788626800004E-2</v>
       </c>
       <c r="V9" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.4800634329554439E-2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.4914401121416636E-7</v>
       </c>
       <c r="X9">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="31"/>
-        <v>4.484592201854994E-8</v>
+        <f t="shared" si="32"/>
+        <v>1.2457200560708318E-8</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="32"/>
-        <v>1.3793824512762695E-5</v>
+        <f t="shared" si="33"/>
+        <v>3.8316179202118604E-6</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="33"/>
-        <v>1.986310729837828E-3</v>
+        <f t="shared" si="34"/>
+        <v>5.5175298051050794E-4</v>
       </c>
       <c r="AB9" s="97"/>
       <c r="AF9" s="95"/>
@@ -20774,7 +21303,7 @@
         <v>31999.995048805355</v>
       </c>
       <c r="AI9" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>69.444433699664401</v>
       </c>
       <c r="AJ9" s="135">
@@ -20785,33 +21314,36 @@
         <f t="shared" si="11"/>
         <v>69.37902713815086</v>
       </c>
-      <c r="AL9" s="136"/>
+      <c r="AL9" s="136">
+        <f t="shared" si="35"/>
+        <v>48.784103318462122</v>
+      </c>
       <c r="AM9" s="136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>22479.714809147346</v>
       </c>
       <c r="AN9" s="137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11227974297099894</v>
       </c>
       <c r="AO9" s="137">
-        <f t="shared" ref="AO9:AO14" si="36">AN9/AH9*5252</f>
+        <f t="shared" ref="AO9:AO14" si="38">AN9/AH9*5252</f>
         <v>1.8427915666371371E-2</v>
       </c>
       <c r="AP9" s="136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1517449073517487E-6</v>
       </c>
       <c r="AQ9" s="134">
-        <f t="shared" si="27"/>
-        <v>3.9071151704477884E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.6047434469651919E-2</v>
       </c>
       <c r="AR9" s="137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.0120037327949339E-2</v>
       </c>
       <c r="AS9" s="137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.373358952073918E-3</v>
       </c>
       <c r="AT9" s="136">
@@ -20819,21 +21351,21 @@
         <v>8.3393931210014752E-7</v>
       </c>
       <c r="AU9" s="134">
-        <f t="shared" si="35"/>
-        <v>5.3960761109431862E-2</v>
+        <f t="shared" si="29"/>
+        <v>3.5973840739621239E-2</v>
       </c>
       <c r="AV9" s="138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW9" s="136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>63.133192475440495</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C10" s="73">
@@ -20858,7 +21390,7 @@
         <v>10.8</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K10" s="1">
@@ -20866,23 +21398,23 @@
         <v>89</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>564.9717514124294</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>416.66666666666669</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33898.305084745763</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25000</v>
       </c>
       <c r="Q10" s="3">
@@ -20902,31 +21434,31 @@
         <v>88.904499999999999</v>
       </c>
       <c r="U10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.11922289039900001</v>
       </c>
       <c r="V10" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8471679301078667E-2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.7245726969091031E-7</v>
       </c>
       <c r="X10">
-        <v>0.18</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="31"/>
-        <v>4.9042308544363851E-8</v>
+        <f t="shared" si="32"/>
+        <v>7.9012608210363986E-9</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="32"/>
-        <v>1.508455991788729E-5</v>
+        <f t="shared" si="33"/>
+        <v>2.4302902089929521E-6</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="33"/>
-        <v>2.1721766281757697E-3</v>
+        <f t="shared" si="34"/>
+        <v>3.4996179009498508E-4</v>
       </c>
       <c r="AB10" s="97"/>
       <c r="AF10" s="95">
@@ -20942,7 +21474,7 @@
         <v>35366.791670025093</v>
       </c>
       <c r="AI10" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>76.75084997835306</v>
       </c>
       <c r="AJ10" s="96">
@@ -20953,54 +21485,58 @@
         <f t="shared" si="11"/>
         <v>76.625443530610752</v>
       </c>
+      <c r="AL10">
+        <f t="shared" si="35"/>
+        <v>56.286002466951672</v>
+      </c>
       <c r="AM10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>25936.589936771332</v>
       </c>
       <c r="AN10" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14565577213038161</v>
       </c>
       <c r="AO10" s="127">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.1630011632554215E-2</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.2231820083859401E-6</v>
       </c>
       <c r="AQ10" s="95">
+        <f t="shared" si="28"/>
+        <v>2.4526194625431701E-2</v>
+      </c>
+      <c r="AR10" s="127">
+        <f t="shared" si="16"/>
+        <v>6.252598165345484E-2</v>
+      </c>
+      <c r="AS10" s="127">
+        <f t="shared" si="17"/>
+        <v>1.2661126865347027E-2</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" ref="AT10:AT14" si="39">AS10/AM10*2</f>
+        <v>9.7631391761311258E-7</v>
+      </c>
+      <c r="AU10" s="95">
+        <f t="shared" si="29"/>
+        <v>3.0727821716752587E-2</v>
+      </c>
+      <c r="AV10" s="128">
         <f t="shared" si="27"/>
-        <v>3.6789291938147554E-2</v>
-      </c>
-      <c r="AR10" s="127">
-        <f t="shared" si="15"/>
-        <v>6.252598165345484E-2</v>
-      </c>
-      <c r="AS10" s="127">
-        <f t="shared" si="16"/>
-        <v>1.2661126865347027E-2</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" ref="AT10:AT14" si="37">AS10/AM10*2</f>
-        <v>9.7631391761311258E-7</v>
-      </c>
-      <c r="AU10" s="95">
-        <f t="shared" si="35"/>
-        <v>4.6091732575128885E-2</v>
-      </c>
-      <c r="AV10" s="128">
-        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>59.446045167387481</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.6944444444444444</v>
       </c>
       <c r="C11" s="73">
@@ -21025,7 +21561,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>135.96</v>
       </c>
       <c r="K11" s="1">
@@ -21033,23 +21569,23 @@
         <v>125</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.8283137373023015</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>657.89473684210532</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>500.00000000000006</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39473.68421052632</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30000.000000000004</v>
       </c>
       <c r="Q11" s="3">
@@ -21069,31 +21605,31 @@
         <v>135.96</v>
       </c>
       <c r="U11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.18232535112000003</v>
       </c>
       <c r="V11" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4258509516750081E-2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.072744538788343E-7</v>
       </c>
       <c r="X11">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="31"/>
-        <v>4.3018423543036807E-8</v>
+        <f t="shared" si="32"/>
+        <v>6.1454890775766864E-9</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="32"/>
-        <v>1.3231717811998633E-5</v>
+        <f t="shared" si="33"/>
+        <v>1.8902454017140905E-6</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="33"/>
-        <v>1.9053673649278033E-3</v>
+        <f t="shared" si="34"/>
+        <v>2.7219533784682905E-4</v>
       </c>
       <c r="AB11" s="97"/>
       <c r="AF11" s="95">
@@ -21109,7 +21645,7 @@
         <v>40186.817071139434</v>
       </c>
       <c r="AI11" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>87.210974546743557</v>
       </c>
       <c r="AJ11" s="96">
@@ -21120,54 +21656,58 @@
         <f t="shared" si="11"/>
         <v>86.999670134786854</v>
       </c>
+      <c r="AL11">
+        <f t="shared" si="35"/>
+        <v>67.025987241920845</v>
+      </c>
       <c r="AM11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>30885.574921077128</v>
       </c>
       <c r="AN11" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20058398668919561</v>
       </c>
       <c r="AO11" s="127">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.621424573702338E-2</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.3046191585971313E-6</v>
       </c>
       <c r="AQ11" s="95">
+        <f t="shared" si="28"/>
+        <v>2.2995216498475513E-2</v>
+      </c>
+      <c r="AR11" s="127">
+        <f t="shared" si="16"/>
+        <v>0.10213652605116302</v>
+      </c>
+      <c r="AS11" s="127">
+        <f t="shared" si="17"/>
+        <v>1.7368011966474368E-2</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="39"/>
+        <v>1.1246681993685008E-6</v>
+      </c>
+      <c r="AU11" s="95">
+        <f t="shared" si="29"/>
+        <v>2.6674533890835489E-2</v>
+      </c>
+      <c r="AV11" s="128">
         <f t="shared" si="27"/>
-        <v>3.4492824747713272E-2</v>
-      </c>
-      <c r="AR11" s="127">
-        <f t="shared" si="15"/>
-        <v>0.10213652605116302</v>
-      </c>
-      <c r="AS11" s="127">
-        <f t="shared" si="16"/>
-        <v>1.7368011966474368E-2</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="37"/>
-        <v>1.1246681993685008E-6</v>
-      </c>
-      <c r="AU11" s="95">
-        <f t="shared" si="35"/>
-        <v>4.0011800836253233E-2</v>
-      </c>
-      <c r="AV11" s="128">
-        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>55.735294426179998</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8611111111111112</v>
       </c>
       <c r="C12" s="73">
@@ -21192,7 +21732,7 @@
         <v>15.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>192.75</v>
       </c>
       <c r="K12" s="1">
@@ -21200,23 +21740,23 @@
         <v>155</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0434251169192468</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>733.13782991202345</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>574.71264367816093</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>43988.269794721404</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34482.758620689652</v>
       </c>
       <c r="Q12" s="3">
@@ -21236,30 +21776,30 @@
         <v>192.75</v>
       </c>
       <c r="U12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.25848199050000004</v>
       </c>
       <c r="V12" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.0861577880676404E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.5079326857702185E-7</v>
       </c>
       <c r="X12">
         <v>0.14000000000000001</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.9111057600783063E-8</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.5105705930210826E-5</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.1752216539503589E-3</v>
       </c>
       <c r="AB12" s="97"/>
@@ -21276,7 +21816,7 @@
         <v>43239.249799405501</v>
       </c>
       <c r="AI12" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>93.835177516070971</v>
       </c>
       <c r="AJ12" s="96">
@@ -21287,54 +21827,58 @@
         <f t="shared" si="11"/>
         <v>93.569475515836231</v>
       </c>
+      <c r="AL12">
+        <f t="shared" si="35"/>
+        <v>73.827420491757252</v>
+      </c>
       <c r="AM12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>34019.675362601745</v>
       </c>
       <c r="AN12" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.23972060902426137</v>
       </c>
       <c r="AO12" s="127">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.911735620844955E-2</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.3468020996446561E-6</v>
       </c>
       <c r="AQ12" s="95">
+        <f t="shared" si="28"/>
+        <v>2.2274987548590308E-2</v>
+      </c>
+      <c r="AR12" s="127">
+        <f t="shared" si="16"/>
+        <v>0.13180872073302369</v>
+      </c>
+      <c r="AS12" s="127">
+        <f t="shared" si="17"/>
+        <v>2.0348795040262196E-2</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="39"/>
+        <v>1.1962956626347987E-6</v>
+      </c>
+      <c r="AU12" s="95">
+        <f t="shared" si="29"/>
+        <v>2.50774126639614E-2</v>
+      </c>
+      <c r="AV12" s="128">
         <f t="shared" si="27"/>
-        <v>3.3412481322885462E-2</v>
-      </c>
-      <c r="AR12" s="127">
-        <f t="shared" si="15"/>
-        <v>0.13180872073302369</v>
-      </c>
-      <c r="AS12" s="127">
-        <f t="shared" si="16"/>
-        <v>2.0348795040262196E-2</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="37"/>
-        <v>1.1962956626347987E-6</v>
-      </c>
-      <c r="AU12" s="95">
-        <f t="shared" si="35"/>
-        <v>3.7616118995942104E-2</v>
-      </c>
-      <c r="AV12" s="128">
-        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>53.989619512496461</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C13" s="73">
@@ -21359,7 +21903,7 @@
         <v>17.2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>209.1</v>
       </c>
       <c r="K13" s="1">
@@ -21367,23 +21911,23 @@
         <v>165</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>759.87841945288756</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>595.2380952380953</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45592.705167173255</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35714.285714285717</v>
       </c>
       <c r="Q13" s="3">
@@ -21403,15 +21947,15 @@
         <v>209.1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.2804077002</v>
       </c>
       <c r="V13" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.2301247229145437E-2</v>
       </c>
       <c r="W13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-3.5423701127962827E-7</v>
       </c>
       <c r="AB13" s="97"/>
@@ -21428,7 +21972,7 @@
         <v>44126.414319351083</v>
       </c>
       <c r="AI13" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>95.760447741647312</v>
       </c>
       <c r="AJ13" s="96">
@@ -21439,54 +21983,58 @@
         <f t="shared" si="11"/>
         <v>95.478935528842101</v>
       </c>
+      <c r="AL13">
+        <f t="shared" si="35"/>
+        <v>75.804201243764425</v>
+      </c>
       <c r="AM13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>34930.575933126645</v>
       </c>
       <c r="AN13" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2517282669713366</v>
       </c>
       <c r="AO13" s="127">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.996112143999155E-2</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.3579676437408819E-6</v>
       </c>
       <c r="AQ13" s="95">
+        <f t="shared" si="28"/>
+        <v>2.2091837120181333E-2</v>
+      </c>
+      <c r="AR13" s="127">
+        <f t="shared" si="16"/>
+        <v>0.14109994101360976</v>
+      </c>
+      <c r="AS13" s="127">
+        <f t="shared" si="17"/>
+        <v>2.1215135176190787E-2</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="39"/>
+        <v>1.2147028561342026E-6</v>
+      </c>
+      <c r="AU13" s="95">
+        <f t="shared" si="29"/>
+        <v>2.4697398090817977E-2</v>
+      </c>
+      <c r="AV13" s="128">
         <f t="shared" si="27"/>
-        <v>3.3137755680272003E-2</v>
-      </c>
-      <c r="AR13" s="127">
-        <f t="shared" si="15"/>
-        <v>0.14109994101360976</v>
-      </c>
-      <c r="AS13" s="127">
-        <f t="shared" si="16"/>
-        <v>2.1215135176190787E-2</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="37"/>
-        <v>1.2147028561342026E-6</v>
-      </c>
-      <c r="AU13" s="95">
-        <f t="shared" si="35"/>
-        <v>3.7046097136226967E-2</v>
-      </c>
-      <c r="AV13" s="128">
-        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>53.545703576661204</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="116">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="C14" s="117">
@@ -21503,7 +22051,7 @@
         <v>180</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1929568508902104</v>
       </c>
       <c r="O14" s="3">
@@ -21531,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB14" s="97"/>
@@ -21548,7 +22096,7 @@
         <v>45361.106669554021</v>
       </c>
       <c r="AI14" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>98.439901626636328</v>
       </c>
       <c r="AJ14" s="96">
@@ -21559,47 +22107,51 @@
         <f t="shared" si="11"/>
         <v>98.136385886777347</v>
       </c>
+      <c r="AL14">
+        <f t="shared" si="35"/>
+        <v>78.555343808258939</v>
+      </c>
       <c r="AM14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>36198.302426845723</v>
       </c>
       <c r="AN14" s="127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.26891409453189768</v>
       </c>
       <c r="AO14" s="127">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.1135413753683283E-2</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.3727801651973849E-6</v>
       </c>
       <c r="AR14" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15453095028269717</v>
       </c>
       <c r="AS14" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2420845632883098E-2</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.2387788448474391E-6</v>
       </c>
       <c r="AV14" s="128">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>52.967936718397489</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.05</v>
       </c>
       <c r="C16" s="73">
@@ -21618,71 +22170,74 @@
       <c r="H16" s="119"/>
       <c r="I16" s="119"/>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J24" si="38">E16*F16</f>
+        <f t="shared" ref="J16:J24" si="40">E16*F16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K24" si="39">C16</f>
+        <f t="shared" ref="K16:K24" si="41">C16</f>
         <v>9</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:L24" si="40">LN(K16)</f>
+        <f t="shared" ref="L16:L24" si="42">LN(K16)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ref="M16:M24" si="41">1/G16/0.000001</f>
+        <f t="shared" ref="M16:M24" si="43">1/G16/0.000001</f>
         <v>162.33766233766235</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3">
-        <f t="shared" ref="O16:O24" si="42">M16*60/$W$27</f>
+        <f t="shared" ref="O16:O24" si="44">M16*60/$W$27</f>
         <v>9740.2597402597403</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16:Q24" si="43">O16/$W$40*100</f>
+        <f t="shared" ref="Q16:Q24" si="45">O16/$W$40*100</f>
         <v>21.137716450216452</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
-        <f t="shared" ref="S16:S24" si="44">K16</f>
+        <f t="shared" ref="S16:S24" si="46">K16</f>
         <v>9</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16:T24" si="45">J16</f>
+        <f t="shared" ref="T16:T24" si="47">J16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U24" si="46">T16*0.001341022</f>
+        <f t="shared" ref="U16:U24" si="48">T16*0.001341022</f>
         <v>7.8465879264000005E-3</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:V24" si="47">U16/O16*5252</f>
+        <f t="shared" ref="V16:V24" si="49">U16/O16*5252</f>
         <v>4.230922058383821E-3</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W24" si="48">-V16/2/O16</f>
+        <f t="shared" ref="W16:W24" si="50">-V16/2/O16</f>
         <v>-2.1718733233036949E-7</v>
       </c>
       <c r="X16">
         <v>0.18</v>
       </c>
       <c r="Y16">
-        <f t="shared" ref="Y16:Y24" si="49">-X16*W16</f>
+        <f t="shared" ref="Y16:Y24" si="51">-X16*W16</f>
         <v>3.9093719819466504E-8</v>
       </c>
       <c r="Z16">
-        <f t="shared" ref="Z16:Z24" si="50">Y16/6.66*2048.5</f>
+        <f t="shared" ref="Z16:Z24" si="52">Y16/6.66*2048.5</f>
         <v>1.2024547304831401E-5</v>
       </c>
       <c r="AA16">
-        <f t="shared" ref="AA16:AA24" si="51">Z16*144</f>
+        <f t="shared" ref="AA16:AA24" si="53">Z16*144</f>
         <v>1.7315348118957217E-3</v>
       </c>
+      <c r="AZ16" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C17" s="73">
@@ -21701,71 +22256,77 @@
       <c r="H17" s="119"/>
       <c r="I17" s="119"/>
       <c r="J17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.5649493574615367</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>196.85039370078741</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>11811.023622047245</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>25.631561679790028</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>13</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="U17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0455948534E-2</v>
       </c>
       <c r="V17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4.6494396639814237E-3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1.9682627910854693E-7</v>
       </c>
       <c r="X17">
         <v>0.18</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3.5428730239538448E-8</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0897260344698876E-5</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.569205489636638E-3</v>
       </c>
+      <c r="AZ17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1444444444444444</v>
       </c>
       <c r="C18" s="73">
@@ -21784,71 +22345,77 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
       <c r="J18" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>18.150000000000002</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>26</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.2580965380214821</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>314.46540880503147</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>18867.92452830189</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>40.946016771488473</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>26</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>18.150000000000002</v>
       </c>
       <c r="U18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.4339549300000006E-2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6.7750595849508004E-3</v>
       </c>
       <c r="W18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1.7953907900119617E-7</v>
       </c>
       <c r="X18">
         <v>0.18</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3.2317034220215307E-8</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9401568468635218E-6</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.4313825859483471E-3</v>
       </c>
+      <c r="AZ18">
+        <v>20</v>
+      </c>
+      <c r="BA18">
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.2</v>
       </c>
       <c r="C19" s="73">
@@ -21867,71 +22434,77 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
       <c r="J19" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>28.516800000000003</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>36</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.5835189384561099</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>22641.509433962266</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>49.135220125786169</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>36</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>28.516800000000003</v>
       </c>
       <c r="U19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3.8241656169600007E-2</v>
       </c>
       <c r="V19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8.8706620372876483E-3</v>
       </c>
       <c r="W19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-1.9589378665676887E-7</v>
       </c>
       <c r="X19">
         <v>0.18</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3.5260881598218394E-8</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0845633026118675E-5</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.5617711557610891E-3</v>
       </c>
+      <c r="AZ19">
+        <v>25</v>
+      </c>
+      <c r="BA19">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="C20" s="73">
@@ -21950,71 +22523,77 @@
       <c r="H20" s="119"/>
       <c r="I20" s="119"/>
       <c r="J20" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>51.68</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>56</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.0253516907351496</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>483.09178743961354</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28985.507246376812</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>62.902576489533011</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>56</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>51.68</v>
       </c>
       <c r="U20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6.9304016960000006E-2</v>
       </c>
       <c r="V20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.255747204905024E-2</v>
       </c>
       <c r="W20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2.1661639284611662E-7</v>
       </c>
       <c r="X20">
         <v>0.18</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3.8990950712300994E-8</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.1992937317439727E-5</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.7269829737113207E-3</v>
       </c>
+      <c r="AZ20">
+        <v>36</v>
+      </c>
+      <c r="BA20">
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C21" s="73">
@@ -22033,71 +22612,77 @@
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>59.349000000000004</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>64</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500.00000000000006</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>30000.000000000004</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>65.104166666666671</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>64</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>59.349000000000004</v>
       </c>
       <c r="U21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7.9588314678000011E-2</v>
       </c>
       <c r="V21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.39332609562952E-2</v>
       </c>
       <c r="W21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2.3222101593825331E-7</v>
       </c>
       <c r="X21">
         <v>0.18</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4.1799782868885597E-8</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.2856885166203024E-5</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.8513914639332356E-3</v>
       </c>
+      <c r="AZ21">
+        <v>45</v>
+      </c>
+      <c r="BA21">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C22" s="73">
@@ -22116,71 +22701,77 @@
       <c r="H22" s="119"/>
       <c r="I22" s="119"/>
       <c r="J22" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>84.545999999999992</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>89</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>568.18181818181813</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>34090.909090909088</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>73.982007575757564</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>89</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>84.545999999999992</v>
       </c>
       <c r="U22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.11337804601199999</v>
       </c>
       <c r="V22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.7466870597880702E-2</v>
       </c>
       <c r="W22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2.5618076876891696E-7</v>
       </c>
       <c r="X22">
         <v>0.18</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4.611253837840505E-8</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.4183413643868279E-5</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2.0424115647170323E-3</v>
       </c>
+      <c r="AZ22">
+        <v>50</v>
+      </c>
+      <c r="BA22">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.7944444444444443</v>
       </c>
       <c r="C23" s="73">
@@ -22199,65 +22790,65 @@
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="J23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>153.26999999999998</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>143</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.962844630259907</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>699.30069930069931</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>41958.041958041955</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>91.054778554778551</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>143</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>153.26999999999998</v>
       </c>
       <c r="U23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.20553844193999998</v>
       </c>
       <c r="V23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.5727794880141638E-2</v>
       </c>
       <c r="W23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-3.0658955565502124E-7</v>
       </c>
       <c r="X23">
         <v>0.18</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5.5186120017903822E-8</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.6974289317819214E-5</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2.4442976617659669E-3</v>
       </c>
       <c r="AB23" s="97"/>
@@ -22265,10 +22856,16 @@
       <c r="AD23" s="97"/>
       <c r="AE23" s="97"/>
       <c r="AF23" s="97"/>
+      <c r="AZ23">
+        <v>52</v>
+      </c>
+      <c r="BA23">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C24" s="73">
@@ -22287,69 +22884,75 @@
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
       <c r="J24" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>214.45920000000001</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>165</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>781.25000000000011</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>46875.000000000007</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>101.72526041666667</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>165</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>214.45920000000001</v>
       </c>
       <c r="U24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.28759450530240005</v>
       </c>
       <c r="V24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>3.2222855292761705E-2</v>
       </c>
       <c r="W24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-3.4371045645612482E-7</v>
       </c>
       <c r="X24">
         <v>0.18</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>6.1867882162102469E-8</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.9029482974334368E-5</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2.7402455483041491E-3</v>
       </c>
+      <c r="AZ24">
+        <v>55</v>
+      </c>
+      <c r="BA24">
+        <v>2.9000000000000001E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -22367,8 +22970,14 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="4"/>
+      <c r="AZ25">
+        <v>62</v>
+      </c>
+      <c r="BA25">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -22400,7 +23009,7 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -22445,7 +23054,7 @@
       <c r="AE27" s="64"/>
       <c r="AF27" s="29"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="13" t="s">
         <v>42</v>
@@ -22492,7 +23101,7 @@
       <c r="AE28" s="45"/>
       <c r="AF28" s="31"/>
     </row>
-    <row r="29" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="15" t="s">
         <v>43</v>
@@ -22536,7 +23145,7 @@
       <c r="AE29" s="30"/>
       <c r="AF29" s="31"/>
     </row>
-    <row r="30" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -22574,7 +23183,7 @@
       <c r="AE30" s="30"/>
       <c r="AF30" s="31"/>
     </row>
-    <row r="31" spans="1:32" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:53" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -22614,7 +23223,7 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="31"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -22711,7 +23320,8 @@
         <v>100</v>
       </c>
       <c r="W34" s="133">
-        <v>4.4999999999999999E-8</v>
+        <f>0.000000045/1.5</f>
+        <v>2.9999999999999997E-8</v>
       </c>
       <c r="X34" t="s">
         <v>101</v>
@@ -22989,11 +23599,11 @@
         <v>90</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:C48" si="52">B43/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C43:C48" si="54">B43/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
       <c r="D43" s="88">
-        <f t="shared" ref="D43:D48" si="53">(C43-1)*180</f>
+        <f t="shared" ref="D43:D48" si="55">(C43-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E43" s="6"/>
@@ -23029,11 +23639,11 @@
         <v>100</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.568888888888889</v>
       </c>
       <c r="D44" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E44" s="6"/>
@@ -23077,11 +23687,11 @@
         <v>110</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.6727777777777779</v>
       </c>
       <c r="D45" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E45" s="6"/>
@@ -23119,11 +23729,11 @@
         <v>114</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.7143333333333333</v>
       </c>
       <c r="D46" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>128.57999999999998</v>
       </c>
       <c r="V46" s="19"/>
@@ -23148,11 +23758,11 @@
         <v>127.5</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.8545833333333333</v>
       </c>
       <c r="D47" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>153.82499999999999</v>
       </c>
       <c r="V47" s="19"/>
@@ -23169,11 +23779,11 @@
         <v>136.4</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.9470444444444444</v>
       </c>
       <c r="D48" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>170.46799999999999</v>
       </c>
       <c r="V48" s="21"/>

--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -1376,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214647088"/>
-        <c:axId val="214645128"/>
+        <c:axId val="189887696"/>
+        <c:axId val="189884168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214647088"/>
+        <c:axId val="189887696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +1437,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214645128"/>
+        <c:crossAx val="189884168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214645128"/>
+        <c:axId val="189884168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214647088"/>
+        <c:crossAx val="189887696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2045,11 +2045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217360216"/>
-        <c:axId val="217360608"/>
+        <c:axId val="193533720"/>
+        <c:axId val="193530976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217360216"/>
+        <c:axId val="193533720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,12 +2106,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217360608"/>
+        <c:crossAx val="193530976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217360608"/>
+        <c:axId val="193530976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217360216"/>
+        <c:crossAx val="193533720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2441,11 +2441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="567492960"/>
-        <c:axId val="567490216"/>
+        <c:axId val="193534504"/>
+        <c:axId val="191804568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="567492960"/>
+        <c:axId val="193534504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,12 +2502,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567490216"/>
+        <c:crossAx val="191804568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567490216"/>
+        <c:axId val="191804568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,7 +2564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567492960"/>
+        <c:crossAx val="193534504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2749,28 +2749,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.8124094171529751</c:v>
+                  <c:v>0.60930706286473135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1988214247099786</c:v>
+                  <c:v>0.14911606853248396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13645917864976709</c:v>
+                  <c:v>0.10234438398732533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10630735202119303</c:v>
+                  <c:v>7.9730514015894774E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0760279898029766E-2</c:v>
+                  <c:v>6.0570209923522328E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0093094531430672E-2</c:v>
+                  <c:v>5.2569820898573004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.750175020744914E-2</c:v>
+                  <c:v>5.0626312655586855E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4198587586128286E-2</c:v>
+                  <c:v>4.8148940689596222E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,11 +2785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561920000"/>
-        <c:axId val="561918824"/>
+        <c:axId val="191801040"/>
+        <c:axId val="191803784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561920000"/>
+        <c:axId val="191801040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,12 +2846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561918824"/>
+        <c:crossAx val="191803784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561918824"/>
+        <c:axId val="191803784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561920000"/>
+        <c:crossAx val="191801040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3199,11 +3199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217796576"/>
-        <c:axId val="217796968"/>
+        <c:axId val="191799864"/>
+        <c:axId val="191801432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217796576"/>
+        <c:axId val="191799864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,12 +3260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217796968"/>
+        <c:crossAx val="191801432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217796968"/>
+        <c:axId val="191801432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3322,7 +3322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217796576"/>
+        <c:crossAx val="191799864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3620,8 +3620,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217793832"/>
-        <c:axId val="217794616"/>
+        <c:axId val="191803392"/>
+        <c:axId val="191804176"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3802,11 +3802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217794224"/>
-        <c:axId val="217795008"/>
+        <c:axId val="191800648"/>
+        <c:axId val="191802216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217793832"/>
+        <c:axId val="191803392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -3925,13 +3925,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217794616"/>
+        <c:crossAx val="191804176"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217794616"/>
+        <c:axId val="191804176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4045,12 +4045,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217793832"/>
+        <c:crossAx val="191803392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217795008"/>
+        <c:axId val="191802216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -4150,13 +4150,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217794224"/>
+        <c:crossAx val="191800648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217794224"/>
+        <c:axId val="191800648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217795008"/>
+        <c:crossAx val="191802216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4433,11 +4433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217797360"/>
-        <c:axId val="217797752"/>
+        <c:axId val="191805744"/>
+        <c:axId val="191799472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217797360"/>
+        <c:axId val="191805744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4467,12 +4467,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217797752"/>
+        <c:crossAx val="191799472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217797752"/>
+        <c:axId val="191799472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,7 +4501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217797360"/>
+        <c:crossAx val="191805744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4948,11 +4948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217796184"/>
-        <c:axId val="217801280"/>
+        <c:axId val="191806528"/>
+        <c:axId val="191800256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217796184"/>
+        <c:axId val="191806528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,12 +5058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217801280"/>
+        <c:crossAx val="191800256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217801280"/>
+        <c:axId val="191800256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5115,7 +5115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217796184"/>
+        <c:crossAx val="191806528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5340,11 +5340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217798536"/>
-        <c:axId val="217798928"/>
+        <c:axId val="547371304"/>
+        <c:axId val="547367384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217798536"/>
+        <c:axId val="547371304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,12 +5354,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217798928"/>
+        <c:crossAx val="547367384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217798928"/>
+        <c:axId val="547367384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,7 +5370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217798536"/>
+        <c:crossAx val="547371304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5516,11 +5516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217799712"/>
-        <c:axId val="217800496"/>
+        <c:axId val="547370912"/>
+        <c:axId val="547367776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217799712"/>
+        <c:axId val="547370912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,7 +5530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217800496"/>
+        <c:crossAx val="547367776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -5539,7 +5539,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217800496"/>
+        <c:axId val="547367776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5550,7 +5550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217799712"/>
+        <c:crossAx val="547370912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5826,11 +5826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218053816"/>
-        <c:axId val="218054600"/>
+        <c:axId val="547366600"/>
+        <c:axId val="547372088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218053816"/>
+        <c:axId val="547366600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,12 +5858,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218054600"/>
+        <c:crossAx val="547372088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218054600"/>
+        <c:axId val="547372088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218053816"/>
+        <c:crossAx val="547366600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5945,7 +5945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6155,8 +6154,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214646696"/>
-        <c:axId val="214647480"/>
+        <c:axId val="189890440"/>
+        <c:axId val="189889264"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6337,11 +6336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214647872"/>
-        <c:axId val="214644736"/>
+        <c:axId val="189884952"/>
+        <c:axId val="189889656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214646696"/>
+        <c:axId val="189890440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -6394,7 +6393,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6461,13 +6459,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214647480"/>
+        <c:crossAx val="189889264"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214647480"/>
+        <c:axId val="189889264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6515,7 +6513,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6582,12 +6579,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214646696"/>
+        <c:crossAx val="189890440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214644736"/>
+        <c:axId val="189889656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -6621,7 +6618,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6688,13 +6684,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214647872"/>
+        <c:crossAx val="189884952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214647872"/>
+        <c:axId val="189884952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6704,7 +6700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214644736"/>
+        <c:crossAx val="189889656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6964,11 +6960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218056168"/>
-        <c:axId val="218055384"/>
+        <c:axId val="547368168"/>
+        <c:axId val="547373264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218056168"/>
+        <c:axId val="547368168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6978,12 +6974,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218055384"/>
+        <c:crossAx val="547373264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218055384"/>
+        <c:axId val="547373264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6994,7 +6990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218056168"/>
+        <c:crossAx val="547368168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7228,11 +7224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218050288"/>
-        <c:axId val="218054992"/>
+        <c:axId val="547369344"/>
+        <c:axId val="547371696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218050288"/>
+        <c:axId val="547369344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,12 +7340,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218054992"/>
+        <c:crossAx val="547371696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218054992"/>
+        <c:axId val="547371696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7461,7 +7457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218050288"/>
+        <c:crossAx val="547369344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7740,11 +7736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218049504"/>
-        <c:axId val="218052640"/>
+        <c:axId val="547370128"/>
+        <c:axId val="547366208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218049504"/>
+        <c:axId val="547370128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7801,12 +7797,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218052640"/>
+        <c:crossAx val="547366208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218052640"/>
+        <c:axId val="547366208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7863,7 +7859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218049504"/>
+        <c:crossAx val="547370128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8161,8 +8157,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218049896"/>
-        <c:axId val="218050680"/>
+        <c:axId val="547368560"/>
+        <c:axId val="547370520"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8330,11 +8326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218051464"/>
-        <c:axId val="218051072"/>
+        <c:axId val="191853440"/>
+        <c:axId val="191851480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218049896"/>
+        <c:axId val="547368560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -8453,12 +8449,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218050680"/>
+        <c:crossAx val="547370520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218050680"/>
+        <c:axId val="547370520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8570,12 +8566,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218049896"/>
+        <c:crossAx val="547368560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218051072"/>
+        <c:axId val="191851480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,12 +8614,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218051464"/>
+        <c:crossAx val="191853440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218051464"/>
+        <c:axId val="191853440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8633,7 +8629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218051072"/>
+        <c:crossAx val="191851480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8887,11 +8883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218053032"/>
-        <c:axId val="217835992"/>
+        <c:axId val="191849520"/>
+        <c:axId val="191855008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218053032"/>
+        <c:axId val="191849520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8921,12 +8917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217835992"/>
+        <c:crossAx val="191855008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217835992"/>
+        <c:axId val="191855008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8955,7 +8951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218053032"/>
+        <c:crossAx val="191849520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9090,11 +9086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217840304"/>
-        <c:axId val="217839912"/>
+        <c:axId val="191847560"/>
+        <c:axId val="191854616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217840304"/>
+        <c:axId val="191847560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9122,12 +9118,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217839912"/>
+        <c:crossAx val="191854616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217839912"/>
+        <c:axId val="191854616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9138,7 +9134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217840304"/>
+        <c:crossAx val="191847560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9337,11 +9333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217841088"/>
-        <c:axId val="217841480"/>
+        <c:axId val="191851088"/>
+        <c:axId val="191851872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217841088"/>
+        <c:axId val="191851088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -9400,12 +9396,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217841480"/>
+        <c:crossAx val="191851872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217841480"/>
+        <c:axId val="191851872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9462,7 +9458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217841088"/>
+        <c:crossAx val="191851088"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9725,11 +9721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217841872"/>
-        <c:axId val="217836384"/>
+        <c:axId val="191852656"/>
+        <c:axId val="191847952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217841872"/>
+        <c:axId val="191852656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9786,12 +9782,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217836384"/>
+        <c:crossAx val="191847952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217836384"/>
+        <c:axId val="191847952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9848,7 +9844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217841872"/>
+        <c:crossAx val="191852656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10114,11 +10110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217842264"/>
-        <c:axId val="217835208"/>
+        <c:axId val="191848344"/>
+        <c:axId val="191848736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217842264"/>
+        <c:axId val="191848344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10175,12 +10171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217835208"/>
+        <c:crossAx val="191848736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217835208"/>
+        <c:axId val="191848736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10237,7 +10233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217842264"/>
+        <c:crossAx val="191848344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10510,11 +10506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217837560"/>
-        <c:axId val="217837952"/>
+        <c:axId val="191850304"/>
+        <c:axId val="191850696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217837560"/>
+        <c:axId val="191850304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10626,12 +10622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217837952"/>
+        <c:crossAx val="191850696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217837952"/>
+        <c:axId val="191850696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10744,7 +10740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217837560"/>
+        <c:crossAx val="191850304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10828,7 +10824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10971,11 +10966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214643560"/>
-        <c:axId val="214649048"/>
+        <c:axId val="189888088"/>
+        <c:axId val="189890048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214643560"/>
+        <c:axId val="189888088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10999,19 +10994,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214649048"/>
+        <c:crossAx val="189890048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214649048"/>
+        <c:axId val="189890048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11034,14 +11028,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214643560"/>
+        <c:crossAx val="189888088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11489,11 +11482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213822528"/>
-        <c:axId val="217358256"/>
+        <c:axId val="189890832"/>
+        <c:axId val="189891224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213822528"/>
+        <c:axId val="189890832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11600,12 +11593,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217358256"/>
+        <c:crossAx val="189891224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217358256"/>
+        <c:axId val="189891224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11657,7 +11650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213822528"/>
+        <c:crossAx val="189890832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11762,7 +11755,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11798,7 +11790,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -11884,11 +11875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217361392"/>
-        <c:axId val="217362176"/>
+        <c:axId val="193534896"/>
+        <c:axId val="193531368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217361392"/>
+        <c:axId val="193534896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11898,12 +11889,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217362176"/>
+        <c:crossAx val="193531368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217362176"/>
+        <c:axId val="193531368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11914,14 +11905,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217361392"/>
+        <c:crossAx val="193534896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12026,28 +12016,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="2">
-                  <c:v>8.6869543123372139E-2</c:v>
+                  <c:v>6.5152157342529105E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5097378875630716E-2</c:v>
+                  <c:v>4.1323034156723039E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2737664274397333E-2</c:v>
+                  <c:v>3.2053248205798003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9071151704477884E-2</c:v>
+                  <c:v>2.9303363778358415E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6789291938147554E-2</c:v>
+                  <c:v>2.7591968953610664E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4492824747713272E-2</c:v>
+                  <c:v>2.5869618560784957E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3412481322885462E-2</c:v>
+                  <c:v>2.50593609921641E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3137755680272003E-2</c:v>
+                  <c:v>2.4853316760204004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12062,11 +12052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217355512"/>
-        <c:axId val="217362568"/>
+        <c:axId val="193531760"/>
+        <c:axId val="193535680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217355512"/>
+        <c:axId val="193531760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12076,7 +12066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217362568"/>
+        <c:crossAx val="193535680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -12087,7 +12077,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217362568"/>
+        <c:axId val="193535680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12098,7 +12088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217355512"/>
+        <c:crossAx val="193531760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12223,25 +12213,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.8124094171529751</c:v>
+                  <c:v>0.60930706286473135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1988214247099786</c:v>
+                  <c:v>0.14911606853248396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13645917864976709</c:v>
+                  <c:v>0.10234438398732533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10630735202119303</c:v>
+                  <c:v>7.9730514015894774E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0760279898029766E-2</c:v>
+                  <c:v>6.0570209923522328E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0093094531430672E-2</c:v>
+                  <c:v>5.2569820898573004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.750175020744914E-2</c:v>
+                  <c:v>5.0626312655586855E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12325,28 +12315,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>8.6869543123372139E-2</c:v>
+                  <c:v>6.5152157342529105E-2</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
-                  <c:v>5.5097378875630716E-2</c:v>
+                  <c:v>4.1323034156723039E-2</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.000">
-                  <c:v>4.2737664274397333E-2</c:v>
+                  <c:v>3.2053248205798003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.000">
-                  <c:v>3.9071151704477884E-2</c:v>
+                  <c:v>2.9303363778358415E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.000">
-                  <c:v>3.6789291938147554E-2</c:v>
+                  <c:v>2.7591968953610664E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.000">
-                  <c:v>3.4492824747713272E-2</c:v>
+                  <c:v>2.5869618560784957E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>3.3412481322885462E-2</c:v>
+                  <c:v>2.50593609921641E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
-                  <c:v>3.3137755680272003E-2</c:v>
+                  <c:v>2.4853316760204004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12361,11 +12351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217359824"/>
-        <c:axId val="217356296"/>
+        <c:axId val="193536072"/>
+        <c:axId val="193532544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217359824"/>
+        <c:axId val="193536072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12394,12 +12384,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217356296"/>
+        <c:crossAx val="193532544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217356296"/>
+        <c:axId val="193532544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12410,7 +12400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217359824"/>
+        <c:crossAx val="193536072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12612,11 +12602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217357864"/>
-        <c:axId val="217355120"/>
+        <c:axId val="193536464"/>
+        <c:axId val="193536856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217357864"/>
+        <c:axId val="193536464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12626,12 +12616,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217355120"/>
+        <c:crossAx val="193536856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217355120"/>
+        <c:axId val="193536856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12642,7 +12632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217357864"/>
+        <c:crossAx val="193536464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13018,11 +13008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217359040"/>
-        <c:axId val="217359432"/>
+        <c:axId val="193529800"/>
+        <c:axId val="193530192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217359040"/>
+        <c:axId val="193529800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13079,12 +13069,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217359432"/>
+        <c:crossAx val="193530192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217359432"/>
+        <c:axId val="193530192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13141,7 +13131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217359040"/>
+        <c:crossAx val="193529800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23861,8 +23851,8 @@
   <dimension ref="A1:AW97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR8" sqref="AR8"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ6" sqref="AQ6:AQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24128,7 +24118,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="127">
-        <f>MAX($AD$40+$AH2*($AE$40+$AH2*$AF$40), 0)</f>
+        <f t="shared" ref="AN2:AN14" si="13">MAX($AD$40+$AH2*($AE$40+$AH2*$AF$40), 0)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="127"/>
@@ -24212,7 +24202,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="96">
-        <f t="shared" ref="AI3:AI14" si="13">MAX(($AD$35+$AE$35*LN(AG3))/$AD$31,0)</f>
+        <f t="shared" ref="AI3:AI14" si="14">MAX(($AD$35+$AE$35*LN(AG3))/$AD$31,0)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="96">
@@ -24228,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="127">
-        <f>MAX($AD$40+$AH3*($AE$40+$AH3*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO3" s="127"/>
@@ -24279,19 +24269,19 @@
         <v>2.0794415416798357</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:N13" si="14">1/G4/0.000001</f>
+        <f t="shared" ref="M4:N13" si="15">1/G4/0.000001</f>
         <v>149.25373134328359</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:P13" si="15">M4*60/$W$27</f>
+        <f t="shared" ref="O4:P13" si="16">M4*60/$W$27</f>
         <v>8955.2238805970155</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="Q4" s="3">
@@ -24315,16 +24305,16 @@
         <v>7.9576245480000012E-3</v>
       </c>
       <c r="V4" s="127">
-        <f t="shared" ref="V4:V13" si="16">U4/O4*5252</f>
+        <f t="shared" ref="V4:V13" si="17">U4/O4*5252</f>
         <v>4.6669345940807206E-3</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W13" si="17">-V4/2/O4</f>
+        <f t="shared" ref="W4:W13" si="18">-V4/2/O4</f>
         <v>-2.6057051483617353E-7</v>
       </c>
       <c r="Y4" s="127"/>
       <c r="Z4">
-        <f>-Y4/2/P4</f>
+        <f t="shared" ref="Z4:Z13" si="19">-Y4/2/P4</f>
         <v>0</v>
       </c>
       <c r="AA4" s="4"/>
@@ -24350,7 +24340,7 @@
         <v>1180.2918436956534</v>
       </c>
       <c r="AI4" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5613972302423034</v>
       </c>
       <c r="AJ4" s="96">
@@ -24366,11 +24356,11 @@
         <v>0</v>
       </c>
       <c r="AN4" s="127">
-        <f>MAX($AD$40+$AH4*($AE$40+$AH4*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO4" s="127">
-        <f t="shared" ref="AO4:AO7" si="18">AN4/AH4*5252</f>
+        <f t="shared" ref="AO4:AO7" si="20">AN4/AH4*5252</f>
         <v>0</v>
       </c>
       <c r="AP4">
@@ -24386,13 +24376,13 @@
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW4" t="e">
-        <f t="shared" ref="AW4:AW14" si="19">$W$33/$W$30/$W$28/AP4</f>
+        <f t="shared" ref="AW4:AW14" si="21">$W$33/$W$30/$W$28/AP4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="113">
-        <f t="shared" ref="B5:B24" si="20">C5/180+1</f>
+        <f t="shared" ref="B5:B24" si="22">C5/180+1</f>
         <v>1.0722222222222222</v>
       </c>
       <c r="C5" s="73">
@@ -24425,23 +24415,23 @@
         <v>13</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L14" si="21">LN(K5)</f>
+        <f t="shared" ref="L5:L14" si="23">LN(K5)</f>
         <v>2.5649493574615367</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>216.45021645021646</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12987.012987012988</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="Q5" s="3">
@@ -24465,16 +24455,16 @@
         <v>9.9192715296000013E-3</v>
       </c>
       <c r="V5" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.011393083656359E-3</v>
       </c>
       <c r="W5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.5443863372076981E-7</v>
       </c>
       <c r="Y5" s="127"/>
       <c r="Z5">
-        <f>-Y5/2/P5</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF5" s="95">
@@ -24490,7 +24480,7 @@
         <v>8069.6528312921109</v>
       </c>
       <c r="AI5" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.512267429019339</v>
       </c>
       <c r="AJ5" s="96">
@@ -24506,15 +24496,15 @@
         <v>0</v>
       </c>
       <c r="AN5" s="127">
-        <f>MAX($AD$40+$AH5*($AE$40+$AH5*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO5" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP14" si="22">AO5/AH5*2</f>
+        <f t="shared" ref="AP5:AP14" si="24">AO5/AH5*2</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="95"/>
@@ -24522,11 +24512,11 @@
       <c r="AS5" s="127"/>
       <c r="AU5" s="95"/>
       <c r="AV5" s="128">
-        <f t="shared" ref="AV5:AV14" si="23">$W$31/$W$30</f>
+        <f t="shared" ref="AV5:AV14" si="25">$W$31/$W$30</f>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW5" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -24535,7 +24525,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1388888888888888</v>
       </c>
       <c r="C6" s="140">
@@ -24568,23 +24558,23 @@
         <v>25</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>306.74846625766872</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>148.36795252225519</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18404.907975460123</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8902.077151335312</v>
       </c>
       <c r="Q6" s="3">
@@ -24608,19 +24598,19 @@
         <v>2.7329491951200002E-2</v>
       </c>
       <c r="V6" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.7987073838718312E-3</v>
       </c>
       <c r="W6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.118648839285181E-7</v>
       </c>
       <c r="Y6" s="127">
-        <f>U6/P6*5252</f>
+        <f t="shared" ref="Y6:Y13" si="26">U6/P6*5252</f>
         <v>1.612370790407857E-2</v>
       </c>
       <c r="Z6">
-        <f>-Y6/2/P6</f>
+        <f t="shared" si="19"/>
         <v>-9.0561492727907967E-7</v>
       </c>
       <c r="AF6" s="95">
@@ -24636,7 +24626,7 @@
         <v>17348.876248230645</v>
       </c>
       <c r="AI6" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37.649471024806083</v>
       </c>
       <c r="AJ6" s="96">
@@ -24656,23 +24646,23 @@
         <v>7436.6059220942916</v>
       </c>
       <c r="AN6" s="127">
-        <f>MAX($AD$40+$AH6*($AE$40+$AH6*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>1.4843385324309564E-2</v>
       </c>
       <c r="AO6" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.4935163873351426E-3</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.1801814976845215E-7</v>
       </c>
       <c r="AQ6" s="95">
-        <f t="shared" ref="AQ6:AQ13" si="24">$W$34/AP6</f>
-        <v>8.6869543123372139E-2</v>
+        <f t="shared" ref="AQ6:AQ13" si="27">$W$34/AP6</f>
+        <v>6.5152157342529105E-2</v>
       </c>
       <c r="AR6" s="127">
-        <f t="shared" ref="AR3:AS14" si="25">MAX($AD$41+$AM6*($AE$41+$AM6*$AF$41), 0)</f>
+        <f t="shared" ref="AR6:AR14" si="28">MAX($AD$41+$AM6*($AE$41+$AM6*$AF$41), 0)</f>
         <v>2.7938864492301894E-2</v>
       </c>
       <c r="AS6" s="127">
@@ -24684,21 +24674,21 @@
         <v>0</v>
       </c>
       <c r="AU6" s="95" t="e">
-        <f t="shared" ref="AU6:AU14" si="26">$W$34/AT6</f>
+        <f t="shared" ref="AU6:AU14" si="29">$W$34/AT6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV6" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>140.36831132451306</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C7" s="73">
@@ -24723,7 +24713,7 @@
         <v>6.04</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J13" si="27">E7*F7</f>
+        <f t="shared" ref="J7:J13" si="30">E7*F7</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K7" s="1">
@@ -24731,23 +24721,23 @@
         <v>35</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>373.13432835820896</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>220.65313327449252</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22388.059701492537</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13239.187996469551</v>
       </c>
       <c r="Q7" s="3">
@@ -24767,38 +24757,38 @@
         <v>29.981099999999998</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U14" si="28">T7*0.001341022</f>
+        <f t="shared" ref="U7:U14" si="31">T7*0.001341022</f>
         <v>4.0205314684200001E-2</v>
       </c>
       <c r="V7" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.4317379682233565E-3</v>
       </c>
       <c r="W7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.106421479569883E-7</v>
       </c>
       <c r="Y7" s="127">
-        <f>U7/P7*5252</f>
+        <f t="shared" si="26"/>
         <v>1.5949491220891135E-2</v>
       </c>
       <c r="Z7">
-        <f>-Y7/2/P7</f>
+        <f t="shared" si="19"/>
         <v>-6.0235911844232185E-7</v>
       </c>
       <c r="AA7">
         <v>0.18</v>
       </c>
       <c r="AB7">
-        <f>-AA7*W7</f>
+        <f t="shared" ref="AB7:AB12" si="32">-AA7*W7</f>
         <v>3.7915586632257891E-8</v>
       </c>
       <c r="AC7">
-        <f t="shared" ref="AC7:AC12" si="29">AB7/6.66*2048.5</f>
+        <f t="shared" ref="AC7:AC12" si="33">AB7/6.66*2048.5</f>
         <v>1.1662174056483527E-5</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD7:AD12" si="30">AC7*144</f>
+        <f t="shared" ref="AD7:AD12" si="34">AC7*144</f>
         <v>1.6793530641336278E-3</v>
       </c>
       <c r="AF7" s="95">
@@ -24814,7 +24804,7 @@
         <v>22123.420807632323</v>
       </c>
       <c r="AI7" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.010895849896535</v>
       </c>
       <c r="AJ7" s="96">
@@ -24826,57 +24816,57 @@
         <v>48.121500315323402</v>
       </c>
       <c r="AL7">
-        <f t="shared" ref="AL7:AL14" si="31">AM7/$AD$31</f>
+        <f t="shared" ref="AL7:AL14" si="35">AM7/$AD$31</f>
         <v>26.777112036937371</v>
       </c>
       <c r="AM7">
-        <f t="shared" ref="AM7:AM14" si="32">MAX($AD$36+$AE$36*AH7, 0)</f>
+        <f t="shared" ref="AM7:AM14" si="36">MAX($AD$36+$AE$36*AH7, 0)</f>
         <v>12338.893226620741</v>
       </c>
       <c r="AN7" s="127">
-        <f>MAX($AD$40+$AH7*($AE$40+$AH7*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>3.8056725878256127E-2</v>
       </c>
       <c r="AO7" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.0344945318604156E-3</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.1673576707844562E-7</v>
       </c>
       <c r="AQ7" s="95">
-        <f t="shared" si="24"/>
-        <v>5.5097378875630716E-2</v>
+        <f t="shared" si="27"/>
+        <v>4.1323034156723039E-2</v>
       </c>
       <c r="AR7" s="127">
+        <f t="shared" si="28"/>
+        <v>1.7253931091405696E-2</v>
+      </c>
+      <c r="AS7" s="127">
+        <f t="shared" ref="AS7:AS14" si="37">MAX($AD$39+$AM7*($AE$39+$AM7*$AF$39), 0)</f>
+        <v>4.6547337155228904E-3</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ref="AT7:AT14" si="38">$AE$39+2*$AM7*$AF$39</f>
+        <v>5.5390790714488466E-8</v>
+      </c>
+      <c r="AU7" s="95">
+        <f t="shared" si="29"/>
+        <v>0.60930706286473135</v>
+      </c>
+      <c r="AV7" s="128">
         <f t="shared" si="25"/>
-        <v>1.7253931091405696E-2</v>
-      </c>
-      <c r="AS7" s="127">
-        <f t="shared" ref="AS7:AS14" si="33">MAX($AD$39+$AM7*($AE$39+$AM7*$AF$39), 0)</f>
-        <v>4.6547337155228904E-3</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" ref="AT7:AT14" si="34">$AE$39+2*$AM7*$AF$39</f>
-        <v>5.5390790714488466E-8</v>
-      </c>
-      <c r="AU7" s="95">
-        <f t="shared" si="26"/>
-        <v>0.8124094171529751</v>
-      </c>
-      <c r="AV7" s="128">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>89.02920118038908</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3</v>
       </c>
       <c r="C8" s="73">
@@ -24901,7 +24891,7 @@
         <v>8.24</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>53.526600000000002</v>
       </c>
       <c r="K8" s="1">
@@ -24909,23 +24899,23 @@
         <v>54</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.9889840465642745</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>465.11627906976747</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>314.46540880503147</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27906.976744186049</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18867.92452830189</v>
       </c>
       <c r="Q8" s="3">
@@ -24945,38 +24935,38 @@
         <v>53.526600000000002</v>
       </c>
       <c r="U8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>7.1780348185200002E-2</v>
       </c>
       <c r="V8" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3508822260627353E-2</v>
       </c>
       <c r="W8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.4203306550290671E-7</v>
       </c>
       <c r="Y8" s="127">
-        <f>U8/P8*5252</f>
+        <f t="shared" si="26"/>
         <v>1.9980490599439529E-2</v>
       </c>
       <c r="Z8">
-        <f>-Y8/2/P8</f>
+        <f t="shared" si="19"/>
         <v>-5.2948300088514745E-7</v>
       </c>
       <c r="AA8">
         <v>0.18</v>
       </c>
       <c r="AB8">
-        <f>-AA8*W8</f>
+        <f t="shared" si="32"/>
         <v>4.3565951790523206E-8</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.3400127964397415E-5</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.9296184268732279E-3</v>
       </c>
       <c r="AF8" s="95">
@@ -24992,7 +24982,7 @@
         <v>28276.719974572956</v>
       </c>
       <c r="AI8" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>61.364409667042004</v>
       </c>
       <c r="AJ8" s="96">
@@ -25004,15 +24994,15 @@
         <v>61.365355815830107</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>40.487898572106765</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>18656.823662026796</v>
       </c>
       <c r="AN8" s="127">
-        <f>MAX($AD$40+$AH8*($AE$40+$AH8*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>8.0150286593492603E-2</v>
       </c>
       <c r="AO8" s="127">
@@ -25020,35 +25010,35 @@
         <v>1.488677985167834E-2</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0529354087082843E-6</v>
       </c>
       <c r="AQ8" s="95">
-        <f t="shared" si="24"/>
-        <v>4.2737664274397333E-2</v>
+        <f t="shared" si="27"/>
+        <v>3.2053248205798003E-2</v>
       </c>
       <c r="AR8" s="127">
+        <f t="shared" si="28"/>
+        <v>1.700645961187789E-2</v>
+      </c>
+      <c r="AS8" s="127">
+        <f t="shared" si="37"/>
+        <v>5.5446917623018215E-3</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="38"/>
+        <v>2.2633375686569812E-7</v>
+      </c>
+      <c r="AU8" s="95">
+        <f t="shared" si="29"/>
+        <v>0.14911606853248396</v>
+      </c>
+      <c r="AV8" s="128">
         <f t="shared" si="25"/>
-        <v>1.700645961187789E-2</v>
-      </c>
-      <c r="AS8" s="127">
-        <f t="shared" si="33"/>
-        <v>5.5446917623018215E-3</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="34"/>
-        <v>2.2633375686569812E-7</v>
-      </c>
-      <c r="AU8" s="95">
-        <f t="shared" si="26"/>
-        <v>0.1988214247099786</v>
-      </c>
-      <c r="AV8" s="128">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>69.057733567578751</v>
       </c>
     </row>
@@ -25057,7 +25047,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C9" s="140">
@@ -25082,7 +25072,7 @@
         <v>9</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>62.419400000000003</v>
       </c>
       <c r="K9" s="1">
@@ -25090,23 +25080,23 @@
         <v>64</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>348.43205574912895</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29702.970297029704</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20905.923344947736</v>
       </c>
       <c r="Q9" s="3">
@@ -25126,38 +25116,38 @@
         <v>62.419400000000003</v>
       </c>
       <c r="U9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>8.3705788626800004E-2</v>
       </c>
       <c r="V9" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4800634329554439E-2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.4914401121416636E-7</v>
       </c>
       <c r="Y9" s="127">
-        <f>U9/P9*5252</f>
+        <f t="shared" si="26"/>
         <v>2.1028624022683781E-2</v>
       </c>
       <c r="Z9">
-        <f>-Y9/2/P9</f>
+        <f t="shared" si="19"/>
         <v>-5.0293459120918706E-7</v>
       </c>
       <c r="AA9">
         <v>0.18</v>
       </c>
       <c r="AB9">
-        <f>-AA9*W9</f>
+        <f t="shared" si="32"/>
         <v>4.484592201854994E-8</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.3793824512762695E-5</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.986310729837828E-3</v>
       </c>
       <c r="AF9" s="95"/>
@@ -25169,7 +25159,7 @@
         <v>31999.995048805355</v>
       </c>
       <c r="AI9" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>69.444433699664401</v>
       </c>
       <c r="AJ9" s="135">
@@ -25181,57 +25171,57 @@
         <v>69.37902713815086</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>48.784103318462122</v>
       </c>
       <c r="AM9" s="136">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>22479.714809147346</v>
       </c>
       <c r="AN9" s="137">
-        <f>MAX($AD$40+$AH9*($AE$40+$AH9*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0.11227974297099894</v>
       </c>
       <c r="AO9" s="137">
-        <f t="shared" ref="AO9:AO14" si="35">AN9/AH9*5252</f>
+        <f t="shared" ref="AO9:AO14" si="39">AN9/AH9*5252</f>
         <v>1.8427915666371371E-2</v>
       </c>
       <c r="AP9" s="136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.1517449073517487E-6</v>
       </c>
       <c r="AQ9" s="134">
-        <f t="shared" si="24"/>
-        <v>3.9071151704477884E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.9303363778358415E-2</v>
       </c>
       <c r="AR9" s="127">
+        <f t="shared" si="28"/>
+        <v>2.4252107885973234E-2</v>
+      </c>
+      <c r="AS9" s="127">
+        <f t="shared" si="37"/>
+        <v>6.6076518189279454E-3</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="38"/>
+        <v>3.2976894955154272E-7</v>
+      </c>
+      <c r="AU9" s="134">
+        <f t="shared" si="29"/>
+        <v>0.10234438398732533</v>
+      </c>
+      <c r="AV9" s="138">
         <f t="shared" si="25"/>
-        <v>2.4252107885973234E-2</v>
-      </c>
-      <c r="AS9" s="127">
-        <f t="shared" si="33"/>
-        <v>6.6076518189279454E-3</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="34"/>
-        <v>3.2976894955154272E-7</v>
-      </c>
-      <c r="AU9" s="134">
-        <f t="shared" si="26"/>
-        <v>0.13645917864976709</v>
-      </c>
-      <c r="AV9" s="138">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW9" s="136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>63.133192475440495</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C10" s="73">
@@ -25256,7 +25246,7 @@
         <v>10.8</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K10" s="1">
@@ -25264,23 +25254,23 @@
         <v>89</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>564.9717514124294</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>416.66666666666669</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33898.305084745763</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25000</v>
       </c>
       <c r="Q10" s="3">
@@ -25300,38 +25290,38 @@
         <v>88.904499999999999</v>
       </c>
       <c r="U10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.11922289039900001</v>
       </c>
       <c r="V10" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8471679301078667E-2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.7245726969091031E-7</v>
       </c>
       <c r="Y10" s="127">
-        <f>U10/P10*5252</f>
+        <f t="shared" si="26"/>
         <v>2.5046344815021923E-2</v>
       </c>
       <c r="Z10">
-        <f>-Y10/2/P10</f>
+        <f t="shared" si="19"/>
         <v>-5.0092689630043845E-7</v>
       </c>
       <c r="AA10">
         <v>0.18</v>
       </c>
       <c r="AB10">
-        <f>-AA10*W10</f>
+        <f t="shared" si="32"/>
         <v>4.9042308544363851E-8</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.508455991788729E-5</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.1721766281757697E-3</v>
       </c>
       <c r="AF10" s="95">
@@ -25347,7 +25337,7 @@
         <v>35366.791670025093</v>
       </c>
       <c r="AI10" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>76.75084997835306</v>
       </c>
       <c r="AJ10" s="96">
@@ -25359,57 +25349,57 @@
         <v>76.625443530610752</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>56.286002466951672</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>25936.589936771332</v>
       </c>
       <c r="AN10" s="127">
-        <f>MAX($AD$40+$AH10*($AE$40+$AH10*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0.14565577213038161</v>
       </c>
       <c r="AO10" s="127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.1630011632554215E-2</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.2231820083859401E-6</v>
       </c>
       <c r="AQ10" s="95">
-        <f t="shared" si="24"/>
-        <v>3.6789291938147554E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.7591968953610664E-2</v>
       </c>
       <c r="AR10" s="127">
+        <f t="shared" si="28"/>
+        <v>3.5604651971000559E-2</v>
+      </c>
+      <c r="AS10" s="127">
+        <f t="shared" si="37"/>
+        <v>7.9092860710449058E-3</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="38"/>
+        <v>4.2330092081523177E-7</v>
+      </c>
+      <c r="AU10" s="95">
+        <f t="shared" si="29"/>
+        <v>7.9730514015894774E-2</v>
+      </c>
+      <c r="AV10" s="128">
         <f t="shared" si="25"/>
-        <v>3.5604651971000559E-2</v>
-      </c>
-      <c r="AS10" s="127">
-        <f t="shared" si="33"/>
-        <v>7.9092860710449058E-3</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="34"/>
-        <v>4.2330092081523177E-7</v>
-      </c>
-      <c r="AU10" s="95">
-        <f t="shared" si="26"/>
-        <v>0.10630735202119303</v>
-      </c>
-      <c r="AV10" s="128">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59.446045167387481</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.6944444444444444</v>
       </c>
       <c r="C11" s="73">
@@ -25434,7 +25424,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>135.96</v>
       </c>
       <c r="K11" s="1">
@@ -25442,23 +25432,23 @@
         <v>125</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.8283137373023015</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>657.89473684210532</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500.00000000000006</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39473.68421052632</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000.000000000004</v>
       </c>
       <c r="Q11" s="3">
@@ -25478,38 +25468,38 @@
         <v>135.96</v>
       </c>
       <c r="U11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.18232535112000003</v>
       </c>
       <c r="V11" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.4258509516750081E-2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.072744538788343E-7</v>
       </c>
       <c r="Y11" s="127">
-        <f>U11/P11*5252</f>
+        <f t="shared" si="26"/>
         <v>3.1919091469408002E-2</v>
       </c>
       <c r="Z11">
-        <f>-Y11/2/P11</f>
+        <f t="shared" si="19"/>
         <v>-5.3198485782346666E-7</v>
       </c>
       <c r="AA11">
         <v>0.14000000000000001</v>
       </c>
       <c r="AB11">
-        <f>-AA11*W11</f>
+        <f t="shared" si="32"/>
         <v>4.3018423543036807E-8</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.3231717811998633E-5</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.9053673649278033E-3</v>
       </c>
       <c r="AF11" s="95">
@@ -25525,7 +25515,7 @@
         <v>40186.817071139434</v>
       </c>
       <c r="AI11" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>87.210974546743557</v>
       </c>
       <c r="AJ11" s="96">
@@ -25537,57 +25527,57 @@
         <v>86.999670134786854</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>67.025987241920845</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30885.574921077128</v>
       </c>
       <c r="AN11" s="127">
-        <f>MAX($AD$40+$AH11*($AE$40+$AH11*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0.20058398668919561</v>
       </c>
       <c r="AO11" s="127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.621424573702338E-2</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3046191585971313E-6</v>
       </c>
       <c r="AQ11" s="95">
-        <f t="shared" si="24"/>
-        <v>3.4492824747713272E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.5869618560784957E-2</v>
       </c>
       <c r="AR11" s="127">
+        <f t="shared" si="28"/>
+        <v>5.9793221896832324E-2</v>
+      </c>
+      <c r="AS11" s="127">
+        <f t="shared" si="37"/>
+        <v>1.0335539637470414E-2</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="38"/>
+        <v>5.5720460673016836E-7</v>
+      </c>
+      <c r="AU11" s="95">
+        <f t="shared" si="29"/>
+        <v>6.0570209923522328E-2</v>
+      </c>
+      <c r="AV11" s="128">
         <f t="shared" si="25"/>
-        <v>5.9793221896832324E-2</v>
-      </c>
-      <c r="AS11" s="127">
-        <f t="shared" si="33"/>
-        <v>1.0335539637470414E-2</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="34"/>
-        <v>5.5720460673016836E-7</v>
-      </c>
-      <c r="AU11" s="95">
-        <f t="shared" si="26"/>
-        <v>8.0760279898029766E-2</v>
-      </c>
-      <c r="AV11" s="128">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>55.735294426179998</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8611111111111112</v>
       </c>
       <c r="C12" s="73">
@@ -25612,7 +25602,7 @@
         <v>15.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>192.75</v>
       </c>
       <c r="K12" s="1">
@@ -25620,23 +25610,23 @@
         <v>155</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0434251169192468</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>733.13782991202345</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>574.71264367816093</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43988.269794721404</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34482.758620689652</v>
       </c>
       <c r="Q12" s="3">
@@ -25656,38 +25646,38 @@
         <v>192.75</v>
       </c>
       <c r="U12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.25848199050000004</v>
       </c>
       <c r="V12" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.0861577880676404E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.5079326857702185E-7</v>
       </c>
       <c r="Y12" s="127">
-        <f>U12/P12*5252</f>
+        <f t="shared" si="26"/>
         <v>3.936887500907401E-2</v>
       </c>
       <c r="Z12">
-        <f>-Y12/2/P12</f>
+        <f t="shared" si="19"/>
         <v>-5.7084868763157318E-7</v>
       </c>
       <c r="AA12">
         <v>0.14000000000000001</v>
       </c>
       <c r="AB12">
-        <f>-AA12*W12</f>
+        <f t="shared" si="32"/>
         <v>4.9111057600783063E-8</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.5105705930210826E-5</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.1752216539503589E-3</v>
       </c>
       <c r="AF12" s="95">
@@ -25703,7 +25693,7 @@
         <v>43239.249799405501</v>
       </c>
       <c r="AI12" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>93.835177516070971</v>
       </c>
       <c r="AJ12" s="96">
@@ -25715,57 +25705,57 @@
         <v>93.569475515836231</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>73.827420491757252</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>34019.675362601745</v>
       </c>
       <c r="AN12" s="127">
-        <f>MAX($AD$40+$AH12*($AE$40+$AH12*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0.23972060902426137</v>
       </c>
       <c r="AO12" s="127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.911735620844955E-2</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3468020996446561E-6</v>
       </c>
       <c r="AQ12" s="95">
-        <f t="shared" si="24"/>
-        <v>3.3412481322885462E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.50593609921641E-2</v>
       </c>
       <c r="AR12" s="127">
+        <f t="shared" si="28"/>
+        <v>7.9944052947817243E-2</v>
+      </c>
+      <c r="AS12" s="127">
+        <f t="shared" si="37"/>
+        <v>1.2214758697245927E-2</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="38"/>
+        <v>6.4200332858497785E-7</v>
+      </c>
+      <c r="AU12" s="95">
+        <f t="shared" si="29"/>
+        <v>5.2569820898573004E-2</v>
+      </c>
+      <c r="AV12" s="128">
         <f t="shared" si="25"/>
-        <v>7.9944052947817243E-2</v>
-      </c>
-      <c r="AS12" s="127">
-        <f t="shared" si="33"/>
-        <v>1.2214758697245927E-2</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="34"/>
-        <v>6.4200332858497785E-7</v>
-      </c>
-      <c r="AU12" s="95">
-        <f t="shared" si="26"/>
-        <v>7.0093094531430672E-2</v>
-      </c>
-      <c r="AV12" s="128">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>53.989619512496461</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C13" s="73">
@@ -25790,7 +25780,7 @@
         <v>17.2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>209.1</v>
       </c>
       <c r="K13" s="1">
@@ -25798,23 +25788,23 @@
         <v>165</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>759.87841945288756</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>595.2380952380953</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45592.705167173255</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35714.285714285717</v>
       </c>
       <c r="Q13" s="3">
@@ -25834,23 +25824,23 @@
         <v>209.1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.2804077002</v>
       </c>
       <c r="V13" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.2301247229145437E-2</v>
       </c>
       <c r="W13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.5423701127962827E-7</v>
       </c>
       <c r="Y13" s="127">
-        <f>U13/P13*5252</f>
+        <f t="shared" si="26"/>
         <v>4.1235634760611192E-2</v>
       </c>
       <c r="Z13">
-        <f>-Y13/2/P13</f>
+        <f t="shared" si="19"/>
         <v>-5.7729888664855666E-7</v>
       </c>
       <c r="AF13" s="95">
@@ -25866,7 +25856,7 @@
         <v>44126.414319351083</v>
       </c>
       <c r="AI13" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>95.760447741647312</v>
       </c>
       <c r="AJ13" s="96">
@@ -25878,57 +25868,57 @@
         <v>95.478935528842101</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>75.804201243764425</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>34930.575933126645</v>
       </c>
       <c r="AN13" s="127">
-        <f>MAX($AD$40+$AH13*($AE$40+$AH13*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0.2517282669713366</v>
       </c>
       <c r="AO13" s="127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.996112143999155E-2</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3579676437408819E-6</v>
       </c>
       <c r="AQ13" s="95">
-        <f t="shared" si="24"/>
-        <v>3.3137755680272003E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.4853316760204004E-2</v>
       </c>
       <c r="AR13" s="127">
+        <f t="shared" si="28"/>
+        <v>8.650361375830759E-2</v>
+      </c>
+      <c r="AS13" s="127">
+        <f t="shared" si="37"/>
+        <v>1.2810784947188427E-2</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="38"/>
+        <v>6.6664938111536608E-7</v>
+      </c>
+      <c r="AU13" s="95">
+        <f t="shared" si="29"/>
+        <v>5.0626312655586855E-2</v>
+      </c>
+      <c r="AV13" s="128">
         <f t="shared" si="25"/>
-        <v>8.650361375830759E-2</v>
-      </c>
-      <c r="AS13" s="127">
-        <f t="shared" si="33"/>
-        <v>1.2810784947188427E-2</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="34"/>
-        <v>6.6664938111536608E-7</v>
-      </c>
-      <c r="AU13" s="95">
-        <f t="shared" si="26"/>
-        <v>6.750175020744914E-2</v>
-      </c>
-      <c r="AV13" s="128">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>53.545703576661204</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="C14" s="117">
@@ -25945,7 +25935,7 @@
         <v>180</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.1929568508902104</v>
       </c>
       <c r="O14" s="3">
@@ -25973,7 +25963,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB14" s="97"/>
@@ -25990,7 +25980,7 @@
         <v>45361.106669554021</v>
       </c>
       <c r="AI14" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>98.439901626636328</v>
       </c>
       <c r="AJ14" s="96">
@@ -26002,54 +25992,54 @@
         <v>98.136385886777347</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>78.555343808258939</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>36198.302426845723</v>
       </c>
       <c r="AN14" s="127">
-        <f>MAX($AD$40+$AH14*($AE$40+$AH14*$AF$40), 0)</f>
+        <f t="shared" si="13"/>
         <v>0.26891409453189768</v>
       </c>
       <c r="AO14" s="127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3.1135413753683283E-2</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3727801651973849E-6</v>
       </c>
       <c r="AR14" s="127">
+        <f t="shared" si="28"/>
+        <v>9.6159614187763781E-2</v>
+      </c>
+      <c r="AS14" s="127">
+        <f t="shared" si="37"/>
+        <v>1.3677655931616359E-2</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="38"/>
+        <v>7.0095000049071757E-7</v>
+      </c>
+      <c r="AU14" s="95">
+        <f t="shared" si="29"/>
+        <v>4.8148940689596222E-2</v>
+      </c>
+      <c r="AV14" s="128">
         <f t="shared" si="25"/>
-        <v>9.6159614187763781E-2</v>
-      </c>
-      <c r="AS14" s="127">
-        <f t="shared" si="33"/>
-        <v>1.3677655931616359E-2</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="34"/>
-        <v>7.0095000049071757E-7</v>
-      </c>
-      <c r="AU14" s="95">
-        <f t="shared" si="26"/>
-        <v>6.4198587586128286E-2</v>
-      </c>
-      <c r="AV14" s="128">
-        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>52.967936718397489</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.05</v>
       </c>
       <c r="C16" s="73">
@@ -26068,71 +26058,71 @@
       <c r="H16" s="119"/>
       <c r="I16" s="119"/>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J24" si="36">E16*F16</f>
+        <f t="shared" ref="J16:J24" si="40">E16*F16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K24" si="37">C16</f>
+        <f t="shared" ref="K16:K24" si="41">C16</f>
         <v>9</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:L24" si="38">LN(K16)</f>
+        <f t="shared" ref="L16:L24" si="42">LN(K16)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ref="M16:M24" si="39">1/G16/0.000001</f>
+        <f t="shared" ref="M16:M24" si="43">1/G16/0.000001</f>
         <v>162.33766233766235</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3">
-        <f t="shared" ref="O16:O24" si="40">M16*60/$W$27</f>
+        <f t="shared" ref="O16:O24" si="44">M16*60/$W$27</f>
         <v>9740.2597402597403</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16:Q24" si="41">O16/$W$40*100</f>
+        <f t="shared" ref="Q16:Q24" si="45">O16/$W$40*100</f>
         <v>21.137716450216452</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
-        <f t="shared" ref="S16:S24" si="42">K16</f>
+        <f t="shared" ref="S16:S24" si="46">K16</f>
         <v>9</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16:T24" si="43">J16</f>
+        <f t="shared" ref="T16:T24" si="47">J16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U24" si="44">T16*0.001341022</f>
+        <f t="shared" ref="U16:U24" si="48">T16*0.001341022</f>
         <v>7.8465879264000005E-3</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:V24" si="45">U16/O16*5252</f>
+        <f t="shared" ref="V16:V24" si="49">U16/O16*5252</f>
         <v>4.230922058383821E-3</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W24" si="46">-V16/2/O16</f>
+        <f t="shared" ref="W16:W24" si="50">-V16/2/O16</f>
         <v>-2.1718733233036949E-7</v>
       </c>
       <c r="X16">
         <v>0.18</v>
       </c>
       <c r="Y16">
-        <f t="shared" ref="Y16:Y24" si="47">-X16*W16</f>
+        <f t="shared" ref="Y16:Y24" si="51">-X16*W16</f>
         <v>3.9093719819466504E-8</v>
       </c>
       <c r="Z16">
-        <f t="shared" ref="Z16:Z24" si="48">Y16/6.66*2048.5</f>
+        <f t="shared" ref="Z16:Z24" si="52">Y16/6.66*2048.5</f>
         <v>1.2024547304831401E-5</v>
       </c>
       <c r="AA16">
-        <f t="shared" ref="AA16:AA24" si="49">Z16*144</f>
+        <f t="shared" ref="AA16:AA24" si="53">Z16*144</f>
         <v>1.7315348118957217E-3</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C17" s="73">
@@ -26151,71 +26141,71 @@
       <c r="H17" s="119"/>
       <c r="I17" s="119"/>
       <c r="J17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2.5649493574615367</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>196.85039370078741</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11811.023622047245</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>25.631561679790028</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>13</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="U17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1.0455948534E-2</v>
       </c>
       <c r="V17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>4.6494396639814237E-3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-1.9682627910854693E-7</v>
       </c>
       <c r="X17">
         <v>0.18</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>3.5428730239538448E-8</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.0897260344698876E-5</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.569205489636638E-3</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1444444444444444</v>
       </c>
       <c r="C18" s="73">
@@ -26234,71 +26224,71 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
       <c r="J18" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>18.150000000000002</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>26</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>3.2580965380214821</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>314.46540880503147</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18867.92452830189</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>40.946016771488473</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>26</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>18.150000000000002</v>
       </c>
       <c r="U18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2.4339549300000006E-2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>6.7750595849508004E-3</v>
       </c>
       <c r="W18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-1.7953907900119617E-7</v>
       </c>
       <c r="X18">
         <v>0.18</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>3.2317034220215307E-8</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>9.9401568468635218E-6</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.4313825859483471E-3</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.2</v>
       </c>
       <c r="C19" s="73">
@@ -26317,71 +26307,71 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
       <c r="J19" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>28.516800000000003</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>36</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>3.5835189384561099</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>22641.509433962266</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>49.135220125786169</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>36</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>28.516800000000003</v>
       </c>
       <c r="U19">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>3.8241656169600007E-2</v>
       </c>
       <c r="V19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8.8706620372876483E-3</v>
       </c>
       <c r="W19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-1.9589378665676887E-7</v>
       </c>
       <c r="X19">
         <v>0.18</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>3.5260881598218394E-8</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.0845633026118675E-5</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.5617711557610891E-3</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="C20" s="73">
@@ -26400,71 +26390,71 @@
       <c r="H20" s="119"/>
       <c r="I20" s="119"/>
       <c r="J20" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>51.68</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>56</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>4.0253516907351496</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>483.09178743961354</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>28985.507246376812</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>62.902576489533011</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>56</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>51.68</v>
       </c>
       <c r="U20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>6.9304016960000006E-2</v>
       </c>
       <c r="V20">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.255747204905024E-2</v>
       </c>
       <c r="W20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-2.1661639284611662E-7</v>
       </c>
       <c r="X20">
         <v>0.18</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>3.8990950712300994E-8</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.1992937317439727E-5</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.7269829737113207E-3</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C21" s="73">
@@ -26483,71 +26473,71 @@
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>59.349000000000004</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>64</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>500.00000000000006</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>30000.000000000004</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>65.104166666666671</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>64</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>59.349000000000004</v>
       </c>
       <c r="U21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7.9588314678000011E-2</v>
       </c>
       <c r="V21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.39332609562952E-2</v>
       </c>
       <c r="W21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-2.3222101593825331E-7</v>
       </c>
       <c r="X21">
         <v>0.18</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4.1799782868885597E-8</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.2856885166203024E-5</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.8513914639332356E-3</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C22" s="73">
@@ -26566,71 +26556,71 @@
       <c r="H22" s="119"/>
       <c r="I22" s="119"/>
       <c r="J22" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>84.545999999999992</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>89</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>568.18181818181813</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>34090.909090909088</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>73.982007575757564</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>89</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>84.545999999999992</v>
       </c>
       <c r="U22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.11337804601199999</v>
       </c>
       <c r="V22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.7466870597880702E-2</v>
       </c>
       <c r="W22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-2.5618076876891696E-7</v>
       </c>
       <c r="X22">
         <v>0.18</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4.611253837840505E-8</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.4183413643868279E-5</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2.0424115647170323E-3</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7944444444444443</v>
       </c>
       <c r="C23" s="73">
@@ -26649,65 +26639,65 @@
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="J23" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>153.26999999999998</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>143</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>4.962844630259907</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>699.30069930069931</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>41958.041958041955</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>91.054778554778551</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>143</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>153.26999999999998</v>
       </c>
       <c r="U23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.20553844193999998</v>
       </c>
       <c r="V23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.5727794880141638E-2</v>
       </c>
       <c r="W23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-3.0658955565502124E-7</v>
       </c>
       <c r="X23">
         <v>0.18</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>5.5186120017903822E-8</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.6974289317819214E-5</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2.4442976617659669E-3</v>
       </c>
       <c r="AB23" s="97"/>
@@ -26718,7 +26708,7 @@
     </row>
     <row r="24" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C24" s="73">
@@ -26737,65 +26727,65 @@
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
       <c r="J24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>214.45920000000001</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>165</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>781.25000000000011</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>46875.000000000007</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>101.72526041666667</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>165</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>214.45920000000001</v>
       </c>
       <c r="U24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.28759450530240005</v>
       </c>
       <c r="V24">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>3.2222855292761705E-2</v>
       </c>
       <c r="W24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-3.4371045645612482E-7</v>
       </c>
       <c r="X24">
         <v>0.18</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>6.1867882162102469E-8</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.9029482974334368E-5</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2.7402455483041491E-3</v>
       </c>
     </row>
@@ -27161,7 +27151,8 @@
         <v>100</v>
       </c>
       <c r="W34" s="133">
-        <v>4.4999999999999999E-8</v>
+        <f>0.000000045*0.75</f>
+        <v>3.3750000000000001E-8</v>
       </c>
       <c r="X34" t="s">
         <v>101</v>
@@ -27469,11 +27460,11 @@
         <v>90</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:C48" si="50">B43/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C43:C48" si="54">B43/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
       <c r="D43" s="88">
-        <f t="shared" ref="D43:D48" si="51">(C43-1)*180</f>
+        <f t="shared" ref="D43:D48" si="55">(C43-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E43" s="6"/>
@@ -27509,11 +27500,11 @@
         <v>100</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.568888888888889</v>
       </c>
       <c r="D44" s="88">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E44" s="6"/>
@@ -27557,11 +27548,11 @@
         <v>110</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.6727777777777779</v>
       </c>
       <c r="D45" s="88">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E45" s="6"/>
@@ -27599,11 +27590,11 @@
         <v>114</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.7143333333333333</v>
       </c>
       <c r="D46" s="88">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>128.57999999999998</v>
       </c>
       <c r="V46" s="19"/>
@@ -27628,11 +27619,11 @@
         <v>127.5</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.8545833333333333</v>
       </c>
       <c r="D47" s="88">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>153.82499999999999</v>
       </c>
       <c r="V47" s="19"/>
@@ -27649,11 +27640,11 @@
         <v>136.4</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.9470444444444444</v>
       </c>
       <c r="D48" s="88">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>170.46799999999999</v>
       </c>
       <c r="V48" s="21"/>
@@ -27852,7 +27843,7 @@
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B65" s="113">
-        <f t="shared" ref="B65" si="52">C65/180+1</f>
+        <f t="shared" ref="B65" si="56">C65/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C65" s="142">
@@ -27875,43 +27866,43 @@
         <v>6.2283100000000005</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" ref="K65" si="53">C65</f>
+        <f t="shared" ref="K65" si="57">C65</f>
         <v>11</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" ref="L65" si="54">LN(K65)</f>
+        <f t="shared" ref="L65" si="58">LN(K65)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" ref="M65" si="55">1/G65/0.000001</f>
+        <f t="shared" ref="M65" si="59">1/G65/0.000001</f>
         <v>194.5525291828794</v>
       </c>
       <c r="N65" s="3" t="e">
-        <f t="shared" ref="N65" si="56">1/H65/0.000001</f>
+        <f t="shared" ref="N65" si="60">1/H65/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" ref="O65" si="57">M65*60/$W$27</f>
+        <f t="shared" ref="O65" si="61">M65*60/$W$27</f>
         <v>11673.151750972764</v>
       </c>
       <c r="P65" s="3" t="e">
-        <f t="shared" ref="P65" si="58">N65*60/$W$27</f>
+        <f t="shared" ref="P65" si="62">N65*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="3">
-        <f t="shared" ref="Q65" si="59">O65/$W$40*100</f>
+        <f t="shared" ref="Q65" si="63">O65/$W$40*100</f>
         <v>25.332360570687424</v>
       </c>
       <c r="R65" s="3" t="e">
-        <f t="shared" ref="R65" si="60">P65/$W$40*100</f>
+        <f t="shared" ref="R65" si="64">P65/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S65" s="3">
-        <f t="shared" ref="S65" si="61">K65</f>
+        <f t="shared" ref="S65" si="65">K65</f>
         <v>11</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" ref="T65" si="62">J65</f>
+        <f t="shared" ref="T65" si="66">J65</f>
         <v>6.2283100000000005</v>
       </c>
       <c r="U65">
@@ -27919,11 +27910,11 @@
         <v>8.3523007328200009E-3</v>
       </c>
       <c r="V65" s="127">
-        <f t="shared" ref="V65" si="63">U65/O65*5252</f>
+        <f t="shared" ref="V65" si="67">U65/O65*5252</f>
         <v>3.7578782821113517E-3</v>
       </c>
       <c r="W65">
-        <f t="shared" ref="W65" si="64">-V65/2/O65</f>
+        <f t="shared" ref="W65" si="68">-V65/2/O65</f>
         <v>-1.6096245308376956E-7</v>
       </c>
     </row>
@@ -27948,59 +27939,59 @@
       <c r="H66" s="143"/>
       <c r="I66" s="142"/>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J79" si="65">E66*F66</f>
+        <f t="shared" ref="J66:J79" si="69">E66*F66</f>
         <v>9.0048700000000004</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" ref="K66:K79" si="66">C66</f>
+        <f t="shared" ref="K66:K79" si="70">C66</f>
         <v>15</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" ref="L66:L79" si="67">LN(K66)</f>
+        <f t="shared" ref="L66:L79" si="71">LN(K66)</f>
         <v>2.7080502011022101</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" ref="M66:M79" si="68">1/G66/0.000001</f>
+        <f t="shared" ref="M66:M79" si="72">1/G66/0.000001</f>
         <v>239.23444976076556</v>
       </c>
       <c r="N66" s="3" t="e">
-        <f t="shared" ref="N66:N77" si="69">1/H66/0.000001</f>
+        <f t="shared" ref="N66:N77" si="73">1/H66/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O79" si="70">M66*60/$W$27</f>
+        <f t="shared" ref="O66:O79" si="74">M66*60/$W$27</f>
         <v>14354.066985645934</v>
       </c>
       <c r="P66" s="3" t="e">
-        <f t="shared" ref="P66:P77" si="71">N66*60/$W$27</f>
+        <f t="shared" ref="P66:P77" si="75">N66*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="3">
-        <f t="shared" ref="Q66:Q79" si="72">O66/$W$40*100</f>
+        <f t="shared" ref="Q66:Q79" si="76">O66/$W$40*100</f>
         <v>31.150318979266352</v>
       </c>
       <c r="R66" s="3" t="e">
-        <f t="shared" ref="R66:R77" si="73">P66/$W$40*100</f>
+        <f t="shared" ref="R66:R77" si="77">P66/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" ref="S66:S79" si="74">K66</f>
+        <f t="shared" ref="S66:S79" si="78">K66</f>
         <v>15</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:T79" si="75">J66</f>
+        <f t="shared" ref="T66:T79" si="79">J66</f>
         <v>9.0048700000000004</v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66:U79" si="76">T66*0.001341022</f>
+        <f t="shared" ref="U66:U79" si="80">T66*0.001341022</f>
         <v>1.2075728777140001E-2</v>
       </c>
       <c r="V66" s="127">
-        <f t="shared" ref="V66:V79" si="77">U66/O66*5252</f>
+        <f t="shared" ref="V66:V79" si="81">U66/O66*5252</f>
         <v>4.4183803517819035E-3</v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66:W79" si="78">-V66/2/O66</f>
+        <f t="shared" ref="W66:W79" si="82">-V66/2/O66</f>
         <v>-1.5390691558706963E-7</v>
       </c>
     </row>
@@ -28025,65 +28016,65 @@
       <c r="H67" s="143"/>
       <c r="I67" s="142"/>
       <c r="J67" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>12.79233</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>20</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>285.71428571428572</v>
       </c>
       <c r="N67" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="3">
-        <f t="shared" si="70"/>
-        <v>17142.857142857145</v>
-      </c>
-      <c r="P67" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q67" s="3">
-        <f t="shared" si="72"/>
-        <v>37.202380952380956</v>
-      </c>
-      <c r="R67" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O67" s="3">
+        <f t="shared" si="74"/>
+        <v>17142.857142857145</v>
+      </c>
+      <c r="P67" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q67" s="3">
+        <f t="shared" si="76"/>
+        <v>37.202380952380956</v>
+      </c>
+      <c r="R67" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S67" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>20</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>12.79233</v>
       </c>
       <c r="U67">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>1.7154795961259999E-2</v>
       </c>
       <c r="V67" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>5.255657655998021E-3</v>
       </c>
       <c r="W67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.5329001496660892E-7</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B68" s="113">
-        <f t="shared" ref="B68:B79" si="79">C68/180+1</f>
+        <f t="shared" ref="B68:B79" si="83">C68/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C68" s="142">
@@ -28102,65 +28093,65 @@
       <c r="H68" s="142"/>
       <c r="I68" s="142"/>
       <c r="J68" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>17.3124</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>25</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>332.22591362126246</v>
       </c>
       <c r="N68" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="3">
-        <f t="shared" si="70"/>
-        <v>19933.554817275748</v>
-      </c>
-      <c r="P68" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q68" s="3">
-        <f t="shared" si="72"/>
-        <v>43.258582502768547</v>
-      </c>
-      <c r="R68" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O68" s="3">
+        <f t="shared" si="74"/>
+        <v>19933.554817275748</v>
+      </c>
+      <c r="P68" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q68" s="3">
+        <f t="shared" si="76"/>
+        <v>43.258582502768547</v>
+      </c>
+      <c r="R68" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S68" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>25</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>17.3124</v>
       </c>
       <c r="U68">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>2.3216309272800002E-2</v>
       </c>
       <c r="V68" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>6.1169248244207376E-3</v>
       </c>
       <c r="W68">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.5343286434588683E-7</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B69" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C69" s="142">
@@ -28179,65 +28170,65 @@
       <c r="H69" s="142"/>
       <c r="I69" s="142"/>
       <c r="J69" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>23.790480000000002</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>30</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>3.4011973816621555</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N69" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O69" s="3">
-        <f t="shared" si="70"/>
-        <v>22641.509433962266</v>
-      </c>
-      <c r="P69" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q69" s="3">
-        <f t="shared" si="72"/>
-        <v>49.135220125786169</v>
-      </c>
-      <c r="R69" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O69" s="3">
+        <f t="shared" si="74"/>
+        <v>22641.509433962266</v>
+      </c>
+      <c r="P69" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q69" s="3">
+        <f t="shared" si="76"/>
+        <v>49.135220125786169</v>
+      </c>
+      <c r="R69" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S69" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>30</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>23.790480000000002</v>
       </c>
       <c r="U69">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>3.1903557070560008E-2</v>
       </c>
       <c r="V69" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>7.4004554432773335E-3</v>
       </c>
       <c r="W69">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.6342672437237443E-7</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B70" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C70" s="142">
@@ -28256,65 +28247,65 @@
       <c r="H70" s="142"/>
       <c r="I70" s="142"/>
       <c r="J70" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>28.926969999999997</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>35</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>400.00000000000006</v>
       </c>
       <c r="N70" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O70" s="3">
-        <f t="shared" si="70"/>
-        <v>24000.000000000004</v>
-      </c>
-      <c r="P70" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q70" s="3">
-        <f t="shared" si="72"/>
-        <v>52.083333333333336</v>
-      </c>
-      <c r="R70" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O70" s="3">
+        <f t="shared" si="74"/>
+        <v>24000.000000000004</v>
+      </c>
+      <c r="P70" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q70" s="3">
+        <f t="shared" si="76"/>
+        <v>52.083333333333336</v>
+      </c>
+      <c r="R70" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>35</v>
       </c>
       <c r="T70" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>28.926969999999997</v>
       </c>
       <c r="U70">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>3.8791703163339998E-2</v>
       </c>
       <c r="V70" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>8.4889177089109008E-3</v>
       </c>
       <c r="W70">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.7685245226897709E-7</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B71" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C71" s="142">
@@ -28333,65 +28324,65 @@
       <c r="H71" s="142"/>
       <c r="I71" s="142"/>
       <c r="J71" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>32.374200000000002</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>40</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>3.6888794541139363</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>440.52863436123351</v>
       </c>
       <c r="N71" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" s="3">
-        <f t="shared" si="70"/>
-        <v>26431.718061674012</v>
-      </c>
-      <c r="P71" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q71" s="3">
-        <f t="shared" si="72"/>
-        <v>57.360499265785613</v>
-      </c>
-      <c r="R71" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O71" s="3">
+        <f t="shared" si="74"/>
+        <v>26431.718061674012</v>
+      </c>
+      <c r="P71" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q71" s="3">
+        <f t="shared" si="76"/>
+        <v>57.360499265785613</v>
+      </c>
+      <c r="R71" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S71" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>40</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>32.374200000000002</v>
       </c>
       <c r="U71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>4.3414514432400006E-2</v>
       </c>
       <c r="V71" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>8.6264929607275023E-3</v>
       </c>
       <c r="W71">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.6318449184042857E-7</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B72" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C72" s="142">
@@ -28410,65 +28401,65 @@
       <c r="H72" s="142"/>
       <c r="I72" s="142"/>
       <c r="J72" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>42.16</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>50</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>3.912023005428146</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N72" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O72" s="3">
-        <f t="shared" si="70"/>
-        <v>29702.970297029704</v>
-      </c>
-      <c r="P72" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q72" s="3">
-        <f t="shared" si="72"/>
-        <v>64.459570957095707</v>
-      </c>
-      <c r="R72" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O72" s="3">
+        <f t="shared" si="74"/>
+        <v>29702.970297029704</v>
+      </c>
+      <c r="P72" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q72" s="3">
+        <f t="shared" si="76"/>
+        <v>64.459570957095707</v>
+      </c>
+      <c r="R72" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S72" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>50</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>42.16</v>
       </c>
       <c r="U72">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>5.6537487519999999E-2</v>
       </c>
       <c r="V72" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>9.9968077766530127E-3</v>
       </c>
       <c r="W72">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.6827959757365904E-7</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B73" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C73" s="142">
@@ -28487,65 +28478,65 @@
       <c r="H73" s="142"/>
       <c r="I73" s="142"/>
       <c r="J73" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>52.727999999999994</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>60</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>4.0943445622221004</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>534.75935828877004</v>
       </c>
       <c r="N73" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O73" s="3">
-        <f t="shared" si="70"/>
-        <v>32085.561497326202</v>
-      </c>
-      <c r="P73" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q73" s="3">
-        <f t="shared" si="72"/>
-        <v>69.630124777183596</v>
-      </c>
-      <c r="R73" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O73" s="3">
+        <f t="shared" si="74"/>
+        <v>32085.561497326202</v>
+      </c>
+      <c r="P73" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q73" s="3">
+        <f t="shared" si="76"/>
+        <v>69.630124777183596</v>
+      </c>
+      <c r="R73" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S73" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>60</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>52.727999999999994</v>
       </c>
       <c r="U73">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>7.0709408015999994E-2</v>
       </c>
       <c r="V73" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1.1574234439717663E-2</v>
       </c>
       <c r="W73">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.8036515335226691E-7</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B74" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C74" s="142">
@@ -28564,65 +28555,65 @@
       <c r="H74" s="142"/>
       <c r="I74" s="142"/>
       <c r="J74" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>64.944000000000003</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>75</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>606.06060606060612</v>
       </c>
       <c r="N74" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O74" s="3">
-        <f t="shared" si="70"/>
-        <v>36363.636363636368</v>
-      </c>
-      <c r="P74" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q74" s="3">
-        <f t="shared" si="72"/>
-        <v>78.914141414141426</v>
-      </c>
-      <c r="R74" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O74" s="3">
+        <f t="shared" si="74"/>
+        <v>36363.636363636368</v>
+      </c>
+      <c r="P74" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q74" s="3">
+        <f t="shared" si="76"/>
+        <v>78.914141414141426</v>
+      </c>
+      <c r="R74" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S74" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>75</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>64.944000000000003</v>
       </c>
       <c r="U74">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>8.7091332768000004E-2</v>
       </c>
       <c r="V74" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1.257860119168224E-2</v>
       </c>
       <c r="W74">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.7295576638563078E-7</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B75" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.5</v>
       </c>
       <c r="C75" s="142">
@@ -28641,65 +28632,65 @@
       <c r="H75" s="142"/>
       <c r="I75" s="142"/>
       <c r="J75" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>81.4572</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>90</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>4.499809670330265</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>662.25165562913912</v>
       </c>
       <c r="N75" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O75" s="3">
-        <f t="shared" si="70"/>
-        <v>39735.099337748346</v>
-      </c>
-      <c r="P75" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q75" s="3">
-        <f t="shared" si="72"/>
-        <v>86.230684326710815</v>
-      </c>
-      <c r="R75" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O75" s="3">
+        <f t="shared" si="74"/>
+        <v>39735.099337748346</v>
+      </c>
+      <c r="P75" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q75" s="3">
+        <f t="shared" si="76"/>
+        <v>86.230684326710815</v>
+      </c>
+      <c r="R75" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S75" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>90</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>81.4572</v>
       </c>
       <c r="U75">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.10923589725840001</v>
       </c>
       <c r="V75" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1.4438291132094773E-2</v>
       </c>
       <c r="W75">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.8168183007885921E-7</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B76" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C76" s="142">
@@ -28718,65 +28709,65 @@
       <c r="H76" s="142"/>
       <c r="I76" s="142"/>
       <c r="J76" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>94.001099999999994</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>109</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>4.6913478822291435</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>680.27210884353735</v>
       </c>
       <c r="N76" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O76" s="3">
-        <f t="shared" si="70"/>
-        <v>40816.326530612241</v>
-      </c>
-      <c r="P76" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q76" s="3">
-        <f t="shared" si="72"/>
-        <v>88.577097505668917</v>
-      </c>
-      <c r="R76" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O76" s="3">
+        <f t="shared" si="74"/>
+        <v>40816.326530612241</v>
+      </c>
+      <c r="P76" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q76" s="3">
+        <f t="shared" si="76"/>
+        <v>88.577097505668917</v>
+      </c>
+      <c r="R76" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S76" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>109</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>94.001099999999994</v>
       </c>
       <c r="U76">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.12605754312420001</v>
       </c>
       <c r="V76" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1.6220328303963312E-2</v>
       </c>
       <c r="W76">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-1.986990217235506E-7</v>
       </c>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="116">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C77" s="142">
@@ -28795,65 +28786,65 @@
       <c r="H77" s="142"/>
       <c r="I77" s="142"/>
       <c r="J77" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>117.19680000000001</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>130</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>4.8675344504555822</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>724.63768115942037</v>
       </c>
       <c r="N77" s="3" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O77" s="3">
-        <f t="shared" si="70"/>
-        <v>43478.260869565223</v>
-      </c>
-      <c r="P77" s="3" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q77" s="3">
-        <f t="shared" si="72"/>
-        <v>94.353864734299535</v>
-      </c>
-      <c r="R77" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O77" s="3">
+        <f t="shared" si="74"/>
+        <v>43478.260869565223</v>
+      </c>
+      <c r="P77" s="3" t="e">
+        <f t="shared" si="75"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q77" s="3">
+        <f t="shared" si="76"/>
+        <v>94.353864734299535</v>
+      </c>
+      <c r="R77" s="3" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S77" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>130</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>117.19680000000001</v>
       </c>
       <c r="U77">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.15716348712960002</v>
       </c>
       <c r="V77" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1.8984720591307163E-2</v>
       </c>
       <c r="W77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-2.1832428680003235E-7</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B78" s="144">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.8277777777777777</v>
       </c>
       <c r="C78" s="142">
@@ -28872,53 +28863,53 @@
       <c r="H78" s="142"/>
       <c r="I78" s="142"/>
       <c r="J78" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>139.86000000000001</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>149</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>5.0039463059454592</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>763.35877862595419</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>45801.526717557252</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>99.395674300254456</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>149</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>139.86000000000001</v>
       </c>
       <c r="U78">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.18755533692000004</v>
       </c>
       <c r="V78" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>2.1506720410833846E-2</v>
       </c>
       <c r="W78">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-2.3478169781826949E-7</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B79" s="144">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C79" s="142">
@@ -28937,47 +28928,47 @@
       <c r="H79" s="142"/>
       <c r="I79" s="142"/>
       <c r="J79" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>177.22499999999999</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>164</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>5.0998664278241987</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>798.72204472843453</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>47923.322683706072</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>104.00026624068157</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>164</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>177.22499999999999</v>
       </c>
       <c r="U79">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.23766262395000001</v>
       </c>
       <c r="V79" s="127">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>2.6045858907228683E-2</v>
       </c>
       <c r="W79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-2.7174512793208589E-7</v>
       </c>
     </row>
@@ -28994,7 +28985,7 @@
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B83" s="113">
-        <f t="shared" ref="B83" si="80">C83/180+1</f>
+        <f t="shared" ref="B83" si="84">C83/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C83" s="142">
@@ -29017,43 +29008,43 @@
         <v>7.9545599999999999</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ref="K83:K97" si="81">C83</f>
+        <f t="shared" ref="K83:K97" si="85">C83</f>
         <v>11</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" ref="L83:L97" si="82">LN(K83)</f>
+        <f t="shared" ref="L83:L97" si="86">LN(K83)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" ref="M83:M97" si="83">1/G83/0.000001</f>
+        <f t="shared" ref="M83:M97" si="87">1/G83/0.000001</f>
         <v>204.91803278688525</v>
       </c>
       <c r="N83" s="3" t="e">
-        <f t="shared" ref="N83:N95" si="84">1/H83/0.000001</f>
+        <f t="shared" ref="N83:N95" si="88">1/H83/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O83" s="3">
-        <f t="shared" ref="O83:O97" si="85">M83*60/$W$27</f>
+        <f t="shared" ref="O83:O97" si="89">M83*60/$W$27</f>
         <v>12295.081967213115</v>
       </c>
       <c r="P83" s="3" t="e">
-        <f t="shared" ref="P83:P95" si="86">N83*60/$W$27</f>
+        <f t="shared" ref="P83:P95" si="90">N83*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q83" s="3">
-        <f t="shared" ref="Q83:Q97" si="87">O83/$W$40*100</f>
+        <f t="shared" ref="Q83:Q97" si="91">O83/$W$40*100</f>
         <v>26.682035519125684</v>
       </c>
       <c r="R83" s="3" t="e">
-        <f t="shared" ref="R83:R95" si="88">P83/$W$40*100</f>
+        <f t="shared" ref="R83:R95" si="92">P83/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S83" s="3">
-        <f t="shared" ref="S83:S97" si="89">K83</f>
+        <f t="shared" ref="S83:S97" si="93">K83</f>
         <v>11</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" ref="T83:T97" si="90">J83</f>
+        <f t="shared" ref="T83:T97" si="94">J83</f>
         <v>7.9545599999999999</v>
       </c>
       <c r="U83">
@@ -29061,11 +29052,11 @@
         <v>1.0667239960320001E-2</v>
       </c>
       <c r="V83" s="127">
-        <f t="shared" ref="V83:V97" si="91">U83/O83*5252</f>
+        <f t="shared" ref="V83:V97" si="95">U83/O83*5252</f>
         <v>4.5566466674235194E-3</v>
       </c>
       <c r="W83">
-        <f t="shared" ref="W83:W97" si="92">-V83/2/O83</f>
+        <f t="shared" ref="W83:W97" si="96">-V83/2/O83</f>
         <v>-1.8530363114188979E-7</v>
       </c>
     </row>
@@ -29090,59 +29081,59 @@
       <c r="H84" s="143"/>
       <c r="I84" s="142"/>
       <c r="J84" s="2">
-        <f t="shared" ref="J84:J97" si="93">E84*F84</f>
+        <f t="shared" ref="J84:J97" si="97">E84*F84</f>
         <v>10.736400000000001</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>15</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>2.7080502011022101</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>256.41025641025641</v>
       </c>
       <c r="N84" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O84" s="3">
-        <f t="shared" si="85"/>
-        <v>15384.615384615385</v>
-      </c>
-      <c r="P84" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q84" s="3">
-        <f t="shared" si="87"/>
-        <v>33.386752136752136</v>
-      </c>
-      <c r="R84" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O84" s="3">
+        <f t="shared" si="89"/>
+        <v>15384.615384615385</v>
+      </c>
+      <c r="P84" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q84" s="3">
+        <f t="shared" si="91"/>
+        <v>33.386752136752136</v>
+      </c>
+      <c r="R84" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S84" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>15</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>10.736400000000001</v>
       </c>
       <c r="U84">
-        <f t="shared" ref="U84:U97" si="94">T84*0.001341022</f>
+        <f t="shared" ref="U84:U97" si="98">T84*0.001341022</f>
         <v>1.4397748600800004E-2</v>
       </c>
       <c r="V84" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>4.9151034173411049E-3</v>
       </c>
       <c r="W84">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.5974086106358592E-7</v>
       </c>
     </row>
@@ -29167,65 +29158,65 @@
       <c r="H85" s="143"/>
       <c r="I85" s="142"/>
       <c r="J85" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>14.331199999999999</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>20</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="M85" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>306.74846625766872</v>
       </c>
       <c r="N85" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O85" s="3">
-        <f t="shared" si="85"/>
-        <v>18404.907975460123</v>
-      </c>
-      <c r="P85" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q85" s="3">
-        <f t="shared" si="87"/>
-        <v>39.941206543967276</v>
-      </c>
-      <c r="R85" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O85" s="3">
+        <f t="shared" si="89"/>
+        <v>18404.907975460123</v>
+      </c>
+      <c r="P85" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q85" s="3">
+        <f t="shared" si="91"/>
+        <v>39.941206543967276</v>
+      </c>
+      <c r="R85" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S85" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>20</v>
       </c>
       <c r="T85" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>14.331199999999999</v>
       </c>
       <c r="U85">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>1.92184544864E-2</v>
       </c>
       <c r="V85" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>5.4841525476331228E-3</v>
       </c>
       <c r="W85">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.4898614421069984E-7</v>
       </c>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B86" s="113">
-        <f t="shared" ref="B86:B97" si="95">C86/180+1</f>
+        <f t="shared" ref="B86:B97" si="99">C86/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C86" s="142">
@@ -29244,65 +29235,65 @@
       <c r="H86" s="142"/>
       <c r="I86" s="142"/>
       <c r="J86" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>18.75488</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>25</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>348.43205574912895</v>
       </c>
       <c r="N86" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O86" s="3">
-        <f t="shared" si="85"/>
-        <v>20905.923344947736</v>
-      </c>
-      <c r="P86" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q86" s="3">
-        <f t="shared" si="87"/>
-        <v>45.368757259001164</v>
-      </c>
-      <c r="R86" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O86" s="3">
+        <f t="shared" si="89"/>
+        <v>20905.923344947736</v>
+      </c>
+      <c r="P86" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q86" s="3">
+        <f t="shared" si="91"/>
+        <v>45.368757259001164</v>
+      </c>
+      <c r="R86" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S86" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>25</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>18.75488</v>
       </c>
       <c r="U86">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>2.5150706687360001E-2</v>
       </c>
       <c r="V86" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>6.3183773011363711E-3</v>
       </c>
       <c r="W86">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.5111452378551155E-7</v>
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B87" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C87" s="142">
@@ -29321,65 +29312,65 @@
       <c r="H87" s="142"/>
       <c r="I87" s="142"/>
       <c r="J87" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>22.945799999999998</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>30</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>3.4011973816621555</v>
       </c>
       <c r="M87" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>378.78787878787881</v>
       </c>
       <c r="N87" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O87" s="3">
-        <f t="shared" si="85"/>
-        <v>22727.272727272728</v>
-      </c>
-      <c r="P87" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q87" s="3">
-        <f t="shared" si="87"/>
-        <v>49.321338383838388</v>
-      </c>
-      <c r="R87" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O87" s="3">
+        <f t="shared" si="89"/>
+        <v>22727.272727272728</v>
+      </c>
+      <c r="P87" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q87" s="3">
+        <f t="shared" si="91"/>
+        <v>49.321338383838388</v>
+      </c>
+      <c r="R87" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S87" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>30</v>
       </c>
       <c r="T87" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>22.945799999999998</v>
       </c>
       <c r="U87">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>3.0770822607600001E-2</v>
       </c>
       <c r="V87" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>7.1107678547450686E-3</v>
       </c>
       <c r="W87">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.564368928043915E-7</v>
       </c>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B88" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C88" s="142">
@@ -29398,65 +29389,65 @@
       <c r="H88" s="142"/>
       <c r="I88" s="142"/>
       <c r="J88" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>28.194600000000005</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>35</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M88" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>416.66666666666669</v>
       </c>
       <c r="N88" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O88" s="3">
-        <f t="shared" si="85"/>
-        <v>25000</v>
-      </c>
-      <c r="P88" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q88" s="3">
-        <f t="shared" si="87"/>
-        <v>54.253472222222221</v>
-      </c>
-      <c r="R88" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O88" s="3">
+        <f t="shared" si="89"/>
+        <v>25000</v>
+      </c>
+      <c r="P88" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" s="3">
+        <f t="shared" si="91"/>
+        <v>54.253472222222221</v>
+      </c>
+      <c r="R88" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S88" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>35</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>28.194600000000005</v>
       </c>
       <c r="U88">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>3.7809578881200012E-2</v>
       </c>
       <c r="V88" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>7.9430363313624987E-3</v>
       </c>
       <c r="W88">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.5886072662724997E-7</v>
       </c>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B89" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C89" s="142">
@@ -29475,65 +29466,65 @@
       <c r="H89" s="142"/>
       <c r="I89" s="142"/>
       <c r="J89" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>31.509999999999994</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>3.6888794541139363</v>
       </c>
       <c r="M89" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>444.44444444444451</v>
       </c>
       <c r="N89" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O89" s="3">
-        <f t="shared" si="85"/>
-        <v>26666.666666666672</v>
-      </c>
-      <c r="P89" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q89" s="3">
-        <f t="shared" si="87"/>
-        <v>57.870370370370381</v>
-      </c>
-      <c r="R89" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O89" s="3">
+        <f t="shared" si="89"/>
+        <v>26666.666666666672</v>
+      </c>
+      <c r="P89" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q89" s="3">
+        <f t="shared" si="91"/>
+        <v>57.870370370370381</v>
+      </c>
+      <c r="R89" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S89" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>40</v>
       </c>
       <c r="T89" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>31.509999999999994</v>
       </c>
       <c r="U89">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>4.2255603219999993E-2</v>
       </c>
       <c r="V89" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>8.3222410541789974E-3</v>
       </c>
       <c r="W89">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.5604201976585617E-7</v>
       </c>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B90" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C90" s="142">
@@ -29552,65 +29543,65 @@
       <c r="H90" s="142"/>
       <c r="I90" s="142"/>
       <c r="J90" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>41.222999999999999</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>50</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>3.912023005428146</v>
       </c>
       <c r="M90" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>497.51243781094524</v>
       </c>
       <c r="N90" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O90" s="3">
-        <f t="shared" si="85"/>
-        <v>29850.746268656716</v>
-      </c>
-      <c r="P90" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q90" s="3">
-        <f t="shared" si="87"/>
-        <v>64.780265339966832</v>
-      </c>
-      <c r="R90" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O90" s="3">
+        <f t="shared" si="89"/>
+        <v>29850.746268656716</v>
+      </c>
+      <c r="P90" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q90" s="3">
+        <f t="shared" si="91"/>
+        <v>64.780265339966832</v>
+      </c>
+      <c r="R90" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S90" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>50</v>
       </c>
       <c r="T90" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>41.222999999999999</v>
       </c>
       <c r="U90">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>5.5280949906E-2</v>
       </c>
       <c r="V90" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>9.7262408883614527E-3</v>
       </c>
       <c r="W90">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.6291453488005435E-7</v>
       </c>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B91" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C91" s="142">
@@ -29629,65 +29620,65 @@
       <c r="H91" s="142"/>
       <c r="I91" s="142"/>
       <c r="J91" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>51.816000000000003</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>60</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>4.0943445622221004</v>
       </c>
       <c r="M91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>531.91489361702133</v>
       </c>
       <c r="N91" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O91" s="3">
-        <f t="shared" si="85"/>
-        <v>31914.89361702128</v>
-      </c>
-      <c r="P91" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q91" s="3">
-        <f t="shared" si="87"/>
-        <v>69.259751773049643</v>
-      </c>
-      <c r="R91" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O91" s="3">
+        <f t="shared" si="89"/>
+        <v>31914.89361702128</v>
+      </c>
+      <c r="P91" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q91" s="3">
+        <f t="shared" si="91"/>
+        <v>69.259751773049643</v>
+      </c>
+      <c r="R91" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S91" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>60</v>
       </c>
       <c r="T91" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>51.816000000000003</v>
       </c>
       <c r="U91">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>6.9486395952000013E-2</v>
       </c>
       <c r="V91" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>1.1434866614916992E-2</v>
       </c>
       <c r="W91">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.7914624363369954E-7</v>
       </c>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B92" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C92" s="142">
@@ -29706,65 +29697,65 @@
       <c r="H92" s="142"/>
       <c r="I92" s="142"/>
       <c r="J92" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>66.481399999999994</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>75</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>613.49693251533745</v>
       </c>
       <c r="N92" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O92" s="3">
-        <f t="shared" si="85"/>
-        <v>36809.815950920245</v>
-      </c>
-      <c r="P92" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q92" s="3">
-        <f t="shared" si="87"/>
-        <v>79.882413087934552</v>
-      </c>
-      <c r="R92" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O92" s="3">
+        <f t="shared" si="89"/>
+        <v>36809.815950920245</v>
+      </c>
+      <c r="P92" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q92" s="3">
+        <f t="shared" si="91"/>
+        <v>79.882413087934552</v>
+      </c>
+      <c r="R92" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S92" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>75</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>66.481399999999994</v>
       </c>
       <c r="U92">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>8.9153019990799998E-2</v>
       </c>
       <c r="V92" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>1.2720293456940682E-2</v>
       </c>
       <c r="W92">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.7278398612344427E-7</v>
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B93" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.5</v>
       </c>
       <c r="C93" s="142">
@@ -29783,65 +29774,65 @@
       <c r="H93" s="142"/>
       <c r="I93" s="142"/>
       <c r="J93" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>80.820000000000007</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>90</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>4.499809670330265</v>
       </c>
       <c r="M93" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>657.89473684210532</v>
       </c>
       <c r="N93" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O93" s="3">
-        <f t="shared" si="85"/>
-        <v>39473.68421052632</v>
-      </c>
-      <c r="P93" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q93" s="3">
-        <f t="shared" si="87"/>
-        <v>85.663377192982466</v>
-      </c>
-      <c r="R93" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O93" s="3">
+        <f t="shared" si="89"/>
+        <v>39473.68421052632</v>
+      </c>
+      <c r="P93" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q93" s="3">
+        <f t="shared" si="91"/>
+        <v>85.663377192982466</v>
+      </c>
+      <c r="R93" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S93" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>90</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>80.820000000000007</v>
       </c>
       <c r="U93">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.10838139804000002</v>
       </c>
       <c r="V93" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>1.4420217263487361E-2</v>
       </c>
       <c r="W93">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.8265608533750656E-7</v>
       </c>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B94" s="113">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C94" s="142">
@@ -29860,65 +29851,65 @@
       <c r="H94" s="142"/>
       <c r="I94" s="142"/>
       <c r="J94" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>99.012000000000015</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>109</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>4.6913478822291435</v>
       </c>
       <c r="M94" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>719.42446043165478</v>
       </c>
       <c r="N94" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O94" s="3">
-        <f t="shared" si="85"/>
-        <v>43165.467625899284</v>
-      </c>
-      <c r="P94" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q94" s="3">
-        <f t="shared" si="87"/>
-        <v>93.675059952038382</v>
-      </c>
-      <c r="R94" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O94" s="3">
+        <f t="shared" si="89"/>
+        <v>43165.467625899284</v>
+      </c>
+      <c r="P94" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q94" s="3">
+        <f t="shared" si="91"/>
+        <v>93.675059952038382</v>
+      </c>
+      <c r="R94" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S94" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>109</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>99.012000000000015</v>
       </c>
       <c r="U94">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.13277727026400002</v>
       </c>
       <c r="V94" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>1.6155187509381233E-2</v>
       </c>
       <c r="W94">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-1.8713092198366594E-7</v>
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="116">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C95" s="142">
@@ -29937,65 +29928,65 @@
       <c r="H95" s="142"/>
       <c r="I95" s="142"/>
       <c r="J95" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>118.28099999999999</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>130</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>4.8675344504555822</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>740.74074074074076</v>
       </c>
       <c r="N95" s="3" t="e">
-        <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O95" s="3">
-        <f t="shared" si="85"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="P95" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q95" s="3">
-        <f t="shared" si="87"/>
-        <v>96.450617283950621</v>
-      </c>
-      <c r="R95" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O95" s="3">
+        <f t="shared" si="89"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="P95" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q95" s="3">
+        <f t="shared" si="91"/>
+        <v>96.450617283950621</v>
+      </c>
+      <c r="R95" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S95" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>130</v>
       </c>
       <c r="T95" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>118.28099999999999</v>
       </c>
       <c r="U95">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.15861742318200001</v>
       </c>
       <c r="V95" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>1.8743820897416941E-2</v>
       </c>
       <c r="W95">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-2.1086798509594057E-7</v>
       </c>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B96" s="144">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.8444444444444446</v>
       </c>
       <c r="C96" s="142">
@@ -30014,53 +30005,53 @@
       <c r="H96" s="142"/>
       <c r="I96" s="142"/>
       <c r="J96" s="1">
+        <f t="shared" si="97"/>
+        <v>152.48400000000001</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" si="85"/>
+        <v>152</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" si="86"/>
+        <v>5.0238805208462765</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="87"/>
+        <v>781.25000000000011</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="89"/>
+        <v>46875.000000000007</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="91"/>
+        <v>101.72526041666667</v>
+      </c>
+      <c r="S96" s="1">
         <f t="shared" si="93"/>
+        <v>152</v>
+      </c>
+      <c r="T96" s="4">
+        <f t="shared" si="94"/>
         <v>152.48400000000001</v>
       </c>
-      <c r="K96" s="1">
-        <f t="shared" si="81"/>
-        <v>152</v>
-      </c>
-      <c r="L96" s="1">
-        <f t="shared" si="82"/>
-        <v>5.0238805208462765</v>
-      </c>
-      <c r="M96" s="1">
-        <f t="shared" si="83"/>
-        <v>781.25000000000011</v>
-      </c>
-      <c r="O96" s="1">
-        <f t="shared" si="85"/>
-        <v>46875.000000000007</v>
-      </c>
-      <c r="Q96" s="1">
-        <f t="shared" si="87"/>
-        <v>101.72526041666667</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="89"/>
-        <v>152</v>
-      </c>
-      <c r="T96" s="4">
-        <f t="shared" si="90"/>
-        <v>152.48400000000001</v>
-      </c>
       <c r="U96">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.20448439864800003</v>
       </c>
       <c r="V96" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>2.2910977316251649E-2</v>
       </c>
       <c r="W96">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-2.4438375804001754E-7</v>
       </c>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B97" s="144">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C97" s="142">
@@ -30079,47 +30070,47 @@
       <c r="H97" s="142"/>
       <c r="I97" s="142"/>
       <c r="J97" s="1">
+        <f t="shared" si="97"/>
+        <v>183.08879999999999</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="85"/>
+        <v>164</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="86"/>
+        <v>5.0998664278241987</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="87"/>
+        <v>809.06148867313925</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="89"/>
+        <v>48543.689320388352</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="91"/>
+        <v>105.346548004315</v>
+      </c>
+      <c r="S97" s="1">
         <f t="shared" si="93"/>
+        <v>164</v>
+      </c>
+      <c r="T97" s="4">
+        <f t="shared" si="94"/>
         <v>183.08879999999999</v>
       </c>
-      <c r="K97" s="1">
-        <f t="shared" si="81"/>
-        <v>164</v>
-      </c>
-      <c r="L97" s="1">
-        <f t="shared" si="82"/>
-        <v>5.0998664278241987</v>
-      </c>
-      <c r="M97" s="1">
-        <f t="shared" si="83"/>
-        <v>809.06148867313925</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="85"/>
-        <v>48543.689320388352</v>
-      </c>
-      <c r="Q97" s="1">
-        <f t="shared" si="87"/>
-        <v>105.346548004315</v>
-      </c>
-      <c r="S97" s="1">
-        <f t="shared" si="89"/>
-        <v>164</v>
-      </c>
-      <c r="T97" s="4">
-        <f t="shared" si="90"/>
-        <v>183.08879999999999</v>
-      </c>
       <c r="U97">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.24552610875360001</v>
       </c>
       <c r="V97" s="127">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>2.6563764337382487E-2</v>
       </c>
       <c r="W97">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>-2.7360677267503959E-7</v>
       </c>
     </row>

--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5256" yWindow="1476" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21012" windowHeight="6516"/>
   </bookViews>
   <sheets>
     <sheet name="CalPhotonTurnigy" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="138">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -412,6 +412,30 @@
   </si>
   <si>
     <t>P_NF_SHP</t>
+  </si>
+  <si>
+    <t>R=</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>J=</t>
+  </si>
+  <si>
+    <t>lbm-in^2</t>
+  </si>
+  <si>
+    <t>lbm-ft^2</t>
+  </si>
+  <si>
+    <t>ft-lbf/(rpm/sec)</t>
   </si>
 </sst>
 </file>
@@ -841,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1117,6 +1141,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,6 +1205,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,6 +1291,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1376,11 +1404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189887696"/>
-        <c:axId val="189884168"/>
+        <c:axId val="114033832"/>
+        <c:axId val="229195280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189887696"/>
+        <c:axId val="114033832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +1465,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189884168"/>
+        <c:crossAx val="229195280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189884168"/>
+        <c:axId val="229195280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189887696"/>
+        <c:crossAx val="114033832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1571,7 +1599,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.14480446194225724"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.79297331583552066"/>
+          <c:w val="0.80551664446655091"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
       </c:layout>
@@ -2045,11 +2073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193533720"/>
-        <c:axId val="193530976"/>
+        <c:axId val="229859224"/>
+        <c:axId val="229859616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193533720"/>
+        <c:axId val="229859224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,12 +2134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193530976"/>
+        <c:crossAx val="229859616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193530976"/>
+        <c:axId val="229859616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193533720"/>
+        <c:crossAx val="229859224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2186,10 +2214,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16111111111111112"/>
-          <c:y val="6.6549285505978426E-2"/>
-          <c:w val="0.50736242344706917"/>
-          <c:h val="0.22338291046952463"/>
+          <c:x val="0.13541508596222046"/>
+          <c:y val="5.7642494087036714E-2"/>
+          <c:w val="0.56731963108465833"/>
+          <c:h val="0.26791641024831814"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2441,11 +2469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193534504"/>
-        <c:axId val="191804568"/>
+        <c:axId val="229862752"/>
+        <c:axId val="229863536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193534504"/>
+        <c:axId val="229862752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,12 +2530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191804568"/>
+        <c:crossAx val="229863536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191804568"/>
+        <c:axId val="229863536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,7 +2592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193534504"/>
+        <c:crossAx val="229862752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2749,28 +2777,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.60930706286473135</c:v>
+                  <c:v>0.63117376414629089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14911606853248396</c:v>
+                  <c:v>0.15446751893509364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10234438398732533</c:v>
+                  <c:v>0.10601730066413874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9730514015894774E-2</c:v>
+                  <c:v>8.2591868231639068E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0570209923522328E-2</c:v>
+                  <c:v>6.2743942623635571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2569820898573004E-2</c:v>
+                  <c:v>5.4456437089446509E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0626312655586855E-2</c:v>
+                  <c:v>5.2443180575386959E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8148940689596222E-2</c:v>
+                  <c:v>4.987690113392914E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,11 +2813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191801040"/>
-        <c:axId val="191803784"/>
+        <c:axId val="229860008"/>
+        <c:axId val="229860400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191801040"/>
+        <c:axId val="229860008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,12 +2874,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191803784"/>
+        <c:crossAx val="229860400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191803784"/>
+        <c:axId val="229860400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191801040"/>
+        <c:crossAx val="229860008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3199,11 +3227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191799864"/>
-        <c:axId val="191801432"/>
+        <c:axId val="229196848"/>
+        <c:axId val="229198416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191799864"/>
+        <c:axId val="229196848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,12 +3288,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191801432"/>
+        <c:crossAx val="229198416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191801432"/>
+        <c:axId val="229198416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3322,7 +3350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191799864"/>
+        <c:crossAx val="229196848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3620,8 +3648,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191803392"/>
-        <c:axId val="191804176"/>
+        <c:axId val="230240024"/>
+        <c:axId val="230238064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3802,11 +3830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191800648"/>
-        <c:axId val="191802216"/>
+        <c:axId val="230239632"/>
+        <c:axId val="230238848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191803392"/>
+        <c:axId val="230240024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -3925,13 +3953,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191804176"/>
+        <c:crossAx val="230238064"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191804176"/>
+        <c:axId val="230238064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4045,12 +4073,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191803392"/>
+        <c:crossAx val="230240024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191802216"/>
+        <c:axId val="230238848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -4150,13 +4178,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191800648"/>
+        <c:crossAx val="230239632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191800648"/>
+        <c:axId val="230239632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191802216"/>
+        <c:crossAx val="230238848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4433,11 +4461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191805744"/>
-        <c:axId val="191799472"/>
+        <c:axId val="230240416"/>
+        <c:axId val="230240808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191805744"/>
+        <c:axId val="230240416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4467,12 +4495,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191799472"/>
+        <c:crossAx val="230240808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191799472"/>
+        <c:axId val="230240808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,7 +4529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191805744"/>
+        <c:crossAx val="230240416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4948,11 +4976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191806528"/>
-        <c:axId val="191800256"/>
+        <c:axId val="230244728"/>
+        <c:axId val="230244336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191806528"/>
+        <c:axId val="230244728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,12 +5086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191800256"/>
+        <c:crossAx val="230244336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191800256"/>
+        <c:axId val="230244336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5115,7 +5143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191806528"/>
+        <c:crossAx val="230244728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5340,11 +5368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547371304"/>
-        <c:axId val="547367384"/>
+        <c:axId val="230245120"/>
+        <c:axId val="230237672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547371304"/>
+        <c:axId val="230245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,12 +5382,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547367384"/>
+        <c:crossAx val="230237672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547367384"/>
+        <c:axId val="230237672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,7 +5398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547371304"/>
+        <c:crossAx val="230245120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5516,11 +5544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547370912"/>
-        <c:axId val="547367776"/>
+        <c:axId val="230241984"/>
+        <c:axId val="230239240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547370912"/>
+        <c:axId val="230241984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,7 +5558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547367776"/>
+        <c:crossAx val="230239240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -5539,7 +5567,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547367776"/>
+        <c:axId val="230239240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5550,7 +5578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547370912"/>
+        <c:crossAx val="230241984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5826,11 +5854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547366600"/>
-        <c:axId val="547372088"/>
+        <c:axId val="230242768"/>
+        <c:axId val="230238456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547366600"/>
+        <c:axId val="230242768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,12 +5886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547372088"/>
+        <c:crossAx val="230238456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547372088"/>
+        <c:axId val="230238456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547366600"/>
+        <c:crossAx val="230242768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5945,6 +5973,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6154,8 +6183,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189890440"/>
-        <c:axId val="189889264"/>
+        <c:axId val="229196456"/>
+        <c:axId val="229193320"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6336,11 +6365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189884952"/>
-        <c:axId val="189889656"/>
+        <c:axId val="229198024"/>
+        <c:axId val="229193712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189890440"/>
+        <c:axId val="229196456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -6393,6 +6422,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6459,13 +6489,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189889264"/>
+        <c:crossAx val="229193320"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189889264"/>
+        <c:axId val="229193320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6513,6 +6543,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6579,12 +6610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189890440"/>
+        <c:crossAx val="229196456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189889656"/>
+        <c:axId val="229193712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -6618,6 +6649,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6684,13 +6716,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189884952"/>
+        <c:crossAx val="229198024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189884952"/>
+        <c:axId val="229198024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6700,7 +6732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189889656"/>
+        <c:crossAx val="229193712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6960,11 +6992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547368168"/>
-        <c:axId val="547373264"/>
+        <c:axId val="230574624"/>
+        <c:axId val="230569920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547368168"/>
+        <c:axId val="230574624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,12 +7006,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547373264"/>
+        <c:crossAx val="230569920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547373264"/>
+        <c:axId val="230569920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6990,7 +7022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547368168"/>
+        <c:crossAx val="230574624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7224,11 +7256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547369344"/>
-        <c:axId val="547371696"/>
+        <c:axId val="230570704"/>
+        <c:axId val="230574232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547369344"/>
+        <c:axId val="230570704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7340,12 +7372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547371696"/>
+        <c:crossAx val="230574232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547371696"/>
+        <c:axId val="230574232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7457,7 +7489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547369344"/>
+        <c:crossAx val="230570704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7736,11 +7768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547370128"/>
-        <c:axId val="547366208"/>
+        <c:axId val="230575016"/>
+        <c:axId val="230570312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547370128"/>
+        <c:axId val="230575016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,12 +7829,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547366208"/>
+        <c:crossAx val="230570312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547366208"/>
+        <c:axId val="230570312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7859,7 +7891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547370128"/>
+        <c:crossAx val="230575016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8157,8 +8189,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547368560"/>
-        <c:axId val="547370520"/>
+        <c:axId val="230571488"/>
+        <c:axId val="230573448"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8326,11 +8358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191853440"/>
-        <c:axId val="191851480"/>
+        <c:axId val="230572272"/>
+        <c:axId val="230571880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547368560"/>
+        <c:axId val="230571488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -8449,12 +8481,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547370520"/>
+        <c:crossAx val="230573448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547370520"/>
+        <c:axId val="230573448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8566,12 +8598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547368560"/>
+        <c:crossAx val="230571488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191851480"/>
+        <c:axId val="230571880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8614,12 +8646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191853440"/>
+        <c:crossAx val="230572272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191853440"/>
+        <c:axId val="230572272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8629,7 +8661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191851480"/>
+        <c:crossAx val="230571880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8883,11 +8915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191849520"/>
-        <c:axId val="191855008"/>
+        <c:axId val="230572664"/>
+        <c:axId val="230567960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191849520"/>
+        <c:axId val="230572664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8917,12 +8949,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191855008"/>
+        <c:crossAx val="230567960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191855008"/>
+        <c:axId val="230567960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,7 +8983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191849520"/>
+        <c:crossAx val="230572664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9086,11 +9118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191847560"/>
-        <c:axId val="191854616"/>
+        <c:axId val="230568744"/>
+        <c:axId val="230569136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191847560"/>
+        <c:axId val="230568744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9118,12 +9150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191854616"/>
+        <c:crossAx val="230569136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191854616"/>
+        <c:axId val="230569136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9134,7 +9166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191847560"/>
+        <c:crossAx val="230568744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9333,11 +9365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191851088"/>
-        <c:axId val="191851872"/>
+        <c:axId val="160628224"/>
+        <c:axId val="160630184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191851088"/>
+        <c:axId val="160628224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -9396,12 +9428,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191851872"/>
+        <c:crossAx val="160630184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191851872"/>
+        <c:axId val="160630184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9458,7 +9490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191851088"/>
+        <c:crossAx val="160628224"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9721,11 +9753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191852656"/>
-        <c:axId val="191847952"/>
+        <c:axId val="160628616"/>
+        <c:axId val="160623520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191852656"/>
+        <c:axId val="160628616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9782,12 +9814,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191847952"/>
+        <c:crossAx val="160623520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191847952"/>
+        <c:axId val="160623520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9844,7 +9876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191852656"/>
+        <c:crossAx val="160628616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10110,11 +10142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191848344"/>
-        <c:axId val="191848736"/>
+        <c:axId val="160623912"/>
+        <c:axId val="160626264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191848344"/>
+        <c:axId val="160623912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10171,12 +10203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191848736"/>
+        <c:crossAx val="160626264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191848736"/>
+        <c:axId val="160626264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10233,7 +10265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191848344"/>
+        <c:crossAx val="160623912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10506,11 +10538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191850304"/>
-        <c:axId val="191850696"/>
+        <c:axId val="160627048"/>
+        <c:axId val="160629008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191850304"/>
+        <c:axId val="160627048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10622,12 +10654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191850696"/>
+        <c:crossAx val="160629008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191850696"/>
+        <c:axId val="160629008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10740,7 +10772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191850304"/>
+        <c:crossAx val="160627048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10824,6 +10856,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10966,11 +10999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189888088"/>
-        <c:axId val="189890048"/>
+        <c:axId val="229199592"/>
+        <c:axId val="229192536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189888088"/>
+        <c:axId val="229199592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10994,18 +11027,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189890048"/>
+        <c:crossAx val="229192536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189890048"/>
+        <c:axId val="229192536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11028,13 +11062,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189888088"/>
+        <c:crossAx val="229199592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11482,11 +11517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189890832"/>
-        <c:axId val="189891224"/>
+        <c:axId val="229195672"/>
+        <c:axId val="229199200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189890832"/>
+        <c:axId val="229195672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11593,12 +11628,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189891224"/>
+        <c:crossAx val="229199200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189891224"/>
+        <c:axId val="229199200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11650,7 +11685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189890832"/>
+        <c:crossAx val="229195672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11755,6 +11790,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11790,6 +11826,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -11875,11 +11912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193534896"/>
-        <c:axId val="193531368"/>
+        <c:axId val="229197632"/>
+        <c:axId val="229194888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193534896"/>
+        <c:axId val="229197632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11889,12 +11926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193531368"/>
+        <c:crossAx val="229194888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193531368"/>
+        <c:axId val="229194888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11905,13 +11942,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193534896"/>
+        <c:crossAx val="229197632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12016,28 +12054,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="2">
-                  <c:v>6.5152157342529105E-2</c:v>
+                  <c:v>6.0776307669472354E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1323034156723039E-2</c:v>
+                  <c:v>5.100831488809876E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2053248205798003E-2</c:v>
+                  <c:v>4.2255790518811003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9303363778358415E-2</c:v>
+                  <c:v>3.828117848042939E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7591968953610664E-2</c:v>
+                  <c:v>3.5280401043114931E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5869618560784957E-2</c:v>
+                  <c:v>3.1720625068073854E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.50593609921641E-2</c:v>
+                  <c:v>2.9815481304774936E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4853316760204004E-2</c:v>
+                  <c:v>2.9303952282942341E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12052,11 +12090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193531760"/>
-        <c:axId val="193535680"/>
+        <c:axId val="229863144"/>
+        <c:axId val="229861184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193531760"/>
+        <c:axId val="229863144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12066,7 +12104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193535680"/>
+        <c:crossAx val="229861184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -12077,7 +12115,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193535680"/>
+        <c:axId val="229861184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12088,7 +12126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193531760"/>
+        <c:crossAx val="229863144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12213,25 +12251,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.60930706286473135</c:v>
+                  <c:v>0.63117376414629089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14911606853248396</c:v>
+                  <c:v>0.15446751893509364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10234438398732533</c:v>
+                  <c:v>0.10601730066413874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9730514015894774E-2</c:v>
+                  <c:v>8.2591868231639068E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0570209923522328E-2</c:v>
+                  <c:v>6.2743942623635571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2569820898573004E-2</c:v>
+                  <c:v>5.4456437089446509E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0626312655586855E-2</c:v>
+                  <c:v>5.2443180575386959E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12315,28 +12353,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>6.5152157342529105E-2</c:v>
+                  <c:v>6.0776307669472354E-2</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
-                  <c:v>4.1323034156723039E-2</c:v>
+                  <c:v>5.100831488809876E-2</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.000">
-                  <c:v>3.2053248205798003E-2</c:v>
+                  <c:v>4.2255790518811003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.000">
-                  <c:v>2.9303363778358415E-2</c:v>
+                  <c:v>3.828117848042939E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.000">
-                  <c:v>2.7591968953610664E-2</c:v>
+                  <c:v>3.5280401043114931E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.000">
-                  <c:v>2.5869618560784957E-2</c:v>
+                  <c:v>3.1720625068073854E-2</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>2.50593609921641E-2</c:v>
+                  <c:v>2.9815481304774936E-2</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
-                  <c:v>2.4853316760204004E-2</c:v>
+                  <c:v>2.9303952282942341E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12351,11 +12389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193536072"/>
-        <c:axId val="193532544"/>
+        <c:axId val="229856088"/>
+        <c:axId val="229857656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193536072"/>
+        <c:axId val="229856088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12384,12 +12422,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193532544"/>
+        <c:crossAx val="229857656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193532544"/>
+        <c:axId val="229857656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12400,7 +12438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193536072"/>
+        <c:crossAx val="229856088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12602,11 +12640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193536464"/>
-        <c:axId val="193536856"/>
+        <c:axId val="229858440"/>
+        <c:axId val="229857264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193536464"/>
+        <c:axId val="229858440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12616,12 +12654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193536856"/>
+        <c:crossAx val="229857264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193536856"/>
+        <c:axId val="229857264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12632,7 +12670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193536464"/>
+        <c:crossAx val="229858440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13008,11 +13046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193529800"/>
-        <c:axId val="193530192"/>
+        <c:axId val="229862360"/>
+        <c:axId val="229858832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193529800"/>
+        <c:axId val="229862360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13069,12 +13107,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193530192"/>
+        <c:crossAx val="229858832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193530192"/>
+        <c:axId val="229858832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13131,7 +13169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193529800"/>
+        <c:crossAx val="229862360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22847,7 +22885,7 @@
       <xdr:rowOff>114307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
@@ -22880,7 +22918,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>76207</xdr:rowOff>
     </xdr:to>
@@ -22905,16 +22943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22935,16 +22973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22965,16 +23003,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53346</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>303107</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>493613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129546</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22995,13 +23033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>83826</xdr:rowOff>
@@ -23850,9 +23888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ6" sqref="AQ6:AQ13"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23878,13 +23916,16 @@
     <col min="24" max="24" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9.6640625" customWidth="1"/>
     <col min="27" max="27" width="7.88671875" customWidth="1"/>
-    <col min="28" max="32" width="10" customWidth="1"/>
+    <col min="28" max="30" width="10" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="10" customWidth="1"/>
     <col min="33" max="34" width="11.5546875" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" customWidth="1"/>
     <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.6640625" customWidth="1"/>
-    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="72" x14ac:dyDescent="0.3">
@@ -24122,7 +24163,6 @@
         <v>0</v>
       </c>
       <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
       <c r="AR2" s="127"/>
       <c r="AS2" s="127"/>
       <c r="AT2" s="127"/>
@@ -24222,10 +24262,6 @@
         <v>0</v>
       </c>
       <c r="AO3" s="127"/>
-      <c r="AP3" t="e">
-        <f>AO3/AH3*2</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AR3" s="127"/>
       <c r="AS3" s="127"/>
       <c r="AT3" s="127"/>
@@ -24363,10 +24399,6 @@
         <f t="shared" ref="AO4:AO7" si="20">AN4/AH4*5252</f>
         <v>0</v>
       </c>
-      <c r="AP4">
-        <f>AO4/AH4*2</f>
-        <v>0</v>
-      </c>
       <c r="AQ4" s="95"/>
       <c r="AR4" s="127"/>
       <c r="AS4" s="127"/>
@@ -24376,13 +24408,13 @@
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW4" t="e">
-        <f t="shared" ref="AW4:AW14" si="21">$W$33/$W$30/$W$28/AP4</f>
-        <v>#DIV/0!</v>
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="113">
-        <f t="shared" ref="B5:B24" si="22">C5/180+1</f>
+        <f t="shared" ref="B5:B24" si="21">C5/180+1</f>
         <v>1.0722222222222222</v>
       </c>
       <c r="C5" s="73">
@@ -24415,7 +24447,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L14" si="23">LN(K5)</f>
+        <f t="shared" ref="L5:L14" si="22">LN(K5)</f>
         <v>2.5649493574615367</v>
       </c>
       <c r="M5" s="3">
@@ -24501,10 +24533,6 @@
       </c>
       <c r="AO5" s="127">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" ref="AP5:AP14" si="24">AO5/AH5*2</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="95"/>
@@ -24512,12 +24540,12 @@
       <c r="AS5" s="127"/>
       <c r="AU5" s="95"/>
       <c r="AV5" s="128">
-        <f t="shared" ref="AV5:AV14" si="25">$W$31/$W$30</f>
+        <f t="shared" ref="AV5:AV14" si="23">$W$31/$W$30</f>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW5" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24525,7 +24553,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1388888888888888</v>
       </c>
       <c r="C6" s="140">
@@ -24558,7 +24586,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M6" s="3">
@@ -24606,7 +24634,7 @@
         <v>-2.118648839285181E-7</v>
       </c>
       <c r="Y6" s="127">
-        <f t="shared" ref="Y6:Y13" si="26">U6/P6*5252</f>
+        <f t="shared" ref="Y6:Y13" si="24">U6/P6*5252</f>
         <v>1.612370790407857E-2</v>
       </c>
       <c r="Z6">
@@ -24653,16 +24681,16 @@
         <f t="shared" si="20"/>
         <v>4.4935163873351426E-3</v>
       </c>
-      <c r="AP6">
-        <f t="shared" si="24"/>
-        <v>5.1801814976845215E-7</v>
+      <c r="AP6" s="146">
+        <f>$AE$38+$AF$38*2*AH6</f>
+        <v>5.7524412414846242E-7</v>
       </c>
       <c r="AQ6" s="95">
-        <f t="shared" ref="AQ6:AQ13" si="27">$W$34/AP6</f>
-        <v>6.5152157342529105E-2</v>
+        <f>$W$34/AP6</f>
+        <v>6.0776307669472354E-2</v>
       </c>
       <c r="AR6" s="127">
-        <f t="shared" ref="AR6:AR14" si="28">MAX($AD$41+$AM6*($AE$41+$AM6*$AF$41), 0)</f>
+        <f t="shared" ref="AR6:AR14" si="25">MAX($AD$41+$AM6*($AE$41+$AM6*$AF$41), 0)</f>
         <v>2.7938864492301894E-2</v>
       </c>
       <c r="AS6" s="127">
@@ -24674,21 +24702,21 @@
         <v>0</v>
       </c>
       <c r="AU6" s="95" t="e">
-        <f t="shared" ref="AU6:AU14" si="29">$W$34/AT6</f>
+        <f t="shared" ref="AU6:AU14" si="26">$W$34/AT6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV6" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW6">
-        <f t="shared" si="21"/>
-        <v>140.36831132451306</v>
+      <c r="AW6" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C7" s="73">
@@ -24713,7 +24741,7 @@
         <v>6.04</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J13" si="30">E7*F7</f>
+        <f t="shared" ref="J7:J13" si="27">E7*F7</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K7" s="1">
@@ -24721,7 +24749,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M7" s="3">
@@ -24757,7 +24785,7 @@
         <v>29.981099999999998</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U14" si="31">T7*0.001341022</f>
+        <f t="shared" ref="U7:U14" si="28">T7*0.001341022</f>
         <v>4.0205314684200001E-2</v>
       </c>
       <c r="V7" s="127">
@@ -24769,7 +24797,7 @@
         <v>-2.106421479569883E-7</v>
       </c>
       <c r="Y7" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.5949491220891135E-2</v>
       </c>
       <c r="Z7">
@@ -24780,15 +24808,15 @@
         <v>0.18</v>
       </c>
       <c r="AB7">
-        <f t="shared" ref="AB7:AB12" si="32">-AA7*W7</f>
+        <f t="shared" ref="AB7:AB12" si="29">-AA7*W7</f>
         <v>3.7915586632257891E-8</v>
       </c>
       <c r="AC7">
-        <f t="shared" ref="AC7:AC12" si="33">AB7/6.66*2048.5</f>
+        <f t="shared" ref="AC7:AC12" si="30">AB7/6.66*2048.5</f>
         <v>1.1662174056483527E-5</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD7:AD12" si="34">AC7*144</f>
+        <f t="shared" ref="AD7:AD12" si="31">AC7*144</f>
         <v>1.6793530641336278E-3</v>
       </c>
       <c r="AF7" s="95">
@@ -24816,11 +24844,11 @@
         <v>48.121500315323402</v>
       </c>
       <c r="AL7">
-        <f t="shared" ref="AL7:AL14" si="35">AM7/$AD$31</f>
+        <f t="shared" ref="AL7:AL14" si="32">AM7/$AD$31</f>
         <v>26.777112036937371</v>
       </c>
       <c r="AM7">
-        <f t="shared" ref="AM7:AM14" si="36">MAX($AD$36+$AE$36*AH7, 0)</f>
+        <f t="shared" ref="AM7:AM14" si="33">MAX($AD$36+$AE$36*AH7, 0)</f>
         <v>12338.893226620741</v>
       </c>
       <c r="AN7" s="127">
@@ -24831,42 +24859,42 @@
         <f t="shared" si="20"/>
         <v>9.0344945318604156E-3</v>
       </c>
-      <c r="AP7">
-        <f t="shared" si="24"/>
-        <v>8.1673576707844562E-7</v>
+      <c r="AP7" s="146">
+        <f>$AE$38+$AF$38*2*AH7</f>
+        <v>6.8540225159369539E-7</v>
       </c>
       <c r="AQ7" s="95">
-        <f t="shared" si="27"/>
-        <v>4.1323034156723039E-2</v>
+        <f t="shared" ref="AQ7:AQ13" si="34">$W$34/AP7</f>
+        <v>5.100831488809876E-2</v>
       </c>
       <c r="AR7" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1.7253931091405696E-2</v>
       </c>
       <c r="AS7" s="127">
-        <f t="shared" ref="AS7:AS14" si="37">MAX($AD$39+$AM7*($AE$39+$AM7*$AF$39), 0)</f>
+        <f t="shared" ref="AS7:AS14" si="35">MAX($AD$39+$AM7*($AE$39+$AM7*$AF$39), 0)</f>
         <v>4.6547337155228904E-3</v>
       </c>
       <c r="AT7">
-        <f t="shared" ref="AT7:AT14" si="38">$AE$39+2*$AM7*$AF$39</f>
+        <f t="shared" ref="AT7:AT14" si="36">$AE$39+2*$AM7*$AF$39</f>
         <v>5.5390790714488466E-8</v>
       </c>
       <c r="AU7" s="95">
-        <f t="shared" si="29"/>
-        <v>0.60930706286473135</v>
+        <f t="shared" si="26"/>
+        <v>0.63117376414629089</v>
       </c>
       <c r="AV7" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW7">
-        <f t="shared" si="21"/>
-        <v>89.02920118038908</v>
+      <c r="AW7" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3</v>
       </c>
       <c r="C8" s="73">
@@ -24891,7 +24919,7 @@
         <v>8.24</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>53.526600000000002</v>
       </c>
       <c r="K8" s="1">
@@ -24899,7 +24927,7 @@
         <v>54</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3.9889840465642745</v>
       </c>
       <c r="M8" s="3">
@@ -24935,7 +24963,7 @@
         <v>53.526600000000002</v>
       </c>
       <c r="U8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>7.1780348185200002E-2</v>
       </c>
       <c r="V8" s="127">
@@ -24947,7 +24975,7 @@
         <v>-2.4203306550290671E-7</v>
       </c>
       <c r="Y8" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.9980490599439529E-2</v>
       </c>
       <c r="Z8">
@@ -24958,15 +24986,15 @@
         <v>0.18</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>4.3565951790523206E-8</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.3400127964397415E-5</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>1.9296184268732279E-3</v>
       </c>
       <c r="AF8" s="95">
@@ -24994,11 +25022,11 @@
         <v>61.365355815830107</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>40.487898572106765</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>18656.823662026796</v>
       </c>
       <c r="AN8" s="127">
@@ -25009,37 +25037,37 @@
         <f>AN8/AH8*5252</f>
         <v>1.488677985167834E-2</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="24"/>
-        <v>1.0529354087082843E-6</v>
+      <c r="AP8" s="146">
+        <f>$AE$38+$AF$38*2*AH8</f>
+        <v>8.2737095780374586E-7</v>
       </c>
       <c r="AQ8" s="95">
-        <f t="shared" si="27"/>
-        <v>3.2053248205798003E-2</v>
+        <f t="shared" si="34"/>
+        <v>4.2255790518811003E-2</v>
       </c>
       <c r="AR8" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1.700645961187789E-2</v>
       </c>
       <c r="AS8" s="127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>5.5446917623018215E-3</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2.2633375686569812E-7</v>
       </c>
       <c r="AU8" s="95">
-        <f t="shared" si="29"/>
-        <v>0.14911606853248396</v>
+        <f t="shared" si="26"/>
+        <v>0.15446751893509364</v>
       </c>
       <c r="AV8" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW8">
-        <f t="shared" si="21"/>
-        <v>69.057733567578751</v>
+      <c r="AW8" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -25047,7 +25075,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C9" s="140">
@@ -25072,7 +25100,7 @@
         <v>9</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>62.419400000000003</v>
       </c>
       <c r="K9" s="1">
@@ -25080,7 +25108,7 @@
         <v>64</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M9" s="3">
@@ -25116,7 +25144,7 @@
         <v>62.419400000000003</v>
       </c>
       <c r="U9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>8.3705788626800004E-2</v>
       </c>
       <c r="V9" s="127">
@@ -25128,7 +25156,7 @@
         <v>-2.4914401121416636E-7</v>
       </c>
       <c r="Y9" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.1028624022683781E-2</v>
       </c>
       <c r="Z9">
@@ -25139,15 +25167,15 @@
         <v>0.18</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>4.484592201854994E-8</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.3793824512762695E-5</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>1.986310729837828E-3</v>
       </c>
       <c r="AF9" s="95"/>
@@ -25170,12 +25198,12 @@
         <f t="shared" si="11"/>
         <v>69.37902713815086</v>
       </c>
-      <c r="AL9">
-        <f t="shared" si="35"/>
+      <c r="AL9" s="136">
+        <f t="shared" si="32"/>
         <v>48.784103318462122</v>
       </c>
       <c r="AM9" s="136">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>22479.714809147346</v>
       </c>
       <c r="AN9" s="137">
@@ -25183,45 +25211,45 @@
         <v>0.11227974297099894</v>
       </c>
       <c r="AO9" s="137">
-        <f t="shared" ref="AO9:AO14" si="39">AN9/AH9*5252</f>
+        <f t="shared" ref="AO9:AO14" si="37">AN9/AH9*5252</f>
         <v>1.8427915666371371E-2</v>
       </c>
-      <c r="AP9" s="136">
-        <f t="shared" si="24"/>
-        <v>1.1517449073517487E-6</v>
-      </c>
-      <c r="AQ9" s="134">
-        <f t="shared" si="27"/>
-        <v>2.9303363778358415E-2</v>
-      </c>
-      <c r="AR9" s="127">
-        <f t="shared" si="28"/>
+      <c r="AP9" s="146">
+        <f>$AE$38+$AF$38*2*AH9</f>
+        <v>9.1327423193558253E-7</v>
+      </c>
+      <c r="AQ9" s="95">
+        <f t="shared" si="34"/>
+        <v>3.828117848042939E-2</v>
+      </c>
+      <c r="AR9" s="137">
+        <f t="shared" si="25"/>
         <v>2.4252107885973234E-2</v>
       </c>
-      <c r="AS9" s="127">
-        <f t="shared" si="37"/>
+      <c r="AS9" s="137">
+        <f t="shared" si="35"/>
         <v>6.6076518189279454E-3</v>
       </c>
-      <c r="AT9">
-        <f t="shared" si="38"/>
+      <c r="AT9" s="136">
+        <f t="shared" si="36"/>
         <v>3.2976894955154272E-7</v>
       </c>
       <c r="AU9" s="134">
-        <f t="shared" si="29"/>
-        <v>0.10234438398732533</v>
+        <f t="shared" si="26"/>
+        <v>0.10601730066413874</v>
       </c>
       <c r="AV9" s="138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW9" s="136">
-        <f t="shared" si="21"/>
-        <v>63.133192475440495</v>
+      <c r="AW9" s="136" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C10" s="73">
@@ -25246,7 +25274,7 @@
         <v>10.8</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K10" s="1">
@@ -25254,7 +25282,7 @@
         <v>89</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M10" s="3">
@@ -25290,7 +25318,7 @@
         <v>88.904499999999999</v>
       </c>
       <c r="U10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0.11922289039900001</v>
       </c>
       <c r="V10" s="127">
@@ -25302,7 +25330,7 @@
         <v>-2.7245726969091031E-7</v>
       </c>
       <c r="Y10" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.5046344815021923E-2</v>
       </c>
       <c r="Z10">
@@ -25313,15 +25341,15 @@
         <v>0.18</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>4.9042308544363851E-8</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.508455991788729E-5</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2.1721766281757697E-3</v>
       </c>
       <c r="AF10" s="95">
@@ -25349,11 +25377,11 @@
         <v>76.625443530610752</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>56.286002466951672</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>25936.589936771332</v>
       </c>
       <c r="AN10" s="127">
@@ -25361,45 +25389,45 @@
         <v>0.14565577213038161</v>
       </c>
       <c r="AO10" s="127">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.1630011632554215E-2</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="24"/>
-        <v>1.2231820083859401E-6</v>
+      <c r="AP10" s="146">
+        <f>$AE$38+$AF$38*2*AH10</f>
+        <v>9.9095284749111105E-7</v>
       </c>
       <c r="AQ10" s="95">
-        <f t="shared" si="27"/>
-        <v>2.7591968953610664E-2</v>
+        <f t="shared" si="34"/>
+        <v>3.5280401043114931E-2</v>
       </c>
       <c r="AR10" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>3.5604651971000559E-2</v>
       </c>
       <c r="AS10" s="127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>7.9092860710449058E-3</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4.2330092081523177E-7</v>
       </c>
       <c r="AU10" s="95">
-        <f t="shared" si="29"/>
-        <v>7.9730514015894774E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.2591868231639068E-2</v>
       </c>
       <c r="AV10" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW10">
-        <f t="shared" si="21"/>
-        <v>59.446045167387481</v>
+      <c r="AW10" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.6944444444444444</v>
       </c>
       <c r="C11" s="73">
@@ -25424,7 +25452,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>135.96</v>
       </c>
       <c r="K11" s="1">
@@ -25432,7 +25460,7 @@
         <v>125</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4.8283137373023015</v>
       </c>
       <c r="M11" s="3">
@@ -25468,7 +25496,7 @@
         <v>135.96</v>
       </c>
       <c r="U11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0.18232535112000003</v>
       </c>
       <c r="V11" s="127">
@@ -25480,7 +25508,7 @@
         <v>-3.072744538788343E-7</v>
       </c>
       <c r="Y11" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>3.1919091469408002E-2</v>
       </c>
       <c r="Z11">
@@ -25491,15 +25519,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>4.3018423543036807E-8</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.3231717811998633E-5</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>1.9053673649278033E-3</v>
       </c>
       <c r="AF11" s="95">
@@ -25527,11 +25555,11 @@
         <v>86.999670134786854</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>67.025987241920845</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>30885.574921077128</v>
       </c>
       <c r="AN11" s="127">
@@ -25539,45 +25567,45 @@
         <v>0.20058398668919561</v>
       </c>
       <c r="AO11" s="127">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.621424573702338E-2</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="24"/>
-        <v>1.3046191585971313E-6</v>
+      <c r="AP11" s="146">
+        <f>$AE$38+$AF$38*2*AH11</f>
+        <v>1.1021603073481309E-6</v>
       </c>
       <c r="AQ11" s="95">
-        <f t="shared" si="27"/>
-        <v>2.5869618560784957E-2</v>
+        <f t="shared" si="34"/>
+        <v>3.1720625068073854E-2</v>
       </c>
       <c r="AR11" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>5.9793221896832324E-2</v>
       </c>
       <c r="AS11" s="127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>1.0335539637470414E-2</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>5.5720460673016836E-7</v>
       </c>
       <c r="AU11" s="95">
-        <f t="shared" si="29"/>
-        <v>6.0570209923522328E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.2743942623635571E-2</v>
       </c>
       <c r="AV11" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW11">
-        <f t="shared" si="21"/>
-        <v>55.735294426179998</v>
+      <c r="AW11" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.8611111111111112</v>
       </c>
       <c r="C12" s="73">
@@ -25602,7 +25630,7 @@
         <v>15.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>192.75</v>
       </c>
       <c r="K12" s="1">
@@ -25610,7 +25638,7 @@
         <v>155</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.0434251169192468</v>
       </c>
       <c r="M12" s="3">
@@ -25646,7 +25674,7 @@
         <v>192.75</v>
       </c>
       <c r="U12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0.25848199050000004</v>
       </c>
       <c r="V12" s="127">
@@ -25658,7 +25686,7 @@
         <v>-3.5079326857702185E-7</v>
       </c>
       <c r="Y12" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>3.936887500907401E-2</v>
       </c>
       <c r="Z12">
@@ -25669,15 +25697,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>4.9111057600783063E-8</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1.5105705930210826E-5</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>2.1752216539503589E-3</v>
       </c>
       <c r="AF12" s="95">
@@ -25705,11 +25733,11 @@
         <v>93.569475515836231</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>73.827420491757252</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>34019.675362601745</v>
       </c>
       <c r="AN12" s="127">
@@ -25717,45 +25745,45 @@
         <v>0.23972060902426137</v>
       </c>
       <c r="AO12" s="127">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.911735620844955E-2</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="24"/>
-        <v>1.3468020996446561E-6</v>
+      <c r="AP12" s="146">
+        <f>$AE$38+$AF$38*2*AH12</f>
+        <v>1.1725859300048959E-6</v>
       </c>
       <c r="AQ12" s="95">
-        <f t="shared" si="27"/>
-        <v>2.50593609921641E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.9815481304774936E-2</v>
       </c>
       <c r="AR12" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>7.9944052947817243E-2</v>
       </c>
       <c r="AS12" s="127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>1.2214758697245927E-2</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>6.4200332858497785E-7</v>
       </c>
       <c r="AU12" s="95">
-        <f t="shared" si="29"/>
-        <v>5.2569820898573004E-2</v>
+        <f t="shared" si="26"/>
+        <v>5.4456437089446509E-2</v>
       </c>
       <c r="AV12" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW12">
-        <f t="shared" si="21"/>
-        <v>53.989619512496461</v>
+      <c r="AW12" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C13" s="73">
@@ -25780,7 +25808,7 @@
         <v>17.2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>209.1</v>
       </c>
       <c r="K13" s="1">
@@ -25788,7 +25816,7 @@
         <v>165</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M13" s="3">
@@ -25824,7 +25852,7 @@
         <v>209.1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0.2804077002</v>
       </c>
       <c r="V13" s="127">
@@ -25836,7 +25864,7 @@
         <v>-3.5423701127962827E-7</v>
       </c>
       <c r="Y13" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.1235634760611192E-2</v>
       </c>
       <c r="Z13">
@@ -25868,11 +25896,11 @@
         <v>95.478935528842101</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>75.804201243764425</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>34930.575933126645</v>
       </c>
       <c r="AN13" s="127">
@@ -25880,45 +25908,45 @@
         <v>0.2517282669713366</v>
       </c>
       <c r="AO13" s="127">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.996112143999155E-2</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="24"/>
-        <v>1.3579676437408819E-6</v>
+      <c r="AP13" s="146">
+        <f>$AE$38+$AF$38*2*AH13</f>
+        <v>1.1930545592190928E-6</v>
       </c>
       <c r="AQ13" s="95">
-        <f t="shared" si="27"/>
-        <v>2.4853316760204004E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.9303952282942341E-2</v>
       </c>
       <c r="AR13" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>8.650361375830759E-2</v>
       </c>
       <c r="AS13" s="127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>1.2810784947188427E-2</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>6.6664938111536608E-7</v>
       </c>
       <c r="AU13" s="95">
-        <f t="shared" si="29"/>
-        <v>5.0626312655586855E-2</v>
+        <f t="shared" si="26"/>
+        <v>5.2443180575386959E-2</v>
       </c>
       <c r="AV13" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW13">
-        <f t="shared" si="21"/>
-        <v>53.545703576661204</v>
+      <c r="AW13" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="116">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C14" s="117">
@@ -25935,7 +25963,7 @@
         <v>180</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.1929568508902104</v>
       </c>
       <c r="O14" s="3">
@@ -25963,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AB14" s="97"/>
@@ -25992,11 +26020,11 @@
         <v>98.136385886777347</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>78.555343808258939</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>36198.302426845723</v>
       </c>
       <c r="AN14" s="127">
@@ -26004,42 +26032,42 @@
         <v>0.26891409453189768</v>
       </c>
       <c r="AO14" s="127">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>3.1135413753683283E-2</v>
       </c>
-      <c r="AP14">
-        <f t="shared" si="24"/>
-        <v>1.3727801651973849E-6</v>
+      <c r="AP14" s="146">
+        <f>$AE$38+$AF$38*2*AH14</f>
+        <v>1.2215413385500106E-6</v>
       </c>
       <c r="AR14" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>9.6159614187763781E-2</v>
       </c>
       <c r="AS14" s="127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>1.3677655931616359E-2</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>7.0095000049071757E-7</v>
       </c>
       <c r="AU14" s="95">
-        <f t="shared" si="29"/>
-        <v>4.8148940689596222E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.987690113392914E-2</v>
       </c>
       <c r="AV14" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0526315789473683E-4</v>
       </c>
-      <c r="AW14">
-        <f t="shared" si="21"/>
-        <v>52.967936718397489</v>
+      <c r="AW14" t="e">
+        <f>$W$33/$W$30/$W$28/#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.05</v>
       </c>
       <c r="C16" s="73">
@@ -26058,71 +26086,71 @@
       <c r="H16" s="119"/>
       <c r="I16" s="119"/>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J24" si="40">E16*F16</f>
+        <f t="shared" ref="J16:J24" si="38">E16*F16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K24" si="41">C16</f>
+        <f t="shared" ref="K16:K24" si="39">C16</f>
         <v>9</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:L24" si="42">LN(K16)</f>
+        <f t="shared" ref="L16:L24" si="40">LN(K16)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ref="M16:M24" si="43">1/G16/0.000001</f>
+        <f t="shared" ref="M16:M24" si="41">1/G16/0.000001</f>
         <v>162.33766233766235</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3">
-        <f t="shared" ref="O16:O24" si="44">M16*60/$W$27</f>
+        <f t="shared" ref="O16:O24" si="42">M16*60/$W$27</f>
         <v>9740.2597402597403</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16:Q24" si="45">O16/$W$40*100</f>
+        <f t="shared" ref="Q16:Q24" si="43">O16/$W$40*100</f>
         <v>21.137716450216452</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
-        <f t="shared" ref="S16:S24" si="46">K16</f>
+        <f t="shared" ref="S16:S24" si="44">K16</f>
         <v>9</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16:T24" si="47">J16</f>
+        <f t="shared" ref="T16:T24" si="45">J16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U24" si="48">T16*0.001341022</f>
+        <f t="shared" ref="U16:U24" si="46">T16*0.001341022</f>
         <v>7.8465879264000005E-3</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:V24" si="49">U16/O16*5252</f>
+        <f t="shared" ref="V16:V24" si="47">U16/O16*5252</f>
         <v>4.230922058383821E-3</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W24" si="50">-V16/2/O16</f>
+        <f t="shared" ref="W16:W24" si="48">-V16/2/O16</f>
         <v>-2.1718733233036949E-7</v>
       </c>
       <c r="X16">
         <v>0.18</v>
       </c>
       <c r="Y16">
-        <f t="shared" ref="Y16:Y24" si="51">-X16*W16</f>
+        <f t="shared" ref="Y16:Y24" si="49">-X16*W16</f>
         <v>3.9093719819466504E-8</v>
       </c>
       <c r="Z16">
-        <f t="shared" ref="Z16:Z24" si="52">Y16/6.66*2048.5</f>
+        <f t="shared" ref="Z16:Z24" si="50">Y16/6.66*2048.5</f>
         <v>1.2024547304831401E-5</v>
       </c>
       <c r="AA16">
-        <f t="shared" ref="AA16:AA24" si="53">Z16*144</f>
+        <f t="shared" ref="AA16:AA24" si="51">Z16*144</f>
         <v>1.7315348118957217E-3</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C17" s="73">
@@ -26141,71 +26169,71 @@
       <c r="H17" s="119"/>
       <c r="I17" s="119"/>
       <c r="J17" s="2">
+        <f t="shared" si="38"/>
+        <v>7.7969999999999997</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="39"/>
+        <v>13</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="40"/>
-        <v>7.7969999999999997</v>
-      </c>
-      <c r="K17" s="1">
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="42"/>
-        <v>2.5649493574615367</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="43"/>
         <v>196.85039370078741</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>11811.023622047245</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>25.631561679790028</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3">
+        <f t="shared" si="44"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="45"/>
+        <v>7.7969999999999997</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="46"/>
-        <v>13</v>
-      </c>
-      <c r="T17" s="4">
+        <v>1.0455948534E-2</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="47"/>
-        <v>7.7969999999999997</v>
-      </c>
-      <c r="U17">
+        <v>4.6494396639814237E-3</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="48"/>
-        <v>1.0455948534E-2</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="49"/>
-        <v>4.6494396639814237E-3</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="50"/>
         <v>-1.9682627910854693E-7</v>
       </c>
       <c r="X17">
         <v>0.18</v>
       </c>
       <c r="Y17">
+        <f t="shared" si="49"/>
+        <v>3.5428730239538448E-8</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="50"/>
+        <v>1.0897260344698876E-5</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="51"/>
-        <v>3.5428730239538448E-8</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="52"/>
-        <v>1.0897260344698876E-5</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="53"/>
         <v>1.569205489636638E-3</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1444444444444444</v>
       </c>
       <c r="C18" s="73">
@@ -26224,71 +26252,71 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
       <c r="J18" s="2">
+        <f t="shared" si="38"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="39"/>
+        <v>26</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="40"/>
-        <v>18.150000000000002</v>
-      </c>
-      <c r="K18" s="1">
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="41"/>
-        <v>26</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="42"/>
-        <v>3.2580965380214821</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="43"/>
         <v>314.46540880503147</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>18867.92452830189</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>40.946016771488473</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
+        <f t="shared" si="44"/>
+        <v>26</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="45"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="46"/>
-        <v>26</v>
-      </c>
-      <c r="T18" s="4">
+        <v>2.4339549300000006E-2</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="47"/>
-        <v>18.150000000000002</v>
-      </c>
-      <c r="U18">
+        <v>6.7750595849508004E-3</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="48"/>
-        <v>2.4339549300000006E-2</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="49"/>
-        <v>6.7750595849508004E-3</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="50"/>
         <v>-1.7953907900119617E-7</v>
       </c>
       <c r="X18">
         <v>0.18</v>
       </c>
       <c r="Y18">
+        <f t="shared" si="49"/>
+        <v>3.2317034220215307E-8</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="50"/>
+        <v>9.9401568468635218E-6</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="51"/>
-        <v>3.2317034220215307E-8</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="52"/>
-        <v>9.9401568468635218E-6</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="53"/>
         <v>1.4313825859483471E-3</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
       <c r="C19" s="73">
@@ -26307,71 +26335,71 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
       <c r="J19" s="2">
+        <f t="shared" si="38"/>
+        <v>28.516800000000003</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="39"/>
+        <v>36</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="40"/>
-        <v>28.516800000000003</v>
-      </c>
-      <c r="K19" s="1">
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="41"/>
-        <v>36</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="42"/>
-        <v>3.5835189384561099</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="43"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>22641.509433962266</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>49.135220125786169</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
+        <f t="shared" si="44"/>
+        <v>36</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="45"/>
+        <v>28.516800000000003</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="46"/>
-        <v>36</v>
-      </c>
-      <c r="T19" s="4">
+        <v>3.8241656169600007E-2</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="47"/>
-        <v>28.516800000000003</v>
-      </c>
-      <c r="U19">
+        <v>8.8706620372876483E-3</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="48"/>
-        <v>3.8241656169600007E-2</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="49"/>
-        <v>8.8706620372876483E-3</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="50"/>
         <v>-1.9589378665676887E-7</v>
       </c>
       <c r="X19">
         <v>0.18</v>
       </c>
       <c r="Y19">
+        <f t="shared" si="49"/>
+        <v>3.5260881598218394E-8</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="50"/>
+        <v>1.0845633026118675E-5</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="51"/>
-        <v>3.5260881598218394E-8</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="52"/>
-        <v>1.0845633026118675E-5</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="53"/>
         <v>1.5617711557610891E-3</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="C20" s="73">
@@ -26390,71 +26418,71 @@
       <c r="H20" s="119"/>
       <c r="I20" s="119"/>
       <c r="J20" s="2">
+        <f t="shared" si="38"/>
+        <v>51.68</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="39"/>
+        <v>56</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="40"/>
-        <v>51.68</v>
-      </c>
-      <c r="K20" s="1">
+        <v>4.0253516907351496</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="41"/>
-        <v>56</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="42"/>
-        <v>4.0253516907351496</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="43"/>
         <v>483.09178743961354</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>28985.507246376812</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>62.902576489533011</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
+        <f t="shared" si="44"/>
+        <v>56</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="45"/>
+        <v>51.68</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="46"/>
-        <v>56</v>
-      </c>
-      <c r="T20" s="4">
+        <v>6.9304016960000006E-2</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="47"/>
-        <v>51.68</v>
-      </c>
-      <c r="U20">
+        <v>1.255747204905024E-2</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="48"/>
-        <v>6.9304016960000006E-2</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="49"/>
-        <v>1.255747204905024E-2</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="50"/>
         <v>-2.1661639284611662E-7</v>
       </c>
       <c r="X20">
         <v>0.18</v>
       </c>
       <c r="Y20">
+        <f t="shared" si="49"/>
+        <v>3.8990950712300994E-8</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="50"/>
+        <v>1.1992937317439727E-5</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="51"/>
-        <v>3.8990950712300994E-8</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="52"/>
-        <v>1.1992937317439727E-5</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="53"/>
         <v>1.7269829737113207E-3</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C21" s="73">
@@ -26473,71 +26501,71 @@
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="2">
+        <f t="shared" si="38"/>
+        <v>59.349000000000004</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="39"/>
+        <v>64</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="40"/>
-        <v>59.349000000000004</v>
-      </c>
-      <c r="K21" s="1">
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="41"/>
-        <v>64</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="42"/>
-        <v>4.1588830833596715</v>
-      </c>
-      <c r="M21" s="3">
-        <f t="shared" si="43"/>
         <v>500.00000000000006</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>30000.000000000004</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>65.104166666666671</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
+        <f t="shared" si="44"/>
+        <v>64</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="45"/>
+        <v>59.349000000000004</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="46"/>
-        <v>64</v>
-      </c>
-      <c r="T21" s="4">
+        <v>7.9588314678000011E-2</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="47"/>
-        <v>59.349000000000004</v>
-      </c>
-      <c r="U21">
+        <v>1.39332609562952E-2</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="48"/>
-        <v>7.9588314678000011E-2</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="49"/>
-        <v>1.39332609562952E-2</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="50"/>
         <v>-2.3222101593825331E-7</v>
       </c>
       <c r="X21">
         <v>0.18</v>
       </c>
       <c r="Y21">
+        <f t="shared" si="49"/>
+        <v>4.1799782868885597E-8</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="50"/>
+        <v>1.2856885166203024E-5</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="51"/>
-        <v>4.1799782868885597E-8</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="52"/>
-        <v>1.2856885166203024E-5</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="53"/>
         <v>1.8513914639332356E-3</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C22" s="73">
@@ -26556,71 +26584,71 @@
       <c r="H22" s="119"/>
       <c r="I22" s="119"/>
       <c r="J22" s="2">
+        <f t="shared" si="38"/>
+        <v>84.545999999999992</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="39"/>
+        <v>89</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="40"/>
-        <v>84.545999999999992</v>
-      </c>
-      <c r="K22" s="1">
+        <v>4.4886363697321396</v>
+      </c>
+      <c r="M22" s="3">
         <f t="shared" si="41"/>
-        <v>89</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="42"/>
-        <v>4.4886363697321396</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="43"/>
         <v>568.18181818181813</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>34090.909090909088</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>73.982007575757564</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
+        <f t="shared" si="44"/>
+        <v>89</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="45"/>
+        <v>84.545999999999992</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="46"/>
-        <v>89</v>
-      </c>
-      <c r="T22" s="4">
+        <v>0.11337804601199999</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="47"/>
-        <v>84.545999999999992</v>
-      </c>
-      <c r="U22">
+        <v>1.7466870597880702E-2</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="48"/>
-        <v>0.11337804601199999</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="49"/>
-        <v>1.7466870597880702E-2</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="50"/>
         <v>-2.5618076876891696E-7</v>
       </c>
       <c r="X22">
         <v>0.18</v>
       </c>
       <c r="Y22">
+        <f t="shared" si="49"/>
+        <v>4.611253837840505E-8</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="50"/>
+        <v>1.4183413643868279E-5</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="51"/>
-        <v>4.611253837840505E-8</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="52"/>
-        <v>1.4183413643868279E-5</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="53"/>
         <v>2.0424115647170323E-3</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.7944444444444443</v>
       </c>
       <c r="C23" s="73">
@@ -26639,65 +26667,65 @@
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="J23" s="2">
+        <f t="shared" si="38"/>
+        <v>153.26999999999998</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="39"/>
+        <v>143</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="40"/>
-        <v>153.26999999999998</v>
-      </c>
-      <c r="K23" s="1">
+        <v>4.962844630259907</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="41"/>
-        <v>143</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="42"/>
-        <v>4.962844630259907</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="43"/>
         <v>699.30069930069931</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>41958.041958041955</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>91.054778554778551</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
+        <f t="shared" si="44"/>
+        <v>143</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="45"/>
+        <v>153.26999999999998</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="46"/>
-        <v>143</v>
-      </c>
-      <c r="T23" s="4">
+        <v>0.20553844193999998</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="47"/>
-        <v>153.26999999999998</v>
-      </c>
-      <c r="U23">
+        <v>2.5727794880141638E-2</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="48"/>
-        <v>0.20553844193999998</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="49"/>
-        <v>2.5727794880141638E-2</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="50"/>
         <v>-3.0658955565502124E-7</v>
       </c>
       <c r="X23">
         <v>0.18</v>
       </c>
       <c r="Y23">
+        <f t="shared" si="49"/>
+        <v>5.5186120017903822E-8</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="50"/>
+        <v>1.6974289317819214E-5</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="51"/>
-        <v>5.5186120017903822E-8</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="52"/>
-        <v>1.6974289317819214E-5</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="53"/>
         <v>2.4442976617659669E-3</v>
       </c>
       <c r="AB23" s="97"/>
@@ -26708,7 +26736,7 @@
     </row>
     <row r="24" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C24" s="73">
@@ -26727,65 +26755,65 @@
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
       <c r="J24" s="2">
+        <f t="shared" si="38"/>
+        <v>214.45920000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="39"/>
+        <v>165</v>
+      </c>
+      <c r="L24" s="1">
         <f t="shared" si="40"/>
-        <v>214.45920000000001</v>
-      </c>
-      <c r="K24" s="1">
+        <v>5.1059454739005803</v>
+      </c>
+      <c r="M24" s="3">
         <f t="shared" si="41"/>
-        <v>165</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="42"/>
-        <v>5.1059454739005803</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" si="43"/>
         <v>781.25000000000011</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>46875.000000000007</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>101.72526041666667</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
+        <f t="shared" si="44"/>
+        <v>165</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="45"/>
+        <v>214.45920000000001</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="46"/>
-        <v>165</v>
-      </c>
-      <c r="T24" s="4">
+        <v>0.28759450530240005</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="47"/>
-        <v>214.45920000000001</v>
-      </c>
-      <c r="U24">
+        <v>3.2222855292761705E-2</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="48"/>
-        <v>0.28759450530240005</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="49"/>
-        <v>3.2222855292761705E-2</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="50"/>
         <v>-3.4371045645612482E-7</v>
       </c>
       <c r="X24">
         <v>0.18</v>
       </c>
       <c r="Y24">
+        <f t="shared" si="49"/>
+        <v>6.1867882162102469E-8</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="50"/>
+        <v>1.9029482974334368E-5</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="51"/>
-        <v>6.1867882162102469E-8</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="52"/>
-        <v>1.9029482974334368E-5</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="53"/>
         <v>2.7402455483041491E-3</v>
       </c>
     </row>
@@ -27092,7 +27120,7 @@
       <c r="AE32" s="30"/>
       <c r="AF32" s="31"/>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -27130,7 +27158,7 @@
       <c r="AE33" s="30"/>
       <c r="AF33" s="31"/>
     </row>
-    <row r="34" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -27150,9 +27178,9 @@
       <c r="V34" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="W34" s="133">
-        <f>0.000000045*0.75</f>
-        <v>3.3750000000000001E-8</v>
+      <c r="W34" s="145">
+        <f>AE49</f>
+        <v>3.4961213874303103E-8</v>
       </c>
       <c r="X34" t="s">
         <v>101</v>
@@ -27176,7 +27204,7 @@
         <v>-351.19080582654192</v>
       </c>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.3">
       <c r="AC35" s="65" t="s">
         <v>30</v>
       </c>
@@ -27190,7 +27218,7 @@
       </c>
       <c r="AF35" s="31"/>
     </row>
-    <row r="36" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V36" t="s">
         <v>47</v>
       </c>
@@ -27207,7 +27235,7 @@
       </c>
       <c r="AF36" s="31"/>
     </row>
-    <row r="37" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -27249,7 +27277,7 @@
       </c>
       <c r="AF37" s="31"/>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -27287,7 +27315,7 @@
         <v>1.1535982759687281E-11</v>
       </c>
     </row>
-    <row r="39" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -27325,7 +27353,7 @@
         <v>1.3528398887809465E-11</v>
       </c>
     </row>
-    <row r="40" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>72</v>
       </c>
@@ -27381,7 +27409,7 @@
         <v>1.8108928058840401E-10</v>
       </c>
     </row>
-    <row r="41" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>67</v>
       </c>
@@ -27423,7 +27451,7 @@
         <v>1.9076381358433116E-10</v>
       </c>
     </row>
-    <row r="42" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="73">
         <v>87</v>
       </c>
@@ -27455,16 +27483,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:48" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="73">
         <v>90</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:C48" si="54">B43/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C43:C48" si="52">B43/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
       <c r="D43" s="88">
-        <f t="shared" ref="D43:D48" si="55">(C43-1)*180</f>
+        <f t="shared" ref="D43:D48" si="53">(C43-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E43" s="6"/>
@@ -27495,16 +27523,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B44" s="73">
         <v>100</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>1.568888888888889</v>
       </c>
       <c r="D44" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E44" s="6"/>
@@ -27542,17 +27570,20 @@
       <c r="AA44" t="s">
         <v>70</v>
       </c>
+      <c r="AD44" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B45" s="73">
         <v>110</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>1.6727777777777779</v>
       </c>
       <c r="D45" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E45" s="6"/>
@@ -27584,17 +27615,26 @@
       <c r="Z45" s="60">
         <v>77</v>
       </c>
+      <c r="AD45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE45">
+        <v>25</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B46" s="73">
         <v>114</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>1.7143333333333333</v>
       </c>
       <c r="D46" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>128.57999999999998</v>
       </c>
       <c r="V46" s="19"/>
@@ -27607,23 +27647,32 @@
         <f>(Z45-Z44)/(W45-W44)</f>
         <v>19.903662674997172</v>
       </c>
+      <c r="AD46" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE46">
+        <v>2.1797</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>133</v>
+      </c>
       <c r="AG46" s="104"/>
       <c r="AH46" s="104"/>
+      <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
-      <c r="AR46" s="3"/>
+      <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
-      <c r="AV46" s="3"/>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B47" s="73">
         <v>127.5</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>1.8545833333333333</v>
       </c>
       <c r="D47" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>153.82499999999999</v>
       </c>
       <c r="V47" s="19"/>
@@ -27634,17 +27683,27 @@
         <f>Z45-Z46*(W45-W44)</f>
         <v>-22.518313374985865</v>
       </c>
+      <c r="AD47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE47">
+        <f>(AE45/25.4)^2*AE46/1000*2.2/3</f>
+        <v>1.5484983053299442E-3</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="48" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="80">
         <v>136.4</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>1.9470444444444444</v>
       </c>
       <c r="D48" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>170.46799999999999</v>
       </c>
       <c r="V48" s="21"/>
@@ -27653,6 +27712,28 @@
       <c r="Y48" s="47"/>
       <c r="Z48" s="48" t="s">
         <v>19</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE48">
+        <f>AE47/144</f>
+        <v>1.0753460453680168E-5</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AD49" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE49">
+        <f>AE48/2048.5*6.66</f>
+        <v>3.4961213874303103E-8</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -27843,7 +27924,7 @@
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B65" s="113">
-        <f t="shared" ref="B65" si="56">C65/180+1</f>
+        <f t="shared" ref="B65" si="54">C65/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C65" s="142">
@@ -27866,43 +27947,43 @@
         <v>6.2283100000000005</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" ref="K65" si="57">C65</f>
+        <f t="shared" ref="K65" si="55">C65</f>
         <v>11</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" ref="L65" si="58">LN(K65)</f>
+        <f t="shared" ref="L65" si="56">LN(K65)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" ref="M65" si="59">1/G65/0.000001</f>
+        <f t="shared" ref="M65" si="57">1/G65/0.000001</f>
         <v>194.5525291828794</v>
       </c>
       <c r="N65" s="3" t="e">
-        <f t="shared" ref="N65" si="60">1/H65/0.000001</f>
+        <f t="shared" ref="N65" si="58">1/H65/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" ref="O65" si="61">M65*60/$W$27</f>
+        <f t="shared" ref="O65" si="59">M65*60/$W$27</f>
         <v>11673.151750972764</v>
       </c>
       <c r="P65" s="3" t="e">
-        <f t="shared" ref="P65" si="62">N65*60/$W$27</f>
+        <f t="shared" ref="P65" si="60">N65*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="3">
-        <f t="shared" ref="Q65" si="63">O65/$W$40*100</f>
+        <f t="shared" ref="Q65" si="61">O65/$W$40*100</f>
         <v>25.332360570687424</v>
       </c>
       <c r="R65" s="3" t="e">
-        <f t="shared" ref="R65" si="64">P65/$W$40*100</f>
+        <f t="shared" ref="R65" si="62">P65/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S65" s="3">
-        <f t="shared" ref="S65" si="65">K65</f>
+        <f t="shared" ref="S65" si="63">K65</f>
         <v>11</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" ref="T65" si="66">J65</f>
+        <f t="shared" ref="T65" si="64">J65</f>
         <v>6.2283100000000005</v>
       </c>
       <c r="U65">
@@ -27910,11 +27991,11 @@
         <v>8.3523007328200009E-3</v>
       </c>
       <c r="V65" s="127">
-        <f t="shared" ref="V65" si="67">U65/O65*5252</f>
+        <f t="shared" ref="V65" si="65">U65/O65*5252</f>
         <v>3.7578782821113517E-3</v>
       </c>
       <c r="W65">
-        <f t="shared" ref="W65" si="68">-V65/2/O65</f>
+        <f t="shared" ref="W65" si="66">-V65/2/O65</f>
         <v>-1.6096245308376956E-7</v>
       </c>
     </row>
@@ -27939,59 +28020,59 @@
       <c r="H66" s="143"/>
       <c r="I66" s="142"/>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J79" si="69">E66*F66</f>
+        <f t="shared" ref="J66:J79" si="67">E66*F66</f>
         <v>9.0048700000000004</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" ref="K66:K79" si="70">C66</f>
+        <f t="shared" ref="K66:K79" si="68">C66</f>
         <v>15</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" ref="L66:L79" si="71">LN(K66)</f>
+        <f t="shared" ref="L66:L79" si="69">LN(K66)</f>
         <v>2.7080502011022101</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" ref="M66:M79" si="72">1/G66/0.000001</f>
+        <f t="shared" ref="M66:M79" si="70">1/G66/0.000001</f>
         <v>239.23444976076556</v>
       </c>
       <c r="N66" s="3" t="e">
-        <f t="shared" ref="N66:N77" si="73">1/H66/0.000001</f>
+        <f t="shared" ref="N66:N77" si="71">1/H66/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O79" si="74">M66*60/$W$27</f>
+        <f t="shared" ref="O66:O79" si="72">M66*60/$W$27</f>
         <v>14354.066985645934</v>
       </c>
       <c r="P66" s="3" t="e">
-        <f t="shared" ref="P66:P77" si="75">N66*60/$W$27</f>
+        <f t="shared" ref="P66:P77" si="73">N66*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="3">
-        <f t="shared" ref="Q66:Q79" si="76">O66/$W$40*100</f>
+        <f t="shared" ref="Q66:Q79" si="74">O66/$W$40*100</f>
         <v>31.150318979266352</v>
       </c>
       <c r="R66" s="3" t="e">
-        <f t="shared" ref="R66:R77" si="77">P66/$W$40*100</f>
+        <f t="shared" ref="R66:R77" si="75">P66/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" ref="S66:S79" si="78">K66</f>
+        <f t="shared" ref="S66:S79" si="76">K66</f>
         <v>15</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:T79" si="79">J66</f>
+        <f t="shared" ref="T66:T79" si="77">J66</f>
         <v>9.0048700000000004</v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66:U79" si="80">T66*0.001341022</f>
+        <f t="shared" ref="U66:U79" si="78">T66*0.001341022</f>
         <v>1.2075728777140001E-2</v>
       </c>
       <c r="V66" s="127">
-        <f t="shared" ref="V66:V79" si="81">U66/O66*5252</f>
+        <f t="shared" ref="V66:V79" si="79">U66/O66*5252</f>
         <v>4.4183803517819035E-3</v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66:W79" si="82">-V66/2/O66</f>
+        <f t="shared" ref="W66:W79" si="80">-V66/2/O66</f>
         <v>-1.5390691558706963E-7</v>
       </c>
     </row>
@@ -28016,65 +28097,65 @@
       <c r="H67" s="143"/>
       <c r="I67" s="142"/>
       <c r="J67" s="2">
+        <f t="shared" si="67"/>
+        <v>12.79233</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="68"/>
+        <v>20</v>
+      </c>
+      <c r="L67" s="1">
         <f t="shared" si="69"/>
-        <v>12.79233</v>
-      </c>
-      <c r="K67" s="1">
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="M67" s="3">
         <f t="shared" si="70"/>
-        <v>20</v>
-      </c>
-      <c r="L67" s="1">
+        <v>285.71428571428572</v>
+      </c>
+      <c r="N67" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="M67" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" s="3">
         <f t="shared" si="72"/>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="N67" s="3" t="e">
+        <v>17142.857142857145</v>
+      </c>
+      <c r="P67" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O67" s="3">
+      <c r="Q67" s="3">
         <f t="shared" si="74"/>
-        <v>17142.857142857145</v>
-      </c>
-      <c r="P67" s="3" t="e">
+        <v>37.202380952380956</v>
+      </c>
+      <c r="R67" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="S67" s="3">
         <f t="shared" si="76"/>
-        <v>37.202380952380956</v>
-      </c>
-      <c r="R67" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="T67" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S67" s="3">
+        <v>12.79233</v>
+      </c>
+      <c r="U67">
         <f t="shared" si="78"/>
-        <v>20</v>
-      </c>
-      <c r="T67" s="4">
+        <v>1.7154795961259999E-2</v>
+      </c>
+      <c r="V67" s="127">
         <f t="shared" si="79"/>
-        <v>12.79233</v>
-      </c>
-      <c r="U67">
+        <v>5.255657655998021E-3</v>
+      </c>
+      <c r="W67">
         <f t="shared" si="80"/>
-        <v>1.7154795961259999E-2</v>
-      </c>
-      <c r="V67" s="127">
-        <f t="shared" si="81"/>
-        <v>5.255657655998021E-3</v>
-      </c>
-      <c r="W67">
-        <f t="shared" si="82"/>
         <v>-1.5329001496660892E-7</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B68" s="113">
-        <f t="shared" ref="B68:B79" si="83">C68/180+1</f>
+        <f t="shared" ref="B68:B79" si="81">C68/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C68" s="142">
@@ -28093,65 +28174,65 @@
       <c r="H68" s="142"/>
       <c r="I68" s="142"/>
       <c r="J68" s="2">
+        <f t="shared" si="67"/>
+        <v>17.3124</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="L68" s="1">
         <f t="shared" si="69"/>
-        <v>17.3124</v>
-      </c>
-      <c r="K68" s="1">
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="M68" s="3">
         <f t="shared" si="70"/>
-        <v>25</v>
-      </c>
-      <c r="L68" s="1">
+        <v>332.22591362126246</v>
+      </c>
+      <c r="N68" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>3.2188758248682006</v>
-      </c>
-      <c r="M68" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="3">
         <f t="shared" si="72"/>
-        <v>332.22591362126246</v>
-      </c>
-      <c r="N68" s="3" t="e">
+        <v>19933.554817275748</v>
+      </c>
+      <c r="P68" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O68" s="3">
+      <c r="Q68" s="3">
         <f t="shared" si="74"/>
-        <v>19933.554817275748</v>
-      </c>
-      <c r="P68" s="3" t="e">
+        <v>43.258582502768547</v>
+      </c>
+      <c r="R68" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="S68" s="3">
         <f t="shared" si="76"/>
-        <v>43.258582502768547</v>
-      </c>
-      <c r="R68" s="3" t="e">
+        <v>25</v>
+      </c>
+      <c r="T68" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S68" s="3">
+        <v>17.3124</v>
+      </c>
+      <c r="U68">
         <f t="shared" si="78"/>
-        <v>25</v>
-      </c>
-      <c r="T68" s="4">
+        <v>2.3216309272800002E-2</v>
+      </c>
+      <c r="V68" s="127">
         <f t="shared" si="79"/>
-        <v>17.3124</v>
-      </c>
-      <c r="U68">
+        <v>6.1169248244207376E-3</v>
+      </c>
+      <c r="W68">
         <f t="shared" si="80"/>
-        <v>2.3216309272800002E-2</v>
-      </c>
-      <c r="V68" s="127">
-        <f t="shared" si="81"/>
-        <v>6.1169248244207376E-3</v>
-      </c>
-      <c r="W68">
-        <f t="shared" si="82"/>
         <v>-1.5343286434588683E-7</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B69" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C69" s="142">
@@ -28170,65 +28251,65 @@
       <c r="H69" s="142"/>
       <c r="I69" s="142"/>
       <c r="J69" s="2">
+        <f t="shared" si="67"/>
+        <v>23.790480000000002</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="L69" s="1">
         <f t="shared" si="69"/>
-        <v>23.790480000000002</v>
-      </c>
-      <c r="K69" s="1">
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="M69" s="3">
         <f t="shared" si="70"/>
-        <v>30</v>
-      </c>
-      <c r="L69" s="1">
+        <v>377.35849056603774</v>
+      </c>
+      <c r="N69" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>3.4011973816621555</v>
-      </c>
-      <c r="M69" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" s="3">
         <f t="shared" si="72"/>
-        <v>377.35849056603774</v>
-      </c>
-      <c r="N69" s="3" t="e">
+        <v>22641.509433962266</v>
+      </c>
+      <c r="P69" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O69" s="3">
+      <c r="Q69" s="3">
         <f t="shared" si="74"/>
-        <v>22641.509433962266</v>
-      </c>
-      <c r="P69" s="3" t="e">
+        <v>49.135220125786169</v>
+      </c>
+      <c r="R69" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="S69" s="3">
         <f t="shared" si="76"/>
-        <v>49.135220125786169</v>
-      </c>
-      <c r="R69" s="3" t="e">
+        <v>30</v>
+      </c>
+      <c r="T69" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S69" s="3">
+        <v>23.790480000000002</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="78"/>
-        <v>30</v>
-      </c>
-      <c r="T69" s="4">
+        <v>3.1903557070560008E-2</v>
+      </c>
+      <c r="V69" s="127">
         <f t="shared" si="79"/>
-        <v>23.790480000000002</v>
-      </c>
-      <c r="U69">
+        <v>7.4004554432773335E-3</v>
+      </c>
+      <c r="W69">
         <f t="shared" si="80"/>
-        <v>3.1903557070560008E-2</v>
-      </c>
-      <c r="V69" s="127">
-        <f t="shared" si="81"/>
-        <v>7.4004554432773335E-3</v>
-      </c>
-      <c r="W69">
-        <f t="shared" si="82"/>
         <v>-1.6342672437237443E-7</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B70" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C70" s="142">
@@ -28247,65 +28328,65 @@
       <c r="H70" s="142"/>
       <c r="I70" s="142"/>
       <c r="J70" s="2">
+        <f t="shared" si="67"/>
+        <v>28.926969999999997</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="L70" s="1">
         <f t="shared" si="69"/>
-        <v>28.926969999999997</v>
-      </c>
-      <c r="K70" s="1">
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="M70" s="3">
         <f t="shared" si="70"/>
-        <v>35</v>
-      </c>
-      <c r="L70" s="1">
+        <v>400.00000000000006</v>
+      </c>
+      <c r="N70" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>3.5553480614894135</v>
-      </c>
-      <c r="M70" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O70" s="3">
         <f t="shared" si="72"/>
-        <v>400.00000000000006</v>
-      </c>
-      <c r="N70" s="3" t="e">
+        <v>24000.000000000004</v>
+      </c>
+      <c r="P70" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <f t="shared" si="74"/>
-        <v>24000.000000000004</v>
-      </c>
-      <c r="P70" s="3" t="e">
+        <v>52.083333333333336</v>
+      </c>
+      <c r="R70" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <f t="shared" si="76"/>
-        <v>52.083333333333336</v>
-      </c>
-      <c r="R70" s="3" t="e">
+        <v>35</v>
+      </c>
+      <c r="T70" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S70" s="3">
+        <v>28.926969999999997</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="78"/>
-        <v>35</v>
-      </c>
-      <c r="T70" s="4">
+        <v>3.8791703163339998E-2</v>
+      </c>
+      <c r="V70" s="127">
         <f t="shared" si="79"/>
-        <v>28.926969999999997</v>
-      </c>
-      <c r="U70">
+        <v>8.4889177089109008E-3</v>
+      </c>
+      <c r="W70">
         <f t="shared" si="80"/>
-        <v>3.8791703163339998E-2</v>
-      </c>
-      <c r="V70" s="127">
-        <f t="shared" si="81"/>
-        <v>8.4889177089109008E-3</v>
-      </c>
-      <c r="W70">
-        <f t="shared" si="82"/>
         <v>-1.7685245226897709E-7</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B71" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C71" s="142">
@@ -28324,65 +28405,65 @@
       <c r="H71" s="142"/>
       <c r="I71" s="142"/>
       <c r="J71" s="2">
+        <f t="shared" si="67"/>
+        <v>32.374200000000002</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="68"/>
+        <v>40</v>
+      </c>
+      <c r="L71" s="1">
         <f t="shared" si="69"/>
-        <v>32.374200000000002</v>
-      </c>
-      <c r="K71" s="1">
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="M71" s="3">
         <f t="shared" si="70"/>
-        <v>40</v>
-      </c>
-      <c r="L71" s="1">
+        <v>440.52863436123351</v>
+      </c>
+      <c r="N71" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>3.6888794541139363</v>
-      </c>
-      <c r="M71" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" s="3">
         <f t="shared" si="72"/>
-        <v>440.52863436123351</v>
-      </c>
-      <c r="N71" s="3" t="e">
+        <v>26431.718061674012</v>
+      </c>
+      <c r="P71" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O71" s="3">
+      <c r="Q71" s="3">
         <f t="shared" si="74"/>
-        <v>26431.718061674012</v>
-      </c>
-      <c r="P71" s="3" t="e">
+        <v>57.360499265785613</v>
+      </c>
+      <c r="R71" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="S71" s="3">
         <f t="shared" si="76"/>
-        <v>57.360499265785613</v>
-      </c>
-      <c r="R71" s="3" t="e">
+        <v>40</v>
+      </c>
+      <c r="T71" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S71" s="3">
+        <v>32.374200000000002</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="78"/>
-        <v>40</v>
-      </c>
-      <c r="T71" s="4">
+        <v>4.3414514432400006E-2</v>
+      </c>
+      <c r="V71" s="127">
         <f t="shared" si="79"/>
-        <v>32.374200000000002</v>
-      </c>
-      <c r="U71">
+        <v>8.6264929607275023E-3</v>
+      </c>
+      <c r="W71">
         <f t="shared" si="80"/>
-        <v>4.3414514432400006E-2</v>
-      </c>
-      <c r="V71" s="127">
-        <f t="shared" si="81"/>
-        <v>8.6264929607275023E-3</v>
-      </c>
-      <c r="W71">
-        <f t="shared" si="82"/>
         <v>-1.6318449184042857E-7</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B72" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C72" s="142">
@@ -28401,65 +28482,65 @@
       <c r="H72" s="142"/>
       <c r="I72" s="142"/>
       <c r="J72" s="2">
+        <f t="shared" si="67"/>
+        <v>42.16</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="68"/>
+        <v>50</v>
+      </c>
+      <c r="L72" s="1">
         <f t="shared" si="69"/>
-        <v>42.16</v>
-      </c>
-      <c r="K72" s="1">
+        <v>3.912023005428146</v>
+      </c>
+      <c r="M72" s="3">
         <f t="shared" si="70"/>
-        <v>50</v>
-      </c>
-      <c r="L72" s="1">
+        <v>495.04950495049508</v>
+      </c>
+      <c r="N72" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>3.912023005428146</v>
-      </c>
-      <c r="M72" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" s="3">
         <f t="shared" si="72"/>
-        <v>495.04950495049508</v>
-      </c>
-      <c r="N72" s="3" t="e">
+        <v>29702.970297029704</v>
+      </c>
+      <c r="P72" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <f t="shared" si="74"/>
-        <v>29702.970297029704</v>
-      </c>
-      <c r="P72" s="3" t="e">
+        <v>64.459570957095707</v>
+      </c>
+      <c r="R72" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <f t="shared" si="76"/>
-        <v>64.459570957095707</v>
-      </c>
-      <c r="R72" s="3" t="e">
+        <v>50</v>
+      </c>
+      <c r="T72" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S72" s="3">
+        <v>42.16</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="78"/>
-        <v>50</v>
-      </c>
-      <c r="T72" s="4">
+        <v>5.6537487519999999E-2</v>
+      </c>
+      <c r="V72" s="127">
         <f t="shared" si="79"/>
-        <v>42.16</v>
-      </c>
-      <c r="U72">
+        <v>9.9968077766530127E-3</v>
+      </c>
+      <c r="W72">
         <f t="shared" si="80"/>
-        <v>5.6537487519999999E-2</v>
-      </c>
-      <c r="V72" s="127">
-        <f t="shared" si="81"/>
-        <v>9.9968077766530127E-3</v>
-      </c>
-      <c r="W72">
-        <f t="shared" si="82"/>
         <v>-1.6827959757365904E-7</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B73" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C73" s="142">
@@ -28478,65 +28559,65 @@
       <c r="H73" s="142"/>
       <c r="I73" s="142"/>
       <c r="J73" s="2">
+        <f t="shared" si="67"/>
+        <v>52.727999999999994</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="L73" s="1">
         <f t="shared" si="69"/>
-        <v>52.727999999999994</v>
-      </c>
-      <c r="K73" s="1">
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="M73" s="3">
         <f t="shared" si="70"/>
-        <v>60</v>
-      </c>
-      <c r="L73" s="1">
+        <v>534.75935828877004</v>
+      </c>
+      <c r="N73" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>4.0943445622221004</v>
-      </c>
-      <c r="M73" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O73" s="3">
         <f t="shared" si="72"/>
-        <v>534.75935828877004</v>
-      </c>
-      <c r="N73" s="3" t="e">
+        <v>32085.561497326202</v>
+      </c>
+      <c r="P73" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O73" s="3">
+      <c r="Q73" s="3">
         <f t="shared" si="74"/>
-        <v>32085.561497326202</v>
-      </c>
-      <c r="P73" s="3" t="e">
+        <v>69.630124777183596</v>
+      </c>
+      <c r="R73" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="S73" s="3">
         <f t="shared" si="76"/>
-        <v>69.630124777183596</v>
-      </c>
-      <c r="R73" s="3" t="e">
+        <v>60</v>
+      </c>
+      <c r="T73" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S73" s="3">
+        <v>52.727999999999994</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="78"/>
-        <v>60</v>
-      </c>
-      <c r="T73" s="4">
+        <v>7.0709408015999994E-2</v>
+      </c>
+      <c r="V73" s="127">
         <f t="shared" si="79"/>
-        <v>52.727999999999994</v>
-      </c>
-      <c r="U73">
+        <v>1.1574234439717663E-2</v>
+      </c>
+      <c r="W73">
         <f t="shared" si="80"/>
-        <v>7.0709408015999994E-2</v>
-      </c>
-      <c r="V73" s="127">
-        <f t="shared" si="81"/>
-        <v>1.1574234439717663E-2</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="82"/>
         <v>-1.8036515335226691E-7</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B74" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C74" s="142">
@@ -28555,65 +28636,65 @@
       <c r="H74" s="142"/>
       <c r="I74" s="142"/>
       <c r="J74" s="2">
+        <f t="shared" si="67"/>
+        <v>64.944000000000003</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="68"/>
+        <v>75</v>
+      </c>
+      <c r="L74" s="1">
         <f t="shared" si="69"/>
-        <v>64.944000000000003</v>
-      </c>
-      <c r="K74" s="1">
+        <v>4.3174881135363101</v>
+      </c>
+      <c r="M74" s="3">
         <f t="shared" si="70"/>
-        <v>75</v>
-      </c>
-      <c r="L74" s="1">
+        <v>606.06060606060612</v>
+      </c>
+      <c r="N74" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>4.3174881135363101</v>
-      </c>
-      <c r="M74" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O74" s="3">
         <f t="shared" si="72"/>
-        <v>606.06060606060612</v>
-      </c>
-      <c r="N74" s="3" t="e">
+        <v>36363.636363636368</v>
+      </c>
+      <c r="P74" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O74" s="3">
+      <c r="Q74" s="3">
         <f t="shared" si="74"/>
-        <v>36363.636363636368</v>
-      </c>
-      <c r="P74" s="3" t="e">
+        <v>78.914141414141426</v>
+      </c>
+      <c r="R74" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="S74" s="3">
         <f t="shared" si="76"/>
-        <v>78.914141414141426</v>
-      </c>
-      <c r="R74" s="3" t="e">
+        <v>75</v>
+      </c>
+      <c r="T74" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S74" s="3">
+        <v>64.944000000000003</v>
+      </c>
+      <c r="U74">
         <f t="shared" si="78"/>
-        <v>75</v>
-      </c>
-      <c r="T74" s="4">
+        <v>8.7091332768000004E-2</v>
+      </c>
+      <c r="V74" s="127">
         <f t="shared" si="79"/>
-        <v>64.944000000000003</v>
-      </c>
-      <c r="U74">
+        <v>1.257860119168224E-2</v>
+      </c>
+      <c r="W74">
         <f t="shared" si="80"/>
-        <v>8.7091332768000004E-2</v>
-      </c>
-      <c r="V74" s="127">
-        <f t="shared" si="81"/>
-        <v>1.257860119168224E-2</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="82"/>
         <v>-1.7295576638563078E-7</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B75" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.5</v>
       </c>
       <c r="C75" s="142">
@@ -28632,65 +28713,65 @@
       <c r="H75" s="142"/>
       <c r="I75" s="142"/>
       <c r="J75" s="2">
+        <f t="shared" si="67"/>
+        <v>81.4572</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="68"/>
+        <v>90</v>
+      </c>
+      <c r="L75" s="1">
         <f t="shared" si="69"/>
-        <v>81.4572</v>
-      </c>
-      <c r="K75" s="1">
+        <v>4.499809670330265</v>
+      </c>
+      <c r="M75" s="3">
         <f t="shared" si="70"/>
-        <v>90</v>
-      </c>
-      <c r="L75" s="1">
+        <v>662.25165562913912</v>
+      </c>
+      <c r="N75" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>4.499809670330265</v>
-      </c>
-      <c r="M75" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O75" s="3">
         <f t="shared" si="72"/>
-        <v>662.25165562913912</v>
-      </c>
-      <c r="N75" s="3" t="e">
+        <v>39735.099337748346</v>
+      </c>
+      <c r="P75" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O75" s="3">
+      <c r="Q75" s="3">
         <f t="shared" si="74"/>
-        <v>39735.099337748346</v>
-      </c>
-      <c r="P75" s="3" t="e">
+        <v>86.230684326710815</v>
+      </c>
+      <c r="R75" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="S75" s="3">
         <f t="shared" si="76"/>
-        <v>86.230684326710815</v>
-      </c>
-      <c r="R75" s="3" t="e">
+        <v>90</v>
+      </c>
+      <c r="T75" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S75" s="3">
+        <v>81.4572</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="78"/>
-        <v>90</v>
-      </c>
-      <c r="T75" s="4">
+        <v>0.10923589725840001</v>
+      </c>
+      <c r="V75" s="127">
         <f t="shared" si="79"/>
-        <v>81.4572</v>
-      </c>
-      <c r="U75">
+        <v>1.4438291132094773E-2</v>
+      </c>
+      <c r="W75">
         <f t="shared" si="80"/>
-        <v>0.10923589725840001</v>
-      </c>
-      <c r="V75" s="127">
-        <f t="shared" si="81"/>
-        <v>1.4438291132094773E-2</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="82"/>
         <v>-1.8168183007885921E-7</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B76" s="113">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C76" s="142">
@@ -28709,65 +28790,65 @@
       <c r="H76" s="142"/>
       <c r="I76" s="142"/>
       <c r="J76" s="2">
+        <f t="shared" si="67"/>
+        <v>94.001099999999994</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="68"/>
+        <v>109</v>
+      </c>
+      <c r="L76" s="1">
         <f t="shared" si="69"/>
-        <v>94.001099999999994</v>
-      </c>
-      <c r="K76" s="1">
+        <v>4.6913478822291435</v>
+      </c>
+      <c r="M76" s="3">
         <f t="shared" si="70"/>
-        <v>109</v>
-      </c>
-      <c r="L76" s="1">
+        <v>680.27210884353735</v>
+      </c>
+      <c r="N76" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>4.6913478822291435</v>
-      </c>
-      <c r="M76" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O76" s="3">
         <f t="shared" si="72"/>
-        <v>680.27210884353735</v>
-      </c>
-      <c r="N76" s="3" t="e">
+        <v>40816.326530612241</v>
+      </c>
+      <c r="P76" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <f t="shared" si="74"/>
-        <v>40816.326530612241</v>
-      </c>
-      <c r="P76" s="3" t="e">
+        <v>88.577097505668917</v>
+      </c>
+      <c r="R76" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <f t="shared" si="76"/>
-        <v>88.577097505668917</v>
-      </c>
-      <c r="R76" s="3" t="e">
+        <v>109</v>
+      </c>
+      <c r="T76" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S76" s="3">
+        <v>94.001099999999994</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="78"/>
-        <v>109</v>
-      </c>
-      <c r="T76" s="4">
+        <v>0.12605754312420001</v>
+      </c>
+      <c r="V76" s="127">
         <f t="shared" si="79"/>
-        <v>94.001099999999994</v>
-      </c>
-      <c r="U76">
+        <v>1.6220328303963312E-2</v>
+      </c>
+      <c r="W76">
         <f t="shared" si="80"/>
-        <v>0.12605754312420001</v>
-      </c>
-      <c r="V76" s="127">
-        <f t="shared" si="81"/>
-        <v>1.6220328303963312E-2</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="82"/>
         <v>-1.986990217235506E-7</v>
       </c>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="116">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C77" s="142">
@@ -28786,65 +28867,65 @@
       <c r="H77" s="142"/>
       <c r="I77" s="142"/>
       <c r="J77" s="2">
+        <f t="shared" si="67"/>
+        <v>117.19680000000001</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="68"/>
+        <v>130</v>
+      </c>
+      <c r="L77" s="1">
         <f t="shared" si="69"/>
-        <v>117.19680000000001</v>
-      </c>
-      <c r="K77" s="1">
+        <v>4.8675344504555822</v>
+      </c>
+      <c r="M77" s="3">
         <f t="shared" si="70"/>
-        <v>130</v>
-      </c>
-      <c r="L77" s="1">
+        <v>724.63768115942037</v>
+      </c>
+      <c r="N77" s="3" t="e">
         <f t="shared" si="71"/>
-        <v>4.8675344504555822</v>
-      </c>
-      <c r="M77" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O77" s="3">
         <f t="shared" si="72"/>
-        <v>724.63768115942037</v>
-      </c>
-      <c r="N77" s="3" t="e">
+        <v>43478.260869565223</v>
+      </c>
+      <c r="P77" s="3" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O77" s="3">
+      <c r="Q77" s="3">
         <f t="shared" si="74"/>
-        <v>43478.260869565223</v>
-      </c>
-      <c r="P77" s="3" t="e">
+        <v>94.353864734299535</v>
+      </c>
+      <c r="R77" s="3" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="S77" s="3">
         <f t="shared" si="76"/>
-        <v>94.353864734299535</v>
-      </c>
-      <c r="R77" s="3" t="e">
+        <v>130</v>
+      </c>
+      <c r="T77" s="4">
         <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S77" s="3">
+        <v>117.19680000000001</v>
+      </c>
+      <c r="U77">
         <f t="shared" si="78"/>
-        <v>130</v>
-      </c>
-      <c r="T77" s="4">
+        <v>0.15716348712960002</v>
+      </c>
+      <c r="V77" s="127">
         <f t="shared" si="79"/>
-        <v>117.19680000000001</v>
-      </c>
-      <c r="U77">
+        <v>1.8984720591307163E-2</v>
+      </c>
+      <c r="W77">
         <f t="shared" si="80"/>
-        <v>0.15716348712960002</v>
-      </c>
-      <c r="V77" s="127">
-        <f t="shared" si="81"/>
-        <v>1.8984720591307163E-2</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="82"/>
         <v>-2.1832428680003235E-7</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B78" s="144">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.8277777777777777</v>
       </c>
       <c r="C78" s="142">
@@ -28863,53 +28944,53 @@
       <c r="H78" s="142"/>
       <c r="I78" s="142"/>
       <c r="J78" s="1">
+        <f t="shared" si="67"/>
+        <v>139.86000000000001</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="68"/>
+        <v>149</v>
+      </c>
+      <c r="L78" s="1">
         <f t="shared" si="69"/>
+        <v>5.0039463059454592</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="70"/>
+        <v>763.35877862595419</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="72"/>
+        <v>45801.526717557252</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="74"/>
+        <v>99.395674300254456</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="76"/>
+        <v>149</v>
+      </c>
+      <c r="T78" s="4">
+        <f t="shared" si="77"/>
         <v>139.86000000000001</v>
       </c>
-      <c r="K78" s="1">
-        <f t="shared" si="70"/>
-        <v>149</v>
-      </c>
-      <c r="L78" s="1">
-        <f t="shared" si="71"/>
-        <v>5.0039463059454592</v>
-      </c>
-      <c r="M78" s="1">
-        <f t="shared" si="72"/>
-        <v>763.35877862595419</v>
-      </c>
-      <c r="O78" s="1">
-        <f t="shared" si="74"/>
-        <v>45801.526717557252</v>
-      </c>
-      <c r="Q78" s="1">
-        <f t="shared" si="76"/>
-        <v>99.395674300254456</v>
-      </c>
-      <c r="S78" s="1">
+      <c r="U78">
         <f t="shared" si="78"/>
-        <v>149</v>
-      </c>
-      <c r="T78" s="4">
+        <v>0.18755533692000004</v>
+      </c>
+      <c r="V78" s="127">
         <f t="shared" si="79"/>
-        <v>139.86000000000001</v>
-      </c>
-      <c r="U78">
+        <v>2.1506720410833846E-2</v>
+      </c>
+      <c r="W78">
         <f t="shared" si="80"/>
-        <v>0.18755533692000004</v>
-      </c>
-      <c r="V78" s="127">
-        <f t="shared" si="81"/>
-        <v>2.1506720410833846E-2</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="82"/>
         <v>-2.3478169781826949E-7</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B79" s="144">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C79" s="142">
@@ -28928,47 +29009,47 @@
       <c r="H79" s="142"/>
       <c r="I79" s="142"/>
       <c r="J79" s="1">
+        <f t="shared" si="67"/>
+        <v>177.22499999999999</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="68"/>
+        <v>164</v>
+      </c>
+      <c r="L79" s="1">
         <f t="shared" si="69"/>
+        <v>5.0998664278241987</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="70"/>
+        <v>798.72204472843453</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="72"/>
+        <v>47923.322683706072</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="74"/>
+        <v>104.00026624068157</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="76"/>
+        <v>164</v>
+      </c>
+      <c r="T79" s="4">
+        <f t="shared" si="77"/>
         <v>177.22499999999999</v>
       </c>
-      <c r="K79" s="1">
-        <f t="shared" si="70"/>
-        <v>164</v>
-      </c>
-      <c r="L79" s="1">
-        <f t="shared" si="71"/>
-        <v>5.0998664278241987</v>
-      </c>
-      <c r="M79" s="1">
-        <f t="shared" si="72"/>
-        <v>798.72204472843453</v>
-      </c>
-      <c r="O79" s="1">
-        <f t="shared" si="74"/>
-        <v>47923.322683706072</v>
-      </c>
-      <c r="Q79" s="1">
-        <f t="shared" si="76"/>
-        <v>104.00026624068157</v>
-      </c>
-      <c r="S79" s="1">
+      <c r="U79">
         <f t="shared" si="78"/>
-        <v>164</v>
-      </c>
-      <c r="T79" s="4">
+        <v>0.23766262395000001</v>
+      </c>
+      <c r="V79" s="127">
         <f t="shared" si="79"/>
-        <v>177.22499999999999</v>
-      </c>
-      <c r="U79">
+        <v>2.6045858907228683E-2</v>
+      </c>
+      <c r="W79">
         <f t="shared" si="80"/>
-        <v>0.23766262395000001</v>
-      </c>
-      <c r="V79" s="127">
-        <f t="shared" si="81"/>
-        <v>2.6045858907228683E-2</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="82"/>
         <v>-2.7174512793208589E-7</v>
       </c>
     </row>
@@ -28985,7 +29066,7 @@
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B83" s="113">
-        <f t="shared" ref="B83" si="84">C83/180+1</f>
+        <f t="shared" ref="B83" si="82">C83/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C83" s="142">
@@ -29008,43 +29089,43 @@
         <v>7.9545599999999999</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ref="K83:K97" si="85">C83</f>
+        <f t="shared" ref="K83:K97" si="83">C83</f>
         <v>11</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" ref="L83:L97" si="86">LN(K83)</f>
+        <f t="shared" ref="L83:L97" si="84">LN(K83)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" ref="M83:M97" si="87">1/G83/0.000001</f>
+        <f t="shared" ref="M83:M97" si="85">1/G83/0.000001</f>
         <v>204.91803278688525</v>
       </c>
       <c r="N83" s="3" t="e">
-        <f t="shared" ref="N83:N95" si="88">1/H83/0.000001</f>
+        <f t="shared" ref="N83:N95" si="86">1/H83/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O83" s="3">
-        <f t="shared" ref="O83:O97" si="89">M83*60/$W$27</f>
+        <f t="shared" ref="O83:O97" si="87">M83*60/$W$27</f>
         <v>12295.081967213115</v>
       </c>
       <c r="P83" s="3" t="e">
-        <f t="shared" ref="P83:P95" si="90">N83*60/$W$27</f>
+        <f t="shared" ref="P83:P95" si="88">N83*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q83" s="3">
-        <f t="shared" ref="Q83:Q97" si="91">O83/$W$40*100</f>
+        <f t="shared" ref="Q83:Q97" si="89">O83/$W$40*100</f>
         <v>26.682035519125684</v>
       </c>
       <c r="R83" s="3" t="e">
-        <f t="shared" ref="R83:R95" si="92">P83/$W$40*100</f>
+        <f t="shared" ref="R83:R95" si="90">P83/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S83" s="3">
-        <f t="shared" ref="S83:S97" si="93">K83</f>
+        <f t="shared" ref="S83:S97" si="91">K83</f>
         <v>11</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" ref="T83:T97" si="94">J83</f>
+        <f t="shared" ref="T83:T97" si="92">J83</f>
         <v>7.9545599999999999</v>
       </c>
       <c r="U83">
@@ -29052,11 +29133,11 @@
         <v>1.0667239960320001E-2</v>
       </c>
       <c r="V83" s="127">
-        <f t="shared" ref="V83:V97" si="95">U83/O83*5252</f>
+        <f t="shared" ref="V83:V97" si="93">U83/O83*5252</f>
         <v>4.5566466674235194E-3</v>
       </c>
       <c r="W83">
-        <f t="shared" ref="W83:W97" si="96">-V83/2/O83</f>
+        <f t="shared" ref="W83:W97" si="94">-V83/2/O83</f>
         <v>-1.8530363114188979E-7</v>
       </c>
     </row>
@@ -29081,59 +29162,59 @@
       <c r="H84" s="143"/>
       <c r="I84" s="142"/>
       <c r="J84" s="2">
-        <f t="shared" ref="J84:J97" si="97">E84*F84</f>
+        <f t="shared" ref="J84:J97" si="95">E84*F84</f>
         <v>10.736400000000001</v>
       </c>
       <c r="K84" s="1">
+        <f t="shared" si="83"/>
+        <v>15</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="84"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="M84" s="3">
         <f t="shared" si="85"/>
-        <v>15</v>
-      </c>
-      <c r="L84" s="1">
+        <v>256.41025641025641</v>
+      </c>
+      <c r="N84" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>2.7080502011022101</v>
-      </c>
-      <c r="M84" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O84" s="3">
         <f t="shared" si="87"/>
-        <v>256.41025641025641</v>
-      </c>
-      <c r="N84" s="3" t="e">
+        <v>15384.615384615385</v>
+      </c>
+      <c r="P84" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O84" s="3">
+      <c r="Q84" s="3">
         <f t="shared" si="89"/>
-        <v>15384.615384615385</v>
-      </c>
-      <c r="P84" s="3" t="e">
+        <v>33.386752136752136</v>
+      </c>
+      <c r="R84" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="S84" s="3">
         <f t="shared" si="91"/>
-        <v>33.386752136752136</v>
-      </c>
-      <c r="R84" s="3" t="e">
+        <v>15</v>
+      </c>
+      <c r="T84" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S84" s="3">
+        <v>10.736400000000001</v>
+      </c>
+      <c r="U84">
+        <f t="shared" ref="U84:U97" si="96">T84*0.001341022</f>
+        <v>1.4397748600800004E-2</v>
+      </c>
+      <c r="V84" s="127">
         <f t="shared" si="93"/>
-        <v>15</v>
-      </c>
-      <c r="T84" s="4">
+        <v>4.9151034173411049E-3</v>
+      </c>
+      <c r="W84">
         <f t="shared" si="94"/>
-        <v>10.736400000000001</v>
-      </c>
-      <c r="U84">
-        <f t="shared" ref="U84:U97" si="98">T84*0.001341022</f>
-        <v>1.4397748600800004E-2</v>
-      </c>
-      <c r="V84" s="127">
-        <f t="shared" si="95"/>
-        <v>4.9151034173411049E-3</v>
-      </c>
-      <c r="W84">
-        <f t="shared" si="96"/>
         <v>-1.5974086106358592E-7</v>
       </c>
     </row>
@@ -29158,65 +29239,65 @@
       <c r="H85" s="143"/>
       <c r="I85" s="142"/>
       <c r="J85" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>14.331199999999999</v>
       </c>
       <c r="K85" s="1">
+        <f t="shared" si="83"/>
+        <v>20</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="84"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="M85" s="3">
         <f t="shared" si="85"/>
-        <v>20</v>
-      </c>
-      <c r="L85" s="1">
+        <v>306.74846625766872</v>
+      </c>
+      <c r="N85" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="M85" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O85" s="3">
         <f t="shared" si="87"/>
-        <v>306.74846625766872</v>
-      </c>
-      <c r="N85" s="3" t="e">
+        <v>18404.907975460123</v>
+      </c>
+      <c r="P85" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O85" s="3">
+      <c r="Q85" s="3">
         <f t="shared" si="89"/>
-        <v>18404.907975460123</v>
-      </c>
-      <c r="P85" s="3" t="e">
+        <v>39.941206543967276</v>
+      </c>
+      <c r="R85" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="S85" s="3">
         <f t="shared" si="91"/>
-        <v>39.941206543967276</v>
-      </c>
-      <c r="R85" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="T85" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S85" s="3">
+        <v>14.331199999999999</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="96"/>
+        <v>1.92184544864E-2</v>
+      </c>
+      <c r="V85" s="127">
         <f t="shared" si="93"/>
-        <v>20</v>
-      </c>
-      <c r="T85" s="4">
+        <v>5.4841525476331228E-3</v>
+      </c>
+      <c r="W85">
         <f t="shared" si="94"/>
-        <v>14.331199999999999</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="98"/>
-        <v>1.92184544864E-2</v>
-      </c>
-      <c r="V85" s="127">
-        <f t="shared" si="95"/>
-        <v>5.4841525476331228E-3</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="96"/>
         <v>-1.4898614421069984E-7</v>
       </c>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B86" s="113">
-        <f t="shared" ref="B86:B97" si="99">C86/180+1</f>
+        <f t="shared" ref="B86:B97" si="97">C86/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C86" s="142">
@@ -29235,65 +29316,65 @@
       <c r="H86" s="142"/>
       <c r="I86" s="142"/>
       <c r="J86" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>18.75488</v>
       </c>
       <c r="K86" s="1">
+        <f t="shared" si="83"/>
+        <v>25</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="84"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="M86" s="3">
         <f t="shared" si="85"/>
-        <v>25</v>
-      </c>
-      <c r="L86" s="1">
+        <v>348.43205574912895</v>
+      </c>
+      <c r="N86" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>3.2188758248682006</v>
-      </c>
-      <c r="M86" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O86" s="3">
         <f t="shared" si="87"/>
-        <v>348.43205574912895</v>
-      </c>
-      <c r="N86" s="3" t="e">
+        <v>20905.923344947736</v>
+      </c>
+      <c r="P86" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O86" s="3">
+      <c r="Q86" s="3">
         <f t="shared" si="89"/>
-        <v>20905.923344947736</v>
-      </c>
-      <c r="P86" s="3" t="e">
+        <v>45.368757259001164</v>
+      </c>
+      <c r="R86" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="S86" s="3">
         <f t="shared" si="91"/>
-        <v>45.368757259001164</v>
-      </c>
-      <c r="R86" s="3" t="e">
+        <v>25</v>
+      </c>
+      <c r="T86" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S86" s="3">
+        <v>18.75488</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="96"/>
+        <v>2.5150706687360001E-2</v>
+      </c>
+      <c r="V86" s="127">
         <f t="shared" si="93"/>
-        <v>25</v>
-      </c>
-      <c r="T86" s="4">
+        <v>6.3183773011363711E-3</v>
+      </c>
+      <c r="W86">
         <f t="shared" si="94"/>
-        <v>18.75488</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="98"/>
-        <v>2.5150706687360001E-2</v>
-      </c>
-      <c r="V86" s="127">
-        <f t="shared" si="95"/>
-        <v>6.3183773011363711E-3</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="96"/>
         <v>-1.5111452378551155E-7</v>
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B87" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C87" s="142">
@@ -29312,65 +29393,65 @@
       <c r="H87" s="142"/>
       <c r="I87" s="142"/>
       <c r="J87" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>22.945799999999998</v>
       </c>
       <c r="K87" s="1">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="84"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="M87" s="3">
         <f t="shared" si="85"/>
-        <v>30</v>
-      </c>
-      <c r="L87" s="1">
+        <v>378.78787878787881</v>
+      </c>
+      <c r="N87" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>3.4011973816621555</v>
-      </c>
-      <c r="M87" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O87" s="3">
         <f t="shared" si="87"/>
-        <v>378.78787878787881</v>
-      </c>
-      <c r="N87" s="3" t="e">
+        <v>22727.272727272728</v>
+      </c>
+      <c r="P87" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O87" s="3">
+      <c r="Q87" s="3">
         <f t="shared" si="89"/>
-        <v>22727.272727272728</v>
-      </c>
-      <c r="P87" s="3" t="e">
+        <v>49.321338383838388</v>
+      </c>
+      <c r="R87" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="S87" s="3">
         <f t="shared" si="91"/>
-        <v>49.321338383838388</v>
-      </c>
-      <c r="R87" s="3" t="e">
+        <v>30</v>
+      </c>
+      <c r="T87" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S87" s="3">
+        <v>22.945799999999998</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="96"/>
+        <v>3.0770822607600001E-2</v>
+      </c>
+      <c r="V87" s="127">
         <f t="shared" si="93"/>
-        <v>30</v>
-      </c>
-      <c r="T87" s="4">
+        <v>7.1107678547450686E-3</v>
+      </c>
+      <c r="W87">
         <f t="shared" si="94"/>
-        <v>22.945799999999998</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="98"/>
-        <v>3.0770822607600001E-2</v>
-      </c>
-      <c r="V87" s="127">
-        <f t="shared" si="95"/>
-        <v>7.1107678547450686E-3</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="96"/>
         <v>-1.564368928043915E-7</v>
       </c>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B88" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C88" s="142">
@@ -29389,65 +29470,65 @@
       <c r="H88" s="142"/>
       <c r="I88" s="142"/>
       <c r="J88" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>28.194600000000005</v>
       </c>
       <c r="K88" s="1">
+        <f t="shared" si="83"/>
+        <v>35</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="84"/>
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="M88" s="3">
         <f t="shared" si="85"/>
-        <v>35</v>
-      </c>
-      <c r="L88" s="1">
+        <v>416.66666666666669</v>
+      </c>
+      <c r="N88" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>3.5553480614894135</v>
-      </c>
-      <c r="M88" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" s="3">
         <f t="shared" si="87"/>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="N88" s="3" t="e">
+        <v>25000</v>
+      </c>
+      <c r="P88" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O88" s="3">
+      <c r="Q88" s="3">
         <f t="shared" si="89"/>
-        <v>25000</v>
-      </c>
-      <c r="P88" s="3" t="e">
+        <v>54.253472222222221</v>
+      </c>
+      <c r="R88" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="S88" s="3">
         <f t="shared" si="91"/>
-        <v>54.253472222222221</v>
-      </c>
-      <c r="R88" s="3" t="e">
+        <v>35</v>
+      </c>
+      <c r="T88" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S88" s="3">
+        <v>28.194600000000005</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="96"/>
+        <v>3.7809578881200012E-2</v>
+      </c>
+      <c r="V88" s="127">
         <f t="shared" si="93"/>
-        <v>35</v>
-      </c>
-      <c r="T88" s="4">
+        <v>7.9430363313624987E-3</v>
+      </c>
+      <c r="W88">
         <f t="shared" si="94"/>
-        <v>28.194600000000005</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="98"/>
-        <v>3.7809578881200012E-2</v>
-      </c>
-      <c r="V88" s="127">
-        <f t="shared" si="95"/>
-        <v>7.9430363313624987E-3</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="96"/>
         <v>-1.5886072662724997E-7</v>
       </c>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B89" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C89" s="142">
@@ -29466,65 +29547,65 @@
       <c r="H89" s="142"/>
       <c r="I89" s="142"/>
       <c r="J89" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>31.509999999999994</v>
       </c>
       <c r="K89" s="1">
+        <f t="shared" si="83"/>
+        <v>40</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="84"/>
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="M89" s="3">
         <f t="shared" si="85"/>
-        <v>40</v>
-      </c>
-      <c r="L89" s="1">
+        <v>444.44444444444451</v>
+      </c>
+      <c r="N89" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>3.6888794541139363</v>
-      </c>
-      <c r="M89" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O89" s="3">
         <f t="shared" si="87"/>
-        <v>444.44444444444451</v>
-      </c>
-      <c r="N89" s="3" t="e">
+        <v>26666.666666666672</v>
+      </c>
+      <c r="P89" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <f t="shared" si="89"/>
-        <v>26666.666666666672</v>
-      </c>
-      <c r="P89" s="3" t="e">
+        <v>57.870370370370381</v>
+      </c>
+      <c r="R89" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <f t="shared" si="91"/>
-        <v>57.870370370370381</v>
-      </c>
-      <c r="R89" s="3" t="e">
+        <v>40</v>
+      </c>
+      <c r="T89" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S89" s="3">
+        <v>31.509999999999994</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="96"/>
+        <v>4.2255603219999993E-2</v>
+      </c>
+      <c r="V89" s="127">
         <f t="shared" si="93"/>
-        <v>40</v>
-      </c>
-      <c r="T89" s="4">
+        <v>8.3222410541789974E-3</v>
+      </c>
+      <c r="W89">
         <f t="shared" si="94"/>
-        <v>31.509999999999994</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="98"/>
-        <v>4.2255603219999993E-2</v>
-      </c>
-      <c r="V89" s="127">
-        <f t="shared" si="95"/>
-        <v>8.3222410541789974E-3</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="96"/>
         <v>-1.5604201976585617E-7</v>
       </c>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B90" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C90" s="142">
@@ -29543,65 +29624,65 @@
       <c r="H90" s="142"/>
       <c r="I90" s="142"/>
       <c r="J90" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>41.222999999999999</v>
       </c>
       <c r="K90" s="1">
+        <f t="shared" si="83"/>
+        <v>50</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="84"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="M90" s="3">
         <f t="shared" si="85"/>
-        <v>50</v>
-      </c>
-      <c r="L90" s="1">
+        <v>497.51243781094524</v>
+      </c>
+      <c r="N90" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>3.912023005428146</v>
-      </c>
-      <c r="M90" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O90" s="3">
         <f t="shared" si="87"/>
-        <v>497.51243781094524</v>
-      </c>
-      <c r="N90" s="3" t="e">
+        <v>29850.746268656716</v>
+      </c>
+      <c r="P90" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O90" s="3">
+      <c r="Q90" s="3">
         <f t="shared" si="89"/>
-        <v>29850.746268656716</v>
-      </c>
-      <c r="P90" s="3" t="e">
+        <v>64.780265339966832</v>
+      </c>
+      <c r="R90" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="S90" s="3">
         <f t="shared" si="91"/>
-        <v>64.780265339966832</v>
-      </c>
-      <c r="R90" s="3" t="e">
+        <v>50</v>
+      </c>
+      <c r="T90" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S90" s="3">
+        <v>41.222999999999999</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="96"/>
+        <v>5.5280949906E-2</v>
+      </c>
+      <c r="V90" s="127">
         <f t="shared" si="93"/>
-        <v>50</v>
-      </c>
-      <c r="T90" s="4">
+        <v>9.7262408883614527E-3</v>
+      </c>
+      <c r="W90">
         <f t="shared" si="94"/>
-        <v>41.222999999999999</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="98"/>
-        <v>5.5280949906E-2</v>
-      </c>
-      <c r="V90" s="127">
-        <f t="shared" si="95"/>
-        <v>9.7262408883614527E-3</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="96"/>
         <v>-1.6291453488005435E-7</v>
       </c>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B91" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C91" s="142">
@@ -29620,65 +29701,65 @@
       <c r="H91" s="142"/>
       <c r="I91" s="142"/>
       <c r="J91" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>51.816000000000003</v>
       </c>
       <c r="K91" s="1">
+        <f t="shared" si="83"/>
+        <v>60</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" si="84"/>
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="M91" s="3">
         <f t="shared" si="85"/>
-        <v>60</v>
-      </c>
-      <c r="L91" s="1">
+        <v>531.91489361702133</v>
+      </c>
+      <c r="N91" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>4.0943445622221004</v>
-      </c>
-      <c r="M91" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O91" s="3">
         <f t="shared" si="87"/>
-        <v>531.91489361702133</v>
-      </c>
-      <c r="N91" s="3" t="e">
+        <v>31914.89361702128</v>
+      </c>
+      <c r="P91" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <f t="shared" si="89"/>
-        <v>31914.89361702128</v>
-      </c>
-      <c r="P91" s="3" t="e">
+        <v>69.259751773049643</v>
+      </c>
+      <c r="R91" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <f t="shared" si="91"/>
-        <v>69.259751773049643</v>
-      </c>
-      <c r="R91" s="3" t="e">
+        <v>60</v>
+      </c>
+      <c r="T91" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S91" s="3">
+        <v>51.816000000000003</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="96"/>
+        <v>6.9486395952000013E-2</v>
+      </c>
+      <c r="V91" s="127">
         <f t="shared" si="93"/>
-        <v>60</v>
-      </c>
-      <c r="T91" s="4">
+        <v>1.1434866614916992E-2</v>
+      </c>
+      <c r="W91">
         <f t="shared" si="94"/>
-        <v>51.816000000000003</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="98"/>
-        <v>6.9486395952000013E-2</v>
-      </c>
-      <c r="V91" s="127">
-        <f t="shared" si="95"/>
-        <v>1.1434866614916992E-2</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="96"/>
         <v>-1.7914624363369954E-7</v>
       </c>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B92" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C92" s="142">
@@ -29697,65 +29778,65 @@
       <c r="H92" s="142"/>
       <c r="I92" s="142"/>
       <c r="J92" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>66.481399999999994</v>
       </c>
       <c r="K92" s="1">
+        <f t="shared" si="83"/>
+        <v>75</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="84"/>
+        <v>4.3174881135363101</v>
+      </c>
+      <c r="M92" s="3">
         <f t="shared" si="85"/>
-        <v>75</v>
-      </c>
-      <c r="L92" s="1">
+        <v>613.49693251533745</v>
+      </c>
+      <c r="N92" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>4.3174881135363101</v>
-      </c>
-      <c r="M92" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O92" s="3">
         <f t="shared" si="87"/>
-        <v>613.49693251533745</v>
-      </c>
-      <c r="N92" s="3" t="e">
+        <v>36809.815950920245</v>
+      </c>
+      <c r="P92" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O92" s="3">
+      <c r="Q92" s="3">
         <f t="shared" si="89"/>
-        <v>36809.815950920245</v>
-      </c>
-      <c r="P92" s="3" t="e">
+        <v>79.882413087934552</v>
+      </c>
+      <c r="R92" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="S92" s="3">
         <f t="shared" si="91"/>
-        <v>79.882413087934552</v>
-      </c>
-      <c r="R92" s="3" t="e">
+        <v>75</v>
+      </c>
+      <c r="T92" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S92" s="3">
+        <v>66.481399999999994</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="96"/>
+        <v>8.9153019990799998E-2</v>
+      </c>
+      <c r="V92" s="127">
         <f t="shared" si="93"/>
-        <v>75</v>
-      </c>
-      <c r="T92" s="4">
+        <v>1.2720293456940682E-2</v>
+      </c>
+      <c r="W92">
         <f t="shared" si="94"/>
-        <v>66.481399999999994</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="98"/>
-        <v>8.9153019990799998E-2</v>
-      </c>
-      <c r="V92" s="127">
-        <f t="shared" si="95"/>
-        <v>1.2720293456940682E-2</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="96"/>
         <v>-1.7278398612344427E-7</v>
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B93" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.5</v>
       </c>
       <c r="C93" s="142">
@@ -29774,65 +29855,65 @@
       <c r="H93" s="142"/>
       <c r="I93" s="142"/>
       <c r="J93" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>80.820000000000007</v>
       </c>
       <c r="K93" s="1">
+        <f t="shared" si="83"/>
+        <v>90</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="84"/>
+        <v>4.499809670330265</v>
+      </c>
+      <c r="M93" s="3">
         <f t="shared" si="85"/>
-        <v>90</v>
-      </c>
-      <c r="L93" s="1">
+        <v>657.89473684210532</v>
+      </c>
+      <c r="N93" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>4.499809670330265</v>
-      </c>
-      <c r="M93" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O93" s="3">
         <f t="shared" si="87"/>
-        <v>657.89473684210532</v>
-      </c>
-      <c r="N93" s="3" t="e">
+        <v>39473.68421052632</v>
+      </c>
+      <c r="P93" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O93" s="3">
+      <c r="Q93" s="3">
         <f t="shared" si="89"/>
-        <v>39473.68421052632</v>
-      </c>
-      <c r="P93" s="3" t="e">
+        <v>85.663377192982466</v>
+      </c>
+      <c r="R93" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="S93" s="3">
         <f t="shared" si="91"/>
-        <v>85.663377192982466</v>
-      </c>
-      <c r="R93" s="3" t="e">
+        <v>90</v>
+      </c>
+      <c r="T93" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S93" s="3">
+        <v>80.820000000000007</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="96"/>
+        <v>0.10838139804000002</v>
+      </c>
+      <c r="V93" s="127">
         <f t="shared" si="93"/>
-        <v>90</v>
-      </c>
-      <c r="T93" s="4">
+        <v>1.4420217263487361E-2</v>
+      </c>
+      <c r="W93">
         <f t="shared" si="94"/>
-        <v>80.820000000000007</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="98"/>
-        <v>0.10838139804000002</v>
-      </c>
-      <c r="V93" s="127">
-        <f t="shared" si="95"/>
-        <v>1.4420217263487361E-2</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="96"/>
         <v>-1.8265608533750656E-7</v>
       </c>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B94" s="113">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C94" s="142">
@@ -29851,65 +29932,65 @@
       <c r="H94" s="142"/>
       <c r="I94" s="142"/>
       <c r="J94" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>99.012000000000015</v>
       </c>
       <c r="K94" s="1">
+        <f t="shared" si="83"/>
+        <v>109</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="84"/>
+        <v>4.6913478822291435</v>
+      </c>
+      <c r="M94" s="3">
         <f t="shared" si="85"/>
-        <v>109</v>
-      </c>
-      <c r="L94" s="1">
+        <v>719.42446043165478</v>
+      </c>
+      <c r="N94" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>4.6913478822291435</v>
-      </c>
-      <c r="M94" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O94" s="3">
         <f t="shared" si="87"/>
-        <v>719.42446043165478</v>
-      </c>
-      <c r="N94" s="3" t="e">
+        <v>43165.467625899284</v>
+      </c>
+      <c r="P94" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <f t="shared" si="89"/>
-        <v>43165.467625899284</v>
-      </c>
-      <c r="P94" s="3" t="e">
+        <v>93.675059952038382</v>
+      </c>
+      <c r="R94" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <f t="shared" si="91"/>
-        <v>93.675059952038382</v>
-      </c>
-      <c r="R94" s="3" t="e">
+        <v>109</v>
+      </c>
+      <c r="T94" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S94" s="3">
+        <v>99.012000000000015</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="96"/>
+        <v>0.13277727026400002</v>
+      </c>
+      <c r="V94" s="127">
         <f t="shared" si="93"/>
-        <v>109</v>
-      </c>
-      <c r="T94" s="4">
+        <v>1.6155187509381233E-2</v>
+      </c>
+      <c r="W94">
         <f t="shared" si="94"/>
-        <v>99.012000000000015</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="98"/>
-        <v>0.13277727026400002</v>
-      </c>
-      <c r="V94" s="127">
-        <f t="shared" si="95"/>
-        <v>1.6155187509381233E-2</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="96"/>
         <v>-1.8713092198366594E-7</v>
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="116">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C95" s="142">
@@ -29928,65 +30009,65 @@
       <c r="H95" s="142"/>
       <c r="I95" s="142"/>
       <c r="J95" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>118.28099999999999</v>
       </c>
       <c r="K95" s="1">
+        <f t="shared" si="83"/>
+        <v>130</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="84"/>
+        <v>4.8675344504555822</v>
+      </c>
+      <c r="M95" s="3">
         <f t="shared" si="85"/>
-        <v>130</v>
-      </c>
-      <c r="L95" s="1">
+        <v>740.74074074074076</v>
+      </c>
+      <c r="N95" s="3" t="e">
         <f t="shared" si="86"/>
-        <v>4.8675344504555822</v>
-      </c>
-      <c r="M95" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O95" s="3">
         <f t="shared" si="87"/>
-        <v>740.74074074074076</v>
-      </c>
-      <c r="N95" s="3" t="e">
+        <v>44444.444444444445</v>
+      </c>
+      <c r="P95" s="3" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O95" s="3">
+      <c r="Q95" s="3">
         <f t="shared" si="89"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="P95" s="3" t="e">
+        <v>96.450617283950621</v>
+      </c>
+      <c r="R95" s="3" t="e">
         <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="S95" s="3">
         <f t="shared" si="91"/>
-        <v>96.450617283950621</v>
-      </c>
-      <c r="R95" s="3" t="e">
+        <v>130</v>
+      </c>
+      <c r="T95" s="4">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S95" s="3">
+        <v>118.28099999999999</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="96"/>
+        <v>0.15861742318200001</v>
+      </c>
+      <c r="V95" s="127">
         <f t="shared" si="93"/>
-        <v>130</v>
-      </c>
-      <c r="T95" s="4">
+        <v>1.8743820897416941E-2</v>
+      </c>
+      <c r="W95">
         <f t="shared" si="94"/>
-        <v>118.28099999999999</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="98"/>
-        <v>0.15861742318200001</v>
-      </c>
-      <c r="V95" s="127">
-        <f t="shared" si="95"/>
-        <v>1.8743820897416941E-2</v>
-      </c>
-      <c r="W95">
-        <f t="shared" si="96"/>
         <v>-2.1086798509594057E-7</v>
       </c>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B96" s="144">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.8444444444444446</v>
       </c>
       <c r="C96" s="142">
@@ -30005,53 +30086,53 @@
       <c r="H96" s="142"/>
       <c r="I96" s="142"/>
       <c r="J96" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>152.48400000000001</v>
       </c>
       <c r="K96" s="1">
+        <f t="shared" si="83"/>
+        <v>152</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" si="84"/>
+        <v>5.0238805208462765</v>
+      </c>
+      <c r="M96" s="1">
         <f t="shared" si="85"/>
+        <v>781.25000000000011</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="87"/>
+        <v>46875.000000000007</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="89"/>
+        <v>101.72526041666667</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="91"/>
         <v>152</v>
       </c>
-      <c r="L96" s="1">
-        <f t="shared" si="86"/>
-        <v>5.0238805208462765</v>
-      </c>
-      <c r="M96" s="1">
-        <f t="shared" si="87"/>
-        <v>781.25000000000011</v>
-      </c>
-      <c r="O96" s="1">
-        <f t="shared" si="89"/>
-        <v>46875.000000000007</v>
-      </c>
-      <c r="Q96" s="1">
-        <f t="shared" si="91"/>
-        <v>101.72526041666667</v>
-      </c>
-      <c r="S96" s="1">
+      <c r="T96" s="4">
+        <f t="shared" si="92"/>
+        <v>152.48400000000001</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="96"/>
+        <v>0.20448439864800003</v>
+      </c>
+      <c r="V96" s="127">
         <f t="shared" si="93"/>
-        <v>152</v>
-      </c>
-      <c r="T96" s="4">
+        <v>2.2910977316251649E-2</v>
+      </c>
+      <c r="W96">
         <f t="shared" si="94"/>
-        <v>152.48400000000001</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="98"/>
-        <v>0.20448439864800003</v>
-      </c>
-      <c r="V96" s="127">
-        <f t="shared" si="95"/>
-        <v>2.2910977316251649E-2</v>
-      </c>
-      <c r="W96">
-        <f t="shared" si="96"/>
         <v>-2.4438375804001754E-7</v>
       </c>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B97" s="144">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C97" s="142">
@@ -30070,47 +30151,47 @@
       <c r="H97" s="142"/>
       <c r="I97" s="142"/>
       <c r="J97" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>183.08879999999999</v>
       </c>
       <c r="K97" s="1">
+        <f t="shared" si="83"/>
+        <v>164</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="84"/>
+        <v>5.0998664278241987</v>
+      </c>
+      <c r="M97" s="1">
         <f t="shared" si="85"/>
+        <v>809.06148867313925</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="87"/>
+        <v>48543.689320388352</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="89"/>
+        <v>105.346548004315</v>
+      </c>
+      <c r="S97" s="1">
+        <f t="shared" si="91"/>
         <v>164</v>
       </c>
-      <c r="L97" s="1">
-        <f t="shared" si="86"/>
-        <v>5.0998664278241987</v>
-      </c>
-      <c r="M97" s="1">
-        <f t="shared" si="87"/>
-        <v>809.06148867313925</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="89"/>
-        <v>48543.689320388352</v>
-      </c>
-      <c r="Q97" s="1">
-        <f t="shared" si="91"/>
-        <v>105.346548004315</v>
-      </c>
-      <c r="S97" s="1">
+      <c r="T97" s="4">
+        <f t="shared" si="92"/>
+        <v>183.08879999999999</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="96"/>
+        <v>0.24552610875360001</v>
+      </c>
+      <c r="V97" s="127">
         <f t="shared" si="93"/>
-        <v>164</v>
-      </c>
-      <c r="T97" s="4">
+        <v>2.6563764337382487E-2</v>
+      </c>
+      <c r="W97">
         <f t="shared" si="94"/>
-        <v>183.08879999999999</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="98"/>
-        <v>0.24552610875360001</v>
-      </c>
-      <c r="V97" s="127">
-        <f t="shared" si="95"/>
-        <v>2.6563764337382487E-2</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="96"/>
         <v>-2.7360677267503959E-7</v>
       </c>
     </row>

--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -1404,11 +1404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114033832"/>
-        <c:axId val="229195280"/>
+        <c:axId val="681902048"/>
+        <c:axId val="681911456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114033832"/>
+        <c:axId val="681902048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,12 +1465,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229195280"/>
+        <c:crossAx val="681911456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229195280"/>
+        <c:axId val="681911456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114033832"/>
+        <c:crossAx val="681902048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2073,11 +2073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229859224"/>
-        <c:axId val="229859616"/>
+        <c:axId val="711138008"/>
+        <c:axId val="711138792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229859224"/>
+        <c:axId val="711138008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,12 +2134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229859616"/>
+        <c:crossAx val="711138792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229859616"/>
+        <c:axId val="711138792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229859224"/>
+        <c:crossAx val="711138008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2469,11 +2469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229862752"/>
-        <c:axId val="229863536"/>
+        <c:axId val="711141536"/>
+        <c:axId val="711140360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229862752"/>
+        <c:axId val="711141536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,12 +2530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229863536"/>
+        <c:crossAx val="711140360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229863536"/>
+        <c:axId val="711140360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229862752"/>
+        <c:crossAx val="711141536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,11 +2813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229860008"/>
-        <c:axId val="229860400"/>
+        <c:axId val="711141928"/>
+        <c:axId val="711142320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229860008"/>
+        <c:axId val="711141928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,12 +2874,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229860400"/>
+        <c:crossAx val="711142320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229860400"/>
+        <c:axId val="711142320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +2936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229860008"/>
+        <c:crossAx val="711141928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3227,11 +3227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229196848"/>
-        <c:axId val="229198416"/>
+        <c:axId val="711143496"/>
+        <c:axId val="711143888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229196848"/>
+        <c:axId val="711143496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,12 +3288,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229198416"/>
+        <c:crossAx val="711143888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229198416"/>
+        <c:axId val="711143888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,7 +3350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229196848"/>
+        <c:crossAx val="711143496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3648,8 +3648,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230240024"/>
-        <c:axId val="230238064"/>
+        <c:axId val="711145456"/>
+        <c:axId val="711146240"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3830,11 +3830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230239632"/>
-        <c:axId val="230238848"/>
+        <c:axId val="711149376"/>
+        <c:axId val="711148200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230240024"/>
+        <c:axId val="711145456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -3953,13 +3953,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230238064"/>
+        <c:crossAx val="711146240"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230238064"/>
+        <c:axId val="711146240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4073,12 +4073,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230240024"/>
+        <c:crossAx val="711145456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230238848"/>
+        <c:axId val="711148200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -4178,13 +4178,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230239632"/>
+        <c:crossAx val="711149376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230239632"/>
+        <c:axId val="711149376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,7 +4194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230238848"/>
+        <c:crossAx val="711148200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4461,11 +4461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230240416"/>
-        <c:axId val="230240808"/>
+        <c:axId val="711148592"/>
+        <c:axId val="624475000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230240416"/>
+        <c:axId val="711148592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4495,12 +4495,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230240808"/>
+        <c:crossAx val="624475000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230240808"/>
+        <c:axId val="624475000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4529,7 +4529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230240416"/>
+        <c:crossAx val="711148592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4976,11 +4976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230244728"/>
-        <c:axId val="230244336"/>
+        <c:axId val="624474608"/>
+        <c:axId val="624472648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230244728"/>
+        <c:axId val="624474608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5086,12 +5086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230244336"/>
+        <c:crossAx val="624472648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230244336"/>
+        <c:axId val="624472648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5143,7 +5143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230244728"/>
+        <c:crossAx val="624474608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5368,11 +5368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230245120"/>
-        <c:axId val="230237672"/>
+        <c:axId val="624471864"/>
+        <c:axId val="624469120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230245120"/>
+        <c:axId val="624471864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,12 +5382,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230237672"/>
+        <c:crossAx val="624469120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230237672"/>
+        <c:axId val="624469120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5398,7 +5398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230245120"/>
+        <c:crossAx val="624471864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5544,11 +5544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230241984"/>
-        <c:axId val="230239240"/>
+        <c:axId val="624461280"/>
+        <c:axId val="624461672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230241984"/>
+        <c:axId val="624461280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,7 +5558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230239240"/>
+        <c:crossAx val="624461672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -5567,7 +5567,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230239240"/>
+        <c:axId val="624461672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,7 +5578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230241984"/>
+        <c:crossAx val="624461280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5854,11 +5854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230242768"/>
-        <c:axId val="230238456"/>
+        <c:axId val="624469904"/>
+        <c:axId val="624463240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230242768"/>
+        <c:axId val="624469904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5886,12 +5886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230238456"/>
+        <c:crossAx val="624463240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230238456"/>
+        <c:axId val="624463240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5902,7 +5902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230242768"/>
+        <c:crossAx val="624469904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6183,8 +6183,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229196456"/>
-        <c:axId val="229193320"/>
+        <c:axId val="681913416"/>
+        <c:axId val="681931056"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6365,11 +6365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229198024"/>
-        <c:axId val="229193712"/>
+        <c:axId val="681925960"/>
+        <c:axId val="681931448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229196456"/>
+        <c:axId val="681913416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -6489,13 +6489,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229193320"/>
+        <c:crossAx val="681931056"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229193320"/>
+        <c:axId val="681931056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6610,12 +6610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229196456"/>
+        <c:crossAx val="681913416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229193712"/>
+        <c:axId val="681931448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -6716,13 +6716,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229198024"/>
+        <c:crossAx val="681925960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229198024"/>
+        <c:axId val="681925960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6732,7 +6732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229193712"/>
+        <c:crossAx val="681931448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6992,11 +6992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230574624"/>
-        <c:axId val="230569920"/>
+        <c:axId val="624465984"/>
+        <c:axId val="705083560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230574624"/>
+        <c:axId val="624465984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7006,12 +7006,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230569920"/>
+        <c:crossAx val="705083560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230569920"/>
+        <c:axId val="705083560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7022,7 +7022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230574624"/>
+        <c:crossAx val="624465984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7256,11 +7256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230570704"/>
-        <c:axId val="230574232"/>
+        <c:axId val="705089440"/>
+        <c:axId val="705089832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230570704"/>
+        <c:axId val="705089440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7372,12 +7372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230574232"/>
+        <c:crossAx val="705089832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230574232"/>
+        <c:axId val="705089832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7489,7 +7489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230570704"/>
+        <c:crossAx val="705089440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7768,11 +7768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230575016"/>
-        <c:axId val="230570312"/>
+        <c:axId val="705082776"/>
+        <c:axId val="705083168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230575016"/>
+        <c:axId val="705082776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7829,12 +7829,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230570312"/>
+        <c:crossAx val="705083168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230570312"/>
+        <c:axId val="705083168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7891,7 +7891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230575016"/>
+        <c:crossAx val="705082776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8189,8 +8189,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230571488"/>
-        <c:axId val="230573448"/>
+        <c:axId val="705092576"/>
+        <c:axId val="705091008"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8358,11 +8358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230572272"/>
-        <c:axId val="230571880"/>
+        <c:axId val="705080424"/>
+        <c:axId val="705091792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230571488"/>
+        <c:axId val="705092576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -8481,12 +8481,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230573448"/>
+        <c:crossAx val="705091008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230573448"/>
+        <c:axId val="705091008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8598,12 +8598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230571488"/>
+        <c:crossAx val="705092576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230571880"/>
+        <c:axId val="705091792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8646,12 +8646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230572272"/>
+        <c:crossAx val="705080424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230572272"/>
+        <c:axId val="705080424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8661,7 +8661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230571880"/>
+        <c:crossAx val="705091792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8915,11 +8915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230572664"/>
-        <c:axId val="230567960"/>
+        <c:axId val="705081208"/>
+        <c:axId val="705096104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230572664"/>
+        <c:axId val="705081208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8949,12 +8949,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230567960"/>
+        <c:crossAx val="705096104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230567960"/>
+        <c:axId val="705096104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8983,7 +8983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230572664"/>
+        <c:crossAx val="705081208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9118,11 +9118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230568744"/>
-        <c:axId val="230569136"/>
+        <c:axId val="627791392"/>
+        <c:axId val="627793352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230568744"/>
+        <c:axId val="627791392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9150,12 +9150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230569136"/>
+        <c:crossAx val="627793352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230569136"/>
+        <c:axId val="627793352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9166,7 +9166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230568744"/>
+        <c:crossAx val="627791392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9365,11 +9365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160628224"/>
-        <c:axId val="160630184"/>
+        <c:axId val="627792960"/>
+        <c:axId val="627793744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160628224"/>
+        <c:axId val="627792960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -9428,12 +9428,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160630184"/>
+        <c:crossAx val="627793744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160630184"/>
+        <c:axId val="627793744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9490,7 +9490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160628224"/>
+        <c:crossAx val="627792960"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9753,11 +9753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160628616"/>
-        <c:axId val="160623520"/>
+        <c:axId val="627795704"/>
+        <c:axId val="627790216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160628616"/>
+        <c:axId val="627795704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9814,12 +9814,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160623520"/>
+        <c:crossAx val="627790216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160623520"/>
+        <c:axId val="627790216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9876,7 +9876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160628616"/>
+        <c:crossAx val="627795704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10142,11 +10142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160623912"/>
-        <c:axId val="160626264"/>
+        <c:axId val="627796096"/>
+        <c:axId val="627791000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160623912"/>
+        <c:axId val="627796096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10203,12 +10203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160626264"/>
+        <c:crossAx val="627791000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160626264"/>
+        <c:axId val="627791000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10265,7 +10265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160623912"/>
+        <c:crossAx val="627796096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10538,11 +10538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160627048"/>
-        <c:axId val="160629008"/>
+        <c:axId val="627789432"/>
+        <c:axId val="587997264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160627048"/>
+        <c:axId val="627789432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10654,12 +10654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160629008"/>
+        <c:crossAx val="587997264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160629008"/>
+        <c:axId val="587997264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10772,7 +10772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160627048"/>
+        <c:crossAx val="627789432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10999,11 +10999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229199592"/>
-        <c:axId val="229192536"/>
+        <c:axId val="684099680"/>
+        <c:axId val="684103208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229199592"/>
+        <c:axId val="684099680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11034,12 +11034,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229192536"/>
+        <c:crossAx val="684103208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229192536"/>
+        <c:axId val="684103208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11069,7 +11069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229199592"/>
+        <c:crossAx val="684099680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11517,11 +11517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229195672"/>
-        <c:axId val="229199200"/>
+        <c:axId val="684100072"/>
+        <c:axId val="684101640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229195672"/>
+        <c:axId val="684100072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11628,12 +11628,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229199200"/>
+        <c:crossAx val="684101640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229199200"/>
+        <c:axId val="684101640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11685,7 +11685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229195672"/>
+        <c:crossAx val="684100072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11912,11 +11912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229197632"/>
-        <c:axId val="229194888"/>
+        <c:axId val="684111832"/>
+        <c:axId val="684110264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229197632"/>
+        <c:axId val="684111832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11926,12 +11926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229194888"/>
+        <c:crossAx val="684110264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229194888"/>
+        <c:axId val="684110264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11942,7 +11942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229197632"/>
+        <c:crossAx val="684111832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12053,6 +12053,9 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>9.680411784282994E-2</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>6.0776307669472354E-2</c:v>
                 </c:pt>
@@ -12090,11 +12093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229863144"/>
-        <c:axId val="229861184"/>
+        <c:axId val="684089488"/>
+        <c:axId val="684093016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229863144"/>
+        <c:axId val="684089488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12104,7 +12107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229861184"/>
+        <c:crossAx val="684093016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -12115,7 +12118,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229861184"/>
+        <c:axId val="684093016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12126,7 +12129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229863144"/>
+        <c:crossAx val="684089488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12352,6 +12355,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>9.680411784282994E-2</c:v>
+                </c:pt>
                 <c:pt idx="4" formatCode="0.000">
                   <c:v>6.0776307669472354E-2</c:v>
                 </c:pt>
@@ -12389,11 +12395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229856088"/>
-        <c:axId val="229857656"/>
+        <c:axId val="684083216"/>
+        <c:axId val="684091056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229856088"/>
+        <c:axId val="684083216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12422,12 +12428,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229857656"/>
+        <c:crossAx val="684091056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229857656"/>
+        <c:axId val="684091056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12438,7 +12444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229856088"/>
+        <c:crossAx val="684083216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12640,11 +12646,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229858440"/>
-        <c:axId val="229857264"/>
+        <c:axId val="684084784"/>
+        <c:axId val="684085568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229858440"/>
+        <c:axId val="684084784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12654,12 +12660,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229857264"/>
+        <c:crossAx val="684085568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229857264"/>
+        <c:axId val="684085568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12670,7 +12676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229858440"/>
+        <c:crossAx val="684084784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13046,11 +13052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229862360"/>
-        <c:axId val="229858832"/>
+        <c:axId val="684091448"/>
+        <c:axId val="684087136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229862360"/>
+        <c:axId val="684091448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13107,12 +13113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229858832"/>
+        <c:crossAx val="684087136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229858832"/>
+        <c:axId val="684087136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13169,7 +13175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229862360"/>
+        <c:crossAx val="684091448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23033,14 +23039,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>179493</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>83826</xdr:rowOff>
     </xdr:to>
@@ -23888,9 +23894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ18" sqref="AQ18"/>
+      <selection pane="bottomLeft" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23926,6 +23932,7 @@
     <col min="42" max="42" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.21875" customWidth="1"/>
+    <col min="48" max="48" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="72" x14ac:dyDescent="0.3">
@@ -24535,12 +24542,19 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AQ5" s="95"/>
+      <c r="AP5" s="146">
+        <f t="shared" ref="AP5:AP14" si="23">$AE$38+$AF$38*2*AH5</f>
+        <v>3.6115420142628364E-7</v>
+      </c>
+      <c r="AQ5" s="95">
+        <f>$W$34/AP5</f>
+        <v>9.680411784282994E-2</v>
+      </c>
       <c r="AR5" s="127"/>
       <c r="AS5" s="127"/>
       <c r="AU5" s="95"/>
       <c r="AV5" s="128">
-        <f t="shared" ref="AV5:AV14" si="23">$W$31/$W$30</f>
+        <f t="shared" ref="AV5:AV14" si="24">$W$31/$W$30</f>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW5" t="e">
@@ -24634,7 +24648,7 @@
         <v>-2.118648839285181E-7</v>
       </c>
       <c r="Y6" s="127">
-        <f t="shared" ref="Y6:Y13" si="24">U6/P6*5252</f>
+        <f t="shared" ref="Y6:Y13" si="25">U6/P6*5252</f>
         <v>1.612370790407857E-2</v>
       </c>
       <c r="Z6">
@@ -24682,7 +24696,7 @@
         <v>4.4935163873351426E-3</v>
       </c>
       <c r="AP6" s="146">
-        <f>$AE$38+$AF$38*2*AH6</f>
+        <f t="shared" si="23"/>
         <v>5.7524412414846242E-7</v>
       </c>
       <c r="AQ6" s="95">
@@ -24690,7 +24704,7 @@
         <v>6.0776307669472354E-2</v>
       </c>
       <c r="AR6" s="127">
-        <f t="shared" ref="AR6:AR14" si="25">MAX($AD$41+$AM6*($AE$41+$AM6*$AF$41), 0)</f>
+        <f t="shared" ref="AR6:AR14" si="26">MAX($AD$41+$AM6*($AE$41+$AM6*$AF$41), 0)</f>
         <v>2.7938864492301894E-2</v>
       </c>
       <c r="AS6" s="127">
@@ -24702,11 +24716,11 @@
         <v>0</v>
       </c>
       <c r="AU6" s="95" t="e">
-        <f t="shared" ref="AU6:AU14" si="26">$W$34/AT6</f>
+        <f t="shared" ref="AU6:AU14" si="27">$W$34/AT6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV6" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW6" t="e">
@@ -24741,7 +24755,7 @@
         <v>6.04</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J13" si="27">E7*F7</f>
+        <f t="shared" ref="J7:J13" si="28">E7*F7</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K7" s="1">
@@ -24785,7 +24799,7 @@
         <v>29.981099999999998</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U14" si="28">T7*0.001341022</f>
+        <f t="shared" ref="U7:U14" si="29">T7*0.001341022</f>
         <v>4.0205314684200001E-2</v>
       </c>
       <c r="V7" s="127">
@@ -24797,7 +24811,7 @@
         <v>-2.106421479569883E-7</v>
       </c>
       <c r="Y7" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5949491220891135E-2</v>
       </c>
       <c r="Z7">
@@ -24808,15 +24822,15 @@
         <v>0.18</v>
       </c>
       <c r="AB7">
-        <f t="shared" ref="AB7:AB12" si="29">-AA7*W7</f>
+        <f t="shared" ref="AB7:AB12" si="30">-AA7*W7</f>
         <v>3.7915586632257891E-8</v>
       </c>
       <c r="AC7">
-        <f t="shared" ref="AC7:AC12" si="30">AB7/6.66*2048.5</f>
+        <f t="shared" ref="AC7:AC12" si="31">AB7/6.66*2048.5</f>
         <v>1.1662174056483527E-5</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD7:AD12" si="31">AC7*144</f>
+        <f t="shared" ref="AD7:AD12" si="32">AC7*144</f>
         <v>1.6793530641336278E-3</v>
       </c>
       <c r="AF7" s="95">
@@ -24844,11 +24858,11 @@
         <v>48.121500315323402</v>
       </c>
       <c r="AL7">
-        <f t="shared" ref="AL7:AL14" si="32">AM7/$AD$31</f>
+        <f t="shared" ref="AL7:AL14" si="33">AM7/$AD$31</f>
         <v>26.777112036937371</v>
       </c>
       <c r="AM7">
-        <f t="shared" ref="AM7:AM14" si="33">MAX($AD$36+$AE$36*AH7, 0)</f>
+        <f t="shared" ref="AM7:AM14" si="34">MAX($AD$36+$AE$36*AH7, 0)</f>
         <v>12338.893226620741</v>
       </c>
       <c r="AN7" s="127">
@@ -24860,31 +24874,31 @@
         <v>9.0344945318604156E-3</v>
       </c>
       <c r="AP7" s="146">
-        <f>$AE$38+$AF$38*2*AH7</f>
+        <f t="shared" si="23"/>
         <v>6.8540225159369539E-7</v>
       </c>
       <c r="AQ7" s="95">
-        <f t="shared" ref="AQ7:AQ13" si="34">$W$34/AP7</f>
+        <f t="shared" ref="AQ7:AQ13" si="35">$W$34/AP7</f>
         <v>5.100831488809876E-2</v>
       </c>
       <c r="AR7" s="127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.7253931091405696E-2</v>
       </c>
       <c r="AS7" s="127">
-        <f t="shared" ref="AS7:AS14" si="35">MAX($AD$39+$AM7*($AE$39+$AM7*$AF$39), 0)</f>
+        <f t="shared" ref="AS7:AS14" si="36">MAX($AD$39+$AM7*($AE$39+$AM7*$AF$39), 0)</f>
         <v>4.6547337155228904E-3</v>
       </c>
       <c r="AT7">
-        <f t="shared" ref="AT7:AT14" si="36">$AE$39+2*$AM7*$AF$39</f>
+        <f t="shared" ref="AT7:AT14" si="37">$AE$39+2*$AM7*$AF$39</f>
         <v>5.5390790714488466E-8</v>
       </c>
       <c r="AU7" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.63117376414629089</v>
       </c>
       <c r="AV7" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW7" t="e">
@@ -24919,7 +24933,7 @@
         <v>8.24</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>53.526600000000002</v>
       </c>
       <c r="K8" s="1">
@@ -24963,7 +24977,7 @@
         <v>53.526600000000002</v>
       </c>
       <c r="U8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.1780348185200002E-2</v>
       </c>
       <c r="V8" s="127">
@@ -24975,7 +24989,7 @@
         <v>-2.4203306550290671E-7</v>
       </c>
       <c r="Y8" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9980490599439529E-2</v>
       </c>
       <c r="Z8">
@@ -24986,15 +25000,15 @@
         <v>0.18</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.3565951790523206E-8</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.3400127964397415E-5</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9296184268732279E-3</v>
       </c>
       <c r="AF8" s="95">
@@ -25022,11 +25036,11 @@
         <v>61.365355815830107</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>40.487898572106765</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18656.823662026796</v>
       </c>
       <c r="AN8" s="127">
@@ -25038,31 +25052,31 @@
         <v>1.488677985167834E-2</v>
       </c>
       <c r="AP8" s="146">
-        <f>$AE$38+$AF$38*2*AH8</f>
+        <f t="shared" si="23"/>
         <v>8.2737095780374586E-7</v>
       </c>
       <c r="AQ8" s="95">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.2255790518811003E-2</v>
       </c>
       <c r="AR8" s="127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.700645961187789E-2</v>
       </c>
       <c r="AS8" s="127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.5446917623018215E-3</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.2633375686569812E-7</v>
       </c>
       <c r="AU8" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.15446751893509364</v>
       </c>
       <c r="AV8" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW8" t="e">
@@ -25100,7 +25114,7 @@
         <v>9</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>62.419400000000003</v>
       </c>
       <c r="K9" s="1">
@@ -25144,7 +25158,7 @@
         <v>62.419400000000003</v>
       </c>
       <c r="U9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.3705788626800004E-2</v>
       </c>
       <c r="V9" s="127">
@@ -25156,7 +25170,7 @@
         <v>-2.4914401121416636E-7</v>
       </c>
       <c r="Y9" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.1028624022683781E-2</v>
       </c>
       <c r="Z9">
@@ -25167,15 +25181,15 @@
         <v>0.18</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.484592201854994E-8</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.3793824512762695E-5</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.986310729837828E-3</v>
       </c>
       <c r="AF9" s="95"/>
@@ -25199,11 +25213,11 @@
         <v>69.37902713815086</v>
       </c>
       <c r="AL9" s="136">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>48.784103318462122</v>
       </c>
       <c r="AM9" s="136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>22479.714809147346</v>
       </c>
       <c r="AN9" s="137">
@@ -25211,35 +25225,35 @@
         <v>0.11227974297099894</v>
       </c>
       <c r="AO9" s="137">
-        <f t="shared" ref="AO9:AO14" si="37">AN9/AH9*5252</f>
+        <f t="shared" ref="AO9:AO14" si="38">AN9/AH9*5252</f>
         <v>1.8427915666371371E-2</v>
       </c>
       <c r="AP9" s="146">
-        <f>$AE$38+$AF$38*2*AH9</f>
+        <f t="shared" si="23"/>
         <v>9.1327423193558253E-7</v>
       </c>
       <c r="AQ9" s="95">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.828117848042939E-2</v>
       </c>
       <c r="AR9" s="137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.4252107885973234E-2</v>
       </c>
       <c r="AS9" s="137">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.6076518189279454E-3</v>
       </c>
       <c r="AT9" s="136">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3.2976894955154272E-7</v>
       </c>
       <c r="AU9" s="134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.10601730066413874</v>
       </c>
       <c r="AV9" s="138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW9" s="136" t="e">
@@ -25274,7 +25288,7 @@
         <v>10.8</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K10" s="1">
@@ -25318,7 +25332,7 @@
         <v>88.904499999999999</v>
       </c>
       <c r="U10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11922289039900001</v>
       </c>
       <c r="V10" s="127">
@@ -25330,7 +25344,7 @@
         <v>-2.7245726969091031E-7</v>
       </c>
       <c r="Y10" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5046344815021923E-2</v>
       </c>
       <c r="Z10">
@@ -25341,15 +25355,15 @@
         <v>0.18</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.9042308544363851E-8</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.508455991788729E-5</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.1721766281757697E-3</v>
       </c>
       <c r="AF10" s="95">
@@ -25377,11 +25391,11 @@
         <v>76.625443530610752</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>56.286002466951672</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>25936.589936771332</v>
       </c>
       <c r="AN10" s="127">
@@ -25389,35 +25403,35 @@
         <v>0.14565577213038161</v>
       </c>
       <c r="AO10" s="127">
+        <f t="shared" si="38"/>
+        <v>2.1630011632554215E-2</v>
+      </c>
+      <c r="AP10" s="146">
+        <f t="shared" si="23"/>
+        <v>9.9095284749111105E-7</v>
+      </c>
+      <c r="AQ10" s="95">
+        <f t="shared" si="35"/>
+        <v>3.5280401043114931E-2</v>
+      </c>
+      <c r="AR10" s="127">
+        <f t="shared" si="26"/>
+        <v>3.5604651971000559E-2</v>
+      </c>
+      <c r="AS10" s="127">
+        <f t="shared" si="36"/>
+        <v>7.9092860710449058E-3</v>
+      </c>
+      <c r="AT10">
         <f t="shared" si="37"/>
-        <v>2.1630011632554215E-2</v>
-      </c>
-      <c r="AP10" s="146">
-        <f>$AE$38+$AF$38*2*AH10</f>
-        <v>9.9095284749111105E-7</v>
-      </c>
-      <c r="AQ10" s="95">
-        <f t="shared" si="34"/>
-        <v>3.5280401043114931E-2</v>
-      </c>
-      <c r="AR10" s="127">
-        <f t="shared" si="25"/>
-        <v>3.5604651971000559E-2</v>
-      </c>
-      <c r="AS10" s="127">
-        <f t="shared" si="35"/>
-        <v>7.9092860710449058E-3</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="36"/>
         <v>4.2330092081523177E-7</v>
       </c>
       <c r="AU10" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.2591868231639068E-2</v>
       </c>
       <c r="AV10" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW10" t="e">
@@ -25452,7 +25466,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>135.96</v>
       </c>
       <c r="K11" s="1">
@@ -25496,7 +25510,7 @@
         <v>135.96</v>
       </c>
       <c r="U11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18232535112000003</v>
       </c>
       <c r="V11" s="127">
@@ -25508,7 +25522,7 @@
         <v>-3.072744538788343E-7</v>
       </c>
       <c r="Y11" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.1919091469408002E-2</v>
       </c>
       <c r="Z11">
@@ -25519,15 +25533,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.3018423543036807E-8</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.3231717811998633E-5</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9053673649278033E-3</v>
       </c>
       <c r="AF11" s="95">
@@ -25555,11 +25569,11 @@
         <v>86.999670134786854</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>67.025987241920845</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>30885.574921077128</v>
       </c>
       <c r="AN11" s="127">
@@ -25567,35 +25581,35 @@
         <v>0.20058398668919561</v>
       </c>
       <c r="AO11" s="127">
+        <f t="shared" si="38"/>
+        <v>2.621424573702338E-2</v>
+      </c>
+      <c r="AP11" s="146">
+        <f t="shared" si="23"/>
+        <v>1.1021603073481309E-6</v>
+      </c>
+      <c r="AQ11" s="95">
+        <f t="shared" si="35"/>
+        <v>3.1720625068073854E-2</v>
+      </c>
+      <c r="AR11" s="127">
+        <f t="shared" si="26"/>
+        <v>5.9793221896832324E-2</v>
+      </c>
+      <c r="AS11" s="127">
+        <f t="shared" si="36"/>
+        <v>1.0335539637470414E-2</v>
+      </c>
+      <c r="AT11">
         <f t="shared" si="37"/>
-        <v>2.621424573702338E-2</v>
-      </c>
-      <c r="AP11" s="146">
-        <f>$AE$38+$AF$38*2*AH11</f>
-        <v>1.1021603073481309E-6</v>
-      </c>
-      <c r="AQ11" s="95">
-        <f t="shared" si="34"/>
-        <v>3.1720625068073854E-2</v>
-      </c>
-      <c r="AR11" s="127">
-        <f t="shared" si="25"/>
-        <v>5.9793221896832324E-2</v>
-      </c>
-      <c r="AS11" s="127">
-        <f t="shared" si="35"/>
-        <v>1.0335539637470414E-2</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="36"/>
         <v>5.5720460673016836E-7</v>
       </c>
       <c r="AU11" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.2743942623635571E-2</v>
       </c>
       <c r="AV11" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW11" t="e">
@@ -25630,7 +25644,7 @@
         <v>15.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>192.75</v>
       </c>
       <c r="K12" s="1">
@@ -25674,7 +25688,7 @@
         <v>192.75</v>
       </c>
       <c r="U12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.25848199050000004</v>
       </c>
       <c r="V12" s="127">
@@ -25686,7 +25700,7 @@
         <v>-3.5079326857702185E-7</v>
       </c>
       <c r="Y12" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.936887500907401E-2</v>
       </c>
       <c r="Z12">
@@ -25697,15 +25711,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.9111057600783063E-8</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.5105705930210826E-5</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.1752216539503589E-3</v>
       </c>
       <c r="AF12" s="95">
@@ -25733,11 +25747,11 @@
         <v>93.569475515836231</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>73.827420491757252</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>34019.675362601745</v>
       </c>
       <c r="AN12" s="127">
@@ -25745,35 +25759,35 @@
         <v>0.23972060902426137</v>
       </c>
       <c r="AO12" s="127">
+        <f t="shared" si="38"/>
+        <v>2.911735620844955E-2</v>
+      </c>
+      <c r="AP12" s="146">
+        <f t="shared" si="23"/>
+        <v>1.1725859300048959E-6</v>
+      </c>
+      <c r="AQ12" s="95">
+        <f t="shared" si="35"/>
+        <v>2.9815481304774936E-2</v>
+      </c>
+      <c r="AR12" s="127">
+        <f t="shared" si="26"/>
+        <v>7.9944052947817243E-2</v>
+      </c>
+      <c r="AS12" s="127">
+        <f t="shared" si="36"/>
+        <v>1.2214758697245927E-2</v>
+      </c>
+      <c r="AT12">
         <f t="shared" si="37"/>
-        <v>2.911735620844955E-2</v>
-      </c>
-      <c r="AP12" s="146">
-        <f>$AE$38+$AF$38*2*AH12</f>
-        <v>1.1725859300048959E-6</v>
-      </c>
-      <c r="AQ12" s="95">
-        <f t="shared" si="34"/>
-        <v>2.9815481304774936E-2</v>
-      </c>
-      <c r="AR12" s="127">
-        <f t="shared" si="25"/>
-        <v>7.9944052947817243E-2</v>
-      </c>
-      <c r="AS12" s="127">
-        <f t="shared" si="35"/>
-        <v>1.2214758697245927E-2</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="36"/>
         <v>6.4200332858497785E-7</v>
       </c>
       <c r="AU12" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.4456437089446509E-2</v>
       </c>
       <c r="AV12" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW12" t="e">
@@ -25808,7 +25822,7 @@
         <v>17.2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>209.1</v>
       </c>
       <c r="K13" s="1">
@@ -25852,7 +25866,7 @@
         <v>209.1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.2804077002</v>
       </c>
       <c r="V13" s="127">
@@ -25864,7 +25878,7 @@
         <v>-3.5423701127962827E-7</v>
       </c>
       <c r="Y13" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.1235634760611192E-2</v>
       </c>
       <c r="Z13">
@@ -25896,11 +25910,11 @@
         <v>95.478935528842101</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>75.804201243764425</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>34930.575933126645</v>
       </c>
       <c r="AN13" s="127">
@@ -25908,35 +25922,35 @@
         <v>0.2517282669713366</v>
       </c>
       <c r="AO13" s="127">
+        <f t="shared" si="38"/>
+        <v>2.996112143999155E-2</v>
+      </c>
+      <c r="AP13" s="146">
+        <f t="shared" si="23"/>
+        <v>1.1930545592190928E-6</v>
+      </c>
+      <c r="AQ13" s="95">
+        <f t="shared" si="35"/>
+        <v>2.9303952282942341E-2</v>
+      </c>
+      <c r="AR13" s="127">
+        <f t="shared" si="26"/>
+        <v>8.650361375830759E-2</v>
+      </c>
+      <c r="AS13" s="127">
+        <f t="shared" si="36"/>
+        <v>1.2810784947188427E-2</v>
+      </c>
+      <c r="AT13">
         <f t="shared" si="37"/>
-        <v>2.996112143999155E-2</v>
-      </c>
-      <c r="AP13" s="146">
-        <f>$AE$38+$AF$38*2*AH13</f>
-        <v>1.1930545592190928E-6</v>
-      </c>
-      <c r="AQ13" s="95">
-        <f t="shared" si="34"/>
-        <v>2.9303952282942341E-2</v>
-      </c>
-      <c r="AR13" s="127">
-        <f t="shared" si="25"/>
-        <v>8.650361375830759E-2</v>
-      </c>
-      <c r="AS13" s="127">
-        <f t="shared" si="35"/>
-        <v>1.2810784947188427E-2</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="36"/>
         <v>6.6664938111536608E-7</v>
       </c>
       <c r="AU13" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.2443180575386959E-2</v>
       </c>
       <c r="AV13" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW13" t="e">
@@ -25991,7 +26005,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB14" s="97"/>
@@ -26020,11 +26034,11 @@
         <v>98.136385886777347</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>78.555343808258939</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>36198.302426845723</v>
       </c>
       <c r="AN14" s="127">
@@ -26032,31 +26046,31 @@
         <v>0.26891409453189768</v>
       </c>
       <c r="AO14" s="127">
+        <f t="shared" si="38"/>
+        <v>3.1135413753683283E-2</v>
+      </c>
+      <c r="AP14" s="146">
+        <f t="shared" si="23"/>
+        <v>1.2215413385500106E-6</v>
+      </c>
+      <c r="AR14" s="127">
+        <f t="shared" si="26"/>
+        <v>9.6159614187763781E-2</v>
+      </c>
+      <c r="AS14" s="127">
+        <f t="shared" si="36"/>
+        <v>1.3677655931616359E-2</v>
+      </c>
+      <c r="AT14">
         <f t="shared" si="37"/>
-        <v>3.1135413753683283E-2</v>
-      </c>
-      <c r="AP14" s="146">
-        <f>$AE$38+$AF$38*2*AH14</f>
-        <v>1.2215413385500106E-6</v>
-      </c>
-      <c r="AR14" s="127">
-        <f t="shared" si="25"/>
-        <v>9.6159614187763781E-2</v>
-      </c>
-      <c r="AS14" s="127">
-        <f t="shared" si="35"/>
-        <v>1.3677655931616359E-2</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="36"/>
         <v>7.0095000049071757E-7</v>
       </c>
       <c r="AU14" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.987690113392914E-2</v>
       </c>
       <c r="AV14" s="128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW14" t="e">
@@ -26086,65 +26100,65 @@
       <c r="H16" s="119"/>
       <c r="I16" s="119"/>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J24" si="38">E16*F16</f>
+        <f t="shared" ref="J16:J24" si="39">E16*F16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K24" si="39">C16</f>
+        <f t="shared" ref="K16:K24" si="40">C16</f>
         <v>9</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:L24" si="40">LN(K16)</f>
+        <f t="shared" ref="L16:L24" si="41">LN(K16)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ref="M16:M24" si="41">1/G16/0.000001</f>
+        <f t="shared" ref="M16:M24" si="42">1/G16/0.000001</f>
         <v>162.33766233766235</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3">
-        <f t="shared" ref="O16:O24" si="42">M16*60/$W$27</f>
+        <f t="shared" ref="O16:O24" si="43">M16*60/$W$27</f>
         <v>9740.2597402597403</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16:Q24" si="43">O16/$W$40*100</f>
+        <f t="shared" ref="Q16:Q24" si="44">O16/$W$40*100</f>
         <v>21.137716450216452</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
-        <f t="shared" ref="S16:S24" si="44">K16</f>
+        <f t="shared" ref="S16:S24" si="45">K16</f>
         <v>9</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16:T24" si="45">J16</f>
+        <f t="shared" ref="T16:T24" si="46">J16</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U24" si="46">T16*0.001341022</f>
+        <f t="shared" ref="U16:U24" si="47">T16*0.001341022</f>
         <v>7.8465879264000005E-3</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:V24" si="47">U16/O16*5252</f>
+        <f t="shared" ref="V16:V24" si="48">U16/O16*5252</f>
         <v>4.230922058383821E-3</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W24" si="48">-V16/2/O16</f>
+        <f t="shared" ref="W16:W24" si="49">-V16/2/O16</f>
         <v>-2.1718733233036949E-7</v>
       </c>
       <c r="X16">
         <v>0.18</v>
       </c>
       <c r="Y16">
-        <f t="shared" ref="Y16:Y24" si="49">-X16*W16</f>
+        <f t="shared" ref="Y16:Y24" si="50">-X16*W16</f>
         <v>3.9093719819466504E-8</v>
       </c>
       <c r="Z16">
-        <f t="shared" ref="Z16:Z24" si="50">Y16/6.66*2048.5</f>
+        <f t="shared" ref="Z16:Z24" si="51">Y16/6.66*2048.5</f>
         <v>1.2024547304831401E-5</v>
       </c>
       <c r="AA16">
-        <f t="shared" ref="AA16:AA24" si="51">Z16*144</f>
+        <f t="shared" ref="AA16:AA24" si="52">Z16*144</f>
         <v>1.7315348118957217E-3</v>
       </c>
     </row>
@@ -26169,65 +26183,65 @@
       <c r="H17" s="119"/>
       <c r="I17" s="119"/>
       <c r="J17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.5649493574615367</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>196.85039370078741</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11811.023622047245</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>25.631561679790028</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="U17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0455948534E-2</v>
       </c>
       <c r="V17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.6494396639814237E-3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-1.9682627910854693E-7</v>
       </c>
       <c r="X17">
         <v>0.18</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>3.5428730239538448E-8</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.0897260344698876E-5</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.569205489636638E-3</v>
       </c>
     </row>
@@ -26252,65 +26266,65 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
       <c r="J18" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>18.150000000000002</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>26</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.2580965380214821</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>314.46540880503147</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18867.92452830189</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>40.946016771488473</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>26</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18.150000000000002</v>
       </c>
       <c r="U18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.4339549300000006E-2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>6.7750595849508004E-3</v>
       </c>
       <c r="W18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-1.7953907900119617E-7</v>
       </c>
       <c r="X18">
         <v>0.18</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>3.2317034220215307E-8</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9.9401568468635218E-6</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.4313825859483471E-3</v>
       </c>
     </row>
@@ -26335,65 +26349,65 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
       <c r="J19" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>28.516800000000003</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3.5835189384561099</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22641.509433962266</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>49.135220125786169</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>36</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>28.516800000000003</v>
       </c>
       <c r="U19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.8241656169600007E-2</v>
       </c>
       <c r="V19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>8.8706620372876483E-3</v>
       </c>
       <c r="W19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-1.9589378665676887E-7</v>
       </c>
       <c r="X19">
         <v>0.18</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>3.5260881598218394E-8</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.0845633026118675E-5</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.5617711557610891E-3</v>
       </c>
     </row>
@@ -26418,65 +26432,65 @@
       <c r="H20" s="119"/>
       <c r="I20" s="119"/>
       <c r="J20" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>51.68</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>56</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.0253516907351496</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>483.09178743961354</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28985.507246376812</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>62.902576489533011</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>56</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>51.68</v>
       </c>
       <c r="U20">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>6.9304016960000006E-2</v>
       </c>
       <c r="V20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.255747204905024E-2</v>
       </c>
       <c r="W20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-2.1661639284611662E-7</v>
       </c>
       <c r="X20">
         <v>0.18</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>3.8990950712300994E-8</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.1992937317439727E-5</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.7269829737113207E-3</v>
       </c>
     </row>
@@ -26501,65 +26515,65 @@
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>59.349000000000004</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>64</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>500.00000000000006</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>30000.000000000004</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>65.104166666666671</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>64</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59.349000000000004</v>
       </c>
       <c r="U21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7.9588314678000011E-2</v>
       </c>
       <c r="V21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.39332609562952E-2</v>
       </c>
       <c r="W21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-2.3222101593825331E-7</v>
       </c>
       <c r="X21">
         <v>0.18</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.1799782868885597E-8</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.2856885166203024E-5</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.8513914639332356E-3</v>
       </c>
     </row>
@@ -26584,65 +26598,65 @@
       <c r="H22" s="119"/>
       <c r="I22" s="119"/>
       <c r="J22" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>84.545999999999992</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>89</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>568.18181818181813</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>34090.909090909088</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>73.982007575757564</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>89</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>84.545999999999992</v>
       </c>
       <c r="U22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.11337804601199999</v>
       </c>
       <c r="V22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.7466870597880702E-2</v>
       </c>
       <c r="W22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-2.5618076876891696E-7</v>
       </c>
       <c r="X22">
         <v>0.18</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.611253837840505E-8</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.4183413643868279E-5</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.0424115647170323E-3</v>
       </c>
     </row>
@@ -26667,65 +26681,65 @@
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="J23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>153.26999999999998</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>143</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.962844630259907</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>699.30069930069931</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>41958.041958041955</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>91.054778554778551</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>143</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>153.26999999999998</v>
       </c>
       <c r="U23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.20553844193999998</v>
       </c>
       <c r="V23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.5727794880141638E-2</v>
       </c>
       <c r="W23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-3.0658955565502124E-7</v>
       </c>
       <c r="X23">
         <v>0.18</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5.5186120017903822E-8</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.6974289317819214E-5</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.4442976617659669E-3</v>
       </c>
       <c r="AB23" s="97"/>
@@ -26755,65 +26769,65 @@
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
       <c r="J24" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>214.45920000000001</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>165</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>781.25000000000011</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>46875.000000000007</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>101.72526041666667</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>165</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>214.45920000000001</v>
       </c>
       <c r="U24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.28759450530240005</v>
       </c>
       <c r="V24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3.2222855292761705E-2</v>
       </c>
       <c r="W24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-3.4371045645612482E-7</v>
       </c>
       <c r="X24">
         <v>0.18</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>6.1867882162102469E-8</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.9029482974334368E-5</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.7402455483041491E-3</v>
       </c>
     </row>
@@ -27488,11 +27502,11 @@
         <v>90</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:C48" si="52">B43/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C43:C48" si="53">B43/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
       <c r="D43" s="88">
-        <f t="shared" ref="D43:D48" si="53">(C43-1)*180</f>
+        <f t="shared" ref="D43:D48" si="54">(C43-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E43" s="6"/>
@@ -27528,11 +27542,11 @@
         <v>100</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.568888888888889</v>
       </c>
       <c r="D44" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E44" s="6"/>
@@ -27579,11 +27593,11 @@
         <v>110</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.6727777777777779</v>
       </c>
       <c r="D45" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E45" s="6"/>
@@ -27630,11 +27644,11 @@
         <v>114</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.7143333333333333</v>
       </c>
       <c r="D46" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>128.57999999999998</v>
       </c>
       <c r="V46" s="19"/>
@@ -27668,11 +27682,11 @@
         <v>127.5</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.8545833333333333</v>
       </c>
       <c r="D47" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>153.82499999999999</v>
       </c>
       <c r="V47" s="19"/>
@@ -27699,11 +27713,11 @@
         <v>136.4</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.9470444444444444</v>
       </c>
       <c r="D48" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>170.46799999999999</v>
       </c>
       <c r="V48" s="21"/>
@@ -27924,7 +27938,7 @@
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B65" s="113">
-        <f t="shared" ref="B65" si="54">C65/180+1</f>
+        <f t="shared" ref="B65" si="55">C65/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C65" s="142">
@@ -27947,43 +27961,43 @@
         <v>6.2283100000000005</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" ref="K65" si="55">C65</f>
+        <f t="shared" ref="K65" si="56">C65</f>
         <v>11</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" ref="L65" si="56">LN(K65)</f>
+        <f t="shared" ref="L65" si="57">LN(K65)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" ref="M65" si="57">1/G65/0.000001</f>
+        <f t="shared" ref="M65" si="58">1/G65/0.000001</f>
         <v>194.5525291828794</v>
       </c>
       <c r="N65" s="3" t="e">
-        <f t="shared" ref="N65" si="58">1/H65/0.000001</f>
+        <f t="shared" ref="N65" si="59">1/H65/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" ref="O65" si="59">M65*60/$W$27</f>
+        <f t="shared" ref="O65" si="60">M65*60/$W$27</f>
         <v>11673.151750972764</v>
       </c>
       <c r="P65" s="3" t="e">
-        <f t="shared" ref="P65" si="60">N65*60/$W$27</f>
+        <f t="shared" ref="P65" si="61">N65*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" s="3">
-        <f t="shared" ref="Q65" si="61">O65/$W$40*100</f>
+        <f t="shared" ref="Q65" si="62">O65/$W$40*100</f>
         <v>25.332360570687424</v>
       </c>
       <c r="R65" s="3" t="e">
-        <f t="shared" ref="R65" si="62">P65/$W$40*100</f>
+        <f t="shared" ref="R65" si="63">P65/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S65" s="3">
-        <f t="shared" ref="S65" si="63">K65</f>
+        <f t="shared" ref="S65" si="64">K65</f>
         <v>11</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" ref="T65" si="64">J65</f>
+        <f t="shared" ref="T65" si="65">J65</f>
         <v>6.2283100000000005</v>
       </c>
       <c r="U65">
@@ -27991,11 +28005,11 @@
         <v>8.3523007328200009E-3</v>
       </c>
       <c r="V65" s="127">
-        <f t="shared" ref="V65" si="65">U65/O65*5252</f>
+        <f t="shared" ref="V65" si="66">U65/O65*5252</f>
         <v>3.7578782821113517E-3</v>
       </c>
       <c r="W65">
-        <f t="shared" ref="W65" si="66">-V65/2/O65</f>
+        <f t="shared" ref="W65" si="67">-V65/2/O65</f>
         <v>-1.6096245308376956E-7</v>
       </c>
     </row>
@@ -28020,59 +28034,59 @@
       <c r="H66" s="143"/>
       <c r="I66" s="142"/>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J79" si="67">E66*F66</f>
+        <f t="shared" ref="J66:J79" si="68">E66*F66</f>
         <v>9.0048700000000004</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" ref="K66:K79" si="68">C66</f>
+        <f t="shared" ref="K66:K79" si="69">C66</f>
         <v>15</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" ref="L66:L79" si="69">LN(K66)</f>
+        <f t="shared" ref="L66:L79" si="70">LN(K66)</f>
         <v>2.7080502011022101</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" ref="M66:M79" si="70">1/G66/0.000001</f>
+        <f t="shared" ref="M66:M79" si="71">1/G66/0.000001</f>
         <v>239.23444976076556</v>
       </c>
       <c r="N66" s="3" t="e">
-        <f t="shared" ref="N66:N77" si="71">1/H66/0.000001</f>
+        <f t="shared" ref="N66:N77" si="72">1/H66/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O79" si="72">M66*60/$W$27</f>
+        <f t="shared" ref="O66:O79" si="73">M66*60/$W$27</f>
         <v>14354.066985645934</v>
       </c>
       <c r="P66" s="3" t="e">
-        <f t="shared" ref="P66:P77" si="73">N66*60/$W$27</f>
+        <f t="shared" ref="P66:P77" si="74">N66*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="3">
-        <f t="shared" ref="Q66:Q79" si="74">O66/$W$40*100</f>
+        <f t="shared" ref="Q66:Q79" si="75">O66/$W$40*100</f>
         <v>31.150318979266352</v>
       </c>
       <c r="R66" s="3" t="e">
-        <f t="shared" ref="R66:R77" si="75">P66/$W$40*100</f>
+        <f t="shared" ref="R66:R77" si="76">P66/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" ref="S66:S79" si="76">K66</f>
+        <f t="shared" ref="S66:S79" si="77">K66</f>
         <v>15</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:T79" si="77">J66</f>
+        <f t="shared" ref="T66:T79" si="78">J66</f>
         <v>9.0048700000000004</v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66:U79" si="78">T66*0.001341022</f>
+        <f t="shared" ref="U66:U79" si="79">T66*0.001341022</f>
         <v>1.2075728777140001E-2</v>
       </c>
       <c r="V66" s="127">
-        <f t="shared" ref="V66:V79" si="79">U66/O66*5252</f>
+        <f t="shared" ref="V66:V79" si="80">U66/O66*5252</f>
         <v>4.4183803517819035E-3</v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66:W79" si="80">-V66/2/O66</f>
+        <f t="shared" ref="W66:W79" si="81">-V66/2/O66</f>
         <v>-1.5390691558706963E-7</v>
       </c>
     </row>
@@ -28097,65 +28111,65 @@
       <c r="H67" s="143"/>
       <c r="I67" s="142"/>
       <c r="J67" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>12.79233</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>20</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>285.71428571428572</v>
       </c>
       <c r="N67" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>17142.857142857145</v>
       </c>
       <c r="P67" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>37.202380952380956</v>
       </c>
       <c r="R67" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>20</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>12.79233</v>
       </c>
       <c r="U67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.7154795961259999E-2</v>
       </c>
       <c r="V67" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>5.255657655998021E-3</v>
       </c>
       <c r="W67">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.5329001496660892E-7</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B68" s="113">
-        <f t="shared" ref="B68:B79" si="81">C68/180+1</f>
+        <f t="shared" ref="B68:B79" si="82">C68/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C68" s="142">
@@ -28174,65 +28188,65 @@
       <c r="H68" s="142"/>
       <c r="I68" s="142"/>
       <c r="J68" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>17.3124</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>332.22591362126246</v>
       </c>
       <c r="N68" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>19933.554817275748</v>
       </c>
       <c r="P68" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>43.258582502768547</v>
       </c>
       <c r="R68" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>25</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17.3124</v>
       </c>
       <c r="U68">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2.3216309272800002E-2</v>
       </c>
       <c r="V68" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>6.1169248244207376E-3</v>
       </c>
       <c r="W68">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.5343286434588683E-7</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B69" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C69" s="142">
@@ -28251,65 +28265,65 @@
       <c r="H69" s="142"/>
       <c r="I69" s="142"/>
       <c r="J69" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>23.790480000000002</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3.4011973816621555</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N69" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>22641.509433962266</v>
       </c>
       <c r="P69" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>49.135220125786169</v>
       </c>
       <c r="R69" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>30</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>23.790480000000002</v>
       </c>
       <c r="U69">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3.1903557070560008E-2</v>
       </c>
       <c r="V69" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.4004554432773335E-3</v>
       </c>
       <c r="W69">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.6342672437237443E-7</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B70" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C70" s="142">
@@ -28328,65 +28342,65 @@
       <c r="H70" s="142"/>
       <c r="I70" s="142"/>
       <c r="J70" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>28.926969999999997</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>35</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>400.00000000000006</v>
       </c>
       <c r="N70" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>24000.000000000004</v>
       </c>
       <c r="P70" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>52.083333333333336</v>
       </c>
       <c r="R70" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>35</v>
       </c>
       <c r="T70" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>28.926969999999997</v>
       </c>
       <c r="U70">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3.8791703163339998E-2</v>
       </c>
       <c r="V70" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>8.4889177089109008E-3</v>
       </c>
       <c r="W70">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.7685245226897709E-7</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B71" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C71" s="142">
@@ -28405,65 +28419,65 @@
       <c r="H71" s="142"/>
       <c r="I71" s="142"/>
       <c r="J71" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>32.374200000000002</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>40</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3.6888794541139363</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>440.52863436123351</v>
       </c>
       <c r="N71" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O71" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>26431.718061674012</v>
       </c>
       <c r="P71" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q71" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>57.360499265785613</v>
       </c>
       <c r="R71" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S71" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>40</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>32.374200000000002</v>
       </c>
       <c r="U71">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4.3414514432400006E-2</v>
       </c>
       <c r="V71" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>8.6264929607275023E-3</v>
       </c>
       <c r="W71">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.6318449184042857E-7</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B72" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C72" s="142">
@@ -28482,65 +28496,65 @@
       <c r="H72" s="142"/>
       <c r="I72" s="142"/>
       <c r="J72" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>42.16</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>50</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3.912023005428146</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N72" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O72" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>29702.970297029704</v>
       </c>
       <c r="P72" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q72" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>64.459570957095707</v>
       </c>
       <c r="R72" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>50</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>42.16</v>
       </c>
       <c r="U72">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5.6537487519999999E-2</v>
       </c>
       <c r="V72" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9.9968077766530127E-3</v>
       </c>
       <c r="W72">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.6827959757365904E-7</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B73" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C73" s="142">
@@ -28559,65 +28573,65 @@
       <c r="H73" s="142"/>
       <c r="I73" s="142"/>
       <c r="J73" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>52.727999999999994</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>60</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.0943445622221004</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>534.75935828877004</v>
       </c>
       <c r="N73" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>32085.561497326202</v>
       </c>
       <c r="P73" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>69.630124777183596</v>
       </c>
       <c r="R73" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S73" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>60</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>52.727999999999994</v>
       </c>
       <c r="U73">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7.0709408015999994E-2</v>
       </c>
       <c r="V73" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.1574234439717663E-2</v>
       </c>
       <c r="W73">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.8036515335226691E-7</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B74" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C74" s="142">
@@ -28636,65 +28650,65 @@
       <c r="H74" s="142"/>
       <c r="I74" s="142"/>
       <c r="J74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>64.944000000000003</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>75</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>606.06060606060612</v>
       </c>
       <c r="N74" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O74" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>36363.636363636368</v>
       </c>
       <c r="P74" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>78.914141414141426</v>
       </c>
       <c r="R74" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>75</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>64.944000000000003</v>
       </c>
       <c r="U74">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>8.7091332768000004E-2</v>
       </c>
       <c r="V74" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.257860119168224E-2</v>
       </c>
       <c r="W74">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.7295576638563078E-7</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B75" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.5</v>
       </c>
       <c r="C75" s="142">
@@ -28713,65 +28727,65 @@
       <c r="H75" s="142"/>
       <c r="I75" s="142"/>
       <c r="J75" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>81.4572</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>90</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.499809670330265</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>662.25165562913912</v>
       </c>
       <c r="N75" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O75" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>39735.099337748346</v>
       </c>
       <c r="P75" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>86.230684326710815</v>
       </c>
       <c r="R75" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S75" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>90</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>81.4572</v>
       </c>
       <c r="U75">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.10923589725840001</v>
       </c>
       <c r="V75" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.4438291132094773E-2</v>
       </c>
       <c r="W75">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.8168183007885921E-7</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B76" s="113">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C76" s="142">
@@ -28790,65 +28804,65 @@
       <c r="H76" s="142"/>
       <c r="I76" s="142"/>
       <c r="J76" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>94.001099999999994</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>109</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.6913478822291435</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>680.27210884353735</v>
       </c>
       <c r="N76" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O76" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>40816.326530612241</v>
       </c>
       <c r="P76" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q76" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>88.577097505668917</v>
       </c>
       <c r="R76" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S76" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>109</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>94.001099999999994</v>
       </c>
       <c r="U76">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.12605754312420001</v>
       </c>
       <c r="V76" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.6220328303963312E-2</v>
       </c>
       <c r="W76">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1.986990217235506E-7</v>
       </c>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="116">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C77" s="142">
@@ -28867,65 +28881,65 @@
       <c r="H77" s="142"/>
       <c r="I77" s="142"/>
       <c r="J77" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>117.19680000000001</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>130</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.8675344504555822</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>724.63768115942037</v>
       </c>
       <c r="N77" s="3" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O77" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>43478.260869565223</v>
       </c>
       <c r="P77" s="3" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>94.353864734299535</v>
       </c>
       <c r="R77" s="3" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S77" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>130</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>117.19680000000001</v>
       </c>
       <c r="U77">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.15716348712960002</v>
       </c>
       <c r="V77" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.8984720591307163E-2</v>
       </c>
       <c r="W77">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-2.1832428680003235E-7</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B78" s="144">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.8277777777777777</v>
       </c>
       <c r="C78" s="142">
@@ -28944,53 +28958,53 @@
       <c r="H78" s="142"/>
       <c r="I78" s="142"/>
       <c r="J78" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>139.86000000000001</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>149</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>5.0039463059454592</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>763.35877862595419</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>45801.526717557252</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>99.395674300254456</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>149</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>139.86000000000001</v>
       </c>
       <c r="U78">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.18755533692000004</v>
       </c>
       <c r="V78" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.1506720410833846E-2</v>
       </c>
       <c r="W78">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-2.3478169781826949E-7</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B79" s="144">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C79" s="142">
@@ -29009,47 +29023,47 @@
       <c r="H79" s="142"/>
       <c r="I79" s="142"/>
       <c r="J79" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>177.22499999999999</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>164</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>5.0998664278241987</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>798.72204472843453</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>47923.322683706072</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>104.00026624068157</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>164</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>177.22499999999999</v>
       </c>
       <c r="U79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.23766262395000001</v>
       </c>
       <c r="V79" s="127">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.6045858907228683E-2</v>
       </c>
       <c r="W79">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-2.7174512793208589E-7</v>
       </c>
     </row>
@@ -29066,7 +29080,7 @@
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B83" s="113">
-        <f t="shared" ref="B83" si="82">C83/180+1</f>
+        <f t="shared" ref="B83" si="83">C83/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C83" s="142">
@@ -29089,43 +29103,43 @@
         <v>7.9545599999999999</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ref="K83:K97" si="83">C83</f>
+        <f t="shared" ref="K83:K97" si="84">C83</f>
         <v>11</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" ref="L83:L97" si="84">LN(K83)</f>
+        <f t="shared" ref="L83:L97" si="85">LN(K83)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" ref="M83:M97" si="85">1/G83/0.000001</f>
+        <f t="shared" ref="M83:M97" si="86">1/G83/0.000001</f>
         <v>204.91803278688525</v>
       </c>
       <c r="N83" s="3" t="e">
-        <f t="shared" ref="N83:N95" si="86">1/H83/0.000001</f>
+        <f t="shared" ref="N83:N95" si="87">1/H83/0.000001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O83" s="3">
-        <f t="shared" ref="O83:O97" si="87">M83*60/$W$27</f>
+        <f t="shared" ref="O83:O97" si="88">M83*60/$W$27</f>
         <v>12295.081967213115</v>
       </c>
       <c r="P83" s="3" t="e">
-        <f t="shared" ref="P83:P95" si="88">N83*60/$W$27</f>
+        <f t="shared" ref="P83:P95" si="89">N83*60/$W$27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q83" s="3">
-        <f t="shared" ref="Q83:Q97" si="89">O83/$W$40*100</f>
+        <f t="shared" ref="Q83:Q97" si="90">O83/$W$40*100</f>
         <v>26.682035519125684</v>
       </c>
       <c r="R83" s="3" t="e">
-        <f t="shared" ref="R83:R95" si="90">P83/$W$40*100</f>
+        <f t="shared" ref="R83:R95" si="91">P83/$W$40*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S83" s="3">
-        <f t="shared" ref="S83:S97" si="91">K83</f>
+        <f t="shared" ref="S83:S97" si="92">K83</f>
         <v>11</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" ref="T83:T97" si="92">J83</f>
+        <f t="shared" ref="T83:T97" si="93">J83</f>
         <v>7.9545599999999999</v>
       </c>
       <c r="U83">
@@ -29133,11 +29147,11 @@
         <v>1.0667239960320001E-2</v>
       </c>
       <c r="V83" s="127">
-        <f t="shared" ref="V83:V97" si="93">U83/O83*5252</f>
+        <f t="shared" ref="V83:V97" si="94">U83/O83*5252</f>
         <v>4.5566466674235194E-3</v>
       </c>
       <c r="W83">
-        <f t="shared" ref="W83:W97" si="94">-V83/2/O83</f>
+        <f t="shared" ref="W83:W97" si="95">-V83/2/O83</f>
         <v>-1.8530363114188979E-7</v>
       </c>
     </row>
@@ -29162,59 +29176,59 @@
       <c r="H84" s="143"/>
       <c r="I84" s="142"/>
       <c r="J84" s="2">
-        <f t="shared" ref="J84:J97" si="95">E84*F84</f>
+        <f t="shared" ref="J84:J97" si="96">E84*F84</f>
         <v>10.736400000000001</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>15</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>2.7080502011022101</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>256.41025641025641</v>
       </c>
       <c r="N84" s="3" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O84" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>15384.615384615385</v>
       </c>
       <c r="P84" s="3" t="e">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q84" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>33.386752136752136</v>
       </c>
       <c r="R84" s="3" t="e">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S84" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>15</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10.736400000000001</v>
       </c>
       <c r="U84">
-        <f t="shared" ref="U84:U97" si="96">T84*0.001341022</f>
+        <f t="shared" ref="U84:U97" si="97">T84*0.001341022</f>
         <v>1.4397748600800004E-2</v>
       </c>
       <c r="V84" s="127">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>4.9151034173411049E-3</v>
       </c>
       <c r="W84">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>-1.5974086106358592E-7</v>
       </c>
     </row>
@@ -29239,65 +29253,65 @@
       <c r="H85" s="143"/>
       <c r="I85" s="142"/>
       <c r="J85" s="2">
+        <f t="shared" si="96"/>
+        <v>14.331199999999999</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="84"/>
+        <v>20</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="85"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="86"/>
+        <v>306.74846625766872</v>
+      </c>
+      <c r="N85" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="88"/>
+        <v>18404.907975460123</v>
+      </c>
+      <c r="P85" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q85" s="3">
+        <f t="shared" si="90"/>
+        <v>39.941206543967276</v>
+      </c>
+      <c r="R85" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S85" s="3">
+        <f t="shared" si="92"/>
+        <v>20</v>
+      </c>
+      <c r="T85" s="4">
+        <f t="shared" si="93"/>
+        <v>14.331199999999999</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="97"/>
+        <v>1.92184544864E-2</v>
+      </c>
+      <c r="V85" s="127">
+        <f t="shared" si="94"/>
+        <v>5.4841525476331228E-3</v>
+      </c>
+      <c r="W85">
         <f t="shared" si="95"/>
-        <v>14.331199999999999</v>
-      </c>
-      <c r="K85" s="1">
-        <f t="shared" si="83"/>
-        <v>20</v>
-      </c>
-      <c r="L85" s="1">
-        <f t="shared" si="84"/>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="M85" s="3">
-        <f t="shared" si="85"/>
-        <v>306.74846625766872</v>
-      </c>
-      <c r="N85" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O85" s="3">
-        <f t="shared" si="87"/>
-        <v>18404.907975460123</v>
-      </c>
-      <c r="P85" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q85" s="3">
-        <f t="shared" si="89"/>
-        <v>39.941206543967276</v>
-      </c>
-      <c r="R85" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S85" s="3">
-        <f t="shared" si="91"/>
-        <v>20</v>
-      </c>
-      <c r="T85" s="4">
-        <f t="shared" si="92"/>
-        <v>14.331199999999999</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="96"/>
-        <v>1.92184544864E-2</v>
-      </c>
-      <c r="V85" s="127">
-        <f t="shared" si="93"/>
-        <v>5.4841525476331228E-3</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="94"/>
         <v>-1.4898614421069984E-7</v>
       </c>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B86" s="113">
-        <f t="shared" ref="B86:B97" si="97">C86/180+1</f>
+        <f t="shared" ref="B86:B97" si="98">C86/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C86" s="142">
@@ -29316,65 +29330,65 @@
       <c r="H86" s="142"/>
       <c r="I86" s="142"/>
       <c r="J86" s="2">
+        <f t="shared" si="96"/>
+        <v>18.75488</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="84"/>
+        <v>25</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="85"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="86"/>
+        <v>348.43205574912895</v>
+      </c>
+      <c r="N86" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="88"/>
+        <v>20905.923344947736</v>
+      </c>
+      <c r="P86" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q86" s="3">
+        <f t="shared" si="90"/>
+        <v>45.368757259001164</v>
+      </c>
+      <c r="R86" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S86" s="3">
+        <f t="shared" si="92"/>
+        <v>25</v>
+      </c>
+      <c r="T86" s="4">
+        <f t="shared" si="93"/>
+        <v>18.75488</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="97"/>
+        <v>2.5150706687360001E-2</v>
+      </c>
+      <c r="V86" s="127">
+        <f t="shared" si="94"/>
+        <v>6.3183773011363711E-3</v>
+      </c>
+      <c r="W86">
         <f t="shared" si="95"/>
-        <v>18.75488</v>
-      </c>
-      <c r="K86" s="1">
-        <f t="shared" si="83"/>
-        <v>25</v>
-      </c>
-      <c r="L86" s="1">
-        <f t="shared" si="84"/>
-        <v>3.2188758248682006</v>
-      </c>
-      <c r="M86" s="3">
-        <f t="shared" si="85"/>
-        <v>348.43205574912895</v>
-      </c>
-      <c r="N86" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O86" s="3">
-        <f t="shared" si="87"/>
-        <v>20905.923344947736</v>
-      </c>
-      <c r="P86" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q86" s="3">
-        <f t="shared" si="89"/>
-        <v>45.368757259001164</v>
-      </c>
-      <c r="R86" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S86" s="3">
-        <f t="shared" si="91"/>
-        <v>25</v>
-      </c>
-      <c r="T86" s="4">
-        <f t="shared" si="92"/>
-        <v>18.75488</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="96"/>
-        <v>2.5150706687360001E-2</v>
-      </c>
-      <c r="V86" s="127">
-        <f t="shared" si="93"/>
-        <v>6.3183773011363711E-3</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="94"/>
         <v>-1.5111452378551155E-7</v>
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B87" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C87" s="142">
@@ -29393,65 +29407,65 @@
       <c r="H87" s="142"/>
       <c r="I87" s="142"/>
       <c r="J87" s="2">
+        <f t="shared" si="96"/>
+        <v>22.945799999999998</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="85"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" si="86"/>
+        <v>378.78787878787881</v>
+      </c>
+      <c r="N87" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="88"/>
+        <v>22727.272727272728</v>
+      </c>
+      <c r="P87" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q87" s="3">
+        <f t="shared" si="90"/>
+        <v>49.321338383838388</v>
+      </c>
+      <c r="R87" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S87" s="3">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="T87" s="4">
+        <f t="shared" si="93"/>
+        <v>22.945799999999998</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="97"/>
+        <v>3.0770822607600001E-2</v>
+      </c>
+      <c r="V87" s="127">
+        <f t="shared" si="94"/>
+        <v>7.1107678547450686E-3</v>
+      </c>
+      <c r="W87">
         <f t="shared" si="95"/>
-        <v>22.945799999999998</v>
-      </c>
-      <c r="K87" s="1">
-        <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="L87" s="1">
-        <f t="shared" si="84"/>
-        <v>3.4011973816621555</v>
-      </c>
-      <c r="M87" s="3">
-        <f t="shared" si="85"/>
-        <v>378.78787878787881</v>
-      </c>
-      <c r="N87" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O87" s="3">
-        <f t="shared" si="87"/>
-        <v>22727.272727272728</v>
-      </c>
-      <c r="P87" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q87" s="3">
-        <f t="shared" si="89"/>
-        <v>49.321338383838388</v>
-      </c>
-      <c r="R87" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S87" s="3">
-        <f t="shared" si="91"/>
-        <v>30</v>
-      </c>
-      <c r="T87" s="4">
-        <f t="shared" si="92"/>
-        <v>22.945799999999998</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="96"/>
-        <v>3.0770822607600001E-2</v>
-      </c>
-      <c r="V87" s="127">
-        <f t="shared" si="93"/>
-        <v>7.1107678547450686E-3</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="94"/>
         <v>-1.564368928043915E-7</v>
       </c>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B88" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C88" s="142">
@@ -29470,65 +29484,65 @@
       <c r="H88" s="142"/>
       <c r="I88" s="142"/>
       <c r="J88" s="2">
+        <f t="shared" si="96"/>
+        <v>28.194600000000005</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="84"/>
+        <v>35</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="85"/>
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="M88" s="3">
+        <f t="shared" si="86"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="N88" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="88"/>
+        <v>25000</v>
+      </c>
+      <c r="P88" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" s="3">
+        <f t="shared" si="90"/>
+        <v>54.253472222222221</v>
+      </c>
+      <c r="R88" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S88" s="3">
+        <f t="shared" si="92"/>
+        <v>35</v>
+      </c>
+      <c r="T88" s="4">
+        <f t="shared" si="93"/>
+        <v>28.194600000000005</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="97"/>
+        <v>3.7809578881200012E-2</v>
+      </c>
+      <c r="V88" s="127">
+        <f t="shared" si="94"/>
+        <v>7.9430363313624987E-3</v>
+      </c>
+      <c r="W88">
         <f t="shared" si="95"/>
-        <v>28.194600000000005</v>
-      </c>
-      <c r="K88" s="1">
-        <f t="shared" si="83"/>
-        <v>35</v>
-      </c>
-      <c r="L88" s="1">
-        <f t="shared" si="84"/>
-        <v>3.5553480614894135</v>
-      </c>
-      <c r="M88" s="3">
-        <f t="shared" si="85"/>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="N88" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O88" s="3">
-        <f t="shared" si="87"/>
-        <v>25000</v>
-      </c>
-      <c r="P88" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q88" s="3">
-        <f t="shared" si="89"/>
-        <v>54.253472222222221</v>
-      </c>
-      <c r="R88" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S88" s="3">
-        <f t="shared" si="91"/>
-        <v>35</v>
-      </c>
-      <c r="T88" s="4">
-        <f t="shared" si="92"/>
-        <v>28.194600000000005</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="96"/>
-        <v>3.7809578881200012E-2</v>
-      </c>
-      <c r="V88" s="127">
-        <f t="shared" si="93"/>
-        <v>7.9430363313624987E-3</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="94"/>
         <v>-1.5886072662724997E-7</v>
       </c>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B89" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C89" s="142">
@@ -29547,65 +29561,65 @@
       <c r="H89" s="142"/>
       <c r="I89" s="142"/>
       <c r="J89" s="2">
+        <f t="shared" si="96"/>
+        <v>31.509999999999994</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="84"/>
+        <v>40</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="85"/>
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="M89" s="3">
+        <f t="shared" si="86"/>
+        <v>444.44444444444451</v>
+      </c>
+      <c r="N89" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="88"/>
+        <v>26666.666666666672</v>
+      </c>
+      <c r="P89" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q89" s="3">
+        <f t="shared" si="90"/>
+        <v>57.870370370370381</v>
+      </c>
+      <c r="R89" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S89" s="3">
+        <f t="shared" si="92"/>
+        <v>40</v>
+      </c>
+      <c r="T89" s="4">
+        <f t="shared" si="93"/>
+        <v>31.509999999999994</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="97"/>
+        <v>4.2255603219999993E-2</v>
+      </c>
+      <c r="V89" s="127">
+        <f t="shared" si="94"/>
+        <v>8.3222410541789974E-3</v>
+      </c>
+      <c r="W89">
         <f t="shared" si="95"/>
-        <v>31.509999999999994</v>
-      </c>
-      <c r="K89" s="1">
-        <f t="shared" si="83"/>
-        <v>40</v>
-      </c>
-      <c r="L89" s="1">
-        <f t="shared" si="84"/>
-        <v>3.6888794541139363</v>
-      </c>
-      <c r="M89" s="3">
-        <f t="shared" si="85"/>
-        <v>444.44444444444451</v>
-      </c>
-      <c r="N89" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O89" s="3">
-        <f t="shared" si="87"/>
-        <v>26666.666666666672</v>
-      </c>
-      <c r="P89" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q89" s="3">
-        <f t="shared" si="89"/>
-        <v>57.870370370370381</v>
-      </c>
-      <c r="R89" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S89" s="3">
-        <f t="shared" si="91"/>
-        <v>40</v>
-      </c>
-      <c r="T89" s="4">
-        <f t="shared" si="92"/>
-        <v>31.509999999999994</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="96"/>
-        <v>4.2255603219999993E-2</v>
-      </c>
-      <c r="V89" s="127">
-        <f t="shared" si="93"/>
-        <v>8.3222410541789974E-3</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="94"/>
         <v>-1.5604201976585617E-7</v>
       </c>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B90" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C90" s="142">
@@ -29624,65 +29638,65 @@
       <c r="H90" s="142"/>
       <c r="I90" s="142"/>
       <c r="J90" s="2">
+        <f t="shared" si="96"/>
+        <v>41.222999999999999</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="84"/>
+        <v>50</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="85"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="M90" s="3">
+        <f t="shared" si="86"/>
+        <v>497.51243781094524</v>
+      </c>
+      <c r="N90" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="88"/>
+        <v>29850.746268656716</v>
+      </c>
+      <c r="P90" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q90" s="3">
+        <f t="shared" si="90"/>
+        <v>64.780265339966832</v>
+      </c>
+      <c r="R90" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S90" s="3">
+        <f t="shared" si="92"/>
+        <v>50</v>
+      </c>
+      <c r="T90" s="4">
+        <f t="shared" si="93"/>
+        <v>41.222999999999999</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="97"/>
+        <v>5.5280949906E-2</v>
+      </c>
+      <c r="V90" s="127">
+        <f t="shared" si="94"/>
+        <v>9.7262408883614527E-3</v>
+      </c>
+      <c r="W90">
         <f t="shared" si="95"/>
-        <v>41.222999999999999</v>
-      </c>
-      <c r="K90" s="1">
-        <f t="shared" si="83"/>
-        <v>50</v>
-      </c>
-      <c r="L90" s="1">
-        <f t="shared" si="84"/>
-        <v>3.912023005428146</v>
-      </c>
-      <c r="M90" s="3">
-        <f t="shared" si="85"/>
-        <v>497.51243781094524</v>
-      </c>
-      <c r="N90" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O90" s="3">
-        <f t="shared" si="87"/>
-        <v>29850.746268656716</v>
-      </c>
-      <c r="P90" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q90" s="3">
-        <f t="shared" si="89"/>
-        <v>64.780265339966832</v>
-      </c>
-      <c r="R90" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S90" s="3">
-        <f t="shared" si="91"/>
-        <v>50</v>
-      </c>
-      <c r="T90" s="4">
-        <f t="shared" si="92"/>
-        <v>41.222999999999999</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="96"/>
-        <v>5.5280949906E-2</v>
-      </c>
-      <c r="V90" s="127">
-        <f t="shared" si="93"/>
-        <v>9.7262408883614527E-3</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="94"/>
         <v>-1.6291453488005435E-7</v>
       </c>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B91" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C91" s="142">
@@ -29701,65 +29715,65 @@
       <c r="H91" s="142"/>
       <c r="I91" s="142"/>
       <c r="J91" s="2">
+        <f t="shared" si="96"/>
+        <v>51.816000000000003</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" si="84"/>
+        <v>60</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" si="85"/>
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="M91" s="3">
+        <f t="shared" si="86"/>
+        <v>531.91489361702133</v>
+      </c>
+      <c r="N91" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" si="88"/>
+        <v>31914.89361702128</v>
+      </c>
+      <c r="P91" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q91" s="3">
+        <f t="shared" si="90"/>
+        <v>69.259751773049643</v>
+      </c>
+      <c r="R91" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S91" s="3">
+        <f t="shared" si="92"/>
+        <v>60</v>
+      </c>
+      <c r="T91" s="4">
+        <f t="shared" si="93"/>
+        <v>51.816000000000003</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="97"/>
+        <v>6.9486395952000013E-2</v>
+      </c>
+      <c r="V91" s="127">
+        <f t="shared" si="94"/>
+        <v>1.1434866614916992E-2</v>
+      </c>
+      <c r="W91">
         <f t="shared" si="95"/>
-        <v>51.816000000000003</v>
-      </c>
-      <c r="K91" s="1">
-        <f t="shared" si="83"/>
-        <v>60</v>
-      </c>
-      <c r="L91" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0943445622221004</v>
-      </c>
-      <c r="M91" s="3">
-        <f t="shared" si="85"/>
-        <v>531.91489361702133</v>
-      </c>
-      <c r="N91" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O91" s="3">
-        <f t="shared" si="87"/>
-        <v>31914.89361702128</v>
-      </c>
-      <c r="P91" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q91" s="3">
-        <f t="shared" si="89"/>
-        <v>69.259751773049643</v>
-      </c>
-      <c r="R91" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S91" s="3">
-        <f t="shared" si="91"/>
-        <v>60</v>
-      </c>
-      <c r="T91" s="4">
-        <f t="shared" si="92"/>
-        <v>51.816000000000003</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="96"/>
-        <v>6.9486395952000013E-2</v>
-      </c>
-      <c r="V91" s="127">
-        <f t="shared" si="93"/>
-        <v>1.1434866614916992E-2</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="94"/>
         <v>-1.7914624363369954E-7</v>
       </c>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B92" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C92" s="142">
@@ -29778,65 +29792,65 @@
       <c r="H92" s="142"/>
       <c r="I92" s="142"/>
       <c r="J92" s="2">
+        <f t="shared" si="96"/>
+        <v>66.481399999999994</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" si="84"/>
+        <v>75</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="85"/>
+        <v>4.3174881135363101</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" si="86"/>
+        <v>613.49693251533745</v>
+      </c>
+      <c r="N92" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="88"/>
+        <v>36809.815950920245</v>
+      </c>
+      <c r="P92" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q92" s="3">
+        <f t="shared" si="90"/>
+        <v>79.882413087934552</v>
+      </c>
+      <c r="R92" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S92" s="3">
+        <f t="shared" si="92"/>
+        <v>75</v>
+      </c>
+      <c r="T92" s="4">
+        <f t="shared" si="93"/>
+        <v>66.481399999999994</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="97"/>
+        <v>8.9153019990799998E-2</v>
+      </c>
+      <c r="V92" s="127">
+        <f t="shared" si="94"/>
+        <v>1.2720293456940682E-2</v>
+      </c>
+      <c r="W92">
         <f t="shared" si="95"/>
-        <v>66.481399999999994</v>
-      </c>
-      <c r="K92" s="1">
-        <f t="shared" si="83"/>
-        <v>75</v>
-      </c>
-      <c r="L92" s="1">
-        <f t="shared" si="84"/>
-        <v>4.3174881135363101</v>
-      </c>
-      <c r="M92" s="3">
-        <f t="shared" si="85"/>
-        <v>613.49693251533745</v>
-      </c>
-      <c r="N92" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O92" s="3">
-        <f t="shared" si="87"/>
-        <v>36809.815950920245</v>
-      </c>
-      <c r="P92" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q92" s="3">
-        <f t="shared" si="89"/>
-        <v>79.882413087934552</v>
-      </c>
-      <c r="R92" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S92" s="3">
-        <f t="shared" si="91"/>
-        <v>75</v>
-      </c>
-      <c r="T92" s="4">
-        <f t="shared" si="92"/>
-        <v>66.481399999999994</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="96"/>
-        <v>8.9153019990799998E-2</v>
-      </c>
-      <c r="V92" s="127">
-        <f t="shared" si="93"/>
-        <v>1.2720293456940682E-2</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="94"/>
         <v>-1.7278398612344427E-7</v>
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B93" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.5</v>
       </c>
       <c r="C93" s="142">
@@ -29855,65 +29869,65 @@
       <c r="H93" s="142"/>
       <c r="I93" s="142"/>
       <c r="J93" s="2">
+        <f t="shared" si="96"/>
+        <v>80.820000000000007</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="84"/>
+        <v>90</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="85"/>
+        <v>4.499809670330265</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="86"/>
+        <v>657.89473684210532</v>
+      </c>
+      <c r="N93" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="88"/>
+        <v>39473.68421052632</v>
+      </c>
+      <c r="P93" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q93" s="3">
+        <f t="shared" si="90"/>
+        <v>85.663377192982466</v>
+      </c>
+      <c r="R93" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S93" s="3">
+        <f t="shared" si="92"/>
+        <v>90</v>
+      </c>
+      <c r="T93" s="4">
+        <f t="shared" si="93"/>
+        <v>80.820000000000007</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="97"/>
+        <v>0.10838139804000002</v>
+      </c>
+      <c r="V93" s="127">
+        <f t="shared" si="94"/>
+        <v>1.4420217263487361E-2</v>
+      </c>
+      <c r="W93">
         <f t="shared" si="95"/>
-        <v>80.820000000000007</v>
-      </c>
-      <c r="K93" s="1">
-        <f t="shared" si="83"/>
-        <v>90</v>
-      </c>
-      <c r="L93" s="1">
-        <f t="shared" si="84"/>
-        <v>4.499809670330265</v>
-      </c>
-      <c r="M93" s="3">
-        <f t="shared" si="85"/>
-        <v>657.89473684210532</v>
-      </c>
-      <c r="N93" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O93" s="3">
-        <f t="shared" si="87"/>
-        <v>39473.68421052632</v>
-      </c>
-      <c r="P93" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q93" s="3">
-        <f t="shared" si="89"/>
-        <v>85.663377192982466</v>
-      </c>
-      <c r="R93" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S93" s="3">
-        <f t="shared" si="91"/>
-        <v>90</v>
-      </c>
-      <c r="T93" s="4">
-        <f t="shared" si="92"/>
-        <v>80.820000000000007</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="96"/>
-        <v>0.10838139804000002</v>
-      </c>
-      <c r="V93" s="127">
-        <f t="shared" si="93"/>
-        <v>1.4420217263487361E-2</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="94"/>
         <v>-1.8265608533750656E-7</v>
       </c>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B94" s="113">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C94" s="142">
@@ -29932,65 +29946,65 @@
       <c r="H94" s="142"/>
       <c r="I94" s="142"/>
       <c r="J94" s="2">
+        <f t="shared" si="96"/>
+        <v>99.012000000000015</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="84"/>
+        <v>109</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="85"/>
+        <v>4.6913478822291435</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="86"/>
+        <v>719.42446043165478</v>
+      </c>
+      <c r="N94" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="88"/>
+        <v>43165.467625899284</v>
+      </c>
+      <c r="P94" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q94" s="3">
+        <f t="shared" si="90"/>
+        <v>93.675059952038382</v>
+      </c>
+      <c r="R94" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S94" s="3">
+        <f t="shared" si="92"/>
+        <v>109</v>
+      </c>
+      <c r="T94" s="4">
+        <f t="shared" si="93"/>
+        <v>99.012000000000015</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="97"/>
+        <v>0.13277727026400002</v>
+      </c>
+      <c r="V94" s="127">
+        <f t="shared" si="94"/>
+        <v>1.6155187509381233E-2</v>
+      </c>
+      <c r="W94">
         <f t="shared" si="95"/>
-        <v>99.012000000000015</v>
-      </c>
-      <c r="K94" s="1">
-        <f t="shared" si="83"/>
-        <v>109</v>
-      </c>
-      <c r="L94" s="1">
-        <f t="shared" si="84"/>
-        <v>4.6913478822291435</v>
-      </c>
-      <c r="M94" s="3">
-        <f t="shared" si="85"/>
-        <v>719.42446043165478</v>
-      </c>
-      <c r="N94" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O94" s="3">
-        <f t="shared" si="87"/>
-        <v>43165.467625899284</v>
-      </c>
-      <c r="P94" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q94" s="3">
-        <f t="shared" si="89"/>
-        <v>93.675059952038382</v>
-      </c>
-      <c r="R94" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S94" s="3">
-        <f t="shared" si="91"/>
-        <v>109</v>
-      </c>
-      <c r="T94" s="4">
-        <f t="shared" si="92"/>
-        <v>99.012000000000015</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="96"/>
-        <v>0.13277727026400002</v>
-      </c>
-      <c r="V94" s="127">
-        <f t="shared" si="93"/>
-        <v>1.6155187509381233E-2</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="94"/>
         <v>-1.8713092198366594E-7</v>
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="116">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C95" s="142">
@@ -30009,65 +30023,65 @@
       <c r="H95" s="142"/>
       <c r="I95" s="142"/>
       <c r="J95" s="2">
+        <f t="shared" si="96"/>
+        <v>118.28099999999999</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="84"/>
+        <v>130</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="85"/>
+        <v>4.8675344504555822</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="86"/>
+        <v>740.74074074074076</v>
+      </c>
+      <c r="N95" s="3" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="88"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="P95" s="3" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q95" s="3">
+        <f t="shared" si="90"/>
+        <v>96.450617283950621</v>
+      </c>
+      <c r="R95" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S95" s="3">
+        <f t="shared" si="92"/>
+        <v>130</v>
+      </c>
+      <c r="T95" s="4">
+        <f t="shared" si="93"/>
+        <v>118.28099999999999</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="97"/>
+        <v>0.15861742318200001</v>
+      </c>
+      <c r="V95" s="127">
+        <f t="shared" si="94"/>
+        <v>1.8743820897416941E-2</v>
+      </c>
+      <c r="W95">
         <f t="shared" si="95"/>
-        <v>118.28099999999999</v>
-      </c>
-      <c r="K95" s="1">
-        <f t="shared" si="83"/>
-        <v>130</v>
-      </c>
-      <c r="L95" s="1">
-        <f t="shared" si="84"/>
-        <v>4.8675344504555822</v>
-      </c>
-      <c r="M95" s="3">
-        <f t="shared" si="85"/>
-        <v>740.74074074074076</v>
-      </c>
-      <c r="N95" s="3" t="e">
-        <f t="shared" si="86"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O95" s="3">
-        <f t="shared" si="87"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="P95" s="3" t="e">
-        <f t="shared" si="88"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q95" s="3">
-        <f t="shared" si="89"/>
-        <v>96.450617283950621</v>
-      </c>
-      <c r="R95" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S95" s="3">
-        <f t="shared" si="91"/>
-        <v>130</v>
-      </c>
-      <c r="T95" s="4">
-        <f t="shared" si="92"/>
-        <v>118.28099999999999</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="96"/>
-        <v>0.15861742318200001</v>
-      </c>
-      <c r="V95" s="127">
-        <f t="shared" si="93"/>
-        <v>1.8743820897416941E-2</v>
-      </c>
-      <c r="W95">
-        <f t="shared" si="94"/>
         <v>-2.1086798509594057E-7</v>
       </c>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B96" s="144">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.8444444444444446</v>
       </c>
       <c r="C96" s="142">
@@ -30086,53 +30100,53 @@
       <c r="H96" s="142"/>
       <c r="I96" s="142"/>
       <c r="J96" s="1">
+        <f t="shared" si="96"/>
+        <v>152.48400000000001</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" si="84"/>
+        <v>152</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" si="85"/>
+        <v>5.0238805208462765</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="86"/>
+        <v>781.25000000000011</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="88"/>
+        <v>46875.000000000007</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="90"/>
+        <v>101.72526041666667</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="92"/>
+        <v>152</v>
+      </c>
+      <c r="T96" s="4">
+        <f t="shared" si="93"/>
+        <v>152.48400000000001</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="97"/>
+        <v>0.20448439864800003</v>
+      </c>
+      <c r="V96" s="127">
+        <f t="shared" si="94"/>
+        <v>2.2910977316251649E-2</v>
+      </c>
+      <c r="W96">
         <f t="shared" si="95"/>
-        <v>152.48400000000001</v>
-      </c>
-      <c r="K96" s="1">
-        <f t="shared" si="83"/>
-        <v>152</v>
-      </c>
-      <c r="L96" s="1">
-        <f t="shared" si="84"/>
-        <v>5.0238805208462765</v>
-      </c>
-      <c r="M96" s="1">
-        <f t="shared" si="85"/>
-        <v>781.25000000000011</v>
-      </c>
-      <c r="O96" s="1">
-        <f t="shared" si="87"/>
-        <v>46875.000000000007</v>
-      </c>
-      <c r="Q96" s="1">
-        <f t="shared" si="89"/>
-        <v>101.72526041666667</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="91"/>
-        <v>152</v>
-      </c>
-      <c r="T96" s="4">
-        <f t="shared" si="92"/>
-        <v>152.48400000000001</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="96"/>
-        <v>0.20448439864800003</v>
-      </c>
-      <c r="V96" s="127">
-        <f t="shared" si="93"/>
-        <v>2.2910977316251649E-2</v>
-      </c>
-      <c r="W96">
-        <f t="shared" si="94"/>
         <v>-2.4438375804001754E-7</v>
       </c>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B97" s="144">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C97" s="142">
@@ -30151,47 +30165,47 @@
       <c r="H97" s="142"/>
       <c r="I97" s="142"/>
       <c r="J97" s="1">
+        <f t="shared" si="96"/>
+        <v>183.08879999999999</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="84"/>
+        <v>164</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="85"/>
+        <v>5.0998664278241987</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="86"/>
+        <v>809.06148867313925</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="88"/>
+        <v>48543.689320388352</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="90"/>
+        <v>105.346548004315</v>
+      </c>
+      <c r="S97" s="1">
+        <f t="shared" si="92"/>
+        <v>164</v>
+      </c>
+      <c r="T97" s="4">
+        <f t="shared" si="93"/>
+        <v>183.08879999999999</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="97"/>
+        <v>0.24552610875360001</v>
+      </c>
+      <c r="V97" s="127">
+        <f t="shared" si="94"/>
+        <v>2.6563764337382487E-2</v>
+      </c>
+      <c r="W97">
         <f t="shared" si="95"/>
-        <v>183.08879999999999</v>
-      </c>
-      <c r="K97" s="1">
-        <f t="shared" si="83"/>
-        <v>164</v>
-      </c>
-      <c r="L97" s="1">
-        <f t="shared" si="84"/>
-        <v>5.0998664278241987</v>
-      </c>
-      <c r="M97" s="1">
-        <f t="shared" si="85"/>
-        <v>809.06148867313925</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="87"/>
-        <v>48543.689320388352</v>
-      </c>
-      <c r="Q97" s="1">
-        <f t="shared" si="89"/>
-        <v>105.346548004315</v>
-      </c>
-      <c r="S97" s="1">
-        <f t="shared" si="91"/>
-        <v>164</v>
-      </c>
-      <c r="T97" s="4">
-        <f t="shared" si="92"/>
-        <v>183.08879999999999</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="96"/>
-        <v>0.24552610875360001</v>
-      </c>
-      <c r="V97" s="127">
-        <f t="shared" si="93"/>
-        <v>2.6563764337382487E-2</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="94"/>
         <v>-2.7360677267503959E-7</v>
       </c>
     </row>

--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -1481,11 +1481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="747417976"/>
-        <c:axId val="747418760"/>
+        <c:axId val="544624768"/>
+        <c:axId val="544627904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="747417976"/>
+        <c:axId val="544624768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,12 +1603,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747418760"/>
+        <c:crossAx val="544627904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="747418760"/>
+        <c:axId val="544627904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747417976"/>
+        <c:crossAx val="544624768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2064,11 +2064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617954744"/>
-        <c:axId val="617952784"/>
+        <c:axId val="547842416"/>
+        <c:axId val="547842808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617954744"/>
+        <c:axId val="547842416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,12 +2125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617952784"/>
+        <c:crossAx val="547842808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617952784"/>
+        <c:axId val="547842808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617954744"/>
+        <c:crossAx val="547842416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2746,11 +2746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="729951176"/>
-        <c:axId val="729951960"/>
+        <c:axId val="548580920"/>
+        <c:axId val="548581312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="729951176"/>
+        <c:axId val="548580920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2866,12 +2866,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729951960"/>
+        <c:crossAx val="548581312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="729951960"/>
+        <c:axId val="548581312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -2985,7 +2985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729951176"/>
+        <c:crossAx val="548580920"/>
         <c:crossesAt val="1.0000000000000003E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3352,11 +3352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="932544664"/>
-        <c:axId val="932547800"/>
+        <c:axId val="548583272"/>
+        <c:axId val="548582096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="932544664"/>
+        <c:axId val="548583272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,12 +3413,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932547800"/>
+        <c:crossAx val="548582096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="932547800"/>
+        <c:axId val="548582096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3475,7 +3475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932544664"/>
+        <c:crossAx val="548583272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3569,7 +3569,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3655,7 +3654,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3768,11 +3766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617955136"/>
-        <c:axId val="617963760"/>
+        <c:axId val="548582488"/>
+        <c:axId val="548583664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617955136"/>
+        <c:axId val="548582488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3829,12 +3827,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617963760"/>
+        <c:crossAx val="548583664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617963760"/>
+        <c:axId val="548583664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,7 +3889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617955136"/>
+        <c:crossAx val="548582488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3980,7 +3978,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4190,8 +4187,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617964544"/>
-        <c:axId val="617963368"/>
+        <c:axId val="548584448"/>
+        <c:axId val="548710304"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4372,11 +4369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617964936"/>
-        <c:axId val="617962584"/>
+        <c:axId val="548710696"/>
+        <c:axId val="548714224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617964544"/>
+        <c:axId val="548584448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -4429,7 +4426,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4496,13 +4492,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617963368"/>
+        <c:crossAx val="548710304"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617963368"/>
+        <c:axId val="548710304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4550,7 +4546,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4617,12 +4612,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617964544"/>
+        <c:crossAx val="548584448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617962584"/>
+        <c:axId val="548714224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -4656,7 +4651,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4723,13 +4717,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617964936"/>
+        <c:crossAx val="548710696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617964936"/>
+        <c:axId val="548710696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,7 +4733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617962584"/>
+        <c:crossAx val="548714224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4864,7 +4858,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5007,11 +5000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617965328"/>
-        <c:axId val="720960760"/>
+        <c:axId val="548711088"/>
+        <c:axId val="548711480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617965328"/>
+        <c:axId val="548711088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5035,19 +5028,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720960760"/>
+        <c:crossAx val="548711480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720960760"/>
+        <c:axId val="548711480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5070,14 +5062,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617965328"/>
+        <c:crossAx val="548711088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5138,7 +5129,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5525,11 +5515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720965856"/>
-        <c:axId val="720961152"/>
+        <c:axId val="548709128"/>
+        <c:axId val="548708736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720965856"/>
+        <c:axId val="548709128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5575,7 +5565,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5636,12 +5625,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720961152"/>
+        <c:crossAx val="548708736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720961152"/>
+        <c:axId val="548708736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5693,7 +5682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720965856"/>
+        <c:crossAx val="548709128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5798,7 +5787,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5834,7 +5822,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -5920,11 +5907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720957232"/>
-        <c:axId val="720963504"/>
+        <c:axId val="548712264"/>
+        <c:axId val="548712656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720957232"/>
+        <c:axId val="548712264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,12 +5921,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720963504"/>
+        <c:crossAx val="548712656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720963504"/>
+        <c:axId val="548712656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5950,14 +5937,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720957232"/>
+        <c:crossAx val="548712264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6097,11 +6083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720964288"/>
-        <c:axId val="720958016"/>
+        <c:axId val="548713440"/>
+        <c:axId val="548714616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720964288"/>
+        <c:axId val="548713440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6111,7 +6097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720958016"/>
+        <c:crossAx val="548714616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -6120,7 +6106,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720958016"/>
+        <c:axId val="548714616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,7 +6117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720964288"/>
+        <c:crossAx val="548713440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6407,11 +6393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720959192"/>
-        <c:axId val="720959976"/>
+        <c:axId val="548715400"/>
+        <c:axId val="548707952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720959192"/>
+        <c:axId val="548715400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6439,12 +6425,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720959976"/>
+        <c:crossAx val="548707952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720959976"/>
+        <c:axId val="548707952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,7 +6441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720959192"/>
+        <c:crossAx val="548715400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6733,8 +6719,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="747420328"/>
-        <c:axId val="747403864"/>
+        <c:axId val="544629472"/>
+        <c:axId val="539038416"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6926,11 +6912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617956312"/>
-        <c:axId val="747407392"/>
+        <c:axId val="539039984"/>
+        <c:axId val="539036456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="747420328"/>
+        <c:axId val="544629472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -7050,13 +7036,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747403864"/>
+        <c:crossAx val="539038416"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="747403864"/>
+        <c:axId val="539038416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7171,12 +7157,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="747420328"/>
+        <c:crossAx val="544629472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="747407392"/>
+        <c:axId val="539036456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -7277,13 +7263,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617956312"/>
+        <c:crossAx val="539039984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617956312"/>
+        <c:axId val="539039984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7293,7 +7279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="747407392"/>
+        <c:crossAx val="539036456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7553,11 +7539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720961936"/>
-        <c:axId val="720962328"/>
+        <c:axId val="548709912"/>
+        <c:axId val="549390856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720961936"/>
+        <c:axId val="548709912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7567,12 +7553,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720962328"/>
+        <c:crossAx val="549390856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720962328"/>
+        <c:axId val="549390856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7583,7 +7569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720961936"/>
+        <c:crossAx val="548709912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7654,7 +7640,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7818,11 +7803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720963112"/>
-        <c:axId val="720964680"/>
+        <c:axId val="549384976"/>
+        <c:axId val="549394384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720963112"/>
+        <c:axId val="549384976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7868,7 +7853,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7935,12 +7919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720964680"/>
+        <c:crossAx val="549394384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720964680"/>
+        <c:axId val="549394384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7986,7 +7970,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8053,7 +8036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720963112"/>
+        <c:crossAx val="549384976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8147,7 +8130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8233,7 +8215,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8334,11 +8315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720967032"/>
-        <c:axId val="720970168"/>
+        <c:axId val="549393600"/>
+        <c:axId val="549388112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720967032"/>
+        <c:axId val="549393600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8395,12 +8376,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720970168"/>
+        <c:crossAx val="549388112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720970168"/>
+        <c:axId val="549388112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8457,7 +8438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720967032"/>
+        <c:crossAx val="549393600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8546,7 +8527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8756,8 +8736,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720968208"/>
-        <c:axId val="720968600"/>
+        <c:axId val="549392032"/>
+        <c:axId val="549387328"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8925,11 +8905,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="720969384"/>
-        <c:axId val="720967816"/>
+        <c:axId val="549390464"/>
+        <c:axId val="549387720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="720968208"/>
+        <c:axId val="549392032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -8982,7 +8962,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9049,12 +9028,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720968600"/>
+        <c:crossAx val="549387328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720968600"/>
+        <c:axId val="549387328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9100,7 +9079,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9167,12 +9145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720968208"/>
+        <c:crossAx val="549392032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720967816"/>
+        <c:axId val="549387720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9215,12 +9193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720969384"/>
+        <c:crossAx val="549390464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="720969384"/>
+        <c:axId val="549390464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9230,7 +9208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="720967816"/>
+        <c:crossAx val="549387720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9355,7 +9333,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9485,11 +9462,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="719084784"/>
-        <c:axId val="719080472"/>
+        <c:axId val="549394776"/>
+        <c:axId val="549388896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="719084784"/>
+        <c:axId val="549394776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9513,19 +9490,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="719080472"/>
+        <c:crossAx val="549388896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="719080472"/>
+        <c:axId val="549388896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9548,14 +9524,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="719084784"/>
+        <c:crossAx val="549394776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9587,7 +9562,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9691,11 +9665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="719082040"/>
-        <c:axId val="719080864"/>
+        <c:axId val="549395168"/>
+        <c:axId val="549388504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="719082040"/>
+        <c:axId val="549395168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9717,19 +9691,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="719080864"/>
+        <c:crossAx val="549388504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="719080864"/>
+        <c:axId val="549388504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9740,14 +9713,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="719082040"/>
+        <c:crossAx val="549395168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9777,7 +9749,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9941,11 +9912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="719077728"/>
-        <c:axId val="719073416"/>
+        <c:axId val="549386544"/>
+        <c:axId val="549385368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="719077728"/>
+        <c:axId val="549386544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -10004,12 +9975,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719073416"/>
+        <c:crossAx val="549385368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="719073416"/>
+        <c:axId val="549385368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10066,7 +10037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719077728"/>
+        <c:crossAx val="549386544"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10130,7 +10101,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10330,11 +10300,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="719078120"/>
-        <c:axId val="719079296"/>
+        <c:axId val="549389288"/>
+        <c:axId val="549385760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="719078120"/>
+        <c:axId val="549389288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10391,12 +10361,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719079296"/>
+        <c:crossAx val="549385760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="719079296"/>
+        <c:axId val="549385760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10453,7 +10423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719078120"/>
+        <c:crossAx val="549389288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10517,7 +10487,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10614,7 +10583,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10721,11 +10689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="719074200"/>
-        <c:axId val="719081256"/>
+        <c:axId val="549386936"/>
+        <c:axId val="549389680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="719074200"/>
+        <c:axId val="549386936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10782,12 +10750,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719081256"/>
+        <c:crossAx val="549389680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="719081256"/>
+        <c:axId val="549389680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10844,7 +10812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719074200"/>
+        <c:crossAx val="549386936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10933,7 +10901,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11118,11 +11085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="719075768"/>
-        <c:axId val="719087528"/>
+        <c:axId val="549391248"/>
+        <c:axId val="549392424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="719075768"/>
+        <c:axId val="549391248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11168,7 +11135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11235,12 +11201,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719087528"/>
+        <c:crossAx val="549392424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="719087528"/>
+        <c:axId val="549392424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11287,7 +11253,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11354,7 +11319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719075768"/>
+        <c:crossAx val="549391248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11432,7 +11397,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Follows Square Law</a:t>
+              <a:t>Follows Cube Law</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11462,11 +11427,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalPhotonTurnigy!$T$1</c:f>
+              <c:f>CalPhotonTurnigy!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Charger Pwr, W</c:v>
+                  <c:v>Ng Pwr, SHP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11478,10 +11443,11 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="3"/>
             <c:forward val="4"/>
-            <c:intercept val="20"/>
-            <c:dispRSqr val="0"/>
+            <c:backward val="18"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -11540,45 +11506,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalPhotonTurnigy!$T$4:$T$15</c:f>
+              <c:f>CalPhotonTurnigy!$U$4:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.6664000000000003</c:v>
+                  <c:v>4.3132095199200004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3174399999999995</c:v>
+                  <c:v>5.1862684827999987E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.063600000000001</c:v>
+                  <c:v>6.1868854583200013E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3844799999999999</c:v>
+                  <c:v>6.6171925976800001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.3796</c:v>
+                  <c:v>2.1361890410319998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.981099999999998</c:v>
+                  <c:v>3.4237713143319998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.526600000000002</c:v>
+                  <c:v>6.5812746644320005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.419400000000003</c:v>
+                  <c:v>7.7738187085920007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.904499999999999</c:v>
+                  <c:v>0.11325528885812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>135.96</c:v>
+                  <c:v>0.17635774957912001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192.75</c:v>
+                  <c:v>0.25251438895912004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>209.1</c:v>
+                  <c:v>0.27444009865912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11593,11 +11559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617959840"/>
-        <c:axId val="617953176"/>
+        <c:axId val="212165416"/>
+        <c:axId val="212166592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617959840"/>
+        <c:axId val="212165416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11628,12 +11594,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617953176"/>
+        <c:crossAx val="212166592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617953176"/>
+        <c:axId val="212166592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11663,7 +11629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617959840"/>
+        <c:crossAx val="212165416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12135,11 +12101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617959056"/>
-        <c:axId val="617961800"/>
+        <c:axId val="547842024"/>
+        <c:axId val="547847512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617959056"/>
+        <c:axId val="547842024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12246,12 +12212,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617961800"/>
+        <c:crossAx val="547847512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617961800"/>
+        <c:axId val="547847512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12303,7 +12269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617959056"/>
+        <c:crossAx val="547842024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12756,11 +12722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617953960"/>
-        <c:axId val="617957096"/>
+        <c:axId val="547843200"/>
+        <c:axId val="547845552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617953960"/>
+        <c:axId val="547843200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12770,12 +12736,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617957096"/>
+        <c:crossAx val="547845552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617957096"/>
+        <c:axId val="547845552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12786,7 +12752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617953960"/>
+        <c:crossAx val="547843200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13182,11 +13148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617951608"/>
-        <c:axId val="617950432"/>
+        <c:axId val="547841240"/>
+        <c:axId val="547843984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617951608"/>
+        <c:axId val="547841240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000"/>
@@ -13217,12 +13183,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617950432"/>
+        <c:crossAx val="547843984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617950432"/>
+        <c:axId val="547843984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -13234,7 +13200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617951608"/>
+        <c:crossAx val="547841240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13539,11 +13505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617955528"/>
-        <c:axId val="617951216"/>
+        <c:axId val="547844376"/>
+        <c:axId val="547846728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617955528"/>
+        <c:axId val="547844376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13553,12 +13519,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617951216"/>
+        <c:crossAx val="547846728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617951216"/>
+        <c:axId val="547846728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13569,7 +13535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617955528"/>
+        <c:crossAx val="547844376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13963,11 +13929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617961016"/>
-        <c:axId val="617957880"/>
+        <c:axId val="547846336"/>
+        <c:axId val="547840456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617961016"/>
+        <c:axId val="547846336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14024,12 +13990,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617957880"/>
+        <c:crossAx val="547840456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617957880"/>
+        <c:axId val="547840456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14086,7 +14052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617961016"/>
+        <c:crossAx val="547846336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14703,11 +14669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="617958272"/>
-        <c:axId val="617952392"/>
+        <c:axId val="547847120"/>
+        <c:axId val="547845160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="617958272"/>
+        <c:axId val="547847120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14764,12 +14730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617952392"/>
+        <c:crossAx val="547845160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617952392"/>
+        <c:axId val="547845160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14826,7 +14792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617958272"/>
+        <c:crossAx val="547847120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24967,13 +24933,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>331683</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>172092</xdr:rowOff>
+      <xdr:rowOff>172091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>135468</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26099,9 +26065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD40" sqref="BD40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26337,11 +26303,11 @@
         <v>2.7777777777777779E-5</v>
       </c>
       <c r="AG2" s="95">
-        <f>AF2/$AD$29*$AD$34</f>
+        <f t="shared" ref="AG2:AG10" si="3">AF2/$AD$29*$AD$34</f>
         <v>1E-3</v>
       </c>
       <c r="AH2" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG2)),0)</f>
+        <f t="shared" ref="AH2:AH16" si="4">MAX(($AD$37+$AE$37*LN($AG2)),0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="96">
@@ -26349,15 +26315,15 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="96">
-        <f>($AD$38+$AE$38*AI2*$AD$33)/$AD$33</f>
+        <f t="shared" ref="AJ2:AJ16" si="5">($AD$38+$AE$38*AI2*$AD$33)/$AD$33</f>
         <v>-18.379858705839208</v>
       </c>
       <c r="AK2" s="96">
-        <f>($AD$39+$AE$39*AJ2*$AD$33)/$AD$33</f>
+        <f t="shared" ref="AK2:AK16" si="6">($AD$39+$AE$39*AJ2*$AD$33)/$AD$33</f>
         <v>7.9564345991660124E-2</v>
       </c>
       <c r="AM2">
-        <f>MAX($AD$38+$AE$38*AH2, 0)</f>
+        <f t="shared" ref="AM2:AM8" si="7">MAX($AD$38+$AE$38*AH2, 0)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="127"/>
@@ -26391,7 +26357,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f>E3*F3</f>
+        <f t="shared" ref="J3:J8" si="8">E3*F3</f>
         <v>4.4500400000000004</v>
       </c>
       <c r="K3" s="1">
@@ -26403,11 +26369,11 @@
         <v>1.9962638832512341</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3" si="3">1/G3/0.000001</f>
+        <f t="shared" ref="M3" si="9">1/G3/0.000001</f>
         <v>9.999999999999999E-27</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3" si="4">1/H3/0.000001</f>
+        <f t="shared" ref="N3" si="10">1/H3/0.000001</f>
         <v>9.999999999999999E-27</v>
       </c>
       <c r="O3" s="3">
@@ -26434,7 +26400,7 @@
         <v>4.4500400000000004</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3" si="5">(T3-$T$3)*0.001341022</f>
+        <f t="shared" ref="U3" si="11">(T3-$T$3)*0.001341022</f>
         <v>0</v>
       </c>
       <c r="V3" s="127">
@@ -26452,27 +26418,27 @@
         <v>0.20448614524555267</v>
       </c>
       <c r="AG3" s="95">
-        <f>AF3/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>7.361501228839896</v>
       </c>
       <c r="AH3" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG3)),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI3" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG3))/$AD$33,0)</f>
+        <f t="shared" ref="AI3:AI16" si="12">MAX(($AD$37+$AE$37*LN(AG3))/$AD$33,0)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="96">
-        <f>($AD$38+$AE$38*AI3*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>-18.379858705839208</v>
       </c>
       <c r="AK3" s="96">
-        <f>($AD$39+$AE$39*AJ3*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>7.9564345991660124E-2</v>
       </c>
       <c r="AM3">
-        <f>MAX($AD$38+$AE$38*AH3, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN3" s="127"/>
@@ -26483,7 +26449,7 @@
     </row>
     <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="113">
-        <f t="shared" ref="B4:B5" si="6">C4/180+1</f>
+        <f t="shared" ref="B4:B5" si="13">C4/180+1</f>
         <v>1.05</v>
       </c>
       <c r="C4" s="73">
@@ -26506,23 +26472,23 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f>E4*F4</f>
+        <f t="shared" si="8"/>
         <v>7.6664000000000003</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K5" si="7">C4</f>
+        <f t="shared" ref="K4:K5" si="14">C4</f>
         <v>9</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="8">LN(K4)</f>
+        <f t="shared" ref="L4:L5" si="15">LN(K4)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M5" si="9">1/G4/0.000001</f>
+        <f t="shared" ref="M4:M5" si="16">1/G4/0.000001</f>
         <v>126.9035532994924</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N5" si="10">1/H4/0.000001</f>
+        <f t="shared" ref="N4:N5" si="17">1/H4/0.000001</f>
         <v>9.999999999999999E-27</v>
       </c>
       <c r="O4" s="3">
@@ -26542,11 +26508,11 @@
         <v>1.3020833333333332E-27</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" ref="S4:S5" si="11">K4</f>
+        <f t="shared" ref="S4:S5" si="18">K4</f>
         <v>9</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" ref="T4:T5" si="12">J4</f>
+        <f t="shared" ref="T4:T5" si="19">J4</f>
         <v>7.6664000000000003</v>
       </c>
       <c r="U4">
@@ -26567,27 +26533,27 @@
         <v>0.25</v>
       </c>
       <c r="AG4" s="95">
-        <f>AF4/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AH4" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG4)),0)</f>
+        <f t="shared" si="4"/>
         <v>2851.6343524568838</v>
       </c>
       <c r="AI4" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG4))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>6.1884426051581674</v>
       </c>
       <c r="AJ4" s="96">
-        <f>($AD$38+$AE$38*AI4*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>-12.342682530228062</v>
       </c>
       <c r="AK4" s="96">
-        <f>($AD$39+$AE$39*AJ4*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>6.2588081558872348</v>
       </c>
       <c r="AM4">
-        <f>MAX($AD$38+$AE$38*AH4, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN4" s="127">
@@ -26606,14 +26572,14 @@
       <c r="AR4" s="127"/>
       <c r="AU4" s="95"/>
       <c r="AV4" s="128">
-        <f>$W$33/$W$32</f>
+        <f t="shared" ref="AV4:AV16" si="20">$W$33/$W$32</f>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW4" s="96"/>
     </row>
     <row r="5" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="C5" s="73">
@@ -26636,23 +26602,23 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f>E5*F5</f>
+        <f t="shared" si="8"/>
         <v>8.3174399999999995</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>137.36263736263737</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9.999999999999999E-27</v>
       </c>
       <c r="O5" s="3">
@@ -26672,15 +26638,15 @@
         <v>1.3020833333333332E-27</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8.3174399999999995</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U15" si="13">(T5-$T$3)*0.001341022</f>
+        <f t="shared" ref="U5:U15" si="21">(T5-$T$3)*0.001341022</f>
         <v>5.1862684827999987E-3</v>
       </c>
       <c r="V5" s="154">
@@ -26688,7 +26654,7 @@
         <v>3.3049115580287588E-3</v>
       </c>
       <c r="W5" s="154">
-        <f t="shared" ref="W5:W15" si="14">V5-$V$4</f>
+        <f t="shared" ref="W5:W15" si="22">V5-$V$4</f>
         <v>3.2982065767668631E-4</v>
       </c>
       <c r="Y5" s="127"/>
@@ -26697,27 +26663,27 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="AG5" s="95">
-        <f>AF5/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AH5" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG5)),0)</f>
+        <f t="shared" si="4"/>
         <v>4346.701172416062</v>
       </c>
       <c r="AI5" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG5))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>9.4329452526390227</v>
       </c>
       <c r="AJ5" s="96">
-        <f>($AD$38+$AE$38*AI5*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>-9.1774864809422372</v>
       </c>
       <c r="AK5" s="96">
-        <f>($AD$39+$AE$39*AJ5*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>9.4984880204019451</v>
       </c>
       <c r="AM5">
-        <f>MAX($AD$38+$AE$38*AH5, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN5" s="127">
@@ -26725,25 +26691,25 @@
         <v>1.9093165395329351E-4</v>
       </c>
       <c r="AO5" s="127">
-        <f t="shared" ref="AO5:AO16" si="15">AH5*AN5/5252</f>
+        <f t="shared" ref="AO5:AO16" si="23">AH5*AN5/5252</f>
         <v>1.5802034350535392E-4</v>
       </c>
       <c r="AP5" s="146">
-        <f t="shared" ref="AP5:AP16" si="16">MAX($AE$40+$AF$40*2*AH5,1E-32)</f>
+        <f t="shared" ref="AP5:AP16" si="24">MAX($AE$40+$AF$40*2*AH5,1E-32)</f>
         <v>1.0000000000000001E-32</v>
       </c>
       <c r="AQ5" s="95"/>
       <c r="AR5" s="127"/>
       <c r="AU5" s="95"/>
       <c r="AV5" s="128">
-        <f>$W$33/$W$32</f>
+        <f t="shared" si="20"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW5" s="96"/>
     </row>
     <row r="6" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="113">
-        <f t="shared" ref="B6:B7" si="17">C6/180+1</f>
+        <f t="shared" ref="B6:B7" si="25">C6/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C6" s="73">
@@ -26766,23 +26732,23 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f>E6*F6</f>
+        <f t="shared" si="8"/>
         <v>9.063600000000001</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K7" si="18">C6</f>
+        <f t="shared" ref="K6:K7" si="26">C6</f>
         <v>11</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L7" si="19">LN(K6)</f>
+        <f t="shared" ref="L6:L7" si="27">LN(K6)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M7" si="20">1/G6/0.000001</f>
+        <f t="shared" ref="M6:M7" si="28">1/G6/0.000001</f>
         <v>151.51515151515153</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N7" si="21">1/H6/0.000001</f>
+        <f t="shared" ref="N6:N7" si="29">1/H6/0.000001</f>
         <v>9.999999999999999E-27</v>
       </c>
       <c r="O6" s="3">
@@ -26802,23 +26768,23 @@
         <v>1.3020833333333332E-27</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S7" si="22">K6</f>
+        <f t="shared" ref="S6:S7" si="30">K6</f>
         <v>11</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" ref="T6:T7" si="23">J6</f>
+        <f t="shared" ref="T6:T7" si="31">J6</f>
         <v>9.063600000000001</v>
       </c>
       <c r="U6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>6.1868854583200013E-3</v>
       </c>
       <c r="V6" s="154">
-        <f t="shared" ref="V5:W15" si="24">$U6/$O6*5252</f>
+        <f t="shared" ref="V6:V15" si="32">$U6/$O6*5252</f>
         <v>3.5742874669806306E-3</v>
       </c>
       <c r="W6" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>5.9919656662855807E-4</v>
       </c>
       <c r="Y6" s="127"/>
@@ -26827,27 +26793,27 @@
         <v>0.30555555555555552</v>
       </c>
       <c r="AG6" s="95">
-        <f>AF6/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>10.999999999999998</v>
       </c>
       <c r="AH6" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG6)),0)</f>
+        <f t="shared" si="4"/>
         <v>5699.1536214204207</v>
       </c>
       <c r="AI6" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG6))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>12.367954907596399</v>
       </c>
       <c r="AJ6" s="96">
-        <f>($AD$38+$AE$38*AI6*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>-6.3142183705895407</v>
       </c>
       <c r="AK6" s="96">
-        <f>($AD$39+$AE$39*AJ6*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>12.429134937489346</v>
       </c>
       <c r="AM6">
-        <f>MAX($AD$38+$AE$38*AH6, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN6" s="127">
@@ -26855,11 +26821,11 @@
         <v>1.7100500229004468E-4</v>
       </c>
       <c r="AO6" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.8556431418170516E-4</v>
       </c>
       <c r="AP6" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>9.3761701698468599E-9</v>
       </c>
       <c r="AQ6" s="95">
@@ -26869,17 +26835,17 @@
       <c r="AR6" s="127"/>
       <c r="AU6" s="95"/>
       <c r="AV6" s="128">
-        <f>$W$33/$W$32</f>
+        <f t="shared" si="20"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW6" s="96">
-        <f>$W$35/$W$32/$W$30/AP6</f>
+        <f t="shared" ref="AW6:AW16" si="33">$W$35/$W$32/$W$30/AP6</f>
         <v>7755.1208650508042</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="C7" s="73">
@@ -26902,23 +26868,23 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <f>E7*F7</f>
+        <f t="shared" si="8"/>
         <v>9.3844799999999999</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2.4849066497880004</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>161.29032258064518</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>9.999999999999999E-27</v>
       </c>
       <c r="O7" s="3">
@@ -26938,23 +26904,23 @@
         <v>1.3020833333333332E-27</v>
       </c>
       <c r="S7" s="3">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="31"/>
+        <v>9.3844799999999999</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="21"/>
+        <v>6.6171925976800001E-3</v>
+      </c>
+      <c r="V7" s="154">
+        <f t="shared" si="32"/>
+        <v>3.5911945373782541E-3</v>
+      </c>
+      <c r="W7" s="154">
         <f t="shared" si="22"/>
-        <v>12</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="23"/>
-        <v>9.3844799999999999</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="13"/>
-        <v>6.6171925976800001E-3</v>
-      </c>
-      <c r="V7" s="154">
-        <f t="shared" si="24"/>
-        <v>3.5911945373782541E-3</v>
-      </c>
-      <c r="W7" s="154">
-        <f t="shared" si="14"/>
         <v>6.1610363702618159E-4</v>
       </c>
       <c r="Y7" s="127"/>
@@ -26963,27 +26929,27 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AG7" s="95">
-        <f>AF7/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="AH7" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG7)),0)</f>
+        <f t="shared" si="4"/>
         <v>6933.8459716233592</v>
       </c>
       <c r="AI7" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG7))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>15.047408792585415</v>
       </c>
       <c r="AJ7" s="96">
-        <f>($AD$38+$AE$38*AI7*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>-3.700259384426984</v>
       </c>
       <c r="AK7" s="96">
-        <f>($AD$39+$AE$39*AJ7*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>15.104605954852985</v>
       </c>
       <c r="AM7">
-        <f>MAX($AD$38+$AE$38*AH7, 0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN7" s="127">
@@ -26991,11 +26957,11 @@
         <v>2.0975801042066519E-4</v>
       </c>
       <c r="AO7" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2.7692873868451255E-4</v>
       </c>
       <c r="AP7" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5.3397375198359203E-8</v>
       </c>
       <c r="AQ7" s="95">
@@ -27005,11 +26971,11 @@
       <c r="AR7" s="127"/>
       <c r="AU7" s="95"/>
       <c r="AV7" s="128">
-        <f>$W$33/$W$32</f>
+        <f t="shared" si="20"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW7" s="96">
-        <f>$W$35/$W$32/$W$30/AP7</f>
+        <f t="shared" si="33"/>
         <v>1361.7398354943984</v>
       </c>
     </row>
@@ -27018,7 +26984,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="113">
-        <f t="shared" ref="B8:B26" si="25">C8/180+1</f>
+        <f t="shared" ref="B8:B26" si="34">C8/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C8" s="140">
@@ -27043,7 +27009,7 @@
         <v>4.08</v>
       </c>
       <c r="J8" s="2">
-        <f>E8*F8</f>
+        <f t="shared" si="8"/>
         <v>20.3796</v>
       </c>
       <c r="K8" s="1">
@@ -27051,15 +27017,15 @@
         <v>25</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L16" si="26">LN(K8)</f>
+        <f t="shared" ref="L8:L16" si="35">LN(K8)</f>
         <v>3.2188758248682006</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:N15" si="27">1/G8/0.000001</f>
+        <f t="shared" ref="M8:N15" si="36">1/G8/0.000001</f>
         <v>306.74846625766872</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>148.36795252225519</v>
       </c>
       <c r="O8" s="3">
@@ -27087,15 +27053,15 @@
         <v>20.3796</v>
       </c>
       <c r="U8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.1361890410319998E-2</v>
       </c>
       <c r="V8" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6.0958005649683674E-3</v>
       </c>
       <c r="W8" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.1207096646162949E-3</v>
       </c>
       <c r="Y8" s="127"/>
@@ -27104,23 +27070,23 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="AG8" s="95">
-        <f>AF8/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AH8" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG8)),0)</f>
+        <f t="shared" si="4"/>
         <v>17348.876248230645</v>
       </c>
       <c r="AI8" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG8))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>37.649471024806083</v>
       </c>
       <c r="AJ8" s="96">
-        <f>($AD$38+$AE$38*AI8*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>18.349332141930159</v>
       </c>
       <c r="AK8" s="96">
-        <f>($AD$39+$AE$39*AJ8*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>37.673071407358293</v>
       </c>
       <c r="AL8">
@@ -27128,7 +27094,7 @@
         <v>18.349332141930159</v>
       </c>
       <c r="AM8">
-        <f>MAX($AD$38+$AE$38*AH8, 0)</f>
+        <f t="shared" si="7"/>
         <v>8455.3722510014177</v>
       </c>
       <c r="AN8" s="127">
@@ -27136,11 +27102,11 @@
         <v>2.6996162202028583E-3</v>
       </c>
       <c r="AO8" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.9176138084568844E-3</v>
       </c>
       <c r="AP8" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.2473051183708176E-7</v>
       </c>
       <c r="AQ8" s="95">
@@ -27152,7 +27118,7 @@
         <v>4.3873503556671905E-4</v>
       </c>
       <c r="AS8">
-        <f>AR8*AM8/5252</f>
+        <f t="shared" ref="AS8:AS16" si="37">AR8*AM8/5252</f>
         <v>7.0633435743963375E-4</v>
       </c>
       <c r="AT8" s="146">
@@ -27161,17 +27127,17 @@
       </c>
       <c r="AU8" s="95"/>
       <c r="AV8" s="128">
-        <f>$W$33/$W$32</f>
+        <f t="shared" si="20"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW8" s="96">
-        <f>$W$35/$W$32/$W$30/AP8</f>
+        <f t="shared" si="33"/>
         <v>171.198750482842</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C9" s="73">
@@ -27196,7 +27162,7 @@
         <v>6.04</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:J15" si="28">E9*F9</f>
+        <f t="shared" ref="J9:J15" si="38">E9*F9</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K9" s="1">
@@ -27204,15 +27170,15 @@
         <v>35</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>373.13432835820896</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>220.65313327449252</v>
       </c>
       <c r="O9" s="3">
@@ -27240,15 +27206,15 @@
         <v>29.981099999999998</v>
       </c>
       <c r="U9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.4237713143319998E-2</v>
       </c>
       <c r="V9" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8.0318023011493427E-3</v>
       </c>
       <c r="W9" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>5.0567114007972706E-3</v>
       </c>
       <c r="Y9" s="127"/>
@@ -27257,77 +27223,77 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="AG9" s="95">
-        <f>AF9/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="AH9" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG9)),0)</f>
+        <f t="shared" si="4"/>
         <v>22123.420807632323</v>
       </c>
       <c r="AI9" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG9))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>48.010895849896535</v>
       </c>
       <c r="AJ9" s="96">
-        <f>($AD$38+$AE$38*AI9*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>28.457488763966602</v>
       </c>
       <c r="AK9" s="96">
-        <f>($AD$39+$AE$39*AJ9*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>48.019094518047247</v>
       </c>
       <c r="AL9">
-        <f t="shared" ref="AL9:AL16" si="29">AM9/$AD$33</f>
+        <f t="shared" ref="AL9:AL16" si="39">AM9/$AD$33</f>
         <v>28.457488763966595</v>
       </c>
       <c r="AM9">
-        <f t="shared" ref="AM9:AM16" si="30">MAX($AD$38+$AE$38*AH9, 0)</f>
+        <f t="shared" ref="AM9:AM16" si="40">MAX($AD$38+$AE$38*AH9, 0)</f>
         <v>13113.210822435807</v>
       </c>
       <c r="AN9" s="127">
-        <f t="shared" ref="AN9:AN16" si="31">MAX($AD$40+$AH9*($AE$40+$AH9*$AF$40), 0)</f>
+        <f t="shared" ref="AN9:AN16" si="41">MAX($AD$40+$AH9*($AE$40+$AH9*$AF$40), 0)</f>
         <v>5.1338954187745353E-3</v>
       </c>
       <c r="AO9" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2.1625919408211122E-2</v>
       </c>
       <c r="AP9" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5.9496012809140091E-7</v>
       </c>
       <c r="AQ9" s="95">
-        <f t="shared" ref="AQ9:AQ16" si="32">$W$36/AP9</f>
+        <f t="shared" ref="AQ9:AQ16" si="42">$W$36/AP9</f>
         <v>6.2906429754981188E-2</v>
       </c>
       <c r="AR9" s="127">
-        <f t="shared" ref="AR9:AR16" si="33">MAX($AD$41+$AM9*($AE$41+$AM9*$AF$41), 0)</f>
+        <f t="shared" ref="AR9:AR16" si="43">MAX($AD$41+$AM9*($AE$41+$AM9*$AF$41), 0)</f>
         <v>4.4749381157226293E-4</v>
       </c>
       <c r="AS9">
-        <f>AR9*AM9/5252</f>
+        <f t="shared" si="37"/>
         <v>1.1173040161619285E-3</v>
       </c>
       <c r="AT9" s="146">
-        <f t="shared" ref="AT9:AT16" si="34">$AE$41+2*$AM9*$AF$41</f>
+        <f t="shared" ref="AT9:AT16" si="44">$AE$41+2*$AM9*$AF$41</f>
         <v>6.8604646756570766E-8</v>
       </c>
       <c r="AU9" s="95">
-        <f>$W$36/AT9</f>
+        <f t="shared" ref="AU9:AU16" si="45">$W$36/AT9</f>
         <v>0.54554347663355163</v>
       </c>
       <c r="AV9" s="128">
-        <f>$W$33/$W$32</f>
+        <f t="shared" si="20"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AW9" s="96">
-        <f>$W$35/$W$32/$W$30/AP9</f>
+        <f t="shared" si="33"/>
         <v>122.21547207155994</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.3</v>
       </c>
       <c r="C10" s="73">
@@ -27352,7 +27318,7 @@
         <v>8.24</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>53.526600000000002</v>
       </c>
       <c r="K10" s="1">
@@ -27360,15 +27326,15 @@
         <v>54</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>3.9889840465642745</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>465.11627906976747</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>314.46540880503147</v>
       </c>
       <c r="O10" s="3">
@@ -27396,15 +27362,15 @@
         <v>53.526600000000002</v>
       </c>
       <c r="U10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>6.5812746644320005E-2</v>
       </c>
       <c r="V10" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1.2385739542638876E-2</v>
       </c>
       <c r="W10" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>9.4106486422868042E-3</v>
       </c>
       <c r="Y10" s="127"/>
@@ -27415,71 +27381,71 @@
         <v>1.5</v>
       </c>
       <c r="AG10" s="95">
-        <f>AF10/$AD$29*$AD$34</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="AH10" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG10)),0)</f>
+        <f t="shared" si="4"/>
         <v>28276.719974572956</v>
       </c>
       <c r="AI10" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG10))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>61.364409667042004</v>
       </c>
       <c r="AJ10" s="96">
-        <f>($AD$38+$AE$38*AI10*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>41.484597621753984</v>
       </c>
       <c r="AK10" s="96">
-        <f>($AD$39+$AE$39*AJ10*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>61.352759037481228</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>41.484597621753984</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>19116.102584104236</v>
       </c>
       <c r="AN10" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>9.4698404838995734E-3</v>
       </c>
       <c r="AO10" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>5.0985534571040117E-2</v>
       </c>
       <c r="AP10" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.1434728488810894E-7</v>
       </c>
       <c r="AQ10" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>4.5959283219000058E-2</v>
       </c>
       <c r="AR10" s="127">
+        <f t="shared" si="43"/>
+        <v>1.3755224878909979E-3</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="37"/>
+        <v>5.0065934853896783E-3</v>
+      </c>
+      <c r="AT10" s="146">
+        <f t="shared" si="44"/>
+        <v>2.4058922618469343E-7</v>
+      </c>
+      <c r="AU10" s="95">
+        <f t="shared" si="45"/>
+        <v>0.15556314843485483</v>
+      </c>
+      <c r="AV10" s="128">
+        <f t="shared" si="20"/>
+        <v>1.0526315789473683E-4</v>
+      </c>
+      <c r="AW10" s="96">
         <f t="shared" si="33"/>
-        <v>1.3755224878909979E-3</v>
-      </c>
-      <c r="AS10">
-        <f>AR10*AM10/5252</f>
-        <v>5.0065934853896783E-3</v>
-      </c>
-      <c r="AT10" s="146">
-        <f t="shared" si="34"/>
-        <v>2.4058922618469343E-7</v>
-      </c>
-      <c r="AU10" s="95">
-        <f>$W$36/AT10</f>
-        <v>0.15556314843485483</v>
-      </c>
-      <c r="AV10" s="128">
-        <f>$W$33/$W$32</f>
-        <v>1.0526315789473683E-4</v>
-      </c>
-      <c r="AW10" s="96">
-        <f>$W$35/$W$32/$W$30/AP10</f>
         <v>89.290324002783549</v>
       </c>
     </row>
@@ -27488,7 +27454,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C11" s="140">
@@ -27513,7 +27479,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>62.419400000000003</v>
       </c>
       <c r="K11" s="1">
@@ -27521,15 +27487,15 @@
         <v>64</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>348.43205574912895</v>
       </c>
       <c r="O11" s="3">
@@ -27557,15 +27523,15 @@
         <v>62.419400000000003</v>
       </c>
       <c r="U11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>7.7738187085920007E-2</v>
       </c>
       <c r="V11" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1.3745458938700147E-2</v>
       </c>
       <c r="W11" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.0770368038348075E-2</v>
       </c>
       <c r="Y11" s="127"/>
@@ -27574,73 +27540,73 @@
         <v>70.201599999999999</v>
       </c>
       <c r="AH11" s="156">
-        <f>MAX(($AD$37+$AE$37*LN($AG11)),0)</f>
+        <f t="shared" si="4"/>
         <v>31999.995048805355</v>
       </c>
       <c r="AI11" s="156">
-        <f>MAX(($AD$37+$AE$37*LN(AG11))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>69.444433699664401</v>
       </c>
       <c r="AJ11" s="156">
-        <f>($AD$38+$AE$38*AI11*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>49.367118588734293</v>
       </c>
       <c r="AK11" s="156">
-        <f>($AD$39+$AE$39*AJ11*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>69.420772538288901</v>
       </c>
       <c r="AL11" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>49.367118588734272</v>
       </c>
       <c r="AM11" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>22748.368245688755</v>
       </c>
       <c r="AN11" s="154">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>1.2749008265139302E-2</v>
       </c>
       <c r="AO11" s="154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>7.7678636969085335E-2</v>
       </c>
       <c r="AP11" s="157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>9.4709537828432563E-7</v>
       </c>
       <c r="AQ11" s="155">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>3.9517474546856564E-2</v>
       </c>
       <c r="AR11" s="154">
+        <f t="shared" si="43"/>
+        <v>2.438403168041258E-3</v>
+      </c>
+      <c r="AS11" s="5">
+        <f t="shared" si="37"/>
+        <v>1.056163236825145E-2</v>
+      </c>
+      <c r="AT11" s="157">
+        <f t="shared" si="44"/>
+        <v>3.4465468446395431E-7</v>
+      </c>
+      <c r="AU11" s="155">
+        <f t="shared" si="45"/>
+        <v>0.10859222053809225</v>
+      </c>
+      <c r="AV11" s="158">
+        <f t="shared" si="20"/>
+        <v>1.0526315789473683E-4</v>
+      </c>
+      <c r="AW11" s="156">
         <f t="shared" si="33"/>
-        <v>2.438403168041258E-3</v>
-      </c>
-      <c r="AS11" s="5">
-        <f>AR11*AM11/5252</f>
-        <v>1.056163236825145E-2</v>
-      </c>
-      <c r="AT11" s="157">
-        <f t="shared" si="34"/>
-        <v>3.4465468446395431E-7</v>
-      </c>
-      <c r="AU11" s="155">
-        <f>$W$36/AT11</f>
-        <v>0.10859222053809225</v>
-      </c>
-      <c r="AV11" s="158">
-        <f>$W$33/$W$32</f>
-        <v>1.0526315789473683E-4</v>
-      </c>
-      <c r="AW11" s="156">
-        <f>$W$35/$W$32/$W$30/AP11</f>
         <v>76.775090012758156</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C12" s="73">
@@ -27665,7 +27631,7 @@
         <v>10.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K12" s="1">
@@ -27673,15 +27639,15 @@
         <v>89</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>564.9717514124294</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>416.66666666666669</v>
       </c>
       <c r="O12" s="3">
@@ -27709,15 +27675,15 @@
         <v>88.904499999999999</v>
       </c>
       <c r="U12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.11325528885812</v>
       </c>
       <c r="V12" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1.7547094923943962E-2</v>
       </c>
       <c r="W12" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.457200402359189E-2</v>
       </c>
       <c r="Y12" s="127"/>
@@ -27730,73 +27696,73 @@
         <v>89</v>
       </c>
       <c r="AH12" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG12)),0)</f>
+        <f t="shared" si="4"/>
         <v>35366.791670025093</v>
       </c>
       <c r="AI12" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG12))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>76.75084997835306</v>
       </c>
       <c r="AJ12" s="96">
-        <f>($AD$38+$AE$38*AI12*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>56.494941386998597</v>
       </c>
       <c r="AK12" s="96">
-        <f>($AD$39+$AE$39*AJ12*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>76.716328212502532</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>56.494941386998597</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>26032.868991128955</v>
       </c>
       <c r="AN12" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>1.6139758156510163E-2</v>
       </c>
       <c r="AO12" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.10868458955176756</v>
       </c>
       <c r="AP12" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.0671337379029437E-6</v>
       </c>
       <c r="AQ12" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>3.5072283984146989E-2</v>
       </c>
       <c r="AR12" s="127">
+        <f t="shared" si="43"/>
+        <v>3.7249606052333559E-3</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="37"/>
+        <v>1.8463711240128786E-2</v>
+      </c>
+      <c r="AT12" s="146">
+        <f t="shared" si="44"/>
+        <v>4.3875657764533091E-7</v>
+      </c>
+      <c r="AU12" s="95">
+        <f t="shared" si="45"/>
+        <v>8.5302008930907267E-2</v>
+      </c>
+      <c r="AV12" s="128">
+        <f t="shared" si="20"/>
+        <v>1.0526315789473683E-4</v>
+      </c>
+      <c r="AW12" s="96">
         <f t="shared" si="33"/>
-        <v>3.7249606052333559E-3</v>
-      </c>
-      <c r="AS12">
-        <f>AR12*AM12/5252</f>
-        <v>1.8463711240128786E-2</v>
-      </c>
-      <c r="AT12" s="146">
-        <f t="shared" si="34"/>
-        <v>4.3875657764533091E-7</v>
-      </c>
-      <c r="AU12" s="95">
-        <f>$W$36/AT12</f>
-        <v>8.5302008930907267E-2</v>
-      </c>
-      <c r="AV12" s="128">
-        <f>$W$33/$W$32</f>
-        <v>1.0526315789473683E-4</v>
-      </c>
-      <c r="AW12" s="96">
-        <f>$W$35/$W$32/$W$30/AP12</f>
         <v>68.138912992609036</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.6944444444444444</v>
       </c>
       <c r="C13" s="73">
@@ -27821,7 +27787,7 @@
         <v>14</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>135.96</v>
       </c>
       <c r="K13" s="1">
@@ -27829,15 +27795,15 @@
         <v>125</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>4.8283137373023015</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>657.89473684210532</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>500.00000000000006</v>
       </c>
       <c r="O13" s="3">
@@ -27865,15 +27831,15 @@
         <v>135.96</v>
       </c>
       <c r="U13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.17635774957912001</v>
       </c>
       <c r="V13" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>2.3464516153334967E-2</v>
       </c>
       <c r="W13" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.0489425252982894E-2</v>
       </c>
       <c r="Y13" s="127"/>
@@ -27887,73 +27853,73 @@
         <v>125</v>
       </c>
       <c r="AH13" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG13)),0)</f>
+        <f t="shared" si="4"/>
         <v>40186.817071139434</v>
       </c>
       <c r="AI13" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG13))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>87.210974546743557</v>
       </c>
       <c r="AJ13" s="96">
-        <f>($AD$38+$AE$38*AI13*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>66.699385197396978</v>
       </c>
       <c r="AK13" s="96">
-        <f>($AD$39+$AE$39*AJ13*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>87.16090435450127</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>66.699385197396992</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>30735.076698960533</v>
       </c>
       <c r="AN13" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>2.1697533384729531E-2</v>
       </c>
       <c r="AO13" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.16602338252609797</v>
       </c>
       <c r="AP13" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.2389849090794855E-6</v>
       </c>
       <c r="AQ13" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>3.0207645977385553E-2</v>
       </c>
       <c r="AR13" s="127">
+        <f t="shared" si="43"/>
+        <v>6.1048249521557778E-3</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="37"/>
+        <v>3.5725868838201807E-2</v>
+      </c>
+      <c r="AT13" s="146">
+        <f t="shared" si="44"/>
+        <v>5.7347618398224756E-7</v>
+      </c>
+      <c r="AU13" s="95">
+        <f t="shared" si="45"/>
+        <v>6.5263072033615449E-2</v>
+      </c>
+      <c r="AV13" s="128">
+        <f t="shared" si="20"/>
+        <v>1.0526315789473683E-4</v>
+      </c>
+      <c r="AW13" s="96">
         <f t="shared" si="33"/>
-        <v>6.1048249521557778E-3</v>
-      </c>
-      <c r="AS13">
-        <f>AR13*AM13/5252</f>
-        <v>3.5725868838201807E-2</v>
-      </c>
-      <c r="AT13" s="146">
-        <f t="shared" si="34"/>
-        <v>5.7347618398224756E-7</v>
-      </c>
-      <c r="AU13" s="95">
-        <f>$W$36/AT13</f>
-        <v>6.5263072033615449E-2</v>
-      </c>
-      <c r="AV13" s="128">
-        <f>$W$33/$W$32</f>
-        <v>1.0526315789473683E-4</v>
-      </c>
-      <c r="AW13" s="96">
-        <f>$W$35/$W$32/$W$30/AP13</f>
         <v>58.687827741557669</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.8611111111111112</v>
       </c>
       <c r="C14" s="73">
@@ -27978,7 +27944,7 @@
         <v>15.8</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>192.75</v>
       </c>
       <c r="K14" s="1">
@@ -27986,15 +27952,15 @@
         <v>155</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>5.0434251169192468</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>733.13782991202345</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>574.71264367816093</v>
       </c>
       <c r="O14" s="3">
@@ -28022,15 +27988,15 @@
         <v>192.75</v>
       </c>
       <c r="U14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.25251438895912004</v>
       </c>
       <c r="V14" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>3.0149073309822319E-2</v>
       </c>
       <c r="W14" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.7173982409470245E-2</v>
       </c>
       <c r="Y14" s="127"/>
@@ -28043,73 +28009,73 @@
         <v>155</v>
       </c>
       <c r="AH14" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG14)),0)</f>
+        <f t="shared" si="4"/>
         <v>43239.249799405501</v>
       </c>
       <c r="AI14" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG14))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>93.835177516070971</v>
       </c>
       <c r="AJ14" s="96">
-        <f>($AD$38+$AE$38*AI14*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>73.161670282743415</v>
       </c>
       <c r="AK14" s="96">
-        <f>($AD$39+$AE$39*AJ14*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>93.775260793646453</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>73.161670282743401</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>33712.897666288161</v>
       </c>
       <c r="AN14" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>2.5645549843300849E-2</v>
       </c>
       <c r="AO14" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21113753539938881</v>
       </c>
       <c r="AP14" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.3478150698435463E-6</v>
       </c>
       <c r="AQ14" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>2.7768510934620141E-2</v>
       </c>
       <c r="AR14" s="127">
+        <f t="shared" si="43"/>
+        <v>7.9395613939336682E-3</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="37"/>
+        <v>5.096451271685034E-2</v>
+      </c>
+      <c r="AT14" s="146">
+        <f t="shared" si="44"/>
+        <v>6.5879161311398068E-7</v>
+      </c>
+      <c r="AU14" s="95">
+        <f t="shared" si="45"/>
+        <v>5.6811314473004582E-2</v>
+      </c>
+      <c r="AV14" s="128">
+        <f t="shared" si="20"/>
+        <v>1.0526315789473683E-4</v>
+      </c>
+      <c r="AW14" s="96">
         <f t="shared" si="33"/>
-        <v>7.9395613939336682E-3</v>
-      </c>
-      <c r="AS14">
-        <f>AR14*AM14/5252</f>
-        <v>5.096451271685034E-2</v>
-      </c>
-      <c r="AT14" s="146">
-        <f t="shared" si="34"/>
-        <v>6.5879161311398068E-7</v>
-      </c>
-      <c r="AU14" s="95">
-        <f>$W$36/AT14</f>
-        <v>5.6811314473004582E-2</v>
-      </c>
-      <c r="AV14" s="128">
-        <f>$W$33/$W$32</f>
-        <v>1.0526315789473683E-4</v>
-      </c>
-      <c r="AW14" s="96">
-        <f>$W$35/$W$32/$W$30/AP14</f>
         <v>53.949042821495425</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C15" s="73">
@@ -28134,7 +28100,7 @@
         <v>17.2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>209.1</v>
       </c>
       <c r="K15" s="1">
@@ -28142,15 +28108,15 @@
         <v>165</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>759.87841945288756</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>595.2380952380953</v>
       </c>
       <c r="O15" s="3">
@@ -28178,15 +28144,15 @@
         <v>209.1</v>
       </c>
       <c r="U15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.27444009865912</v>
       </c>
       <c r="V15" s="154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>3.1613816132925514E-2</v>
       </c>
       <c r="W15" s="154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.863872523257344E-2</v>
       </c>
       <c r="Y15" s="127"/>
@@ -28199,73 +28165,73 @@
         <v>165</v>
       </c>
       <c r="AH15" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG15)),0)</f>
+        <f t="shared" si="4"/>
         <v>44126.414319351083</v>
       </c>
       <c r="AI15" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG15))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>95.760447741647312</v>
       </c>
       <c r="AJ15" s="96">
-        <f>($AD$38+$AE$38*AI15*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>75.03988040426492</v>
       </c>
       <c r="AK15" s="96">
-        <f>($AD$39+$AE$39*AJ15*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>95.697669206039706</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>75.03988040426492</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>34578.376890285275</v>
       </c>
       <c r="AN15" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>2.6855314322647372E-2</v>
       </c>
       <c r="AO15" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22563380169031633</v>
       </c>
       <c r="AP15" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.3794456628573665E-6</v>
       </c>
       <c r="AQ15" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>2.7131780912102679E-2</v>
       </c>
       <c r="AR15" s="127">
+        <f t="shared" si="43"/>
+        <v>8.5204621586561918E-3</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="37"/>
+        <v>5.6097439413828526E-2</v>
+      </c>
+      <c r="AT15" s="146">
+        <f t="shared" si="44"/>
+        <v>6.8358784237358521E-7</v>
+      </c>
+      <c r="AU15" s="95">
+        <f t="shared" si="45"/>
+        <v>5.4750560476384727E-2</v>
+      </c>
+      <c r="AV15" s="128">
+        <f t="shared" si="20"/>
+        <v>1.0526315789473683E-4</v>
+      </c>
+      <c r="AW15" s="96">
         <f t="shared" si="33"/>
-        <v>8.5204621586561918E-3</v>
-      </c>
-      <c r="AS15">
-        <f>AR15*AM15/5252</f>
-        <v>5.6097439413828526E-2</v>
-      </c>
-      <c r="AT15" s="146">
-        <f t="shared" si="34"/>
-        <v>6.8358784237358521E-7</v>
-      </c>
-      <c r="AU15" s="95">
-        <f>$W$36/AT15</f>
-        <v>5.4750560476384727E-2</v>
-      </c>
-      <c r="AV15" s="128">
-        <f>$W$33/$W$32</f>
-        <v>1.0526315789473683E-4</v>
-      </c>
-      <c r="AW15" s="96">
-        <f>$W$35/$W$32/$W$30/AP15</f>
         <v>52.711995025471928</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="116">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="C16" s="117">
@@ -28282,7 +28248,7 @@
         <v>180</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>5.1929568508902104</v>
       </c>
       <c r="O16" s="3">
@@ -28322,74 +28288,74 @@
         <v>180</v>
       </c>
       <c r="AH16" s="96">
-        <f>MAX(($AD$37+$AE$37*LN($AG16)),0)</f>
+        <f t="shared" si="4"/>
         <v>45361.106669554021</v>
       </c>
       <c r="AI16" s="96">
-        <f>MAX(($AD$37+$AE$37*LN(AG16))/$AD$33,0)</f>
+        <f t="shared" si="12"/>
         <v>98.439901626636328</v>
       </c>
       <c r="AJ16" s="96">
-        <f>($AD$38+$AE$38*AI16*$AD$33)/$AD$33</f>
+        <f t="shared" si="5"/>
         <v>77.653839390427478</v>
       </c>
       <c r="AK16" s="96">
-        <f>($AD$39+$AE$39*AJ16*$AD$33)/$AD$33</f>
+        <f t="shared" si="6"/>
         <v>98.373140223403354</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>77.653839390427478</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>35782.889191108981</v>
       </c>
       <c r="AN16" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>2.8585681652645696E-2</v>
       </c>
       <c r="AO16" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.24689226098011705</v>
       </c>
       <c r="AP16" s="146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.4234668678858789E-6</v>
       </c>
       <c r="AQ16" s="95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>2.6292721207050167E-2</v>
       </c>
       <c r="AR16" s="127">
+        <f t="shared" si="43"/>
+        <v>9.364635757178906E-3</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="37"/>
+        <v>6.3803069995093248E-2</v>
+      </c>
+      <c r="AT16" s="146">
+        <f t="shared" si="44"/>
+        <v>7.1809746701748993E-7</v>
+      </c>
+      <c r="AU16" s="95">
+        <f t="shared" si="45"/>
+        <v>5.2119411672962718E-2</v>
+      </c>
+      <c r="AV16" s="128">
+        <f t="shared" si="20"/>
+        <v>1.0526315789473683E-4</v>
+      </c>
+      <c r="AW16" s="96">
         <f t="shared" si="33"/>
-        <v>9.364635757178906E-3</v>
-      </c>
-      <c r="AS16">
-        <f>AR16*AM16/5252</f>
-        <v>6.3803069995093248E-2</v>
-      </c>
-      <c r="AT16" s="146">
-        <f t="shared" si="34"/>
-        <v>7.1809746701748993E-7</v>
-      </c>
-      <c r="AU16" s="95">
-        <f>$W$36/AT16</f>
-        <v>5.2119411672962718E-2</v>
-      </c>
-      <c r="AV16" s="128">
-        <f>$W$33/$W$32</f>
-        <v>1.0526315789473683E-4</v>
-      </c>
-      <c r="AW16" s="96">
-        <f>$W$35/$W$32/$W$30/AP16</f>
         <v>51.08185835504522</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.05</v>
       </c>
       <c r="C18" s="73">
@@ -28408,50 +28374,50 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
       <c r="J18" s="2">
-        <f t="shared" ref="J18:J26" si="35">E18*F18</f>
+        <f t="shared" ref="J18:J26" si="46">E18*F18</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" ref="K18:K26" si="36">C18</f>
+        <f t="shared" ref="K18:K26" si="47">C18</f>
         <v>9</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:L26" si="37">LN(K18)</f>
+        <f t="shared" ref="L18:L26" si="48">LN(K18)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" ref="M18:M26" si="38">1/G18/0.000001</f>
+        <f t="shared" ref="M18:M26" si="49">1/G18/0.000001</f>
         <v>162.33766233766235</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
-        <f t="shared" ref="O18:O26" si="39">M18*60/$W$29</f>
+        <f>M18*60/$W$29</f>
         <v>9740.2597402597403</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <f t="shared" ref="Q18:Q26" si="40">O18/$W$42*100</f>
+        <f>O18/$W$42*100</f>
         <v>21.137716450216452</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
-        <f t="shared" ref="S18:S26" si="41">K18</f>
+        <f t="shared" ref="S18:S26" si="50">K18</f>
         <v>9</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:T26" si="42">J18</f>
+        <f t="shared" ref="T18:T26" si="51">J18</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18:U26" si="43">T18*0.001341022</f>
+        <f t="shared" ref="U18:U26" si="52">T18*0.001341022</f>
         <v>7.8465879264000005E-3</v>
       </c>
       <c r="V18" s="154">
-        <f t="shared" ref="V18:W26" si="44">$U18/$O18*5252</f>
+        <f t="shared" ref="V18:V26" si="53">$U18/$O18*5252</f>
         <v>4.230922058383821E-3</v>
       </c>
       <c r="W18" s="154">
-        <f t="shared" ref="W18:W26" si="45">V18-$V$4</f>
+        <f t="shared" ref="W18:W26" si="54">V18-$V$4</f>
         <v>1.2558311580317485E-3</v>
       </c>
       <c r="AJ18" s="148"/>
@@ -28461,7 +28427,7 @@
     </row>
     <row r="19" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C19" s="73">
@@ -28480,50 +28446,50 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
       <c r="J19" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>2.5649493574615367</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>196.85039370078741</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
-        <f t="shared" si="39"/>
+        <f>M19*60/$W$29</f>
         <v>11811.023622047245</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <f t="shared" si="40"/>
+        <f>O19/$W$42*100</f>
         <v>25.631561679790028</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>13</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="U19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>1.0455948534E-2</v>
       </c>
       <c r="V19" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>4.6494396639814237E-3</v>
       </c>
       <c r="W19" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1.6743487636293511E-3</v>
       </c>
       <c r="AJ19" s="148"/>
@@ -28545,7 +28511,7 @@
     </row>
     <row r="20" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.1444444444444444</v>
       </c>
       <c r="C20" s="73">
@@ -28564,50 +28530,50 @@
       <c r="H20" s="119"/>
       <c r="I20" s="119"/>
       <c r="J20" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>18.150000000000002</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>26</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>3.2580965380214821</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>314.46540880503147</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
-        <f t="shared" si="39"/>
+        <f>M20*60/$W$29</f>
         <v>18867.92452830189</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
-        <f t="shared" si="40"/>
+        <f>O20/$W$42*100</f>
         <v>40.946016771488473</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>26</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>18.150000000000002</v>
       </c>
       <c r="U20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>2.4339549300000006E-2</v>
       </c>
       <c r="V20" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>6.7750595849508004E-3</v>
       </c>
       <c r="W20" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>3.7999686845987279E-3</v>
       </c>
       <c r="AQ20" t="s">
@@ -28619,7 +28585,7 @@
     </row>
     <row r="21" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.2</v>
       </c>
       <c r="C21" s="73">
@@ -28638,50 +28604,50 @@
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>28.516800000000003</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>36</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>3.5835189384561099</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
-        <f t="shared" si="39"/>
+        <f>M21*60/$W$29</f>
         <v>22641.509433962266</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <f t="shared" si="40"/>
+        <f>O21/$W$42*100</f>
         <v>49.135220125786169</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>36</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>28.516800000000003</v>
       </c>
       <c r="U21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>3.8241656169600007E-2</v>
       </c>
       <c r="V21" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>8.8706620372876483E-3</v>
       </c>
       <c r="W21" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>5.8955711369355762E-3</v>
       </c>
       <c r="AO21">
@@ -28703,7 +28669,7 @@
     </row>
     <row r="22" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="C22" s="73">
@@ -28722,54 +28688,54 @@
       <c r="H22" s="119"/>
       <c r="I22" s="119"/>
       <c r="J22" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>51.68</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>56</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>4.0253516907351496</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>483.09178743961354</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
-        <f t="shared" si="39"/>
+        <f>M22*60/$W$29</f>
         <v>28985.507246376812</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <f t="shared" si="40"/>
+        <f>O22/$W$42*100</f>
         <v>62.902576489533011</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>56</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>51.68</v>
       </c>
       <c r="U22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>6.9304016960000006E-2</v>
       </c>
       <c r="V22" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.255747204905024E-2</v>
       </c>
       <c r="W22" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>9.5823811486981676E-3</v>
       </c>
       <c r="AO22">
-        <f t="shared" ref="AO22" si="46">AP22*$AD$33</f>
+        <f t="shared" ref="AO22" si="55">AP22*$AD$33</f>
         <v>9216</v>
       </c>
       <c r="AP22">
@@ -28787,7 +28753,7 @@
     </row>
     <row r="23" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C23" s="73">
@@ -28806,54 +28772,54 @@
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="J23" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>59.349000000000004</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>64</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>500.00000000000006</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <f t="shared" si="39"/>
+        <f>M23*60/$W$29</f>
         <v>30000.000000000004</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <f t="shared" si="40"/>
+        <f>O23/$W$42*100</f>
         <v>65.104166666666671</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>64</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>59.349000000000004</v>
       </c>
       <c r="U23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>7.9588314678000011E-2</v>
       </c>
       <c r="V23" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.39332609562952E-2</v>
       </c>
       <c r="W23" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1.0958170055943128E-2</v>
       </c>
       <c r="AO23">
-        <f>AP23*$AD$33</f>
+        <f t="shared" ref="AO23:AO29" si="56">AP23*$AD$33</f>
         <v>11520</v>
       </c>
       <c r="AP23">
@@ -28871,7 +28837,7 @@
     </row>
     <row r="24" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C24" s="73">
@@ -28890,55 +28856,55 @@
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
       <c r="J24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>84.545999999999992</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>89</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>568.18181818181813</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
-        <f t="shared" si="39"/>
+        <f>M24*60/$W$29</f>
         <v>34090.909090909088</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <f t="shared" si="40"/>
+        <f>O24/$W$42*100</f>
         <v>73.982007575757564</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>89</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>84.545999999999992</v>
       </c>
       <c r="U24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>0.11337804601199999</v>
       </c>
       <c r="V24" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.7466870597880702E-2</v>
       </c>
       <c r="W24" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1.449177969752863E-2</v>
       </c>
       <c r="AA24" s="147"/>
       <c r="AO24">
-        <f>AP24*$AD$33</f>
+        <f t="shared" si="56"/>
         <v>16588.8</v>
       </c>
       <c r="AP24">
@@ -28956,7 +28922,7 @@
     </row>
     <row r="25" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.7944444444444443</v>
       </c>
       <c r="C25" s="73">
@@ -28975,50 +28941,50 @@
       <c r="H25" s="119"/>
       <c r="I25" s="119"/>
       <c r="J25" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>153.26999999999998</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>143</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>4.962844630259907</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>699.30069930069931</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <f t="shared" si="39"/>
+        <f>M25*60/$W$29</f>
         <v>41958.041958041955</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3">
-        <f t="shared" si="40"/>
+        <f>O25/$W$42*100</f>
         <v>91.054778554778551</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>143</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>153.26999999999998</v>
       </c>
       <c r="U25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>0.20553844193999998</v>
       </c>
       <c r="V25" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>2.5727794880141638E-2</v>
       </c>
       <c r="W25" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>2.2752703979789565E-2</v>
       </c>
       <c r="AB25" s="97"/>
@@ -29027,7 +28993,7 @@
       <c r="AE25" s="97"/>
       <c r="AF25" s="97"/>
       <c r="AO25">
-        <f>AP25*$AD$33</f>
+        <f t="shared" si="56"/>
         <v>20736</v>
       </c>
       <c r="AP25">
@@ -29045,7 +29011,7 @@
     </row>
     <row r="26" spans="1:45" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C26" s="73">
@@ -29064,54 +29030,54 @@
       <c r="H26" s="119"/>
       <c r="I26" s="119"/>
       <c r="J26" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>214.45920000000001</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>165</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>781.25000000000011</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
-        <f t="shared" si="39"/>
+        <f>M26*60/$W$29</f>
         <v>46875.000000000007</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3">
-        <f t="shared" si="40"/>
+        <f>O26/$W$42*100</f>
         <v>101.72526041666667</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>165</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>214.45920000000001</v>
       </c>
       <c r="U26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>0.28759450530240005</v>
       </c>
       <c r="V26" s="154">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>3.2222855292761705E-2</v>
       </c>
       <c r="W26" s="154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>2.9247764392409632E-2</v>
       </c>
       <c r="AO26">
-        <f>AP26*$AD$33</f>
+        <f t="shared" si="56"/>
         <v>23040</v>
       </c>
       <c r="AP26">
@@ -29146,7 +29112,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="4"/>
       <c r="AO27">
-        <f>AP27*$AD$33</f>
+        <f t="shared" si="56"/>
         <v>23961.600000000002</v>
       </c>
       <c r="AP27">
@@ -29194,7 +29160,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AO28">
-        <f>AP28*$AD$33</f>
+        <f t="shared" si="56"/>
         <v>25344</v>
       </c>
       <c r="AP28">
@@ -29255,7 +29221,7 @@
       <c r="AE29" s="64"/>
       <c r="AF29" s="29"/>
       <c r="AO29">
-        <f>AP29*$AD$33</f>
+        <f t="shared" si="56"/>
         <v>28569.600000000002</v>
       </c>
       <c r="AP29">
@@ -29826,11 +29792,11 @@
         <v>90</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" ref="C45:C50" si="47">B45/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C45:C50" si="57">B45/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
       <c r="D45" s="88">
-        <f t="shared" ref="D45:D50" si="48">(C45-1)*180</f>
+        <f t="shared" ref="D45:D50" si="58">(C45-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E45" s="6"/>
@@ -29869,11 +29835,11 @@
         <v>100</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>1.568888888888889</v>
       </c>
       <c r="D46" s="88">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E46" s="6"/>
@@ -29926,11 +29892,11 @@
         <v>110</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>1.6727777777777779</v>
       </c>
       <c r="D47" s="88">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E47" s="6"/>
@@ -29977,11 +29943,11 @@
         <v>114</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>1.7143333333333333</v>
       </c>
       <c r="D48" s="88">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>128.57999999999998</v>
       </c>
       <c r="V48" s="19"/>
@@ -30017,11 +29983,11 @@
         <v>127.5</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>1.8545833333333333</v>
       </c>
       <c r="D49" s="88">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>153.82499999999999</v>
       </c>
       <c r="V49" s="19"/>
@@ -30052,11 +30018,11 @@
         <v>136.4</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>1.9470444444444444</v>
       </c>
       <c r="D50" s="88">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>170.46799999999999</v>
       </c>
       <c r="V50" s="21"/>
@@ -30301,7 +30267,7 @@
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" s="113">
-        <f>C67/180+1</f>
+        <f t="shared" ref="B67:B72" si="59">C67/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C67" s="142">
@@ -30379,7 +30345,7 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="113">
-        <f>C68/180+1</f>
+        <f t="shared" si="59"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="C68" s="142">
@@ -30398,48 +30364,48 @@
       <c r="H68" s="143"/>
       <c r="I68" s="142"/>
       <c r="J68" s="2">
-        <f t="shared" ref="J68:J71" si="49">E68*F68</f>
+        <f t="shared" ref="J68:J71" si="60">E68*F68</f>
         <v>8.8926600000000011</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" ref="K68:K71" si="50">C68</f>
+        <f t="shared" ref="K68:K71" si="61">C68</f>
         <v>15</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" ref="L68:L71" si="51">LN(K68)</f>
+        <f t="shared" ref="L68:L71" si="62">LN(K68)</f>
         <v>2.7080502011022101</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" ref="M68:M71" si="52">1/G68/0.000001</f>
+        <f t="shared" ref="M68:M71" si="63">1/G68/0.000001</f>
         <v>161.81229773462783</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3">
-        <f t="shared" ref="O68:O71" si="53">M68*60/$W$29</f>
+        <f>M68*60/$W$29</f>
         <v>9708.7378640776697</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" ref="P68:P71" si="54">N68*60/$W$29</f>
+        <f>N68*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" ref="Q68:Q71" si="55">O68/$W$42*100</f>
+        <f>O68/$W$42*100</f>
         <v>21.069309600862997</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" ref="R68:R71" si="56">P68/$W$42*100</f>
+        <f>P68/$W$42*100</f>
         <v>0</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" ref="S68:S71" si="57">K68</f>
+        <f t="shared" ref="S68:S71" si="64">K68</f>
         <v>15</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" ref="T68:T71" si="58">J68</f>
+        <f t="shared" ref="T68:T71" si="65">J68</f>
         <v>8.8926600000000011</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U84" si="59">(T68-$T$3)*0.001341022</f>
+        <f t="shared" ref="U68:U84" si="66">(T68-$T$3)*0.001341022</f>
         <v>5.9576511576400013E-3</v>
       </c>
       <c r="V68" s="127">
@@ -30447,7 +30413,7 @@
         <v>3.2228271396323046E-3</v>
       </c>
       <c r="W68" s="154">
-        <f t="shared" ref="W68:W84" si="60">V68-$V$67</f>
+        <f t="shared" ref="W68:W84" si="67">V68-$V$67</f>
         <v>1.967106745261603E-4</v>
       </c>
       <c r="X68">
@@ -30457,7 +30423,7 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="113">
-        <f>C69/180+1</f>
+        <f t="shared" si="59"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="C69" s="142">
@@ -30476,56 +30442,56 @@
       <c r="H69" s="143"/>
       <c r="I69" s="142"/>
       <c r="J69" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>9.2684000000000015</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>12</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2.4849066497880004</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>171.23287671232879</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3">
-        <f t="shared" si="53"/>
+        <f>M69*60/$W$29</f>
         <v>10273.972602739726</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="54"/>
+        <f>N69*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" si="55"/>
+        <f>O69/$W$42*100</f>
         <v>22.295947488584474</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="56"/>
+        <f>P69/$W$42*100</f>
         <v>0</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>12</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>9.2684000000000015</v>
       </c>
       <c r="U69">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>6.4615267639200015E-3</v>
       </c>
       <c r="V69" s="127">
-        <f t="shared" ref="V69:V84" si="61">$U69/$O69*5252</f>
+        <f t="shared" ref="V69:V84" si="68">$U69/$O69*5252</f>
         <v>3.3030980202398302E-3</v>
       </c>
       <c r="W69" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.7698155513368591E-4</v>
       </c>
       <c r="X69">
@@ -30535,7 +30501,7 @@
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="113">
-        <f>C70/180+1</f>
+        <f t="shared" si="59"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C70" s="142">
@@ -30554,56 +30520,56 @@
       <c r="H70" s="143"/>
       <c r="I70" s="142"/>
       <c r="J70" s="2">
-        <f t="shared" ref="J70" si="62">E70*F70</f>
+        <f t="shared" ref="J70" si="69">E70*F70</f>
         <v>10.064</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" ref="K70" si="63">C70</f>
+        <f t="shared" ref="K70" si="70">C70</f>
         <v>13</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" ref="L70" si="64">LN(K70)</f>
+        <f t="shared" ref="L70" si="71">LN(K70)</f>
         <v>2.5649493574615367</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" ref="M70" si="65">1/G70/0.000001</f>
+        <f t="shared" ref="M70" si="72">1/G70/0.000001</f>
         <v>189.39393939393941</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3">
-        <f t="shared" ref="O70" si="66">M70*60/$W$29</f>
+        <f>M70*60/$W$29</f>
         <v>11363.636363636364</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" ref="P70" si="67">N70*60/$W$29</f>
+        <f>N70*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <f t="shared" ref="Q70" si="68">O70/$W$42*100</f>
+        <f>O70/$W$42*100</f>
         <v>24.660669191919194</v>
       </c>
       <c r="R70" s="3">
-        <f t="shared" ref="R70" si="69">P70/$W$42*100</f>
+        <f>P70/$W$42*100</f>
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" ref="S70" si="70">K70</f>
+        <f t="shared" ref="S70" si="73">K70</f>
         <v>13</v>
       </c>
       <c r="T70" s="4">
-        <f t="shared" ref="T70" si="71">J70</f>
+        <f t="shared" ref="T70" si="74">J70</f>
         <v>10.064</v>
       </c>
       <c r="U70">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>7.52844386712E-3</v>
       </c>
       <c r="V70" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>3.479466072730053E-3</v>
       </c>
       <c r="W70" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4.5334960762390868E-4</v>
       </c>
       <c r="X70">
@@ -30613,7 +30579,7 @@
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" s="113">
-        <f>C71/180+1</f>
+        <f t="shared" si="59"/>
         <v>1.0777777777777777</v>
       </c>
       <c r="C71" s="142">
@@ -30632,56 +30598,56 @@
       <c r="H71" s="143"/>
       <c r="I71" s="142"/>
       <c r="J71" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>10.679590000000001</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>14</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2.6390573296152584</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>204.08163265306123</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3">
-        <f t="shared" si="53"/>
+        <f>M71*60/$W$29</f>
         <v>12244.897959183674</v>
       </c>
       <c r="P71" s="3">
-        <f t="shared" si="54"/>
+        <f>N71*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q71" s="3">
-        <f t="shared" si="55"/>
+        <f>O71/$W$42*100</f>
         <v>26.573129251700685</v>
       </c>
       <c r="R71" s="3">
-        <f t="shared" si="56"/>
+        <f>P71/$W$42*100</f>
         <v>0</v>
       </c>
       <c r="S71" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>10.679590000000001</v>
       </c>
       <c r="U71">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.3539636001000016E-3</v>
       </c>
       <c r="V71" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>3.5831263742642254E-3</v>
       </c>
       <c r="W71" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.5700990915808109E-4</v>
       </c>
       <c r="X71">
@@ -30691,7 +30657,7 @@
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" s="113">
-        <f>C72/180+1</f>
+        <f t="shared" si="59"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="C72" s="142">
@@ -30710,56 +30676,56 @@
       <c r="H72" s="143"/>
       <c r="I72" s="142"/>
       <c r="J72" s="2">
-        <f t="shared" ref="J72:J84" si="72">E72*F72</f>
+        <f t="shared" ref="J72:J84" si="75">E72*F72</f>
         <v>12.79233</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" ref="K72:K84" si="73">C72</f>
+        <f t="shared" ref="K72:K84" si="76">C72</f>
         <v>20</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" ref="L72:L84" si="74">LN(K72)</f>
+        <f t="shared" ref="L72:L84" si="77">LN(K72)</f>
         <v>2.9957322735539909</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" ref="M72:M84" si="75">1/G72/0.000001</f>
+        <f t="shared" ref="M72:M84" si="78">1/G72/0.000001</f>
         <v>285.71428571428572</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3">
-        <f t="shared" ref="O72:O84" si="76">M72*60/$W$29</f>
+        <f>M72*60/$W$29</f>
         <v>17142.857142857145</v>
       </c>
       <c r="P72" s="3">
-        <f t="shared" ref="P72:P82" si="77">N72*60/$W$29</f>
+        <f>N72*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q72" s="3">
-        <f t="shared" ref="Q72:Q84" si="78">O72/$W$42*100</f>
+        <f>O72/$W$42*100</f>
         <v>37.202380952380956</v>
       </c>
       <c r="R72" s="3">
-        <f t="shared" ref="R72:R82" si="79">P72/$W$42*100</f>
+        <f>P72/$W$42*100</f>
         <v>0</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" ref="S72:S84" si="80">K72</f>
+        <f t="shared" ref="S72:S84" si="79">K72</f>
         <v>20</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" ref="T72:T84" si="81">J72</f>
+        <f t="shared" ref="T72:T84" si="80">J72</f>
         <v>12.79233</v>
       </c>
       <c r="U72">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1.1187194420379999E-2</v>
       </c>
       <c r="V72" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>3.4273834639237518E-3</v>
       </c>
       <c r="W72" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4.0126699881760756E-4</v>
       </c>
       <c r="X72">
@@ -30769,7 +30735,7 @@
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B73" s="113">
-        <f t="shared" ref="B73:B84" si="82">C73/180+1</f>
+        <f t="shared" ref="B73:B84" si="81">C73/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C73" s="142">
@@ -30788,56 +30754,56 @@
       <c r="H73" s="142"/>
       <c r="I73" s="142"/>
       <c r="J73" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>17.3124</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>25</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>332.22591362126246</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3">
-        <f t="shared" si="76"/>
+        <f>M73*60/$W$29</f>
         <v>19933.554817275748</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="77"/>
+        <f>N73*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="78"/>
+        <f>O73/$W$42*100</f>
         <v>43.258582502768547</v>
       </c>
       <c r="R73" s="3">
+        <f>P73/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="3">
+        <v>25</v>
+      </c>
+      <c r="T73" s="4">
         <f t="shared" si="80"/>
-        <v>25</v>
-      </c>
-      <c r="T73" s="4">
-        <f t="shared" si="81"/>
         <v>17.3124</v>
       </c>
       <c r="U73">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1.7248707731919999E-2</v>
       </c>
       <c r="V73" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>4.5446090192368654E-3</v>
       </c>
       <c r="W73" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.5184925541307211E-3</v>
       </c>
       <c r="X73">
@@ -30847,7 +30813,7 @@
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B74" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C74" s="142">
@@ -30866,56 +30832,56 @@
       <c r="H74" s="142"/>
       <c r="I74" s="142"/>
       <c r="J74" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>23.790480000000002</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>30</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>3.4011973816621555</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3">
-        <f t="shared" si="76"/>
+        <f>M74*60/$W$29</f>
         <v>22641.509433962266</v>
       </c>
       <c r="P74" s="3">
-        <f t="shared" si="77"/>
+        <f>N74*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="78"/>
+        <f>O74/$W$42*100</f>
         <v>49.135220125786169</v>
       </c>
       <c r="R74" s="3">
+        <f>P74/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="3">
+        <v>30</v>
+      </c>
+      <c r="T74" s="4">
         <f t="shared" si="80"/>
-        <v>30</v>
-      </c>
-      <c r="T74" s="4">
-        <f t="shared" si="81"/>
         <v>23.790480000000002</v>
       </c>
       <c r="U74">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>2.5935955529680001E-2</v>
       </c>
       <c r="V74" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>6.0161906978496715E-3</v>
       </c>
       <c r="W74" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.9900742327435273E-3</v>
       </c>
       <c r="X74">
@@ -30925,7 +30891,7 @@
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B75" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C75" s="142">
@@ -30944,56 +30910,56 @@
       <c r="H75" s="142"/>
       <c r="I75" s="142"/>
       <c r="J75" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>28.926969999999997</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>35</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>400.00000000000006</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3">
-        <f t="shared" si="76"/>
+        <f>M75*60/$W$29</f>
         <v>24000.000000000004</v>
       </c>
       <c r="P75" s="3">
-        <f t="shared" si="77"/>
+        <f>N75*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" si="78"/>
+        <f>O75/$W$42*100</f>
         <v>52.083333333333336</v>
       </c>
       <c r="R75" s="3">
+        <f>P75/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S75" s="3">
+        <v>35</v>
+      </c>
+      <c r="T75" s="4">
         <f t="shared" si="80"/>
-        <v>35</v>
-      </c>
-      <c r="T75" s="4">
-        <f t="shared" si="81"/>
         <v>28.926969999999997</v>
       </c>
       <c r="U75">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>3.2824101622459995E-2</v>
       </c>
       <c r="V75" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>7.1830075717149939E-3</v>
       </c>
       <c r="W75" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4.1568911066088496E-3</v>
       </c>
       <c r="X75">
@@ -31003,7 +30969,7 @@
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B76" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C76" s="142">
@@ -31022,56 +30988,56 @@
       <c r="H76" s="142"/>
       <c r="I76" s="142"/>
       <c r="J76" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>32.374200000000002</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>40</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>3.6888794541139363</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>440.52863436123351</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3">
-        <f t="shared" si="76"/>
+        <f>M76*60/$W$29</f>
         <v>26431.718061674012</v>
       </c>
       <c r="P76" s="3">
-        <f t="shared" si="77"/>
+        <f>N76*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <f t="shared" si="78"/>
+        <f>O76/$W$42*100</f>
         <v>57.360499265785613</v>
       </c>
       <c r="R76" s="3">
+        <f>P76/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
+        <v>40</v>
+      </c>
+      <c r="T76" s="4">
         <f t="shared" si="80"/>
-        <v>40</v>
-      </c>
-      <c r="T76" s="4">
-        <f t="shared" si="81"/>
         <v>32.374200000000002</v>
       </c>
       <c r="U76">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>3.7446912891520003E-2</v>
       </c>
       <c r="V76" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>7.4407265561536179E-3</v>
       </c>
       <c r="W76" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4.4146100910474736E-3</v>
       </c>
       <c r="X76">
@@ -31081,7 +31047,7 @@
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C77" s="142">
@@ -31100,56 +31066,56 @@
       <c r="H77" s="142"/>
       <c r="I77" s="142"/>
       <c r="J77" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>42.16</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>50</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>3.912023005428146</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3">
-        <f t="shared" si="76"/>
+        <f>M77*60/$W$29</f>
         <v>29702.970297029704</v>
       </c>
       <c r="P77" s="3">
-        <f t="shared" si="77"/>
+        <f>N77*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" si="78"/>
+        <f>O77/$W$42*100</f>
         <v>64.459570957095707</v>
       </c>
       <c r="R77" s="3">
+        <f>P77/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="3">
+        <v>50</v>
+      </c>
+      <c r="T77" s="4">
         <f t="shared" si="80"/>
-        <v>50</v>
-      </c>
-      <c r="T77" s="4">
-        <f t="shared" si="81"/>
         <v>42.16</v>
       </c>
       <c r="U77">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>5.0569885979119995E-2</v>
       </c>
       <c r="V77" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>8.9416323857987191E-3</v>
       </c>
       <c r="W77" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5.9155159206925748E-3</v>
       </c>
       <c r="X77">
@@ -31159,7 +31125,7 @@
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B78" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C78" s="142">
@@ -31178,56 +31144,56 @@
       <c r="H78" s="142"/>
       <c r="I78" s="142"/>
       <c r="J78" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>52.727999999999994</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>60</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>4.0943445622221004</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>534.75935828877004</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3">
-        <f t="shared" si="76"/>
+        <f>M78*60/$W$29</f>
         <v>32085.561497326202</v>
       </c>
       <c r="P78" s="3">
-        <f t="shared" si="77"/>
+        <f>N78*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q78" s="3">
-        <f t="shared" si="78"/>
+        <f>O78/$W$42*100</f>
         <v>69.630124777183596</v>
       </c>
       <c r="R78" s="3">
+        <f>P78/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S78" s="3">
+        <v>60</v>
+      </c>
+      <c r="T78" s="4">
         <f t="shared" si="80"/>
-        <v>60</v>
-      </c>
-      <c r="T78" s="4">
-        <f t="shared" si="81"/>
         <v>52.727999999999994</v>
       </c>
       <c r="U78">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>6.4741806475119998E-2</v>
       </c>
       <c r="V78" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1.0597413657095125E-2</v>
       </c>
       <c r="W78" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>7.5712971919889805E-3</v>
       </c>
       <c r="X78">
@@ -31237,7 +31203,7 @@
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B79" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C79" s="142">
@@ -31256,56 +31222,56 @@
       <c r="H79" s="142"/>
       <c r="I79" s="142"/>
       <c r="J79" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>64.944000000000003</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>75</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>606.06060606060612</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3">
-        <f t="shared" si="76"/>
+        <f>M79*60/$W$29</f>
         <v>36363.636363636368</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="77"/>
+        <f>N79*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q79" s="3">
-        <f t="shared" si="78"/>
+        <f>O79/$W$42*100</f>
         <v>78.914141414141426</v>
       </c>
       <c r="R79" s="3">
+        <f>P79/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S79" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="3">
+        <v>75</v>
+      </c>
+      <c r="T79" s="4">
         <f t="shared" si="80"/>
-        <v>75</v>
-      </c>
-      <c r="T79" s="4">
-        <f t="shared" si="81"/>
         <v>64.944000000000003</v>
       </c>
       <c r="U79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.1123731227120008E-2</v>
       </c>
       <c r="V79" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1.1716700501132942E-2</v>
       </c>
       <c r="W79" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>8.6905840360267973E-3</v>
       </c>
       <c r="X79">
@@ -31315,7 +31281,7 @@
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B80" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.5</v>
       </c>
       <c r="C80" s="142">
@@ -31334,56 +31300,56 @@
       <c r="H80" s="142"/>
       <c r="I80" s="142"/>
       <c r="J80" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>81.4572</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>90</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>4.499809670330265</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>662.25165562913912</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3">
-        <f t="shared" si="76"/>
+        <f>M80*60/$W$29</f>
         <v>39735.099337748346</v>
       </c>
       <c r="P80" s="3">
-        <f t="shared" si="77"/>
+        <f>N80*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="78"/>
+        <f>O80/$W$42*100</f>
         <v>86.230684326710815</v>
       </c>
       <c r="R80" s="3">
+        <f>P80/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S80" s="3">
+        <v>90</v>
+      </c>
+      <c r="T80" s="4">
         <f t="shared" si="80"/>
-        <v>90</v>
-      </c>
-      <c r="T80" s="4">
-        <f t="shared" si="81"/>
         <v>81.4572</v>
       </c>
       <c r="U80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.10326829571752001</v>
       </c>
       <c r="V80" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1.3649521409228446E-2</v>
       </c>
       <c r="W80" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.0623404944122301E-2</v>
       </c>
       <c r="X80">
@@ -31393,7 +31359,7 @@
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B81" s="113">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C81" s="142">
@@ -31412,56 +31378,56 @@
       <c r="H81" s="142"/>
       <c r="I81" s="142"/>
       <c r="J81" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>94.001099999999994</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>109</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>4.6913478822291435</v>
       </c>
       <c r="M81" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>680.27210884353735</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3">
-        <f t="shared" si="76"/>
+        <f>M81*60/$W$29</f>
         <v>40816.326530612241</v>
       </c>
       <c r="P81" s="3">
-        <f t="shared" si="77"/>
+        <f>N81*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <f t="shared" si="78"/>
+        <f>O81/$W$42*100</f>
         <v>88.577097505668917</v>
       </c>
       <c r="R81" s="3">
+        <f>P81/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+        <v>109</v>
+      </c>
+      <c r="T81" s="4">
         <f t="shared" si="80"/>
-        <v>109</v>
-      </c>
-      <c r="T81" s="4">
-        <f t="shared" si="81"/>
         <v>94.001099999999994</v>
       </c>
       <c r="U81">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.12008994158332</v>
       </c>
       <c r="V81" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1.5452453143292119E-2</v>
       </c>
       <c r="W81" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.2426336678185976E-2</v>
       </c>
       <c r="X81">
@@ -31471,7 +31437,7 @@
     </row>
     <row r="82" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="116">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C82" s="142">
@@ -31490,56 +31456,56 @@
       <c r="H82" s="142"/>
       <c r="I82" s="142"/>
       <c r="J82" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>117.19680000000001</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>130</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>4.8675344504555822</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>724.63768115942037</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3">
-        <f t="shared" si="76"/>
+        <f>M82*60/$W$29</f>
         <v>43478.260869565223</v>
       </c>
       <c r="P82" s="3">
-        <f t="shared" si="77"/>
+        <f>N82*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q82" s="3">
-        <f t="shared" si="78"/>
+        <f>O82/$W$42*100</f>
         <v>94.353864734299535</v>
       </c>
       <c r="R82" s="3">
+        <f>P82/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="3">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S82" s="3">
+        <v>130</v>
+      </c>
+      <c r="T82" s="4">
         <f t="shared" si="80"/>
-        <v>130</v>
-      </c>
-      <c r="T82" s="4">
-        <f t="shared" si="81"/>
         <v>117.19680000000001</v>
       </c>
       <c r="U82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.15119588558872002</v>
       </c>
       <c r="V82" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1.8263858195575022E-2</v>
       </c>
       <c r="W82" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.5237741730468879E-2</v>
       </c>
       <c r="X82">
@@ -31549,7 +31515,7 @@
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B83" s="144">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.8277777777777777</v>
       </c>
       <c r="C83" s="142">
@@ -31568,47 +31534,47 @@
       <c r="H83" s="142"/>
       <c r="I83" s="142"/>
       <c r="J83" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>139.86000000000001</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>149</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>5.0039463059454592</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>763.35877862595419</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="76"/>
+        <f>M83*60/$W$29</f>
         <v>45801.526717557252</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="78"/>
+        <f>O83/$W$42*100</f>
         <v>99.395674300254456</v>
       </c>
       <c r="S83" s="1">
+        <f t="shared" si="79"/>
+        <v>149</v>
+      </c>
+      <c r="T83" s="4">
         <f t="shared" si="80"/>
-        <v>149</v>
-      </c>
-      <c r="T83" s="4">
-        <f t="shared" si="81"/>
         <v>139.86000000000001</v>
       </c>
       <c r="U83">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.18158773537912004</v>
       </c>
       <c r="V83" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>2.0822423498943188E-2</v>
       </c>
       <c r="W83" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1.7796307033837045E-2</v>
       </c>
       <c r="X83">
@@ -31618,7 +31584,7 @@
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B84" s="144">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C84" s="142">
@@ -31637,47 +31603,47 @@
       <c r="H84" s="142"/>
       <c r="I84" s="142"/>
       <c r="J84" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>177.22499999999999</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>164</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>5.0998664278241987</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>798.72204472843453</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="76"/>
+        <f>M84*60/$W$29</f>
         <v>47923.322683706072</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="78"/>
+        <f>O84/$W$42*100</f>
         <v>104.00026624068157</v>
       </c>
       <c r="S84" s="1">
+        <f t="shared" si="79"/>
+        <v>164</v>
+      </c>
+      <c r="T84" s="4">
         <f t="shared" si="80"/>
-        <v>164</v>
-      </c>
-      <c r="T84" s="4">
-        <f t="shared" si="81"/>
         <v>177.22499999999999</v>
       </c>
       <c r="U84">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.23169502240912002</v>
       </c>
       <c r="V84" s="127">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>2.539185911052097E-2</v>
       </c>
       <c r="W84" s="154">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2.2365742645414827E-2</v>
       </c>
       <c r="X84">
@@ -31721,40 +31687,40 @@
         <v>7.9545599999999999</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" ref="K88:K102" si="83">C88</f>
+        <f t="shared" ref="K88:K102" si="82">C88</f>
         <v>11</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" ref="L88:L102" si="84">LN(K88)</f>
+        <f t="shared" ref="L88:L102" si="83">LN(K88)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M88" s="3">
-        <f t="shared" ref="M88:M102" si="85">1/G88/0.000001</f>
+        <f t="shared" ref="M88:M102" si="84">1/G88/0.000001</f>
         <v>204.91803278688525</v>
       </c>
       <c r="N88" s="3"/>
       <c r="O88" s="3">
-        <f t="shared" ref="O88:O102" si="86">M88*60/$W$29</f>
+        <f>M88*60/$W$29</f>
         <v>12295.081967213115</v>
       </c>
       <c r="P88" s="3">
-        <f t="shared" ref="P88:P100" si="87">N88*60/$W$29</f>
+        <f>N88*60/$W$29</f>
         <v>0</v>
       </c>
       <c r="Q88" s="3">
-        <f t="shared" ref="Q88:Q102" si="88">O88/$W$42*100</f>
+        <f>O88/$W$42*100</f>
         <v>26.682035519125684</v>
       </c>
       <c r="R88" s="3">
-        <f t="shared" ref="R88:R100" si="89">P88/$W$42*100</f>
+        <f>P88/$W$42*100</f>
         <v>0</v>
       </c>
       <c r="S88" s="3">
-        <f t="shared" ref="S88:S102" si="90">K88</f>
+        <f t="shared" ref="S88:S102" si="85">K88</f>
         <v>11</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" ref="T88:T102" si="91">J88</f>
+        <f t="shared" ref="T88:T102" si="86">J88</f>
         <v>7.9545599999999999</v>
       </c>
       <c r="U88">
@@ -31795,56 +31761,56 @@
       <c r="H89" s="143"/>
       <c r="I89" s="142"/>
       <c r="J89" s="2">
-        <f t="shared" ref="J89:J102" si="92">E89*F89</f>
+        <f t="shared" ref="J89:J102" si="87">E89*F89</f>
         <v>10.736400000000001</v>
       </c>
       <c r="K89" s="1">
+        <f t="shared" si="82"/>
+        <v>15</v>
+      </c>
+      <c r="L89" s="1">
         <f t="shared" si="83"/>
-        <v>15</v>
-      </c>
-      <c r="L89" s="1">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="M89" s="3">
         <f t="shared" si="84"/>
-        <v>2.7080502011022101</v>
-      </c>
-      <c r="M89" s="3">
-        <f t="shared" si="85"/>
         <v>256.41025641025641</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3">
+        <f>M89*60/$W$29</f>
+        <v>15384.615384615385</v>
+      </c>
+      <c r="P89" s="3">
+        <f>N89*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <f>O89/$W$42*100</f>
+        <v>33.386752136752136</v>
+      </c>
+      <c r="R89" s="3">
+        <f>P89/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <f t="shared" si="85"/>
+        <v>15</v>
+      </c>
+      <c r="T89" s="4">
         <f t="shared" si="86"/>
-        <v>15384.615384615385</v>
-      </c>
-      <c r="P89" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <f t="shared" si="88"/>
-        <v>33.386752136752136</v>
-      </c>
-      <c r="R89" s="3">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <f t="shared" si="90"/>
-        <v>15</v>
-      </c>
-      <c r="T89" s="4">
-        <f t="shared" si="91"/>
         <v>10.736400000000001</v>
       </c>
       <c r="U89">
-        <f t="shared" ref="U89:U102" si="93">T89*0.001341022</f>
+        <f t="shared" ref="U89:U102" si="88">T89*0.001341022</f>
         <v>1.4397748600800004E-2</v>
       </c>
       <c r="V89" s="127">
-        <f t="shared" ref="V89:V104" si="94">$U89/$O89*5252</f>
+        <f t="shared" ref="V89:V102" si="89">$U89/$O89*5252</f>
         <v>4.9151034173411049E-3</v>
       </c>
       <c r="W89" s="127">
-        <f t="shared" ref="W89:W102" si="95">V89-$V$88</f>
+        <f t="shared" ref="W89:W102" si="90">V89-$V$88</f>
         <v>3.5845674991758555E-4</v>
       </c>
       <c r="X89">
@@ -31873,56 +31839,56 @@
       <c r="H90" s="143"/>
       <c r="I90" s="142"/>
       <c r="J90" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>14.331199999999999</v>
       </c>
       <c r="K90" s="1">
+        <f t="shared" si="82"/>
+        <v>20</v>
+      </c>
+      <c r="L90" s="1">
         <f t="shared" si="83"/>
-        <v>20</v>
-      </c>
-      <c r="L90" s="1">
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="M90" s="3">
         <f t="shared" si="84"/>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="M90" s="3">
-        <f t="shared" si="85"/>
         <v>306.74846625766872</v>
       </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3">
+        <f>M90*60/$W$29</f>
+        <v>18404.907975460123</v>
+      </c>
+      <c r="P90" s="3">
+        <f>N90*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <f>O90/$W$42*100</f>
+        <v>39.941206543967276</v>
+      </c>
+      <c r="R90" s="3">
+        <f>P90/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
+        <f t="shared" si="85"/>
+        <v>20</v>
+      </c>
+      <c r="T90" s="4">
         <f t="shared" si="86"/>
-        <v>18404.907975460123</v>
-      </c>
-      <c r="P90" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="3">
+        <v>14.331199999999999</v>
+      </c>
+      <c r="U90">
         <f t="shared" si="88"/>
-        <v>39.941206543967276</v>
-      </c>
-      <c r="R90" s="3">
+        <v>1.92184544864E-2</v>
+      </c>
+      <c r="V90" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="3">
+        <v>5.4841525476331228E-3</v>
+      </c>
+      <c r="W90" s="127">
         <f t="shared" si="90"/>
-        <v>20</v>
-      </c>
-      <c r="T90" s="4">
-        <f t="shared" si="91"/>
-        <v>14.331199999999999</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="93"/>
-        <v>1.92184544864E-2</v>
-      </c>
-      <c r="V90" s="127">
-        <f t="shared" si="94"/>
-        <v>5.4841525476331228E-3</v>
-      </c>
-      <c r="W90" s="127">
-        <f t="shared" si="95"/>
         <v>9.2750588020960346E-4</v>
       </c>
       <c r="X90">
@@ -31932,7 +31898,7 @@
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B91" s="113">
-        <f t="shared" ref="B91:B102" si="96">C91/180+1</f>
+        <f t="shared" ref="B91:B102" si="91">C91/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C91" s="142">
@@ -31951,56 +31917,56 @@
       <c r="H91" s="142"/>
       <c r="I91" s="142"/>
       <c r="J91" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>18.75488</v>
       </c>
       <c r="K91" s="1">
+        <f t="shared" si="82"/>
+        <v>25</v>
+      </c>
+      <c r="L91" s="1">
         <f t="shared" si="83"/>
-        <v>25</v>
-      </c>
-      <c r="L91" s="1">
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="M91" s="3">
         <f t="shared" si="84"/>
-        <v>3.2188758248682006</v>
-      </c>
-      <c r="M91" s="3">
-        <f t="shared" si="85"/>
         <v>348.43205574912895</v>
       </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3">
+        <f>M91*60/$W$29</f>
+        <v>20905.923344947736</v>
+      </c>
+      <c r="P91" s="3">
+        <f>N91*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <f>O91/$W$42*100</f>
+        <v>45.368757259001164</v>
+      </c>
+      <c r="R91" s="3">
+        <f>P91/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <f t="shared" si="85"/>
+        <v>25</v>
+      </c>
+      <c r="T91" s="4">
         <f t="shared" si="86"/>
-        <v>20905.923344947736</v>
-      </c>
-      <c r="P91" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
+        <v>18.75488</v>
+      </c>
+      <c r="U91">
         <f t="shared" si="88"/>
-        <v>45.368757259001164</v>
-      </c>
-      <c r="R91" s="3">
+        <v>2.5150706687360001E-2</v>
+      </c>
+      <c r="V91" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
+        <v>6.3183773011363711E-3</v>
+      </c>
+      <c r="W91" s="127">
         <f t="shared" si="90"/>
-        <v>25</v>
-      </c>
-      <c r="T91" s="4">
-        <f t="shared" si="91"/>
-        <v>18.75488</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="93"/>
-        <v>2.5150706687360001E-2</v>
-      </c>
-      <c r="V91" s="127">
-        <f t="shared" si="94"/>
-        <v>6.3183773011363711E-3</v>
-      </c>
-      <c r="W91" s="127">
-        <f t="shared" si="95"/>
         <v>1.7617306337128517E-3</v>
       </c>
       <c r="X91">
@@ -32010,7 +31976,7 @@
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B92" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C92" s="142">
@@ -32029,56 +31995,56 @@
       <c r="H92" s="142"/>
       <c r="I92" s="142"/>
       <c r="J92" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>22.945799999999998</v>
       </c>
       <c r="K92" s="1">
+        <f t="shared" si="82"/>
+        <v>30</v>
+      </c>
+      <c r="L92" s="1">
         <f t="shared" si="83"/>
-        <v>30</v>
-      </c>
-      <c r="L92" s="1">
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="M92" s="3">
         <f t="shared" si="84"/>
-        <v>3.4011973816621555</v>
-      </c>
-      <c r="M92" s="3">
-        <f t="shared" si="85"/>
         <v>378.78787878787881</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3">
+        <f>M92*60/$W$29</f>
+        <v>22727.272727272728</v>
+      </c>
+      <c r="P92" s="3">
+        <f>N92*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <f>O92/$W$42*100</f>
+        <v>49.321338383838388</v>
+      </c>
+      <c r="R92" s="3">
+        <f>P92/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <f t="shared" si="85"/>
+        <v>30</v>
+      </c>
+      <c r="T92" s="4">
         <f t="shared" si="86"/>
-        <v>22727.272727272728</v>
-      </c>
-      <c r="P92" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="3">
+        <v>22.945799999999998</v>
+      </c>
+      <c r="U92">
         <f t="shared" si="88"/>
-        <v>49.321338383838388</v>
-      </c>
-      <c r="R92" s="3">
+        <v>3.0770822607600001E-2</v>
+      </c>
+      <c r="V92" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="3">
+        <v>7.1107678547450686E-3</v>
+      </c>
+      <c r="W92" s="127">
         <f t="shared" si="90"/>
-        <v>30</v>
-      </c>
-      <c r="T92" s="4">
-        <f t="shared" si="91"/>
-        <v>22.945799999999998</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="93"/>
-        <v>3.0770822607600001E-2</v>
-      </c>
-      <c r="V92" s="127">
-        <f t="shared" si="94"/>
-        <v>7.1107678547450686E-3</v>
-      </c>
-      <c r="W92" s="127">
-        <f t="shared" si="95"/>
         <v>2.5541211873215492E-3</v>
       </c>
       <c r="X92">
@@ -32088,7 +32054,7 @@
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B93" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C93" s="142">
@@ -32107,56 +32073,56 @@
       <c r="H93" s="142"/>
       <c r="I93" s="142"/>
       <c r="J93" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>28.194600000000005</v>
       </c>
       <c r="K93" s="1">
+        <f t="shared" si="82"/>
+        <v>35</v>
+      </c>
+      <c r="L93" s="1">
         <f t="shared" si="83"/>
-        <v>35</v>
-      </c>
-      <c r="L93" s="1">
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="M93" s="3">
         <f t="shared" si="84"/>
-        <v>3.5553480614894135</v>
-      </c>
-      <c r="M93" s="3">
-        <f t="shared" si="85"/>
         <v>416.66666666666669</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3">
+        <f>M93*60/$W$29</f>
+        <v>25000</v>
+      </c>
+      <c r="P93" s="3">
+        <f>N93*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <f>O93/$W$42*100</f>
+        <v>54.253472222222221</v>
+      </c>
+      <c r="R93" s="3">
+        <f>P93/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <f t="shared" si="85"/>
+        <v>35</v>
+      </c>
+      <c r="T93" s="4">
         <f t="shared" si="86"/>
-        <v>25000</v>
-      </c>
-      <c r="P93" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="3">
+        <v>28.194600000000005</v>
+      </c>
+      <c r="U93">
         <f t="shared" si="88"/>
-        <v>54.253472222222221</v>
-      </c>
-      <c r="R93" s="3">
+        <v>3.7809578881200012E-2</v>
+      </c>
+      <c r="V93" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="3">
+        <v>7.9430363313624987E-3</v>
+      </c>
+      <c r="W93" s="127">
         <f t="shared" si="90"/>
-        <v>35</v>
-      </c>
-      <c r="T93" s="4">
-        <f t="shared" si="91"/>
-        <v>28.194600000000005</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="93"/>
-        <v>3.7809578881200012E-2</v>
-      </c>
-      <c r="V93" s="127">
-        <f t="shared" si="94"/>
-        <v>7.9430363313624987E-3</v>
-      </c>
-      <c r="W93" s="127">
-        <f t="shared" si="95"/>
         <v>3.3863896639389794E-3</v>
       </c>
       <c r="X93">
@@ -32166,7 +32132,7 @@
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B94" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C94" s="142">
@@ -32185,56 +32151,56 @@
       <c r="H94" s="142"/>
       <c r="I94" s="142"/>
       <c r="J94" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>31.509999999999994</v>
       </c>
       <c r="K94" s="1">
+        <f t="shared" si="82"/>
+        <v>40</v>
+      </c>
+      <c r="L94" s="1">
         <f t="shared" si="83"/>
-        <v>40</v>
-      </c>
-      <c r="L94" s="1">
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="M94" s="3">
         <f t="shared" si="84"/>
-        <v>3.6888794541139363</v>
-      </c>
-      <c r="M94" s="3">
-        <f t="shared" si="85"/>
         <v>444.44444444444451</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3">
+        <f>M94*60/$W$29</f>
+        <v>26666.666666666672</v>
+      </c>
+      <c r="P94" s="3">
+        <f>N94*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <f>O94/$W$42*100</f>
+        <v>57.870370370370381</v>
+      </c>
+      <c r="R94" s="3">
+        <f>P94/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <f t="shared" si="85"/>
+        <v>40</v>
+      </c>
+      <c r="T94" s="4">
         <f t="shared" si="86"/>
-        <v>26666.666666666672</v>
-      </c>
-      <c r="P94" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+        <v>31.509999999999994</v>
+      </c>
+      <c r="U94">
         <f t="shared" si="88"/>
-        <v>57.870370370370381</v>
-      </c>
-      <c r="R94" s="3">
+        <v>4.2255603219999993E-2</v>
+      </c>
+      <c r="V94" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+        <v>8.3222410541789974E-3</v>
+      </c>
+      <c r="W94" s="127">
         <f t="shared" si="90"/>
-        <v>40</v>
-      </c>
-      <c r="T94" s="4">
-        <f t="shared" si="91"/>
-        <v>31.509999999999994</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="93"/>
-        <v>4.2255603219999993E-2</v>
-      </c>
-      <c r="V94" s="127">
-        <f t="shared" si="94"/>
-        <v>8.3222410541789974E-3</v>
-      </c>
-      <c r="W94" s="127">
-        <f t="shared" si="95"/>
         <v>3.765594386755478E-3</v>
       </c>
       <c r="X94">
@@ -32244,7 +32210,7 @@
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B95" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C95" s="142">
@@ -32263,56 +32229,56 @@
       <c r="H95" s="142"/>
       <c r="I95" s="142"/>
       <c r="J95" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>41.222999999999999</v>
       </c>
       <c r="K95" s="1">
+        <f t="shared" si="82"/>
+        <v>50</v>
+      </c>
+      <c r="L95" s="1">
         <f t="shared" si="83"/>
-        <v>50</v>
-      </c>
-      <c r="L95" s="1">
+        <v>3.912023005428146</v>
+      </c>
+      <c r="M95" s="3">
         <f t="shared" si="84"/>
-        <v>3.912023005428146</v>
-      </c>
-      <c r="M95" s="3">
-        <f t="shared" si="85"/>
         <v>497.51243781094524</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3">
+        <f>M95*60/$W$29</f>
+        <v>29850.746268656716</v>
+      </c>
+      <c r="P95" s="3">
+        <f>N95*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <f>O95/$W$42*100</f>
+        <v>64.780265339966832</v>
+      </c>
+      <c r="R95" s="3">
+        <f>P95/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S95" s="3">
+        <f t="shared" si="85"/>
+        <v>50</v>
+      </c>
+      <c r="T95" s="4">
         <f t="shared" si="86"/>
-        <v>29850.746268656716</v>
-      </c>
-      <c r="P95" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="3">
+        <v>41.222999999999999</v>
+      </c>
+      <c r="U95">
         <f t="shared" si="88"/>
-        <v>64.780265339966832</v>
-      </c>
-      <c r="R95" s="3">
+        <v>5.5280949906E-2</v>
+      </c>
+      <c r="V95" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="3">
+        <v>9.7262408883614527E-3</v>
+      </c>
+      <c r="W95" s="127">
         <f t="shared" si="90"/>
-        <v>50</v>
-      </c>
-      <c r="T95" s="4">
-        <f t="shared" si="91"/>
-        <v>41.222999999999999</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="93"/>
-        <v>5.5280949906E-2</v>
-      </c>
-      <c r="V95" s="127">
-        <f t="shared" si="94"/>
-        <v>9.7262408883614527E-3</v>
-      </c>
-      <c r="W95" s="127">
-        <f t="shared" si="95"/>
         <v>5.1695942209379333E-3</v>
       </c>
       <c r="X95">
@@ -32322,7 +32288,7 @@
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B96" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C96" s="142">
@@ -32341,56 +32307,56 @@
       <c r="H96" s="142"/>
       <c r="I96" s="142"/>
       <c r="J96" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>51.816000000000003</v>
       </c>
       <c r="K96" s="1">
+        <f t="shared" si="82"/>
+        <v>60</v>
+      </c>
+      <c r="L96" s="1">
         <f t="shared" si="83"/>
-        <v>60</v>
-      </c>
-      <c r="L96" s="1">
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="M96" s="3">
         <f t="shared" si="84"/>
-        <v>4.0943445622221004</v>
-      </c>
-      <c r="M96" s="3">
-        <f t="shared" si="85"/>
         <v>531.91489361702133</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3">
+        <f>M96*60/$W$29</f>
+        <v>31914.89361702128</v>
+      </c>
+      <c r="P96" s="3">
+        <f>N96*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <f>O96/$W$42*100</f>
+        <v>69.259751773049643</v>
+      </c>
+      <c r="R96" s="3">
+        <f>P96/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <f t="shared" si="85"/>
+        <v>60</v>
+      </c>
+      <c r="T96" s="4">
         <f t="shared" si="86"/>
-        <v>31914.89361702128</v>
-      </c>
-      <c r="P96" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+        <v>51.816000000000003</v>
+      </c>
+      <c r="U96">
         <f t="shared" si="88"/>
-        <v>69.259751773049643</v>
-      </c>
-      <c r="R96" s="3">
+        <v>6.9486395952000013E-2</v>
+      </c>
+      <c r="V96" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+        <v>1.1434866614916992E-2</v>
+      </c>
+      <c r="W96" s="127">
         <f t="shared" si="90"/>
-        <v>60</v>
-      </c>
-      <c r="T96" s="4">
-        <f t="shared" si="91"/>
-        <v>51.816000000000003</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="93"/>
-        <v>6.9486395952000013E-2</v>
-      </c>
-      <c r="V96" s="127">
-        <f t="shared" si="94"/>
-        <v>1.1434866614916992E-2</v>
-      </c>
-      <c r="W96" s="127">
-        <f t="shared" si="95"/>
         <v>6.8782199474934731E-3</v>
       </c>
       <c r="X96">
@@ -32400,7 +32366,7 @@
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B97" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C97" s="142">
@@ -32419,56 +32385,56 @@
       <c r="H97" s="142"/>
       <c r="I97" s="142"/>
       <c r="J97" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>66.481399999999994</v>
       </c>
       <c r="K97" s="1">
+        <f t="shared" si="82"/>
+        <v>75</v>
+      </c>
+      <c r="L97" s="1">
         <f t="shared" si="83"/>
-        <v>75</v>
-      </c>
-      <c r="L97" s="1">
+        <v>4.3174881135363101</v>
+      </c>
+      <c r="M97" s="3">
         <f t="shared" si="84"/>
-        <v>4.3174881135363101</v>
-      </c>
-      <c r="M97" s="3">
-        <f t="shared" si="85"/>
         <v>613.49693251533745</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3">
+        <f>M97*60/$W$29</f>
+        <v>36809.815950920245</v>
+      </c>
+      <c r="P97" s="3">
+        <f>N97*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <f>O97/$W$42*100</f>
+        <v>79.882413087934552</v>
+      </c>
+      <c r="R97" s="3">
+        <f>P97/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <f t="shared" si="85"/>
+        <v>75</v>
+      </c>
+      <c r="T97" s="4">
         <f t="shared" si="86"/>
-        <v>36809.815950920245</v>
-      </c>
-      <c r="P97" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q97" s="3">
+        <v>66.481399999999994</v>
+      </c>
+      <c r="U97">
         <f t="shared" si="88"/>
-        <v>79.882413087934552</v>
-      </c>
-      <c r="R97" s="3">
+        <v>8.9153019990799998E-2</v>
+      </c>
+      <c r="V97" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S97" s="3">
+        <v>1.2720293456940682E-2</v>
+      </c>
+      <c r="W97" s="127">
         <f t="shared" si="90"/>
-        <v>75</v>
-      </c>
-      <c r="T97" s="4">
-        <f t="shared" si="91"/>
-        <v>66.481399999999994</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="93"/>
-        <v>8.9153019990799998E-2</v>
-      </c>
-      <c r="V97" s="127">
-        <f t="shared" si="94"/>
-        <v>1.2720293456940682E-2</v>
-      </c>
-      <c r="W97" s="127">
-        <f t="shared" si="95"/>
         <v>8.1636467895171635E-3</v>
       </c>
       <c r="X97">
@@ -32478,7 +32444,7 @@
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B98" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.5</v>
       </c>
       <c r="C98" s="142">
@@ -32497,56 +32463,56 @@
       <c r="H98" s="142"/>
       <c r="I98" s="142"/>
       <c r="J98" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>80.820000000000007</v>
       </c>
       <c r="K98" s="1">
+        <f t="shared" si="82"/>
+        <v>90</v>
+      </c>
+      <c r="L98" s="1">
         <f t="shared" si="83"/>
-        <v>90</v>
-      </c>
-      <c r="L98" s="1">
+        <v>4.499809670330265</v>
+      </c>
+      <c r="M98" s="3">
         <f t="shared" si="84"/>
-        <v>4.499809670330265</v>
-      </c>
-      <c r="M98" s="3">
-        <f t="shared" si="85"/>
         <v>657.89473684210532</v>
       </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3">
+        <f>M98*60/$W$29</f>
+        <v>39473.68421052632</v>
+      </c>
+      <c r="P98" s="3">
+        <f>N98*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <f>O98/$W$42*100</f>
+        <v>85.663377192982466</v>
+      </c>
+      <c r="R98" s="3">
+        <f>P98/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <f t="shared" si="85"/>
+        <v>90</v>
+      </c>
+      <c r="T98" s="4">
         <f t="shared" si="86"/>
-        <v>39473.68421052632</v>
-      </c>
-      <c r="P98" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q98" s="3">
+        <v>80.820000000000007</v>
+      </c>
+      <c r="U98">
         <f t="shared" si="88"/>
-        <v>85.663377192982466</v>
-      </c>
-      <c r="R98" s="3">
+        <v>0.10838139804000002</v>
+      </c>
+      <c r="V98" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="3">
+        <v>1.4420217263487361E-2</v>
+      </c>
+      <c r="W98" s="127">
         <f t="shared" si="90"/>
-        <v>90</v>
-      </c>
-      <c r="T98" s="4">
-        <f t="shared" si="91"/>
-        <v>80.820000000000007</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="93"/>
-        <v>0.10838139804000002</v>
-      </c>
-      <c r="V98" s="127">
-        <f t="shared" si="94"/>
-        <v>1.4420217263487361E-2</v>
-      </c>
-      <c r="W98" s="127">
-        <f t="shared" si="95"/>
         <v>9.8635705960638427E-3</v>
       </c>
       <c r="X98">
@@ -32556,7 +32522,7 @@
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B99" s="113">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C99" s="142">
@@ -32575,56 +32541,56 @@
       <c r="H99" s="142"/>
       <c r="I99" s="142"/>
       <c r="J99" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>99.012000000000015</v>
       </c>
       <c r="K99" s="1">
+        <f t="shared" si="82"/>
+        <v>109</v>
+      </c>
+      <c r="L99" s="1">
         <f t="shared" si="83"/>
-        <v>109</v>
-      </c>
-      <c r="L99" s="1">
+        <v>4.6913478822291435</v>
+      </c>
+      <c r="M99" s="3">
         <f t="shared" si="84"/>
-        <v>4.6913478822291435</v>
-      </c>
-      <c r="M99" s="3">
-        <f t="shared" si="85"/>
         <v>719.42446043165478</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3">
+        <f>M99*60/$W$29</f>
+        <v>43165.467625899284</v>
+      </c>
+      <c r="P99" s="3">
+        <f>N99*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <f>O99/$W$42*100</f>
+        <v>93.675059952038382</v>
+      </c>
+      <c r="R99" s="3">
+        <f>P99/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <f t="shared" si="85"/>
+        <v>109</v>
+      </c>
+      <c r="T99" s="4">
         <f t="shared" si="86"/>
-        <v>43165.467625899284</v>
-      </c>
-      <c r="P99" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q99" s="3">
+        <v>99.012000000000015</v>
+      </c>
+      <c r="U99">
         <f t="shared" si="88"/>
-        <v>93.675059952038382</v>
-      </c>
-      <c r="R99" s="3">
+        <v>0.13277727026400002</v>
+      </c>
+      <c r="V99" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S99" s="3">
+        <v>1.6155187509381233E-2</v>
+      </c>
+      <c r="W99" s="127">
         <f t="shared" si="90"/>
-        <v>109</v>
-      </c>
-      <c r="T99" s="4">
-        <f t="shared" si="91"/>
-        <v>99.012000000000015</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="93"/>
-        <v>0.13277727026400002</v>
-      </c>
-      <c r="V99" s="127">
-        <f t="shared" si="94"/>
-        <v>1.6155187509381233E-2</v>
-      </c>
-      <c r="W99" s="127">
-        <f t="shared" si="95"/>
         <v>1.1598540841957713E-2</v>
       </c>
       <c r="X99">
@@ -32634,7 +32600,7 @@
     </row>
     <row r="100" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="116">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C100" s="142">
@@ -32653,56 +32619,56 @@
       <c r="H100" s="142"/>
       <c r="I100" s="142"/>
       <c r="J100" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>118.28099999999999</v>
       </c>
       <c r="K100" s="1">
+        <f t="shared" si="82"/>
+        <v>130</v>
+      </c>
+      <c r="L100" s="1">
         <f t="shared" si="83"/>
-        <v>130</v>
-      </c>
-      <c r="L100" s="1">
+        <v>4.8675344504555822</v>
+      </c>
+      <c r="M100" s="3">
         <f t="shared" si="84"/>
-        <v>4.8675344504555822</v>
-      </c>
-      <c r="M100" s="3">
-        <f t="shared" si="85"/>
         <v>740.74074074074076</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3">
+        <f>M100*60/$W$29</f>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="P100" s="3">
+        <f>N100*60/$W$29</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <f>O100/$W$42*100</f>
+        <v>96.450617283950621</v>
+      </c>
+      <c r="R100" s="3">
+        <f>P100/$W$42*100</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <f t="shared" si="85"/>
+        <v>130</v>
+      </c>
+      <c r="T100" s="4">
         <f t="shared" si="86"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="P100" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+        <v>118.28099999999999</v>
+      </c>
+      <c r="U100">
         <f t="shared" si="88"/>
-        <v>96.450617283950621</v>
-      </c>
-      <c r="R100" s="3">
+        <v>0.15861742318200001</v>
+      </c>
+      <c r="V100" s="127">
         <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+        <v>1.8743820897416941E-2</v>
+      </c>
+      <c r="W100" s="127">
         <f t="shared" si="90"/>
-        <v>130</v>
-      </c>
-      <c r="T100" s="4">
-        <f t="shared" si="91"/>
-        <v>118.28099999999999</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="93"/>
-        <v>0.15861742318200001</v>
-      </c>
-      <c r="V100" s="127">
-        <f t="shared" si="94"/>
-        <v>1.8743820897416941E-2</v>
-      </c>
-      <c r="W100" s="127">
-        <f t="shared" si="95"/>
         <v>1.418717422999342E-2</v>
       </c>
       <c r="X100">
@@ -32712,7 +32678,7 @@
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B101" s="144">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.8444444444444446</v>
       </c>
       <c r="C101" s="142">
@@ -32731,47 +32697,47 @@
       <c r="H101" s="142"/>
       <c r="I101" s="142"/>
       <c r="J101" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>152.48400000000001</v>
       </c>
       <c r="K101" s="1">
+        <f t="shared" si="82"/>
+        <v>152</v>
+      </c>
+      <c r="L101" s="1">
         <f t="shared" si="83"/>
+        <v>5.0238805208462765</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" si="84"/>
+        <v>781.25000000000011</v>
+      </c>
+      <c r="O101" s="1">
+        <f>M101*60/$W$29</f>
+        <v>46875.000000000007</v>
+      </c>
+      <c r="Q101" s="1">
+        <f>O101/$W$42*100</f>
+        <v>101.72526041666667</v>
+      </c>
+      <c r="S101" s="1">
+        <f t="shared" si="85"/>
         <v>152</v>
       </c>
-      <c r="L101" s="1">
-        <f t="shared" si="84"/>
-        <v>5.0238805208462765</v>
-      </c>
-      <c r="M101" s="1">
-        <f t="shared" si="85"/>
-        <v>781.25000000000011</v>
-      </c>
-      <c r="O101" s="1">
+      <c r="T101" s="4">
         <f t="shared" si="86"/>
-        <v>46875.000000000007</v>
-      </c>
-      <c r="Q101" s="1">
+        <v>152.48400000000001</v>
+      </c>
+      <c r="U101">
         <f t="shared" si="88"/>
-        <v>101.72526041666667</v>
-      </c>
-      <c r="S101" s="1">
+        <v>0.20448439864800003</v>
+      </c>
+      <c r="V101" s="127">
+        <f t="shared" si="89"/>
+        <v>2.2910977316251649E-2</v>
+      </c>
+      <c r="W101" s="127">
         <f t="shared" si="90"/>
-        <v>152</v>
-      </c>
-      <c r="T101" s="4">
-        <f t="shared" si="91"/>
-        <v>152.48400000000001</v>
-      </c>
-      <c r="U101">
-        <f t="shared" si="93"/>
-        <v>0.20448439864800003</v>
-      </c>
-      <c r="V101" s="127">
-        <f t="shared" si="94"/>
-        <v>2.2910977316251649E-2</v>
-      </c>
-      <c r="W101" s="127">
-        <f t="shared" si="95"/>
         <v>1.8354330648828129E-2</v>
       </c>
       <c r="X101">
@@ -32781,7 +32747,7 @@
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B102" s="144">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C102" s="142">
@@ -32800,47 +32766,47 @@
       <c r="H102" s="142"/>
       <c r="I102" s="142"/>
       <c r="J102" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>183.08879999999999</v>
       </c>
       <c r="K102" s="1">
+        <f t="shared" si="82"/>
+        <v>164</v>
+      </c>
+      <c r="L102" s="1">
         <f t="shared" si="83"/>
+        <v>5.0998664278241987</v>
+      </c>
+      <c r="M102" s="1">
+        <f t="shared" si="84"/>
+        <v>809.06148867313925</v>
+      </c>
+      <c r="O102" s="1">
+        <f>M102*60/$W$29</f>
+        <v>48543.689320388352</v>
+      </c>
+      <c r="Q102" s="1">
+        <f>O102/$W$42*100</f>
+        <v>105.346548004315</v>
+      </c>
+      <c r="S102" s="1">
+        <f t="shared" si="85"/>
         <v>164</v>
       </c>
-      <c r="L102" s="1">
-        <f t="shared" si="84"/>
-        <v>5.0998664278241987</v>
-      </c>
-      <c r="M102" s="1">
-        <f t="shared" si="85"/>
-        <v>809.06148867313925</v>
-      </c>
-      <c r="O102" s="1">
+      <c r="T102" s="4">
         <f t="shared" si="86"/>
-        <v>48543.689320388352</v>
-      </c>
-      <c r="Q102" s="1">
+        <v>183.08879999999999</v>
+      </c>
+      <c r="U102">
         <f t="shared" si="88"/>
-        <v>105.346548004315</v>
-      </c>
-      <c r="S102" s="1">
+        <v>0.24552610875360001</v>
+      </c>
+      <c r="V102" s="127">
+        <f t="shared" si="89"/>
+        <v>2.6563764337382487E-2</v>
+      </c>
+      <c r="W102" s="127">
         <f t="shared" si="90"/>
-        <v>164</v>
-      </c>
-      <c r="T102" s="4">
-        <f t="shared" si="91"/>
-        <v>183.08879999999999</v>
-      </c>
-      <c r="U102">
-        <f t="shared" si="93"/>
-        <v>0.24552610875360001</v>
-      </c>
-      <c r="V102" s="127">
-        <f t="shared" si="94"/>
-        <v>2.6563764337382487E-2</v>
-      </c>
-      <c r="W102" s="127">
-        <f t="shared" si="95"/>
         <v>2.2007117669958966E-2</v>
       </c>
       <c r="X102">

--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -1250,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1541,13 +1541,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1573,6 +1571,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,11 +1833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199582872"/>
-        <c:axId val="199584832"/>
+        <c:axId val="693220016"/>
+        <c:axId val="693221584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199582872"/>
+        <c:axId val="693220016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,12 +1954,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199584832"/>
+        <c:crossAx val="693221584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199584832"/>
+        <c:axId val="693221584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199582872"/>
+        <c:crossAx val="693220016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2293,11 +2297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200582552"/>
-        <c:axId val="199587968"/>
+        <c:axId val="601854664"/>
+        <c:axId val="594858264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200582552"/>
+        <c:axId val="601854664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,12 +2358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199587968"/>
+        <c:crossAx val="594858264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199587968"/>
+        <c:axId val="594858264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2417,7 +2421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200582552"/>
+        <c:crossAx val="601854664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2744,8 +2748,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198000056"/>
-        <c:axId val="198000448"/>
+        <c:axId val="594860224"/>
+        <c:axId val="526069808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2960,11 +2964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197999664"/>
-        <c:axId val="197998488"/>
+        <c:axId val="597455712"/>
+        <c:axId val="526070592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198000056"/>
+        <c:axId val="594860224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3023,12 +3027,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198000448"/>
+        <c:crossAx val="526069808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198000448"/>
+        <c:axId val="526069808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -3087,12 +3091,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198000056"/>
+        <c:crossAx val="594860224"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197998488"/>
+        <c:axId val="526070592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3137,12 +3141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197999664"/>
+        <c:crossAx val="597455712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197999664"/>
+        <c:axId val="597455712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3153,7 +3157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197998488"/>
+        <c:crossAx val="526070592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3529,8 +3533,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197996528"/>
-        <c:axId val="198001232"/>
+        <c:axId val="593892272"/>
+        <c:axId val="593889136"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3745,11 +3749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198001624"/>
-        <c:axId val="198003192"/>
+        <c:axId val="587799192"/>
+        <c:axId val="587798800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197996528"/>
+        <c:axId val="593892272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3808,12 +3812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198001232"/>
+        <c:crossAx val="593889136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198001232"/>
+        <c:axId val="593889136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -3872,12 +3876,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197996528"/>
+        <c:crossAx val="593892272"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198003192"/>
+        <c:axId val="587798800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -3922,13 +3926,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198001624"/>
+        <c:crossAx val="587799192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198001624"/>
+        <c:axId val="587799192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3939,7 +3943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198003192"/>
+        <c:crossAx val="587798800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4322,8 +4326,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198002016"/>
-        <c:axId val="197996920"/>
+        <c:axId val="692507808"/>
+        <c:axId val="593372904"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4538,11 +4542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198003976"/>
-        <c:axId val="198002408"/>
+        <c:axId val="692399040"/>
+        <c:axId val="692398648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198002016"/>
+        <c:axId val="692507808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4601,12 +4605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197996920"/>
+        <c:crossAx val="593372904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197996920"/>
+        <c:axId val="593372904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -4665,12 +4669,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198002016"/>
+        <c:crossAx val="692507808"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198002408"/>
+        <c:axId val="692398648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4715,12 +4719,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198003976"/>
+        <c:crossAx val="692399040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198003976"/>
+        <c:axId val="692399040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4731,7 +4735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198002408"/>
+        <c:crossAx val="692398648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5099,8 +5103,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198002800"/>
-        <c:axId val="198003584"/>
+        <c:axId val="692402568"/>
+        <c:axId val="692400608"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5315,11 +5319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197998096"/>
-        <c:axId val="197997312"/>
+        <c:axId val="692402960"/>
+        <c:axId val="692401784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198002800"/>
+        <c:axId val="692402568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5378,12 +5382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198003584"/>
+        <c:crossAx val="692400608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198003584"/>
+        <c:axId val="692400608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5442,12 +5446,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198002800"/>
+        <c:crossAx val="692402568"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197997312"/>
+        <c:axId val="692401784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5492,12 +5496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197998096"/>
+        <c:crossAx val="692402960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197998096"/>
+        <c:axId val="692402960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5508,7 +5512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197997312"/>
+        <c:crossAx val="692401784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5869,8 +5873,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516235152"/>
-        <c:axId val="516234368"/>
+        <c:axId val="692399824"/>
+        <c:axId val="692400216"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6085,11 +6089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516236328"/>
-        <c:axId val="516233192"/>
+        <c:axId val="692395512"/>
+        <c:axId val="692401000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516235152"/>
+        <c:axId val="692399824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6148,12 +6152,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516234368"/>
+        <c:crossAx val="692400216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516234368"/>
+        <c:axId val="692400216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -6212,12 +6216,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516235152"/>
+        <c:crossAx val="692399824"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516233192"/>
+        <c:axId val="692401000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6262,12 +6266,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516236328"/>
+        <c:crossAx val="692395512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516236328"/>
+        <c:axId val="692395512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6278,7 +6282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516233192"/>
+        <c:crossAx val="692401000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6654,8 +6658,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516233584"/>
-        <c:axId val="516232800"/>
+        <c:axId val="692396296"/>
+        <c:axId val="692397864"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6870,11 +6874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516237896"/>
-        <c:axId val="516235936"/>
+        <c:axId val="692401392"/>
+        <c:axId val="692397472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516233584"/>
+        <c:axId val="692396296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6933,12 +6937,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516232800"/>
+        <c:crossAx val="692397864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516232800"/>
+        <c:axId val="692397864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -6997,12 +7001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516233584"/>
+        <c:crossAx val="692396296"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516235936"/>
+        <c:axId val="692397472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7047,12 +7051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516237896"/>
+        <c:crossAx val="692401392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516237896"/>
+        <c:axId val="692401392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7063,7 +7067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516235936"/>
+        <c:crossAx val="692397472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7439,8 +7443,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516237112"/>
-        <c:axId val="516237504"/>
+        <c:axId val="692396688"/>
+        <c:axId val="692398256"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -7655,11 +7659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516235544"/>
-        <c:axId val="516233976"/>
+        <c:axId val="166541936"/>
+        <c:axId val="166539192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516237112"/>
+        <c:axId val="692396688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7718,12 +7722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516237504"/>
+        <c:crossAx val="692398256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516237504"/>
+        <c:axId val="692398256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -7782,12 +7786,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516237112"/>
+        <c:crossAx val="692396688"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516233976"/>
+        <c:axId val="166539192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7832,12 +7836,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516235544"/>
+        <c:crossAx val="166541936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516235544"/>
+        <c:axId val="166541936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7848,7 +7852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516233976"/>
+        <c:crossAx val="166539192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7862,6 +7866,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8216,8 +8221,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516232408"/>
-        <c:axId val="516234760"/>
+        <c:axId val="166540368"/>
+        <c:axId val="166541152"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8432,11 +8437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516231232"/>
-        <c:axId val="516238680"/>
+        <c:axId val="166538800"/>
+        <c:axId val="166539976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516232408"/>
+        <c:axId val="166540368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8495,12 +8500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516234760"/>
+        <c:crossAx val="166541152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516234760"/>
+        <c:axId val="166541152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -8559,12 +8564,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516232408"/>
+        <c:crossAx val="166540368"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516238680"/>
+        <c:axId val="166539976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8609,12 +8614,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516231232"/>
+        <c:crossAx val="166538800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516231232"/>
+        <c:axId val="166538800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8625,7 +8630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516238680"/>
+        <c:crossAx val="166539976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8639,6 +8644,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8867,28 +8873,28 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.127</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9059,28 +9065,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.10083432521867587</c:v>
+                  <c:v>0.2622861097452871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5159552784658801E-2</c:v>
+                  <c:v>0.15327768207325029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4005710759342448E-2</c:v>
+                  <c:v>9.3499270545763416E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9182324444230256E-2</c:v>
+                  <c:v>8.2313306461443872E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0340557499362599E-2</c:v>
+                  <c:v>6.3631390354086409E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2103130054017714E-2</c:v>
+                  <c:v>4.8062113370621579E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7290001009117874E-2</c:v>
+                  <c:v>3.9676981378982325E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5862221691228097E-2</c:v>
+                  <c:v>3.7281900353922377E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9095,11 +9101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516050304"/>
-        <c:axId val="516049520"/>
+        <c:axId val="166539584"/>
+        <c:axId val="166541544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516050304"/>
+        <c:axId val="166539584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9145,6 +9151,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9191,12 +9198,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516049520"/>
+        <c:crossAx val="166541544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516049520"/>
+        <c:axId val="166541544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -9254,7 +9261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516050304"/>
+        <c:crossAx val="166539584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9591,8 +9598,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199588360"/>
-        <c:axId val="199589928"/>
+        <c:axId val="161625272"/>
+        <c:axId val="161624488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9733,9 +9740,9 @@
             <c:numRef>
               <c:f>CalPhotonTurnigy!$T$4:$T$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>7.6664000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -9784,11 +9791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199585224"/>
-        <c:axId val="199583264"/>
+        <c:axId val="161624880"/>
+        <c:axId val="161626448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199588360"/>
+        <c:axId val="161625272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -9908,13 +9915,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199589928"/>
+        <c:crossAx val="161624488"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199589928"/>
+        <c:axId val="161624488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10029,12 +10036,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199588360"/>
+        <c:crossAx val="161625272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199583264"/>
+        <c:axId val="161626448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -10135,13 +10142,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199585224"/>
+        <c:crossAx val="161624880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199585224"/>
+        <c:axId val="161624880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10151,7 +10158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199583264"/>
+        <c:crossAx val="161626448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10276,6 +10283,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10322,28 +10330,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.127</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10391,11 +10399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516045600"/>
-        <c:axId val="516044816"/>
+        <c:axId val="699328312"/>
+        <c:axId val="699329096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516045600"/>
+        <c:axId val="699328312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10405,12 +10413,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516044816"/>
+        <c:crossAx val="699329096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516044816"/>
+        <c:axId val="699329096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10421,13 +10429,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516045600"/>
+        <c:crossAx val="699328312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10684,11 +10693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516047168"/>
-        <c:axId val="516045992"/>
+        <c:axId val="699325960"/>
+        <c:axId val="699326352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516047168"/>
+        <c:axId val="699325960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10745,12 +10754,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516045992"/>
+        <c:crossAx val="699326352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516045992"/>
+        <c:axId val="699326352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10807,7 +10816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516047168"/>
+        <c:crossAx val="699325960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11105,8 +11114,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516048344"/>
-        <c:axId val="516049128"/>
+        <c:axId val="699328704"/>
+        <c:axId val="699331448"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -11287,11 +11296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516042856"/>
-        <c:axId val="516049912"/>
+        <c:axId val="699330272"/>
+        <c:axId val="699330664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516048344"/>
+        <c:axId val="699328704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -11410,13 +11419,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516049128"/>
+        <c:crossAx val="699331448"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516049128"/>
+        <c:axId val="699331448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11530,12 +11539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516048344"/>
+        <c:crossAx val="699328704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516049912"/>
+        <c:axId val="699330664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -11635,13 +11644,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516042856"/>
+        <c:crossAx val="699330272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516042856"/>
+        <c:axId val="699330272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11651,7 +11660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516049912"/>
+        <c:crossAx val="699330664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11918,11 +11927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516044032"/>
-        <c:axId val="516044424"/>
+        <c:axId val="699326744"/>
+        <c:axId val="699324000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516044032"/>
+        <c:axId val="699326744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11952,12 +11961,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516044424"/>
+        <c:crossAx val="699324000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516044424"/>
+        <c:axId val="699324000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11986,7 +11995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516044032"/>
+        <c:crossAx val="699326744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12433,11 +12442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516046384"/>
-        <c:axId val="516046776"/>
+        <c:axId val="699332232"/>
+        <c:axId val="699331056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516046384"/>
+        <c:axId val="699332232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12543,12 +12552,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516046776"/>
+        <c:crossAx val="699331056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516046776"/>
+        <c:axId val="699331056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12600,7 +12609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516046384"/>
+        <c:crossAx val="699332232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12825,11 +12834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200427384"/>
-        <c:axId val="200426208"/>
+        <c:axId val="699322432"/>
+        <c:axId val="699332624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200427384"/>
+        <c:axId val="699322432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12839,12 +12848,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200426208"/>
+        <c:crossAx val="699332624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200426208"/>
+        <c:axId val="699332624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12855,7 +12864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200427384"/>
+        <c:crossAx val="699322432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13001,11 +13010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200432872"/>
-        <c:axId val="200433264"/>
+        <c:axId val="699333016"/>
+        <c:axId val="699327136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200432872"/>
+        <c:axId val="699333016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13015,7 +13024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200433264"/>
+        <c:crossAx val="699327136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -13024,7 +13033,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200433264"/>
+        <c:axId val="699327136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13035,7 +13044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200432872"/>
+        <c:crossAx val="699333016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13311,11 +13320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200429736"/>
-        <c:axId val="200427776"/>
+        <c:axId val="699334192"/>
+        <c:axId val="699323216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200429736"/>
+        <c:axId val="699334192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13343,12 +13352,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200427776"/>
+        <c:crossAx val="699323216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200427776"/>
+        <c:axId val="699323216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13359,7 +13368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200429736"/>
+        <c:crossAx val="699334192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13560,11 +13569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200426600"/>
-        <c:axId val="200430128"/>
+        <c:axId val="699323608"/>
+        <c:axId val="699324392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200426600"/>
+        <c:axId val="699323608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13574,12 +13583,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200430128"/>
+        <c:crossAx val="699324392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200430128"/>
+        <c:axId val="699324392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13590,7 +13599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200426600"/>
+        <c:crossAx val="699323608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13824,11 +13833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200428560"/>
-        <c:axId val="200429344"/>
+        <c:axId val="699325176"/>
+        <c:axId val="699325568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200428560"/>
+        <c:axId val="699325176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13940,12 +13949,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200429344"/>
+        <c:crossAx val="699325568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200429344"/>
+        <c:axId val="699325568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14057,7 +14066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200428560"/>
+        <c:crossAx val="699325176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14296,11 +14305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199590320"/>
-        <c:axId val="199585616"/>
+        <c:axId val="161626056"/>
+        <c:axId val="161628016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199590320"/>
+        <c:axId val="161626056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -14330,12 +14339,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199585616"/>
+        <c:crossAx val="161628016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199585616"/>
+        <c:axId val="161628016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14364,7 +14373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199590320"/>
+        <c:crossAx val="161626056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14611,11 +14620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200432088"/>
-        <c:axId val="200432480"/>
+        <c:axId val="699336936"/>
+        <c:axId val="699337328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200432088"/>
+        <c:axId val="699336936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14672,12 +14681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200432480"/>
+        <c:crossAx val="699337328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200432480"/>
+        <c:axId val="699337328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14734,7 +14743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200432088"/>
+        <c:crossAx val="699336936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15032,8 +15041,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200426992"/>
-        <c:axId val="517062976"/>
+        <c:axId val="699338112"/>
+        <c:axId val="699334976"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -15201,11 +15210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517068464"/>
-        <c:axId val="517064544"/>
+        <c:axId val="699335760"/>
+        <c:axId val="699335368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200426992"/>
+        <c:axId val="699338112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -15324,12 +15333,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517062976"/>
+        <c:crossAx val="699334976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517062976"/>
+        <c:axId val="699334976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15441,12 +15450,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200426992"/>
+        <c:crossAx val="699338112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517064544"/>
+        <c:axId val="699335368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15489,12 +15498,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517068464"/>
+        <c:crossAx val="699335760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517068464"/>
+        <c:axId val="699335760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15504,7 +15513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517064544"/>
+        <c:crossAx val="699335368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15758,11 +15767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517066896"/>
-        <c:axId val="517071208"/>
+        <c:axId val="697505888"/>
+        <c:axId val="697504712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517066896"/>
+        <c:axId val="697505888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -15792,12 +15801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517071208"/>
+        <c:crossAx val="697504712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517071208"/>
+        <c:axId val="697504712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15826,7 +15835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517066896"/>
+        <c:crossAx val="697505888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15961,11 +15970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517061016"/>
-        <c:axId val="517067288"/>
+        <c:axId val="697503928"/>
+        <c:axId val="697507064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517061016"/>
+        <c:axId val="697503928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15993,12 +16002,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517067288"/>
+        <c:crossAx val="697507064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517067288"/>
+        <c:axId val="697507064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16009,7 +16018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517061016"/>
+        <c:crossAx val="697503928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16208,11 +16217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517067680"/>
-        <c:axId val="517071600"/>
+        <c:axId val="697502360"/>
+        <c:axId val="697505496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517067680"/>
+        <c:axId val="697502360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -16271,12 +16280,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517071600"/>
+        <c:crossAx val="697505496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517071600"/>
+        <c:axId val="697505496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16333,7 +16342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517067680"/>
+        <c:crossAx val="697502360"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16596,11 +16605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517070032"/>
-        <c:axId val="517063760"/>
+        <c:axId val="697511376"/>
+        <c:axId val="697509416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517070032"/>
+        <c:axId val="697511376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16657,12 +16666,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517063760"/>
+        <c:crossAx val="697509416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517063760"/>
+        <c:axId val="697509416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16719,7 +16728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517070032"/>
+        <c:crossAx val="697511376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16985,11 +16994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517065720"/>
-        <c:axId val="517064936"/>
+        <c:axId val="697507456"/>
+        <c:axId val="697508632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517065720"/>
+        <c:axId val="697507456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17046,12 +17055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517064936"/>
+        <c:crossAx val="697508632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517064936"/>
+        <c:axId val="697508632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17108,7 +17117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517065720"/>
+        <c:crossAx val="697507456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17381,11 +17390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517068072"/>
-        <c:axId val="517069640"/>
+        <c:axId val="697506280"/>
+        <c:axId val="697505104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517068072"/>
+        <c:axId val="697506280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17497,12 +17506,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517069640"/>
+        <c:crossAx val="697505104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517069640"/>
+        <c:axId val="697505104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -17615,7 +17624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517068072"/>
+        <c:crossAx val="697506280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17708,7 +17717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18119,11 +18127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200576672"/>
-        <c:axId val="200579024"/>
+        <c:axId val="589024376"/>
+        <c:axId val="589025160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200576672"/>
+        <c:axId val="589024376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18169,7 +18177,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18230,12 +18237,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200579024"/>
+        <c:crossAx val="589025160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200579024"/>
+        <c:axId val="589025160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -18287,7 +18294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200576672"/>
+        <c:crossAx val="589024376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18732,11 +18739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200580984"/>
-        <c:axId val="200581376"/>
+        <c:axId val="589025552"/>
+        <c:axId val="589025944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200580984"/>
+        <c:axId val="589025552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18746,12 +18753,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200581376"/>
+        <c:crossAx val="589025944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200581376"/>
+        <c:axId val="589025944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18762,7 +18769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200580984"/>
+        <c:crossAx val="589025552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18877,7 +18884,7 @@
             <c:numRef>
               <c:f>CalPhotonTurnigy!$AN$8:$AN$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>8455.3722510014177</c:v>
@@ -19110,34 +19117,34 @@
             <c:numRef>
               <c:f>CalPhotonTurnigy!$AQ$21:$AQ$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.127</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19152,11 +19159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200579808"/>
-        <c:axId val="200582944"/>
+        <c:axId val="589022808"/>
+        <c:axId val="693613352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200579808"/>
+        <c:axId val="589022808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35000"/>
@@ -19183,16 +19190,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200582944"/>
+        <c:crossAx val="693613352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200582944"/>
+        <c:axId val="693613352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -19223,7 +19230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200579808"/>
+        <c:crossAx val="589022808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19444,7 +19451,7 @@
             <c:numRef>
               <c:f>CalPhotonTurnigy!$AN$8:$AN$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8455.3722510014177</c:v>
@@ -19516,11 +19523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200577456"/>
-        <c:axId val="200578240"/>
+        <c:axId val="693614528"/>
+        <c:axId val="693614920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200577456"/>
+        <c:axId val="693614528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19530,12 +19537,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200578240"/>
+        <c:crossAx val="693614920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200578240"/>
+        <c:axId val="693614920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19546,7 +19553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200577456"/>
+        <c:crossAx val="693614528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19940,11 +19947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200581768"/>
-        <c:axId val="200582160"/>
+        <c:axId val="696569920"/>
+        <c:axId val="696570312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200581768"/>
+        <c:axId val="696569920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20001,12 +20008,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200582160"/>
+        <c:crossAx val="696570312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200582160"/>
+        <c:axId val="696570312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20063,7 +20070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200581768"/>
+        <c:crossAx val="696569920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20680,11 +20687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200577064"/>
-        <c:axId val="200580592"/>
+        <c:axId val="601854272"/>
+        <c:axId val="601857016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200577064"/>
+        <c:axId val="601854272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20741,12 +20748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200580592"/>
+        <c:crossAx val="601857016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200580592"/>
+        <c:axId val="601857016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20803,7 +20810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200577064"/>
+        <c:crossAx val="601854272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -31229,9 +31236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ16" sqref="AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31616,7 +31623,7 @@
         <f t="shared" ref="AD3:AD15" si="20">P3/60*PI()*$AA$43/1000</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="162">
+      <c r="AE3" s="160">
         <f>AD3/AB3</f>
         <v>0</v>
       </c>
@@ -31762,7 +31769,7 @@
         <f t="shared" si="20"/>
         <v>1.7278759594743859E-27</v>
       </c>
-      <c r="AE4" s="162">
+      <c r="AE4" s="160">
         <f t="shared" ref="AE4:AE15" si="25">AD4/AB4</f>
         <v>6.1353453042483493E-28</v>
       </c>
@@ -31879,11 +31886,11 @@
         <f>K5</f>
         <v>10</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="160">
         <f>J5</f>
         <v>8.3174399999999995</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="96">
         <f t="shared" si="23"/>
         <v>3.8673999999999991</v>
       </c>
@@ -31899,11 +31906,11 @@
         <f t="shared" ref="X5:X15" si="29">W5-$W$4</f>
         <v>3.2982065767668631E-4</v>
       </c>
-      <c r="Y5" s="147">
+      <c r="Y5" s="95">
         <f t="shared" si="16"/>
         <v>2.6138590953952594E-2</v>
       </c>
-      <c r="Z5" s="127">
+      <c r="Z5" s="147">
         <f t="shared" si="17"/>
         <v>4.1449374957952846E-2</v>
       </c>
@@ -31915,15 +31922,15 @@
         <f t="shared" si="18"/>
         <v>3.1715079845713725</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="179">
         <f t="shared" si="19"/>
         <v>7.1358929652855876</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="179">
         <f t="shared" si="20"/>
         <v>1.7278759594743859E-27</v>
       </c>
-      <c r="AE5" s="162">
+      <c r="AE5" s="160">
         <f t="shared" si="25"/>
         <v>5.4481211079400998E-28</v>
       </c>
@@ -31970,7 +31977,7 @@
       <c r="AR5" s="95"/>
       <c r="AS5" s="127"/>
       <c r="AV5" s="95"/>
-      <c r="AW5" s="128">
+      <c r="AW5" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -32040,11 +32047,11 @@
         <f>K6</f>
         <v>11</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="160">
         <f>J6</f>
         <v>9.063600000000001</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="96">
         <f t="shared" si="23"/>
         <v>4.6135600000000005</v>
       </c>
@@ -32060,11 +32067,11 @@
         <f t="shared" si="29"/>
         <v>5.9919656662855807E-4</v>
       </c>
-      <c r="Y6" s="147">
+      <c r="Y6" s="95">
         <f t="shared" si="16"/>
         <v>3.5078781866062975E-2</v>
       </c>
-      <c r="Z6" s="127">
+      <c r="Z6" s="147">
         <f t="shared" si="17"/>
         <v>6.4440883029282331E-2</v>
       </c>
@@ -32076,15 +32083,15 @@
         <f t="shared" si="18"/>
         <v>3.6740661791124376</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="179">
         <f t="shared" si="19"/>
         <v>8.2666489030029844</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="179">
         <f t="shared" si="20"/>
         <v>1.7278759594743859E-27</v>
       </c>
-      <c r="AE6" s="162">
+      <c r="AE6" s="160">
         <f t="shared" si="25"/>
         <v>4.7028983018803367E-28</v>
       </c>
@@ -32134,7 +32141,7 @@
       </c>
       <c r="AS6" s="127"/>
       <c r="AV6" s="95"/>
-      <c r="AW6" s="128">
+      <c r="AW6" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -32207,11 +32214,11 @@
         <f>K7</f>
         <v>12</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="160">
         <f>J7</f>
         <v>9.3844799999999999</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="96">
         <f t="shared" si="23"/>
         <v>4.9344399999999995</v>
       </c>
@@ -32227,11 +32234,11 @@
         <f t="shared" si="29"/>
         <v>6.1610363702618159E-4</v>
       </c>
-      <c r="Y7" s="147">
+      <c r="Y7" s="95">
         <f t="shared" si="16"/>
         <v>4.2315671978809193E-2</v>
       </c>
-      <c r="Z7" s="127">
+      <c r="Z7" s="147">
         <f t="shared" si="17"/>
         <v>8.5378120501622648E-2</v>
       </c>
@@ -32243,15 +32250,15 @@
         <f t="shared" si="18"/>
         <v>4.0352955067984375</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="179">
         <f t="shared" si="19"/>
         <v>9.0794148902964853</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="179">
         <f t="shared" si="20"/>
         <v>1.7278759594743859E-27</v>
       </c>
-      <c r="AE7" s="162">
+      <c r="AE7" s="160">
         <f t="shared" si="25"/>
         <v>4.281906880334682E-28</v>
       </c>
@@ -32301,7 +32308,7 @@
       </c>
       <c r="AS7" s="127"/>
       <c r="AV7" s="95"/>
-      <c r="AW7" s="128">
+      <c r="AW7" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -32379,11 +32386,11 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="160">
         <f t="shared" si="0"/>
         <v>20.3796</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="96">
         <f t="shared" si="23"/>
         <v>15.929559999999999</v>
       </c>
@@ -32399,11 +32406,11 @@
         <f t="shared" si="29"/>
         <v>3.1207096646162949E-3</v>
       </c>
-      <c r="Y8" s="147">
+      <c r="Y8" s="95">
         <f t="shared" si="16"/>
         <v>0.29108746918734907</v>
       </c>
-      <c r="Z8" s="127">
+      <c r="Z8" s="147">
         <f t="shared" si="17"/>
         <v>1.5403875241038882</v>
       </c>
@@ -32415,15 +32422,15 @@
         <f t="shared" si="18"/>
         <v>10.583674580044994</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="179">
         <f t="shared" si="19"/>
         <v>23.813267805101237</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8" s="179">
         <f t="shared" si="20"/>
         <v>25.636141831964185</v>
       </c>
-      <c r="AE8" s="162">
+      <c r="AE8" s="160">
         <f t="shared" si="25"/>
         <v>2.422234512037992</v>
       </c>
@@ -32452,11 +32459,11 @@
         <f t="shared" si="11"/>
         <v>37.673071407358293</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="97">
         <f t="shared" ref="AM8:AM15" si="37">AN8/$AE$26</f>
         <v>18.349332141930159</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="178">
         <f t="shared" si="12"/>
         <v>8455.3722510014177</v>
       </c>
@@ -32480,7 +32487,7 @@
         <f t="shared" ref="AS8:AS15" si="38">MAX($AE$34+$AN8*($AF$34+$AN8*$AG$34), 0)</f>
         <v>4.3873503556671905E-4</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="127">
         <f t="shared" ref="AT8:AT15" si="39">AS8*AN8/5252</f>
         <v>7.0633435743963375E-4</v>
       </c>
@@ -32492,7 +32499,7 @@
         <f>-$AE$42/AU8</f>
         <v>0.2622861097452871</v>
       </c>
-      <c r="AW8" s="128">
+      <c r="AW8" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -32567,11 +32574,11 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="160">
         <f t="shared" si="0"/>
         <v>29.981099999999998</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="96">
         <f t="shared" si="23"/>
         <v>25.531059999999997</v>
       </c>
@@ -32587,11 +32594,11 @@
         <f t="shared" si="29"/>
         <v>5.0567114007972706E-3</v>
       </c>
-      <c r="Y9" s="147">
+      <c r="Y9" s="95">
         <f t="shared" si="16"/>
         <v>0.52392838543999121</v>
       </c>
-      <c r="Z9" s="127">
+      <c r="Z9" s="147">
         <f t="shared" si="17"/>
         <v>3.7196546488675759</v>
       </c>
@@ -32603,15 +32610,15 @@
         <f t="shared" si="18"/>
         <v>14.19909572467175</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AC9" s="179">
         <f t="shared" si="19"/>
         <v>31.947965380511441</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AD9" s="179">
         <f t="shared" si="20"/>
         <v>38.126124436769338</v>
       </c>
-      <c r="AE9" s="162">
+      <c r="AE9" s="160">
         <f t="shared" si="25"/>
         <v>2.6851093320346444</v>
       </c>
@@ -32640,11 +32647,11 @@
         <f t="shared" si="11"/>
         <v>48.019094518047247</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="97">
         <f t="shared" si="37"/>
         <v>28.457488763966595</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="178">
         <f t="shared" si="12"/>
         <v>13113.210822435807</v>
       </c>
@@ -32668,7 +32675,7 @@
         <f t="shared" si="38"/>
         <v>4.4749381157226293E-4</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="127">
         <f t="shared" si="39"/>
         <v>1.1173040161619285E-3</v>
       </c>
@@ -32680,7 +32687,7 @@
         <f t="shared" ref="AV9:AV15" si="43">-$AE$42/AU9</f>
         <v>0.15327768207325029</v>
       </c>
-      <c r="AW9" s="128">
+      <c r="AW9" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -32755,11 +32762,11 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="160">
         <f t="shared" si="0"/>
         <v>53.526600000000002</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="96">
         <f t="shared" si="23"/>
         <v>49.076560000000001</v>
       </c>
@@ -32775,11 +32782,11 @@
         <f t="shared" si="29"/>
         <v>9.4106486422868042E-3</v>
       </c>
-      <c r="Y10" s="147">
+      <c r="Y10" s="95">
         <f t="shared" si="16"/>
         <v>1.014754370947528</v>
       </c>
-      <c r="Z10" s="127">
+      <c r="Z10" s="147">
         <f t="shared" si="17"/>
         <v>10.026194451469864</v>
       </c>
@@ -32791,15 +32798,15 @@
         <f t="shared" si="18"/>
         <v>19.760830282717372</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="179">
         <f t="shared" si="19"/>
         <v>44.461868136114084</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="179">
         <f t="shared" si="20"/>
         <v>54.335721996049891</v>
       </c>
-      <c r="AE10" s="162">
+      <c r="AE10" s="160">
         <f t="shared" si="25"/>
         <v>2.7496679652965481</v>
       </c>
@@ -32828,11 +32835,11 @@
         <f t="shared" si="11"/>
         <v>61.352759037481228</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="97">
         <f t="shared" si="37"/>
         <v>41.484597621753984</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="178">
         <f t="shared" si="12"/>
         <v>19116.102584104236</v>
       </c>
@@ -32856,7 +32863,7 @@
         <f t="shared" si="38"/>
         <v>1.3755224878909979E-3</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="127">
         <f t="shared" si="39"/>
         <v>5.0065934853896783E-3</v>
       </c>
@@ -32868,7 +32875,7 @@
         <f t="shared" si="43"/>
         <v>9.3499270545763416E-2</v>
       </c>
-      <c r="AW10" s="128">
+      <c r="AW10" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -32946,11 +32953,11 @@
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="160">
         <f t="shared" si="0"/>
         <v>62.419400000000003</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="96">
         <f t="shared" si="23"/>
         <v>57.969360000000002</v>
       </c>
@@ -32966,11 +32973,11 @@
         <f t="shared" si="29"/>
         <v>1.0770368038348075E-2</v>
       </c>
-      <c r="Y11" s="147">
+      <c r="Y11" s="95">
         <f t="shared" si="16"/>
         <v>1.2235513543330587</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="147">
         <f t="shared" si="17"/>
         <v>13.274801334673292</v>
       </c>
@@ -32982,15 +32989,15 @@
         <f t="shared" si="18"/>
         <v>21.698805346685603</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AC11" s="179">
         <f t="shared" si="19"/>
         <v>48.82231203004261</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11" s="179">
         <f t="shared" si="20"/>
         <v>60.204737263915909</v>
       </c>
-      <c r="AE11" s="162">
+      <c r="AE11" s="160">
         <f t="shared" si="25"/>
         <v>2.7745646039961329</v>
       </c>
@@ -33015,11 +33022,11 @@
         <f t="shared" si="11"/>
         <v>69.420772538288901</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AM11" s="177">
         <f t="shared" si="37"/>
         <v>49.367118588734272</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AN11" s="8">
         <f t="shared" si="12"/>
         <v>22748.368245688755</v>
       </c>
@@ -33043,7 +33050,7 @@
         <f t="shared" si="38"/>
         <v>2.438403168041258E-3</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AT11" s="152">
         <f t="shared" si="39"/>
         <v>1.056163236825145E-2</v>
       </c>
@@ -33055,7 +33062,7 @@
         <f t="shared" si="43"/>
         <v>8.2313306461443872E-2</v>
       </c>
-      <c r="AW11" s="156">
+      <c r="AW11" s="152">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -33130,11 +33137,11 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="160">
         <f t="shared" si="0"/>
         <v>88.904499999999999</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="96">
         <f t="shared" si="23"/>
         <v>84.454459999999997</v>
       </c>
@@ -33150,11 +33157,11 @@
         <f t="shared" si="29"/>
         <v>1.457200402359189E-2</v>
       </c>
-      <c r="Y12" s="147">
+      <c r="Y12" s="95">
         <f t="shared" si="16"/>
         <v>1.8186809231218306</v>
       </c>
-      <c r="Z12" s="127">
+      <c r="Z12" s="147">
         <f t="shared" si="17"/>
         <v>24.056336730546136</v>
       </c>
@@ -33166,15 +33173,15 @@
         <f t="shared" si="18"/>
         <v>26.454708381998728</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC12" s="179">
         <f t="shared" si="19"/>
         <v>59.523093859497131</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12" s="179">
         <f t="shared" si="20"/>
         <v>71.994831644766094</v>
       </c>
-      <c r="AE12" s="162">
+      <c r="AE12" s="160">
         <f t="shared" si="25"/>
         <v>2.7214373564501444</v>
       </c>
@@ -33203,11 +33210,11 @@
         <f t="shared" si="11"/>
         <v>76.716328212502532</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="97">
         <f t="shared" si="37"/>
         <v>56.494941386998597</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="178">
         <f t="shared" si="12"/>
         <v>26032.868991128955</v>
       </c>
@@ -33231,7 +33238,7 @@
         <f t="shared" si="38"/>
         <v>3.7249606052333559E-3</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="127">
         <f t="shared" si="39"/>
         <v>1.8463711240128786E-2</v>
       </c>
@@ -33243,7 +33250,7 @@
         <f t="shared" si="43"/>
         <v>6.3631390354086409E-2</v>
       </c>
-      <c r="AW12" s="128">
+      <c r="AW12" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -33318,11 +33325,11 @@
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="160">
         <f t="shared" si="0"/>
         <v>135.96</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="96">
         <f t="shared" si="23"/>
         <v>131.50996000000001</v>
       </c>
@@ -33338,11 +33345,11 @@
         <f t="shared" si="29"/>
         <v>2.0489425252982894E-2</v>
       </c>
-      <c r="Y13" s="147">
+      <c r="Y13" s="95">
         <f t="shared" si="16"/>
         <v>2.8717428376966052</v>
       </c>
-      <c r="Z13" s="127">
+      <c r="Z13" s="147">
         <f t="shared" si="17"/>
         <v>47.7323753483956</v>
       </c>
@@ -33354,19 +33361,19 @@
         <f t="shared" si="18"/>
         <v>33.242792301473095</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="179">
         <f t="shared" si="19"/>
         <v>74.796282678314469</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="179">
         <f t="shared" si="20"/>
         <v>86.39379797371933</v>
       </c>
-      <c r="AE13" s="167">
+      <c r="AE13" s="165">
         <f t="shared" si="25"/>
         <v>2.5988730787182082</v>
       </c>
-      <c r="AF13" s="163">
+      <c r="AF13" s="161">
         <f>$AS$29/($AE$38*$AE$43*$AE$37*$AB13^2/4/$AE13)/(PI()*$AE$43/60/($AB13-$AG$40))</f>
         <v>-0.70892513020582326</v>
       </c>
@@ -33394,11 +33401,11 @@
         <f t="shared" si="11"/>
         <v>87.16090435450127</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="97">
         <f t="shared" si="37"/>
         <v>66.699385197396992</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="178">
         <f t="shared" si="12"/>
         <v>30735.076698960533</v>
       </c>
@@ -33422,7 +33429,7 @@
         <f t="shared" si="38"/>
         <v>6.1048249521557778E-3</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="127">
         <f t="shared" si="39"/>
         <v>3.5725868838201807E-2</v>
       </c>
@@ -33434,7 +33441,7 @@
         <f t="shared" si="43"/>
         <v>4.8062113370621579E-2</v>
       </c>
-      <c r="AW13" s="128">
+      <c r="AW13" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -33509,11 +33516,11 @@
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="160">
         <f t="shared" si="0"/>
         <v>192.75</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="96">
         <f t="shared" si="23"/>
         <v>188.29996</v>
       </c>
@@ -33529,11 +33536,11 @@
         <f t="shared" si="29"/>
         <v>2.7173982409470245E-2</v>
       </c>
-      <c r="Y14" s="147">
+      <c r="Y14" s="95">
         <f t="shared" si="16"/>
         <v>3.9740488334719357</v>
       </c>
-      <c r="Z14" s="127">
+      <c r="Z14" s="147">
         <f>SQRT(Y14^3/4/$X$42/$X$43)</f>
         <v>77.704205877508215</v>
       </c>
@@ -33545,15 +33552,15 @@
         <f t="shared" si="18"/>
         <v>39.105813307091033</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AC14" s="179">
         <f t="shared" si="19"/>
         <v>87.988079940954819</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD14" s="179">
         <f t="shared" si="20"/>
         <v>99.303216061746326</v>
       </c>
-      <c r="AE14" s="162">
+      <c r="AE14" s="160">
         <f t="shared" si="25"/>
         <v>2.5393466511471257</v>
       </c>
@@ -33582,11 +33589,11 @@
         <f t="shared" si="11"/>
         <v>93.775260793646453</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="97">
         <f t="shared" si="37"/>
         <v>73.161670282743401</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="178">
         <f t="shared" si="12"/>
         <v>33712.897666288161</v>
       </c>
@@ -33610,7 +33617,7 @@
         <f t="shared" si="38"/>
         <v>7.9395613939336682E-3</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="127">
         <f t="shared" si="39"/>
         <v>5.096451271685034E-2</v>
       </c>
@@ -33622,7 +33629,7 @@
         <f t="shared" si="43"/>
         <v>3.9676981378982325E-2</v>
       </c>
-      <c r="AW14" s="128">
+      <c r="AW14" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -33697,11 +33704,11 @@
         <f t="shared" si="6"/>
         <v>165</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="160">
         <f t="shared" si="0"/>
         <v>209.1</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="96">
         <f t="shared" si="23"/>
         <v>204.64995999999999</v>
       </c>
@@ -33717,11 +33724,11 @@
         <f t="shared" si="29"/>
         <v>2.863872523257344E-2</v>
       </c>
-      <c r="Y15" s="160">
+      <c r="Y15" s="134">
         <f>$Z$41</f>
         <v>4.4249528005034611</v>
       </c>
-      <c r="Z15" s="127">
+      <c r="Z15" s="147">
         <f>SQRT(Y15^3/4/$X$42/$X$43)</f>
         <v>91.297248929319878</v>
       </c>
@@ -33733,15 +33740,15 @@
         <f t="shared" si="18"/>
         <v>41.264733453849395</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AC15" s="179">
         <f>AB15*1/1.6/1000*3600</f>
         <v>92.845650271161119</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AD15" s="179">
         <f t="shared" si="20"/>
         <v>102.84975949252301</v>
       </c>
-      <c r="AE15" s="170">
+      <c r="AE15" s="168">
         <f t="shared" si="25"/>
         <v>2.4924372674683695</v>
       </c>
@@ -33770,11 +33777,11 @@
         <f t="shared" si="11"/>
         <v>95.697669206039706</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="97">
         <f t="shared" si="37"/>
         <v>75.03988040426492</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="178">
         <f t="shared" si="12"/>
         <v>34578.376890285275</v>
       </c>
@@ -33798,7 +33805,7 @@
         <f t="shared" si="38"/>
         <v>8.5204621586561918E-3</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="127">
         <f t="shared" si="39"/>
         <v>5.6097439413828526E-2</v>
       </c>
@@ -33810,7 +33817,7 @@
         <f t="shared" si="43"/>
         <v>3.7281900353922377E-2</v>
       </c>
-      <c r="AW15" s="128">
+      <c r="AW15" s="127">
         <f t="shared" si="28"/>
         <v>1.0526315789473683E-4</v>
       </c>
@@ -33925,13 +33932,13 @@
         <f t="shared" ref="X18:X26" si="54">W18-$W$4</f>
         <v>1.2558311580317485E-3</v>
       </c>
-      <c r="AM18" s="161" t="s">
+      <c r="AM18" s="159" t="s">
         <v>259</v>
       </c>
-      <c r="AN18" s="161"/>
-      <c r="AO18" s="161"/>
-      <c r="AP18" s="161"/>
-      <c r="AQ18" s="161"/>
+      <c r="AN18" s="159"/>
+      <c r="AO18" s="159"/>
+      <c r="AP18" s="159"/>
+      <c r="AQ18" s="159"/>
     </row>
     <row r="19" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="120">
@@ -34001,25 +34008,25 @@
         <f t="shared" si="54"/>
         <v>1.6743487636293511E-3</v>
       </c>
-      <c r="AM19" s="161" t="s">
+      <c r="AM19" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="AN19" s="161" t="s">
+      <c r="AN19" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="AO19" s="161" t="s">
+      <c r="AO19" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="AP19" s="161" t="s">
+      <c r="AP19" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="AQ19" s="161" t="s">
+      <c r="AQ19" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="AR19" s="161" t="s">
+      <c r="AR19" s="159" t="s">
         <v>165</v>
       </c>
-      <c r="AS19" s="161" t="s">
+      <c r="AS19" s="159" t="s">
         <v>175</v>
       </c>
     </row>
@@ -34091,17 +34098,17 @@
         <f t="shared" si="54"/>
         <v>3.7999686845987279E-3</v>
       </c>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="161"/>
-      <c r="AO20" s="161" t="s">
+      <c r="AM20" s="159"/>
+      <c r="AN20" s="159"/>
+      <c r="AO20" s="159" t="s">
         <v>153</v>
       </c>
-      <c r="AP20" s="161" t="s">
+      <c r="AP20" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="AQ20" s="161"/>
-      <c r="AR20" s="161"/>
-      <c r="AS20" s="161"/>
+      <c r="AQ20" s="159"/>
+      <c r="AR20" s="159"/>
+      <c r="AS20" s="159"/>
     </row>
     <row r="21" spans="1:46" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="120">
@@ -34177,26 +34184,26 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AM21" s="161">
+      <c r="AM21" s="159">
         <f t="shared" ref="AM21:AM29" si="55">AN21*$AE$26</f>
         <v>7372.8</v>
       </c>
-      <c r="AN21" s="161">
+      <c r="AN21" s="159">
         <v>16</v>
       </c>
-      <c r="AO21" s="161">
+      <c r="AO21" s="159">
         <v>3.3218574470251366E-4</v>
       </c>
-      <c r="AP21" s="161">
+      <c r="AP21" s="159">
         <v>7.3801227827272476E-4</v>
       </c>
-      <c r="AQ21" s="161">
+      <c r="AQ21" s="176">
         <v>0.33</v>
       </c>
-      <c r="AR21" s="161">
+      <c r="AR21" s="159">
         <v>6.9047658670256907E-8</v>
       </c>
-      <c r="AS21" s="161" t="s">
+      <c r="AS21" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34277,26 +34284,26 @@
       </c>
       <c r="AF22" s="64"/>
       <c r="AG22" s="29"/>
-      <c r="AM22" s="161">
+      <c r="AM22" s="159">
         <f t="shared" si="55"/>
         <v>9216</v>
       </c>
-      <c r="AN22" s="161">
+      <c r="AN22" s="159">
         <v>20</v>
       </c>
-      <c r="AO22" s="161">
+      <c r="AO22" s="159">
         <v>7.4483427705766901E-4</v>
       </c>
-      <c r="AP22" s="161">
+      <c r="AP22" s="159">
         <v>6.978697406499287E-4</v>
       </c>
-      <c r="AQ22" s="161">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="AR22" s="161">
+      <c r="AQ22" s="176">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AR22" s="159">
         <v>1.3476434112578325E-7</v>
       </c>
-      <c r="AS22" s="161" t="s">
+      <c r="AS22" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34377,26 +34384,26 @@
       </c>
       <c r="AF23" s="45"/>
       <c r="AG23" s="31"/>
-      <c r="AM23" s="161">
+      <c r="AM23" s="159">
         <f t="shared" si="55"/>
         <v>11520</v>
       </c>
-      <c r="AN23" s="161">
+      <c r="AN23" s="159">
         <v>25</v>
       </c>
-      <c r="AO23" s="161">
+      <c r="AO23" s="159">
         <v>1.8196732395486779E-3</v>
       </c>
-      <c r="AP23" s="161">
+      <c r="AP23" s="159">
         <v>8.2156541787077825E-4</v>
       </c>
-      <c r="AQ23" s="161">
-        <v>0.2</v>
-      </c>
-      <c r="AR23" s="161">
+      <c r="AQ23" s="176">
+        <v>0.19</v>
+      </c>
+      <c r="AR23" s="159">
         <v>2.1691019419519116E-7</v>
       </c>
-      <c r="AS23" s="161" t="s">
+      <c r="AS23" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34478,26 +34485,26 @@
       </c>
       <c r="AF24" s="30"/>
       <c r="AG24" s="31"/>
-      <c r="AM24" s="161">
+      <c r="AM24" s="159">
         <f t="shared" si="55"/>
         <v>16588.8</v>
       </c>
-      <c r="AN24" s="161">
+      <c r="AN24" s="159">
         <v>36</v>
       </c>
-      <c r="AO24" s="161">
+      <c r="AO24" s="159">
         <v>7.5397784789642732E-3</v>
       </c>
-      <c r="AP24" s="161">
+      <c r="AP24" s="159">
         <v>2.7131440751281396E-3</v>
       </c>
-      <c r="AQ24" s="161">
-        <v>0.127</v>
-      </c>
-      <c r="AR24" s="161">
+      <c r="AQ24" s="176">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AR24" s="159">
         <v>3.9763107094788859E-7</v>
       </c>
-      <c r="AS24" s="161" t="s">
+      <c r="AS24" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34579,26 +34586,26 @@
       </c>
       <c r="AF25" s="30"/>
       <c r="AG25" s="31"/>
-      <c r="AM25" s="161">
+      <c r="AM25" s="159">
         <f t="shared" si="55"/>
         <v>20736</v>
       </c>
-      <c r="AN25" s="161">
+      <c r="AN25" s="159">
         <v>45</v>
       </c>
-      <c r="AO25" s="161">
+      <c r="AO25" s="159">
         <v>1.7146093021340732E-2</v>
       </c>
-      <c r="AP25" s="161">
+      <c r="AP25" s="159">
         <v>7.1180011608729891E-3</v>
       </c>
-      <c r="AQ25" s="161">
-        <v>0.1</v>
-      </c>
-      <c r="AR25" s="161">
+      <c r="AQ25" s="176">
+        <v>0.11</v>
+      </c>
+      <c r="AR25" s="159">
         <v>5.4549360647282279E-7</v>
       </c>
-      <c r="AS25" s="161" t="s">
+      <c r="AS25" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34679,26 +34686,26 @@
       </c>
       <c r="AF26" s="30"/>
       <c r="AG26" s="31"/>
-      <c r="AM26" s="161">
+      <c r="AM26" s="159">
         <f t="shared" si="55"/>
         <v>23040</v>
       </c>
-      <c r="AN26" s="161">
+      <c r="AN26" s="159">
         <v>50</v>
       </c>
-      <c r="AO26" s="161">
+      <c r="AO26" s="159">
         <v>2.4979887676232684E-2</v>
       </c>
-      <c r="AP26" s="161">
+      <c r="AP26" s="159">
         <v>1.1143313366134135E-2</v>
       </c>
-      <c r="AQ26" s="161">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AR26" s="161">
+      <c r="AQ26" s="176">
+        <v>0.09</v>
+      </c>
+      <c r="AR26" s="159">
         <v>6.2763945954223071E-7</v>
       </c>
-      <c r="AS26" s="161" t="s">
+      <c r="AS26" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34730,26 +34737,26 @@
       </c>
       <c r="AF27" s="30"/>
       <c r="AG27" s="31"/>
-      <c r="AM27" s="161">
+      <c r="AM27" s="159">
         <f t="shared" si="55"/>
         <v>23961.600000000002</v>
       </c>
-      <c r="AN27" s="161">
+      <c r="AN27" s="159">
         <v>52</v>
       </c>
-      <c r="AO27" s="161">
+      <c r="AO27" s="159">
         <v>2.8687189497277076E-2</v>
       </c>
-      <c r="AP27" s="161">
+      <c r="AP27" s="159">
         <v>1.3128852647530663E-2</v>
       </c>
-      <c r="AQ27" s="161">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="AR27" s="161">
+      <c r="AQ27" s="176">
+        <v>0.08</v>
+      </c>
+      <c r="AR27" s="159">
         <v>6.6049780076999385E-7</v>
       </c>
-      <c r="AS27" s="161" t="s">
+      <c r="AS27" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34788,26 +34795,26 @@
       </c>
       <c r="AF28" s="30"/>
       <c r="AG28" s="31"/>
-      <c r="AM28" s="161">
+      <c r="AM28" s="159">
         <f t="shared" si="55"/>
         <v>25344</v>
       </c>
-      <c r="AN28" s="161">
+      <c r="AN28" s="159">
         <v>55</v>
       </c>
-      <c r="AO28" s="161">
+      <c r="AO28" s="159">
         <v>3.4912727705496999E-2</v>
       </c>
-      <c r="AP28" s="161">
+      <c r="AP28" s="159">
         <v>1.6549422883591874E-2</v>
       </c>
-      <c r="AQ28" s="161">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AR28" s="161">
+      <c r="AQ28" s="176">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR28" s="159">
         <v>7.0978531261163862E-7</v>
       </c>
-      <c r="AS28" s="161" t="s">
+      <c r="AS28" s="159" t="s">
         <v>206</v>
       </c>
     </row>
@@ -34862,23 +34869,23 @@
         <f>X53</f>
         <v>-351.26655108461694</v>
       </c>
-      <c r="AM29" s="161">
+      <c r="AM29" s="159">
         <f t="shared" si="55"/>
         <v>28569.600000000002</v>
       </c>
-      <c r="AN29" s="161">
+      <c r="AN29" s="159">
         <v>62</v>
       </c>
-      <c r="AO29" s="161">
+      <c r="AO29" s="159">
         <v>5.2819357330458824E-2</v>
       </c>
-      <c r="AP29" s="161">
+      <c r="AP29" s="159">
         <v>2.6818816528704516E-2</v>
       </c>
-      <c r="AQ29" s="136">
-        <v>0.03</v>
-      </c>
-      <c r="AR29" s="161">
+      <c r="AQ29" s="134">
+        <v>0.05</v>
+      </c>
+      <c r="AR29" s="159">
         <v>8.2478950690880957E-7</v>
       </c>
       <c r="AS29" s="136">
@@ -35149,13 +35156,13 @@
       <c r="Y35" t="s">
         <v>74</v>
       </c>
-      <c r="AD35" s="165" t="s">
+      <c r="AD35" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="AE35" s="164">
+      <c r="AE35" s="162">
         <v>31.3</v>
       </c>
-      <c r="AF35" s="164">
+      <c r="AF35" s="162">
         <v>-1.58</v>
       </c>
       <c r="AG35" s="31"/>
@@ -35208,7 +35215,7 @@
       <c r="AD37" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="AE37" s="164">
+      <c r="AE37" s="162">
         <f>$X$43</f>
         <v>2.1213604393365078E-3</v>
       </c>
@@ -35235,7 +35242,7 @@
       <c r="AD38" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="AE38" s="164">
+      <c r="AE38" s="162">
         <f>$X$42</f>
         <v>1.2250000000000001</v>
       </c>
@@ -35245,7 +35252,7 @@
         <v>188</v>
       </c>
       <c r="AV38" s="153"/>
-      <c r="AW38" s="169" t="s">
+      <c r="AW38" s="167" t="s">
         <v>191</v>
       </c>
       <c r="AX38" t="s">
@@ -35278,7 +35285,7 @@
       <c r="AD39" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="AE39" s="166">
+      <c r="AE39" s="164">
         <f>$AF$13</f>
         <v>-0.70892513020582326</v>
       </c>
@@ -35318,13 +35325,13 @@
         <f>X30*X31/Y40</f>
         <v>46080</v>
       </c>
-      <c r="Y40" s="157">
+      <c r="Y40" s="156">
         <v>1.25</v>
       </c>
       <c r="Z40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AA40" s="158"/>
+      <c r="AA40" s="157"/>
       <c r="AB40">
         <f>W38</f>
         <v>240</v>
@@ -35339,10 +35346,10 @@
         <f>AE13</f>
         <v>2.5988730787182082</v>
       </c>
-      <c r="AF40" s="177" t="s">
+      <c r="AF40" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="AG40" s="177">
+      <c r="AG40" s="175">
         <v>5.5</v>
       </c>
       <c r="AU40" t="s">
@@ -35375,14 +35382,14 @@
       <c r="W41" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="X41" s="159">
+      <c r="X41" s="158">
         <f>450/454</f>
         <v>0.99118942731277537</v>
       </c>
       <c r="Y41" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="Z41" s="171">
+      <c r="Z41" s="169">
         <f>X41/0.224</f>
         <v>4.4249528005034611</v>
       </c>
@@ -35392,7 +35399,7 @@
       <c r="AD41" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="AE41" s="166">
+      <c r="AE41" s="164">
         <f>1/1.3556</f>
         <v>0.73768073177928595</v>
       </c>
@@ -35441,14 +35448,14 @@
       <c r="AD42" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="AE42" s="168">
+      <c r="AE42" s="166">
         <f>$X$36</f>
         <v>3.7426817504796325E-8</v>
       </c>
       <c r="AU42" t="s">
         <v>197</v>
       </c>
-      <c r="AW42" s="169" t="s">
+      <c r="AW42" s="167" t="s">
         <v>198</v>
       </c>
       <c r="AX42" t="s">
@@ -35485,7 +35492,7 @@
       <c r="W43" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="X43" s="161">
+      <c r="X43" s="159">
         <f>(55^2-18^2)*PI()/4/1000^2</f>
         <v>2.1213604393365078E-3</v>
       </c>
@@ -35495,7 +35502,7 @@
       <c r="Z43" t="s">
         <v>169</v>
       </c>
-      <c r="AA43" s="161">
+      <c r="AA43" s="159">
         <v>55</v>
       </c>
       <c r="AB43" t="s">
@@ -35552,7 +35559,7 @@
       <c r="Z44" t="s">
         <v>176</v>
       </c>
-      <c r="AA44" s="161">
+      <c r="AA44" s="159">
         <v>45</v>
       </c>
       <c r="AB44" t="s">
@@ -35561,7 +35568,7 @@
       <c r="AC44" t="s">
         <v>178</v>
       </c>
-      <c r="AW44" s="169" t="s">
+      <c r="AW44" s="167" t="s">
         <v>191</v>
       </c>
       <c r="AX44" t="s">
@@ -38652,8 +38659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV33"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BK6" sqref="BK6"/>
+    <sheetView topLeftCell="AX1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BD20" sqref="BD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38663,6 +38670,7 @@
     <col min="56" max="56" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="10.44140625" customWidth="1"/>
+    <col min="61" max="61" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.3">
@@ -38985,7 +38993,7 @@
         <v>16.000000000000007</v>
       </c>
       <c r="BA2" s="146">
-        <f t="shared" ref="BA2:BA10" si="19">$AX$14+$AY$14*$AV2*$AX$13+$AZ$14*($AV2*$AX$13)^2</f>
+        <f>$AX$14+$AY$14*$AV2*$AX$13+$AZ$14*($AV2*$AX$13)^2</f>
         <v>2.3663188085633704E-4</v>
       </c>
       <c r="BB2" s="146">
@@ -38993,64 +39001,64 @@
         <v>1.0190599989802014E-7</v>
       </c>
       <c r="BC2" s="146">
-        <f t="shared" ref="BC2:BC10" si="20">$AY$14+2*$AV2*$AZ$14*$AX$13</f>
+        <f>$AY$14+2*$AV2*$AZ$14*$AX$13</f>
         <v>6.9047658670256907E-8</v>
       </c>
       <c r="BD2" s="146">
-        <f t="shared" ref="BD2:BD10" si="21">$AV2*$AX$13*$BA2/5252</f>
+        <f t="shared" ref="BD2:BD10" si="19">$AV2*$AX$13*$BA2/5252</f>
         <v>3.3218574470251366E-4</v>
       </c>
       <c r="BE2" s="146">
-        <f t="shared" ref="BE2:BE10" si="22">$AX$11+$AY$11*$AV2*$AX$13+$AZ$11*($AV2*$AX$13)^2</f>
+        <f t="shared" ref="BE2:BE10" si="20">$AX$11+$AY$11*$AV2*$AX$13+$AZ$11*($AV2*$AX$13)^2</f>
         <v>5.2572163702912741E-4</v>
       </c>
       <c r="BF2" s="146">
-        <f t="shared" ref="BF2:BF10" si="23">$AV2*$AX$13*$BE2/5252</f>
+        <f t="shared" ref="BF2:BF10" si="21">$AV2*$AX$13*$BE2/5252</f>
         <v>7.3801227827272476E-4</v>
       </c>
-      <c r="BH2" s="161" t="s">
+      <c r="BH2" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="BI2" s="161" t="s">
+      <c r="BI2" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="BJ2" s="161" t="s">
+      <c r="BJ2" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="BK2" s="161" t="s">
+      <c r="BK2" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="BL2" s="161"/>
+      <c r="BL2" s="159"/>
       <c r="BM2" t="str">
-        <f t="shared" ref="BM2:BM33" si="24">COMPLEX(1,$A2*$BV$2)</f>
+        <f t="shared" ref="BM2:BM33" si="22">COMPLEX(1,$A2*$BV$2)</f>
         <v>1+0.015849i</v>
       </c>
       <c r="BN2">
-        <f t="shared" ref="BN2:BN33" si="25">20*LOG10(1/IMABS(BM2))</f>
+        <f t="shared" ref="BN2:BN33" si="23">20*LOG10(1/IMABS(BM2))</f>
         <v>-1.0907707977296768E-3</v>
       </c>
       <c r="BO2">
-        <f t="shared" ref="BO2:BO33" si="26">-ATAN2(IMREAL(BM2),IMAGINARY(BM2))*180/PI()</f>
+        <f t="shared" ref="BO2:BO33" si="24">-ATAN2(IMREAL(BM2),IMAGINARY(BM2))*180/PI()</f>
         <v>-0.90800478711155075</v>
       </c>
       <c r="BP2" t="str">
-        <f t="shared" ref="BP2:BP33" si="27">COMPLEX(1,$A2*$BV$2)</f>
+        <f t="shared" ref="BP2:BP33" si="25">COMPLEX(1,$A2*$BV$2)</f>
         <v>1+0.015849i</v>
       </c>
       <c r="BQ2">
-        <f t="shared" ref="BQ2:BQ33" si="28">20*LOG10(1/IMABS(BP2))</f>
+        <f t="shared" ref="BQ2:BQ33" si="26">20*LOG10(1/IMABS(BP2))</f>
         <v>-1.0907707977296768E-3</v>
       </c>
       <c r="BR2">
-        <f t="shared" ref="BR2:BR33" si="29">-ATAN2(IMREAL(BP2),IMAGINARY(BP2))*180/PI()</f>
+        <f t="shared" ref="BR2:BR33" si="27">-ATAN2(IMREAL(BP2),IMAGINARY(BP2))*180/PI()</f>
         <v>-0.90800478711155075</v>
       </c>
       <c r="BS2">
-        <f t="shared" ref="BS2:BS33" si="30">BN2+BQ2</f>
+        <f t="shared" ref="BS2:BS33" si="28">BN2+BQ2</f>
         <v>-2.1815415954593536E-3</v>
       </c>
       <c r="BT2">
-        <f t="shared" ref="BT2:BT33" si="31">BO2+BR2</f>
+        <f t="shared" ref="BT2:BT33" si="29">BO2+BR2</f>
         <v>-1.8160095742231015</v>
       </c>
       <c r="BU2" t="s">
@@ -39193,7 +39201,7 @@
         <v>20</v>
       </c>
       <c r="AW3">
-        <v>0.26300000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AX3">
         <f t="shared" si="17"/>
@@ -39207,66 +39215,66 @@
         <v>19.999999999999996</v>
       </c>
       <c r="BA3" s="146">
+        <f t="shared" ref="BA2:BA10" si="30">$AX$14+$AY$14*$AV3*$AX$13+$AZ$14*($AV3*$AX$13)^2</f>
+        <v>4.2446501986836776E-4</v>
+      </c>
+      <c r="BB3" s="146">
+        <f t="shared" ref="BB3:BB10" si="31">(BA3-BA2)/(AU3-AU2)</f>
+        <v>1.0190599989802014E-7</v>
+      </c>
+      <c r="BC3" s="146">
+        <f t="shared" ref="BC2:BC10" si="32">$AY$14+2*$AV3*$AZ$14*$AX$13</f>
+        <v>1.3476434112578325E-7</v>
+      </c>
+      <c r="BD3" s="146">
         <f t="shared" si="19"/>
-        <v>4.2446501986836776E-4</v>
-      </c>
-      <c r="BB3" s="146">
-        <f t="shared" ref="BB3:BB10" si="32">(BA3-BA2)/(AU3-AU2)</f>
-        <v>1.0190599989802014E-7</v>
-      </c>
-      <c r="BC3" s="146">
+        <v>7.4483427705766901E-4</v>
+      </c>
+      <c r="BE3" s="146">
         <f t="shared" si="20"/>
-        <v>1.3476434112578325E-7</v>
-      </c>
-      <c r="BD3" s="146">
+        <v>3.9770094161169982E-4</v>
+      </c>
+      <c r="BF3" s="146">
         <f t="shared" si="21"/>
-        <v>7.4483427705766901E-4</v>
-      </c>
-      <c r="BE3" s="146">
+        <v>6.978697406499287E-4</v>
+      </c>
+      <c r="BH3" s="159">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="159"/>
+      <c r="BJ3" s="159"/>
+      <c r="BK3" s="159"/>
+      <c r="BL3" s="159"/>
+      <c r="BM3" t="str">
         <f t="shared" si="22"/>
-        <v>3.9770094161169982E-4</v>
-      </c>
-      <c r="BF3" s="146">
+        <v>1+0.0199526i</v>
+      </c>
+      <c r="BN3">
         <f t="shared" si="23"/>
-        <v>6.978697406499287E-4</v>
-      </c>
-      <c r="BH3" s="161">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="161"/>
-      <c r="BJ3" s="161"/>
-      <c r="BK3" s="161"/>
-      <c r="BL3" s="161"/>
-      <c r="BM3" t="str">
+        <v>-1.7286093995176428E-3</v>
+      </c>
+      <c r="BO3">
         <f t="shared" si="24"/>
+        <v>-1.1430481015492957</v>
+      </c>
+      <c r="BP3" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.0199526i</v>
       </c>
-      <c r="BN3">
-        <f t="shared" si="25"/>
+      <c r="BQ3">
+        <f t="shared" si="26"/>
         <v>-1.7286093995176428E-3</v>
       </c>
-      <c r="BO3">
-        <f t="shared" si="26"/>
+      <c r="BR3">
+        <f t="shared" si="27"/>
         <v>-1.1430481015492957</v>
       </c>
-      <c r="BP3" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.0199526i</v>
-      </c>
-      <c r="BQ3">
+      <c r="BS3">
         <f t="shared" si="28"/>
-        <v>-1.7286093995176428E-3</v>
-      </c>
-      <c r="BR3">
+        <v>-3.4572187990352856E-3</v>
+      </c>
+      <c r="BT3">
         <f t="shared" si="29"/>
-        <v>-1.1430481015492957</v>
-      </c>
-      <c r="BS3">
-        <f t="shared" si="30"/>
-        <v>-3.4572187990352856E-3</v>
-      </c>
-      <c r="BT3">
-        <f t="shared" si="31"/>
         <v>-2.2860962030985914</v>
       </c>
       <c r="BU3" t="s">
@@ -39409,7 +39417,7 @@
         <v>25</v>
       </c>
       <c r="AW4">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AX4">
         <f t="shared" si="17"/>
@@ -39423,66 +39431,66 @@
         <v>24.999999999999996</v>
       </c>
       <c r="BA4" s="146">
+        <f t="shared" si="30"/>
+        <v>8.2959408455812993E-4</v>
+      </c>
+      <c r="BB4" s="146">
+        <f t="shared" si="31"/>
+        <v>1.7583726766048705E-7</v>
+      </c>
+      <c r="BC4" s="146">
+        <f t="shared" si="32"/>
+        <v>2.1691019419519116E-7</v>
+      </c>
+      <c r="BD4" s="146">
         <f t="shared" si="19"/>
-        <v>8.2959408455812993E-4</v>
-      </c>
-      <c r="BB4" s="146">
-        <f t="shared" si="32"/>
-        <v>1.7583726766048705E-7</v>
-      </c>
-      <c r="BC4" s="146">
+        <v>1.8196732395486779E-3</v>
+      </c>
+      <c r="BE4" s="146">
         <f t="shared" si="20"/>
-        <v>2.1691019419519116E-7</v>
-      </c>
-      <c r="BD4" s="146">
+        <v>3.7455395613344858E-4</v>
+      </c>
+      <c r="BF4" s="146">
         <f t="shared" si="21"/>
-        <v>1.8196732395486779E-3</v>
-      </c>
-      <c r="BE4" s="146">
+        <v>8.2156541787077825E-4</v>
+      </c>
+      <c r="BH4" s="159">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="159"/>
+      <c r="BJ4" s="159"/>
+      <c r="BK4" s="159"/>
+      <c r="BL4" s="159"/>
+      <c r="BM4" t="str">
         <f t="shared" si="22"/>
-        <v>3.7455395613344858E-4</v>
-      </c>
-      <c r="BF4" s="146">
+        <v>1+0.0251187i</v>
+      </c>
+      <c r="BN4">
         <f t="shared" si="23"/>
-        <v>8.2156541787077825E-4</v>
-      </c>
-      <c r="BH4" s="161">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="161"/>
-      <c r="BJ4" s="161"/>
-      <c r="BK4" s="161"/>
-      <c r="BL4" s="161"/>
-      <c r="BM4" t="str">
+        <v>-2.7393129874728594E-3</v>
+      </c>
+      <c r="BO4">
         <f t="shared" si="24"/>
+        <v>-1.4388929250285796</v>
+      </c>
+      <c r="BP4" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.0251187i</v>
       </c>
-      <c r="BN4">
-        <f t="shared" si="25"/>
+      <c r="BQ4">
+        <f t="shared" si="26"/>
         <v>-2.7393129874728594E-3</v>
       </c>
-      <c r="BO4">
-        <f t="shared" si="26"/>
+      <c r="BR4">
+        <f t="shared" si="27"/>
         <v>-1.4388929250285796</v>
       </c>
-      <c r="BP4" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.0251187i</v>
-      </c>
-      <c r="BQ4">
+      <c r="BS4">
         <f t="shared" si="28"/>
-        <v>-2.7393129874728594E-3</v>
-      </c>
-      <c r="BR4">
+        <v>-5.4786259749457188E-3</v>
+      </c>
+      <c r="BT4">
         <f t="shared" si="29"/>
-        <v>-1.4388929250285796</v>
-      </c>
-      <c r="BS4">
-        <f t="shared" si="30"/>
-        <v>-5.4786259749457188E-3</v>
-      </c>
-      <c r="BT4">
-        <f t="shared" si="31"/>
         <v>-2.8777858500571591</v>
       </c>
     </row>
@@ -39619,7 +39627,7 @@
         <v>36</v>
       </c>
       <c r="AW5">
-        <v>0.127</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AX5">
         <f t="shared" si="17"/>
@@ -39633,68 +39641,68 @@
         <v>36.000000000000014</v>
       </c>
       <c r="BA5" s="146">
+        <f t="shared" si="30"/>
+        <v>2.3870874669367505E-3</v>
+      </c>
+      <c r="BB5" s="146">
+        <f t="shared" si="31"/>
+        <v>3.0727063257153976E-7</v>
+      </c>
+      <c r="BC5" s="146">
+        <f t="shared" si="32"/>
+        <v>3.9763107094788859E-7</v>
+      </c>
+      <c r="BD5" s="146">
         <f t="shared" si="19"/>
-        <v>2.3870874669367505E-3</v>
-      </c>
-      <c r="BB5" s="146">
-        <f t="shared" si="32"/>
-        <v>3.0727063257153976E-7</v>
-      </c>
-      <c r="BC5" s="146">
+        <v>7.5397784789642732E-3</v>
+      </c>
+      <c r="BE5" s="146">
         <f t="shared" si="20"/>
-        <v>3.9763107094788859E-7</v>
-      </c>
-      <c r="BD5" s="146">
+        <v>8.5897911136266578E-4</v>
+      </c>
+      <c r="BF5" s="146">
         <f t="shared" si="21"/>
-        <v>7.5397784789642732E-3</v>
-      </c>
-      <c r="BE5" s="146">
+        <v>2.7131440751281396E-3</v>
+      </c>
+      <c r="BH5" s="159">
+        <v>12.367954907596399</v>
+      </c>
+      <c r="BI5" s="159">
+        <v>3.9916956312460647</v>
+      </c>
+      <c r="BJ5" s="159"/>
+      <c r="BK5" s="159"/>
+      <c r="BL5" s="159"/>
+      <c r="BM5" t="str">
         <f t="shared" si="22"/>
-        <v>8.5897911136266578E-4</v>
-      </c>
-      <c r="BF5" s="146">
+        <v>1+0.0316231i</v>
+      </c>
+      <c r="BN5">
         <f t="shared" si="23"/>
-        <v>2.7131440751281396E-3</v>
-      </c>
-      <c r="BH5" s="161">
-        <v>12.367954907596399</v>
-      </c>
-      <c r="BI5" s="161">
-        <v>3.9916956312460647</v>
-      </c>
-      <c r="BJ5" s="161"/>
-      <c r="BK5" s="161"/>
-      <c r="BL5" s="161"/>
-      <c r="BM5" t="str">
+        <v>-4.3408635333456761E-3</v>
+      </c>
+      <c r="BO5">
         <f t="shared" si="24"/>
+        <v>-1.8112665581755554</v>
+      </c>
+      <c r="BP5" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.0316231i</v>
       </c>
-      <c r="BN5">
-        <f t="shared" si="25"/>
+      <c r="BQ5">
+        <f t="shared" si="26"/>
         <v>-4.3408635333456761E-3</v>
       </c>
-      <c r="BO5">
-        <f t="shared" si="26"/>
+      <c r="BR5">
+        <f t="shared" si="27"/>
         <v>-1.8112665581755554</v>
       </c>
-      <c r="BP5" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.0316231i</v>
-      </c>
-      <c r="BQ5">
+      <c r="BS5">
         <f t="shared" si="28"/>
-        <v>-4.3408635333456761E-3</v>
-      </c>
-      <c r="BR5">
+        <v>-8.6817270666913523E-3</v>
+      </c>
+      <c r="BT5">
         <f t="shared" si="29"/>
-        <v>-1.8112665581755554</v>
-      </c>
-      <c r="BS5">
-        <f t="shared" si="30"/>
-        <v>-8.6817270666913523E-3</v>
-      </c>
-      <c r="BT5">
-        <f t="shared" si="31"/>
         <v>-3.6225331163511107</v>
       </c>
     </row>
@@ -39831,7 +39839,7 @@
         <v>45</v>
       </c>
       <c r="AW6">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AX6">
         <f t="shared" si="17"/>
@@ -39845,70 +39853,70 @@
         <v>44.999999999999993</v>
       </c>
       <c r="BA6" s="146">
+        <f t="shared" si="30"/>
+        <v>4.3427507980363387E-3</v>
+      </c>
+      <c r="BB6" s="146">
+        <f t="shared" si="31"/>
+        <v>4.7156233871035585E-7</v>
+      </c>
+      <c r="BC6" s="146">
+        <f t="shared" si="32"/>
+        <v>5.4549360647282279E-7</v>
+      </c>
+      <c r="BD6" s="146">
         <f t="shared" si="19"/>
-        <v>4.3427507980363387E-3</v>
-      </c>
-      <c r="BB6" s="146">
-        <f t="shared" si="32"/>
-        <v>4.7156233871035585E-7</v>
-      </c>
-      <c r="BC6" s="146">
+        <v>1.7146093021340732E-2</v>
+      </c>
+      <c r="BE6" s="146">
         <f t="shared" si="20"/>
-        <v>5.4549360647282279E-7</v>
-      </c>
-      <c r="BD6" s="146">
+        <v>1.8028425008152459E-3</v>
+      </c>
+      <c r="BF6" s="146">
         <f t="shared" si="21"/>
-        <v>1.7146093021340732E-2</v>
-      </c>
-      <c r="BE6" s="146">
+        <v>7.1180011608729891E-3</v>
+      </c>
+      <c r="BH6" s="159">
+        <v>15.047408792585415</v>
+      </c>
+      <c r="BI6" s="159">
+        <v>0.70091118459969781</v>
+      </c>
+      <c r="BJ6" s="159">
+        <v>16.138467712878235</v>
+      </c>
+      <c r="BK6" s="159"/>
+      <c r="BL6" s="159"/>
+      <c r="BM6" t="str">
         <f t="shared" si="22"/>
-        <v>1.8028425008152459E-3</v>
-      </c>
-      <c r="BF6" s="146">
+        <v>1+0.0398111i</v>
+      </c>
+      <c r="BN6">
         <f t="shared" si="23"/>
-        <v>7.1180011608729891E-3</v>
-      </c>
-      <c r="BH6" s="161">
-        <v>15.047408792585415</v>
-      </c>
-      <c r="BI6" s="161">
-        <v>0.70091118459969781</v>
-      </c>
-      <c r="BJ6" s="161">
-        <v>16.138467712878235</v>
-      </c>
-      <c r="BK6" s="161"/>
-      <c r="BL6" s="161"/>
-      <c r="BM6" t="str">
+        <v>-6.8777871532867295E-3</v>
+      </c>
+      <c r="BO6">
         <f t="shared" si="24"/>
+        <v>-2.27980407791053</v>
+      </c>
+      <c r="BP6" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.0398111i</v>
       </c>
-      <c r="BN6">
-        <f t="shared" si="25"/>
+      <c r="BQ6">
+        <f t="shared" si="26"/>
         <v>-6.8777871532867295E-3</v>
       </c>
-      <c r="BO6">
-        <f t="shared" si="26"/>
+      <c r="BR6">
+        <f t="shared" si="27"/>
         <v>-2.27980407791053</v>
       </c>
-      <c r="BP6" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.0398111i</v>
-      </c>
-      <c r="BQ6">
+      <c r="BS6">
         <f t="shared" si="28"/>
-        <v>-6.8777871532867295E-3</v>
-      </c>
-      <c r="BR6">
+        <v>-1.3755574306573459E-2</v>
+      </c>
+      <c r="BT6">
         <f t="shared" si="29"/>
-        <v>-2.27980407791053</v>
-      </c>
-      <c r="BS6">
-        <f t="shared" si="30"/>
-        <v>-1.3755574306573459E-2</v>
-      </c>
-      <c r="BT6">
-        <f t="shared" si="31"/>
         <v>-4.5596081558210599</v>
       </c>
     </row>
@@ -40045,7 +40053,7 @@
         <v>50</v>
       </c>
       <c r="AW7">
-        <v>7.3999999999999996E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AX7">
         <f t="shared" si="17"/>
@@ -40059,72 +40067,72 @@
         <v>50.000000000000014</v>
       </c>
       <c r="BA7" s="146">
+        <f t="shared" si="30"/>
+        <v>5.6942000900856793E-3</v>
+      </c>
+      <c r="BB7" s="146">
+        <f t="shared" si="31"/>
+        <v>5.8656653300752638E-7</v>
+      </c>
+      <c r="BC7" s="146">
+        <f t="shared" si="32"/>
+        <v>6.2763945954223071E-7</v>
+      </c>
+      <c r="BD7" s="146">
         <f t="shared" si="19"/>
-        <v>5.6942000900856793E-3</v>
-      </c>
-      <c r="BB7" s="146">
-        <f t="shared" si="32"/>
-        <v>5.8656653300752638E-7</v>
-      </c>
-      <c r="BC7" s="146">
+        <v>2.4979887676232684E-2</v>
+      </c>
+      <c r="BE7" s="146">
         <f t="shared" si="20"/>
-        <v>6.2763945954223071E-7</v>
-      </c>
-      <c r="BD7" s="146">
+        <v>2.5401337586343957E-3</v>
+      </c>
+      <c r="BF7" s="146">
         <f t="shared" si="21"/>
-        <v>2.4979887676232684E-2</v>
-      </c>
-      <c r="BE7" s="146">
+        <v>1.1143313366134135E-2</v>
+      </c>
+      <c r="BH7" s="159">
+        <v>37.649471024806083</v>
+      </c>
+      <c r="BI7" s="159">
+        <v>8.8118975354312457E-2</v>
+      </c>
+      <c r="BJ7" s="159">
+        <v>26.777112036937371</v>
+      </c>
+      <c r="BK7" s="159">
+        <v>0.2622861097452871</v>
+      </c>
+      <c r="BL7" s="159"/>
+      <c r="BM7" t="str">
         <f t="shared" si="22"/>
-        <v>2.5401337586343957E-3</v>
-      </c>
-      <c r="BF7" s="146">
+        <v>1+0.0501191i</v>
+      </c>
+      <c r="BN7">
         <f t="shared" si="23"/>
-        <v>1.1143313366134135E-2</v>
-      </c>
-      <c r="BH7" s="161">
-        <v>37.649471024806083</v>
-      </c>
-      <c r="BI7" s="161">
-        <v>8.8118975354312457E-2</v>
-      </c>
-      <c r="BJ7" s="161">
-        <v>26.777112036937371</v>
-      </c>
-      <c r="BK7" s="161">
-        <v>0.10083432521867587</v>
-      </c>
-      <c r="BL7" s="161"/>
-      <c r="BM7" t="str">
+        <v>-1.0895469549292816E-2</v>
+      </c>
+      <c r="BO7">
         <f t="shared" si="24"/>
+        <v>-2.8692120957107452</v>
+      </c>
+      <c r="BP7" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.0501191i</v>
       </c>
-      <c r="BN7">
-        <f t="shared" si="25"/>
+      <c r="BQ7">
+        <f t="shared" si="26"/>
         <v>-1.0895469549292816E-2</v>
       </c>
-      <c r="BO7">
-        <f t="shared" si="26"/>
+      <c r="BR7">
+        <f t="shared" si="27"/>
         <v>-2.8692120957107452</v>
       </c>
-      <c r="BP7" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.0501191i</v>
-      </c>
-      <c r="BQ7">
+      <c r="BS7">
         <f t="shared" si="28"/>
-        <v>-1.0895469549292816E-2</v>
-      </c>
-      <c r="BR7">
+        <v>-2.1790939098585631E-2</v>
+      </c>
+      <c r="BT7">
         <f t="shared" si="29"/>
-        <v>-2.8692120957107452</v>
-      </c>
-      <c r="BS7">
-        <f t="shared" si="30"/>
-        <v>-2.1790939098585631E-2</v>
-      </c>
-      <c r="BT7">
-        <f t="shared" si="31"/>
         <v>-5.7384241914214904</v>
       </c>
     </row>
@@ -40261,7 +40269,7 @@
         <v>52</v>
       </c>
       <c r="AW8">
-        <v>7.0999999999999994E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AX8">
         <f t="shared" si="17"/>
@@ -40275,72 +40283,72 @@
         <v>52.000000000000036</v>
       </c>
       <c r="BA8" s="146">
+        <f t="shared" si="30"/>
+        <v>6.2877737396375534E-3</v>
+      </c>
+      <c r="BB8" s="146">
+        <f t="shared" si="31"/>
+        <v>6.4406863015611191E-7</v>
+      </c>
+      <c r="BC8" s="146">
+        <f t="shared" si="32"/>
+        <v>6.6049780076999385E-7</v>
+      </c>
+      <c r="BD8" s="146">
         <f t="shared" si="19"/>
-        <v>6.2877737396375534E-3</v>
-      </c>
-      <c r="BB8" s="146">
-        <f t="shared" si="32"/>
-        <v>6.4406863015611191E-7</v>
-      </c>
-      <c r="BC8" s="146">
+        <v>2.8687189497277076E-2</v>
+      </c>
+      <c r="BE8" s="146">
         <f t="shared" si="20"/>
-        <v>6.6049780076999385E-7</v>
-      </c>
-      <c r="BD8" s="146">
+        <v>2.8776348033867118E-3</v>
+      </c>
+      <c r="BF8" s="146">
         <f t="shared" si="21"/>
-        <v>2.8687189497277076E-2</v>
-      </c>
-      <c r="BE8" s="146">
+        <v>1.3128852647530663E-2</v>
+      </c>
+      <c r="BH8" s="159">
+        <v>48.010895849896535</v>
+      </c>
+      <c r="BI8" s="159">
+        <v>6.2906429754981188E-2</v>
+      </c>
+      <c r="BJ8" s="159">
+        <v>40.487898572106765</v>
+      </c>
+      <c r="BK8" s="159">
+        <v>0.15327768207325029</v>
+      </c>
+      <c r="BL8" s="159"/>
+      <c r="BM8" t="str">
         <f t="shared" si="22"/>
-        <v>2.8776348033867118E-3</v>
-      </c>
-      <c r="BF8" s="146">
+        <v>1+0.0630969i</v>
+      </c>
+      <c r="BN8">
         <f t="shared" si="23"/>
-        <v>1.3128852647530663E-2</v>
-      </c>
-      <c r="BH8" s="161">
-        <v>48.010895849896535</v>
-      </c>
-      <c r="BI8" s="161">
-        <v>6.2906429754981188E-2</v>
-      </c>
-      <c r="BJ8" s="161">
-        <v>40.487898572106765</v>
-      </c>
-      <c r="BK8" s="161">
-        <v>7.5159552784658801E-2</v>
-      </c>
-      <c r="BL8" s="161"/>
-      <c r="BM8" t="str">
+        <v>-1.7255886532964452E-2</v>
+      </c>
+      <c r="BO8">
         <f t="shared" si="24"/>
+        <v>-3.6103998825137973</v>
+      </c>
+      <c r="BP8" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.0630969i</v>
       </c>
-      <c r="BN8">
-        <f t="shared" si="25"/>
+      <c r="BQ8">
+        <f t="shared" si="26"/>
         <v>-1.7255886532964452E-2</v>
       </c>
-      <c r="BO8">
-        <f t="shared" si="26"/>
+      <c r="BR8">
+        <f t="shared" si="27"/>
         <v>-3.6103998825137973</v>
       </c>
-      <c r="BP8" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.0630969i</v>
-      </c>
-      <c r="BQ8">
+      <c r="BS8">
         <f t="shared" si="28"/>
-        <v>-1.7255886532964452E-2</v>
-      </c>
-      <c r="BR8">
+        <v>-3.4511773065928904E-2</v>
+      </c>
+      <c r="BT8">
         <f t="shared" si="29"/>
-        <v>-3.6103998825137973</v>
-      </c>
-      <c r="BS8">
-        <f t="shared" si="30"/>
-        <v>-3.4511773065928904E-2</v>
-      </c>
-      <c r="BT8">
-        <f t="shared" si="31"/>
         <v>-7.2207997650275946</v>
       </c>
     </row>
@@ -40477,7 +40485,7 @@
         <v>55</v>
       </c>
       <c r="AW9">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AX9">
         <f t="shared" si="17"/>
@@ -40491,72 +40499,72 @@
         <v>55.000000000000014</v>
       </c>
       <c r="BA9" s="146">
+        <f t="shared" si="30"/>
+        <v>7.2349134276069376E-3</v>
+      </c>
+      <c r="BB9" s="146">
+        <f t="shared" si="31"/>
+        <v>6.8514155669081719E-7</v>
+      </c>
+      <c r="BC9" s="146">
+        <f t="shared" si="32"/>
+        <v>7.0978531261163862E-7</v>
+      </c>
+      <c r="BD9" s="146">
         <f t="shared" si="19"/>
-        <v>7.2349134276069376E-3</v>
-      </c>
-      <c r="BB9" s="146">
-        <f t="shared" si="32"/>
-        <v>6.8514155669081719E-7</v>
-      </c>
-      <c r="BC9" s="146">
+        <v>3.4912727705496999E-2</v>
+      </c>
+      <c r="BE9" s="146">
         <f t="shared" si="20"/>
-        <v>7.0978531261163862E-7</v>
-      </c>
-      <c r="BD9" s="146">
+        <v>3.4295126651130254E-3</v>
+      </c>
+      <c r="BF9" s="146">
         <f t="shared" si="21"/>
-        <v>3.4912727705496999E-2</v>
-      </c>
-      <c r="BE9" s="146">
+        <v>1.6549422883591874E-2</v>
+      </c>
+      <c r="BH9" s="159">
+        <v>61.364409667042004</v>
+      </c>
+      <c r="BI9" s="159">
+        <v>4.5959283219000051E-2</v>
+      </c>
+      <c r="BJ9" s="159">
+        <v>48.784103318462122</v>
+      </c>
+      <c r="BK9" s="159">
+        <v>9.3499270545763416E-2</v>
+      </c>
+      <c r="BL9" s="159"/>
+      <c r="BM9" t="str">
         <f t="shared" si="22"/>
-        <v>3.4295126651130254E-3</v>
-      </c>
-      <c r="BF9" s="146">
+        <v>1+0.0794334i</v>
+      </c>
+      <c r="BN9">
         <f t="shared" si="23"/>
-        <v>1.6549422883591874E-2</v>
-      </c>
-      <c r="BH9" s="161">
-        <v>61.364409667042004</v>
-      </c>
-      <c r="BI9" s="161">
-        <v>4.5959283219000051E-2</v>
-      </c>
-      <c r="BJ9" s="161">
-        <v>48.784103318462122</v>
-      </c>
-      <c r="BK9" s="161">
-        <v>5.4005710759342448E-2</v>
-      </c>
-      <c r="BL9" s="161"/>
-      <c r="BM9" t="str">
+        <v>-2.7316438628935156E-2</v>
+      </c>
+      <c r="BO9">
         <f t="shared" si="24"/>
+        <v>-4.541662468696245</v>
+      </c>
+      <c r="BP9" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.0794334i</v>
       </c>
-      <c r="BN9">
-        <f t="shared" si="25"/>
+      <c r="BQ9">
+        <f t="shared" si="26"/>
         <v>-2.7316438628935156E-2</v>
       </c>
-      <c r="BO9">
-        <f t="shared" si="26"/>
+      <c r="BR9">
+        <f t="shared" si="27"/>
         <v>-4.541662468696245</v>
       </c>
-      <c r="BP9" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.0794334i</v>
-      </c>
-      <c r="BQ9">
+      <c r="BS9">
         <f t="shared" si="28"/>
-        <v>-2.7316438628935156E-2</v>
-      </c>
-      <c r="BR9">
+        <v>-5.4632877257870312E-2</v>
+      </c>
+      <c r="BT9">
         <f t="shared" si="29"/>
-        <v>-4.541662468696245</v>
-      </c>
-      <c r="BS9">
-        <f t="shared" si="30"/>
-        <v>-5.4632877257870312E-2</v>
-      </c>
-      <c r="BT9">
-        <f t="shared" si="31"/>
         <v>-9.08332493739249</v>
       </c>
     </row>
@@ -40693,7 +40701,7 @@
         <v>62</v>
       </c>
       <c r="AW10">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AX10">
         <f t="shared" si="17"/>
@@ -40707,72 +40715,72 @@
         <v>62.000000000000064</v>
       </c>
       <c r="BA10" s="146">
+        <f t="shared" si="30"/>
+        <v>9.7098756965295178E-3</v>
+      </c>
+      <c r="BB10" s="146">
+        <f t="shared" si="31"/>
+        <v>7.6728740976022404E-7</v>
+      </c>
+      <c r="BC10" s="146">
+        <f t="shared" si="32"/>
+        <v>8.2478950690880957E-7</v>
+      </c>
+      <c r="BD10" s="146">
         <f t="shared" si="19"/>
-        <v>9.7098756965295178E-3</v>
-      </c>
-      <c r="BB10" s="146">
-        <f t="shared" si="32"/>
-        <v>7.6728740976022404E-7</v>
-      </c>
-      <c r="BC10" s="146">
+        <v>5.2819357330458824E-2</v>
+      </c>
+      <c r="BE10" s="146">
         <f t="shared" si="20"/>
-        <v>8.2478950690880957E-7</v>
-      </c>
-      <c r="BD10" s="146">
+        <v>4.9301503839310357E-3</v>
+      </c>
+      <c r="BF10" s="146">
         <f t="shared" si="21"/>
-        <v>5.2819357330458824E-2</v>
-      </c>
-      <c r="BE10" s="146">
+        <v>2.6818816528704516E-2</v>
+      </c>
+      <c r="BH10" s="159">
+        <v>69.444433699664401</v>
+      </c>
+      <c r="BI10" s="159">
+        <v>3.9517474546856557E-2</v>
+      </c>
+      <c r="BJ10" s="159">
+        <v>56.286002466951672</v>
+      </c>
+      <c r="BK10" s="159">
+        <v>8.2313306461443872E-2</v>
+      </c>
+      <c r="BL10" s="159"/>
+      <c r="BM10" t="str">
         <f t="shared" si="22"/>
-        <v>4.9301503839310357E-3</v>
-      </c>
-      <c r="BF10" s="146">
+        <v>1+0.1000029i</v>
+      </c>
+      <c r="BN10">
         <f t="shared" si="23"/>
-        <v>2.6818816528704516E-2</v>
-      </c>
-      <c r="BH10" s="161">
-        <v>69.444433699664401</v>
-      </c>
-      <c r="BI10" s="161">
-        <v>3.9517474546856557E-2</v>
-      </c>
-      <c r="BJ10" s="161">
-        <v>56.286002466951672</v>
-      </c>
-      <c r="BK10" s="161">
-        <v>4.9182324444230256E-2</v>
-      </c>
-      <c r="BL10" s="161"/>
-      <c r="BM10" t="str">
+        <v>-4.3216231830183929E-2</v>
+      </c>
+      <c r="BO10">
         <f t="shared" si="24"/>
+        <v>-5.7107576500866521</v>
+      </c>
+      <c r="BP10" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.1000029i</v>
       </c>
-      <c r="BN10">
-        <f t="shared" si="25"/>
+      <c r="BQ10">
+        <f t="shared" si="26"/>
         <v>-4.3216231830183929E-2</v>
       </c>
-      <c r="BO10">
-        <f t="shared" si="26"/>
+      <c r="BR10">
+        <f t="shared" si="27"/>
         <v>-5.7107576500866521</v>
       </c>
-      <c r="BP10" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.1000029i</v>
-      </c>
-      <c r="BQ10">
+      <c r="BS10">
         <f t="shared" si="28"/>
-        <v>-4.3216231830183929E-2</v>
-      </c>
-      <c r="BR10">
+        <v>-8.6432463660367859E-2</v>
+      </c>
+      <c r="BT10">
         <f t="shared" si="29"/>
-        <v>-5.7107576500866521</v>
-      </c>
-      <c r="BS10">
-        <f t="shared" si="30"/>
-        <v>-8.6432463660367859E-2</v>
-      </c>
-      <c r="BT10">
-        <f t="shared" si="31"/>
         <v>-11.421515300173304</v>
       </c>
     </row>
@@ -40901,62 +40909,62 @@
         <f t="shared" si="15"/>
         <v>-12.018447020471539</v>
       </c>
-      <c r="AW11" s="176" t="s">
+      <c r="AW11" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="AX11" s="175">
+      <c r="AX11" s="173">
         <v>2.0111653701195102E-3</v>
       </c>
-      <c r="AY11" s="175">
+      <c r="AY11" s="173">
         <v>-3.0709262345742761E-7</v>
       </c>
-      <c r="AZ11" s="174">
+      <c r="AZ11" s="172">
         <v>1.4325144135226059E-11</v>
       </c>
       <c r="BC11" s="146"/>
-      <c r="BH11" s="161">
+      <c r="BH11" s="159">
         <v>76.75084997835306</v>
       </c>
-      <c r="BI11" s="161">
+      <c r="BI11" s="159">
         <v>3.5072283984146982E-2</v>
       </c>
-      <c r="BJ11" s="161">
+      <c r="BJ11" s="159">
         <v>67.025987241920845</v>
       </c>
-      <c r="BK11" s="161">
-        <v>4.0340557499362599E-2</v>
-      </c>
-      <c r="BL11" s="161"/>
+      <c r="BK11" s="159">
+        <v>6.3631390354086409E-2</v>
+      </c>
+      <c r="BL11" s="159"/>
       <c r="BM11" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.1258903i</v>
+      </c>
+      <c r="BN11">
+        <f t="shared" si="23"/>
+        <v>-6.8288870675985422E-2</v>
+      </c>
+      <c r="BO11">
         <f t="shared" si="24"/>
+        <v>-7.17523648976423</v>
+      </c>
+      <c r="BP11" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.1258903i</v>
       </c>
-      <c r="BN11">
-        <f t="shared" si="25"/>
+      <c r="BQ11">
+        <f t="shared" si="26"/>
         <v>-6.8288870675985422E-2</v>
       </c>
-      <c r="BO11">
-        <f t="shared" si="26"/>
+      <c r="BR11">
+        <f t="shared" si="27"/>
         <v>-7.17523648976423</v>
       </c>
-      <c r="BP11" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.1258903i</v>
-      </c>
-      <c r="BQ11">
+      <c r="BS11">
         <f t="shared" si="28"/>
-        <v>-6.8288870675985422E-2</v>
-      </c>
-      <c r="BR11">
+        <v>-0.13657774135197084</v>
+      </c>
+      <c r="BT11">
         <f t="shared" si="29"/>
-        <v>-7.17523648976423</v>
-      </c>
-      <c r="BS11">
-        <f t="shared" si="30"/>
-        <v>-0.13657774135197084</v>
-      </c>
-      <c r="BT11">
-        <f t="shared" si="31"/>
         <v>-14.35047297952846</v>
       </c>
     </row>
@@ -41085,59 +41093,59 @@
         <f t="shared" si="15"/>
         <v>-9.9929097391140935</v>
       </c>
-      <c r="AW12" s="172" t="s">
+      <c r="AW12" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="AX12" s="172">
+      <c r="AX12" s="170">
         <v>31.3</v>
       </c>
-      <c r="AY12" s="172">
+      <c r="AY12" s="170">
         <v>-1.58</v>
       </c>
       <c r="BC12" s="146"/>
-      <c r="BH12" s="161">
+      <c r="BH12" s="159">
         <v>87.210974546743557</v>
       </c>
-      <c r="BI12" s="161">
+      <c r="BI12" s="159">
         <v>3.0207645977385542E-2</v>
       </c>
-      <c r="BJ12" s="161">
+      <c r="BJ12" s="159">
         <v>73.827420491757252</v>
       </c>
-      <c r="BK12" s="161">
-        <v>3.2103130054017714E-2</v>
-      </c>
-      <c r="BL12" s="161"/>
+      <c r="BK12" s="159">
+        <v>4.8062113370621579E-2</v>
+      </c>
+      <c r="BL12" s="159"/>
       <c r="BM12" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.1584862i</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="23"/>
+        <v>-0.10773806635781653</v>
+      </c>
+      <c r="BO12">
         <f t="shared" si="24"/>
+        <v>-9.005687630442953</v>
+      </c>
+      <c r="BP12" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.1584862i</v>
       </c>
-      <c r="BN12">
-        <f t="shared" si="25"/>
+      <c r="BQ12">
+        <f t="shared" si="26"/>
         <v>-0.10773806635781653</v>
       </c>
-      <c r="BO12">
-        <f t="shared" si="26"/>
+      <c r="BR12">
+        <f t="shared" si="27"/>
         <v>-9.005687630442953</v>
       </c>
-      <c r="BP12" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.1584862i</v>
-      </c>
-      <c r="BQ12">
+      <c r="BS12">
         <f t="shared" si="28"/>
-        <v>-0.10773806635781653</v>
-      </c>
-      <c r="BR12">
+        <v>-0.21547613271563307</v>
+      </c>
+      <c r="BT12">
         <f t="shared" si="29"/>
-        <v>-9.005687630442953</v>
-      </c>
-      <c r="BS12">
-        <f t="shared" si="30"/>
-        <v>-0.21547613271563307</v>
-      </c>
-      <c r="BT12">
-        <f t="shared" si="31"/>
         <v>-18.011375260885906</v>
       </c>
     </row>
@@ -41266,56 +41274,56 @@
         <f t="shared" si="15"/>
         <v>-7.6974834015599356</v>
       </c>
-      <c r="AW13" s="172" t="s">
+      <c r="AW13" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="AX13" s="172">
+      <c r="AX13" s="170">
         <v>460.8</v>
       </c>
       <c r="BC13" s="146"/>
-      <c r="BH13" s="161">
+      <c r="BH13" s="159">
         <v>93.835177516070971</v>
       </c>
-      <c r="BI13" s="161">
+      <c r="BI13" s="159">
         <v>2.7768510934620131E-2</v>
       </c>
-      <c r="BJ13" s="161">
+      <c r="BJ13" s="159">
         <v>75.804201243764425</v>
       </c>
-      <c r="BK13" s="161">
-        <v>2.7290001009117874E-2</v>
-      </c>
-      <c r="BL13" s="161"/>
+      <c r="BK13" s="159">
+        <v>3.9676981378982325E-2</v>
+      </c>
+      <c r="BL13" s="159"/>
       <c r="BM13" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.1995295i</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="23"/>
+        <v>-0.16954834048306031</v>
+      </c>
+      <c r="BO13">
         <f t="shared" si="24"/>
+        <v>-11.284009299220033</v>
+      </c>
+      <c r="BP13" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.1995295i</v>
       </c>
-      <c r="BN13">
-        <f t="shared" si="25"/>
+      <c r="BQ13">
+        <f t="shared" si="26"/>
         <v>-0.16954834048306031</v>
       </c>
-      <c r="BO13">
-        <f t="shared" si="26"/>
+      <c r="BR13">
+        <f t="shared" si="27"/>
         <v>-11.284009299220033</v>
       </c>
-      <c r="BP13" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.1995295i</v>
-      </c>
-      <c r="BQ13">
+      <c r="BS13">
         <f t="shared" si="28"/>
-        <v>-0.16954834048306031</v>
-      </c>
-      <c r="BR13">
+        <v>-0.33909668096612061</v>
+      </c>
+      <c r="BT13">
         <f t="shared" si="29"/>
-        <v>-11.284009299220033</v>
-      </c>
-      <c r="BS13">
-        <f t="shared" si="30"/>
-        <v>-0.33909668096612061</v>
-      </c>
-      <c r="BT13">
-        <f t="shared" si="31"/>
         <v>-22.568018598440066</v>
       </c>
     </row>
@@ -41444,62 +41452,62 @@
         <f t="shared" si="15"/>
         <v>-9.9075291139741388</v>
       </c>
-      <c r="AW14" s="172" t="s">
+      <c r="AW14" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="AX14" s="172">
+      <c r="AX14" s="170">
         <v>6.9658921582847581E-4</v>
       </c>
-      <c r="AY14" s="172">
+      <c r="AY14" s="170">
         <v>-1.9381907115184841E-7</v>
       </c>
-      <c r="AZ14" s="172">
+      <c r="AZ14" s="170">
         <v>1.782679103068748E-11</v>
       </c>
       <c r="BC14" s="146"/>
-      <c r="BH14" s="161">
+      <c r="BH14" s="159">
         <v>95.760447741647312</v>
       </c>
-      <c r="BI14" s="161">
+      <c r="BI14" s="159">
         <v>2.7131780912102672E-2</v>
       </c>
-      <c r="BJ14" s="161">
+      <c r="BJ14" s="159">
         <v>78.555343808258939</v>
       </c>
-      <c r="BK14" s="161">
-        <v>2.5862221691228097E-2</v>
-      </c>
-      <c r="BL14" s="161"/>
+      <c r="BK14" s="159">
+        <v>3.7281900353922377E-2</v>
+      </c>
+      <c r="BL14" s="159"/>
       <c r="BM14" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.2511767i</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" si="23"/>
+        <v>-0.26569924548454993</v>
+      </c>
+      <c r="BO14">
         <f t="shared" si="24"/>
+        <v>-14.099679943012932</v>
+      </c>
+      <c r="BP14" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.2511767i</v>
       </c>
-      <c r="BN14">
-        <f t="shared" si="25"/>
+      <c r="BQ14">
+        <f t="shared" si="26"/>
         <v>-0.26569924548454993</v>
       </c>
-      <c r="BO14">
-        <f t="shared" si="26"/>
+      <c r="BR14">
+        <f t="shared" si="27"/>
         <v>-14.099679943012932</v>
       </c>
-      <c r="BP14" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.2511767i</v>
-      </c>
-      <c r="BQ14">
+      <c r="BS14">
         <f t="shared" si="28"/>
-        <v>-0.26569924548454993</v>
-      </c>
-      <c r="BR14">
+        <v>-0.53139849096909986</v>
+      </c>
+      <c r="BT14">
         <f t="shared" si="29"/>
-        <v>-14.099679943012932</v>
-      </c>
-      <c r="BS14">
-        <f t="shared" si="30"/>
-        <v>-0.53139849096909986</v>
-      </c>
-      <c r="BT14">
-        <f t="shared" si="31"/>
         <v>-28.199359886025864</v>
       </c>
     </row>
@@ -41628,52 +41636,52 @@
         <f t="shared" si="15"/>
         <v>-15.042386918655119</v>
       </c>
-      <c r="AW15" s="173" t="s">
+      <c r="AW15" s="171" t="s">
         <v>207</v>
       </c>
-      <c r="AX15" s="172">
+      <c r="AX15" s="170">
         <v>-0.65641091051665401</v>
       </c>
       <c r="BC15" s="146"/>
-      <c r="BH15" s="161">
+      <c r="BH15" s="159">
         <v>98.439901626636328</v>
       </c>
-      <c r="BI15" s="161">
+      <c r="BI15" s="159">
         <v>2.6292721207050156E-2</v>
       </c>
-      <c r="BJ15" s="161"/>
-      <c r="BK15" s="161"/>
-      <c r="BL15" s="161"/>
+      <c r="BJ15" s="159"/>
+      <c r="BK15" s="159"/>
+      <c r="BL15" s="159"/>
       <c r="BM15" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.3162147i</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="23"/>
+        <v>-0.41389422605834736</v>
+      </c>
+      <c r="BO15">
         <f t="shared" si="24"/>
+        <v>-17.547720040672441</v>
+      </c>
+      <c r="BP15" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.3162147i</v>
       </c>
-      <c r="BN15">
-        <f t="shared" si="25"/>
+      <c r="BQ15">
+        <f t="shared" si="26"/>
         <v>-0.41389422605834736</v>
       </c>
-      <c r="BO15">
-        <f t="shared" si="26"/>
+      <c r="BR15">
+        <f t="shared" si="27"/>
         <v>-17.547720040672441</v>
       </c>
-      <c r="BP15" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.3162147i</v>
-      </c>
-      <c r="BQ15">
+      <c r="BS15">
         <f t="shared" si="28"/>
-        <v>-0.41389422605834736</v>
-      </c>
-      <c r="BR15">
+        <v>-0.82778845211669472</v>
+      </c>
+      <c r="BT15">
         <f t="shared" si="29"/>
-        <v>-17.547720040672441</v>
-      </c>
-      <c r="BS15">
-        <f t="shared" si="30"/>
-        <v>-0.82778845211669472</v>
-      </c>
-      <c r="BT15">
-        <f t="shared" si="31"/>
         <v>-35.095440081344883</v>
       </c>
     </row>
@@ -41803,35 +41811,35 @@
         <v>-13.202205810980104</v>
       </c>
       <c r="BM16" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.3981109i</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" si="23"/>
+        <v>-0.63893147330395728</v>
+      </c>
+      <c r="BO16">
         <f t="shared" si="24"/>
+        <v>-21.708040594509949</v>
+      </c>
+      <c r="BP16" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.3981109i</v>
       </c>
-      <c r="BN16">
-        <f t="shared" si="25"/>
+      <c r="BQ16">
+        <f t="shared" si="26"/>
         <v>-0.63893147330395728</v>
       </c>
-      <c r="BO16">
-        <f t="shared" si="26"/>
+      <c r="BR16">
+        <f t="shared" si="27"/>
         <v>-21.708040594509949</v>
       </c>
-      <c r="BP16" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.3981109i</v>
-      </c>
-      <c r="BQ16">
+      <c r="BS16">
         <f t="shared" si="28"/>
-        <v>-0.63893147330395728</v>
-      </c>
-      <c r="BR16">
+        <v>-1.2778629466079146</v>
+      </c>
+      <c r="BT16">
         <f t="shared" si="29"/>
-        <v>-21.708040594509949</v>
-      </c>
-      <c r="BS16">
-        <f t="shared" si="30"/>
-        <v>-1.2778629466079146</v>
-      </c>
-      <c r="BT16">
-        <f t="shared" si="31"/>
         <v>-43.416081189019899</v>
       </c>
     </row>
@@ -41961,35 +41969,35 @@
         <v>-18.914200653081053</v>
       </c>
       <c r="BM17" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.5012113i</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" si="23"/>
+        <v>-0.97331167235059723</v>
+      </c>
+      <c r="BO17">
         <f t="shared" si="24"/>
+        <v>-26.620546173459473</v>
+      </c>
+      <c r="BP17" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.5012113i</v>
       </c>
-      <c r="BN17">
-        <f t="shared" si="25"/>
+      <c r="BQ17">
+        <f t="shared" si="26"/>
         <v>-0.97331167235059723</v>
       </c>
-      <c r="BO17">
-        <f t="shared" si="26"/>
+      <c r="BR17">
+        <f t="shared" si="27"/>
         <v>-26.620546173459473</v>
       </c>
-      <c r="BP17" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.5012113i</v>
-      </c>
-      <c r="BQ17">
+      <c r="BS17">
         <f t="shared" si="28"/>
-        <v>-0.97331167235059723</v>
-      </c>
-      <c r="BR17">
+        <v>-1.9466233447011945</v>
+      </c>
+      <c r="BT17">
         <f t="shared" si="29"/>
-        <v>-26.620546173459473</v>
-      </c>
-      <c r="BS17">
-        <f t="shared" si="30"/>
-        <v>-1.9466233447011945</v>
-      </c>
-      <c r="BT17">
-        <f t="shared" si="31"/>
         <v>-53.241092346918947</v>
       </c>
     </row>
@@ -42119,35 +42127,35 @@
         <v>-15.070754726573057</v>
       </c>
       <c r="BM18" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.6309475i</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" si="23"/>
+        <v>-1.455366041946287</v>
+      </c>
+      <c r="BO18">
         <f t="shared" si="24"/>
+        <v>-32.249774136713469</v>
+      </c>
+      <c r="BP18" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.6309475i</v>
       </c>
-      <c r="BN18">
-        <f t="shared" si="25"/>
+      <c r="BQ18">
+        <f t="shared" si="26"/>
         <v>-1.455366041946287</v>
       </c>
-      <c r="BO18">
-        <f t="shared" si="26"/>
+      <c r="BR18">
+        <f t="shared" si="27"/>
         <v>-32.249774136713469</v>
       </c>
-      <c r="BP18" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.6309475i</v>
-      </c>
-      <c r="BQ18">
+      <c r="BS18">
         <f t="shared" si="28"/>
-        <v>-1.455366041946287</v>
-      </c>
-      <c r="BR18">
+        <v>-2.9107320838925741</v>
+      </c>
+      <c r="BT18">
         <f t="shared" si="29"/>
-        <v>-32.249774136713469</v>
-      </c>
-      <c r="BS18">
-        <f t="shared" si="30"/>
-        <v>-2.9107320838925741</v>
-      </c>
-      <c r="BT18">
-        <f t="shared" si="31"/>
         <v>-64.499548273426939</v>
       </c>
     </row>
@@ -42277,35 +42285,35 @@
         <v>-20.189873922733867</v>
       </c>
       <c r="BM19" t="str">
+        <f t="shared" si="22"/>
+        <v>1+0.7943344i</v>
+      </c>
+      <c r="BN19">
+        <f t="shared" si="23"/>
+        <v>-2.1244521089644115</v>
+      </c>
+      <c r="BO19">
         <f t="shared" si="24"/>
+        <v>-38.461324538633065</v>
+      </c>
+      <c r="BP19" t="str">
+        <f t="shared" si="25"/>
         <v>1+0.7943344i</v>
       </c>
-      <c r="BN19">
-        <f t="shared" si="25"/>
+      <c r="BQ19">
+        <f t="shared" si="26"/>
         <v>-2.1244521089644115</v>
       </c>
-      <c r="BO19">
-        <f t="shared" si="26"/>
+      <c r="BR19">
+        <f t="shared" si="27"/>
         <v>-38.461324538633065</v>
       </c>
-      <c r="BP19" t="str">
-        <f t="shared" si="27"/>
-        <v>1+0.7943344i</v>
-      </c>
-      <c r="BQ19">
+      <c r="BS19">
         <f t="shared" si="28"/>
-        <v>-2.1244521089644115</v>
-      </c>
-      <c r="BR19">
+        <v>-4.248904217928823</v>
+      </c>
+      <c r="BT19">
         <f t="shared" si="29"/>
-        <v>-38.461324538633065</v>
-      </c>
-      <c r="BS19">
-        <f t="shared" si="30"/>
-        <v>-4.248904217928823</v>
-      </c>
-      <c r="BT19">
-        <f t="shared" si="31"/>
         <v>-76.922649077266129</v>
       </c>
     </row>
@@ -42435,35 +42443,35 @@
         <v>-22.948065799434943</v>
       </c>
       <c r="BM20" t="str">
+        <f t="shared" si="22"/>
+        <v>1+1.0000295i</v>
+      </c>
+      <c r="BN20">
+        <f t="shared" si="23"/>
+        <v>-3.0104280735119544</v>
+      </c>
+      <c r="BO20">
         <f t="shared" si="24"/>
+        <v>-45.000845100282525</v>
+      </c>
+      <c r="BP20" t="str">
+        <f t="shared" si="25"/>
         <v>1+1.0000295i</v>
       </c>
-      <c r="BN20">
-        <f t="shared" si="25"/>
+      <c r="BQ20">
+        <f t="shared" si="26"/>
         <v>-3.0104280735119544</v>
       </c>
-      <c r="BO20">
-        <f t="shared" si="26"/>
+      <c r="BR20">
+        <f t="shared" si="27"/>
         <v>-45.000845100282525</v>
       </c>
-      <c r="BP20" t="str">
-        <f t="shared" si="27"/>
-        <v>1+1.0000295i</v>
-      </c>
-      <c r="BQ20">
+      <c r="BS20">
         <f t="shared" si="28"/>
-        <v>-3.0104280735119544</v>
-      </c>
-      <c r="BR20">
+        <v>-6.0208561470239088</v>
+      </c>
+      <c r="BT20">
         <f t="shared" si="29"/>
-        <v>-45.000845100282525</v>
-      </c>
-      <c r="BS20">
-        <f t="shared" si="30"/>
-        <v>-6.0208561470239088</v>
-      </c>
-      <c r="BT20">
-        <f t="shared" si="31"/>
         <v>-90.001690200565051</v>
       </c>
     </row>
@@ -42593,35 +42601,35 @@
         <v>-28.026364109917438</v>
       </c>
       <c r="BM21" t="str">
+        <f t="shared" si="22"/>
+        <v>1+1.2589451i</v>
+      </c>
+      <c r="BN21">
+        <f t="shared" si="23"/>
+        <v>-4.124509314916124</v>
+      </c>
+      <c r="BO21">
         <f t="shared" si="24"/>
+        <v>-51.539328445041278</v>
+      </c>
+      <c r="BP21" t="str">
+        <f t="shared" si="25"/>
         <v>1+1.2589451i</v>
       </c>
-      <c r="BN21">
-        <f t="shared" si="25"/>
+      <c r="BQ21">
+        <f t="shared" si="26"/>
         <v>-4.124509314916124</v>
       </c>
-      <c r="BO21">
-        <f t="shared" si="26"/>
+      <c r="BR21">
+        <f t="shared" si="27"/>
         <v>-51.539328445041278</v>
       </c>
-      <c r="BP21" t="str">
-        <f t="shared" si="27"/>
-        <v>1+1.2589451i</v>
-      </c>
-      <c r="BQ21">
+      <c r="BS21">
         <f t="shared" si="28"/>
-        <v>-4.124509314916124</v>
-      </c>
-      <c r="BR21">
+        <v>-8.2490186298322481</v>
+      </c>
+      <c r="BT21">
         <f t="shared" si="29"/>
-        <v>-51.539328445041278</v>
-      </c>
-      <c r="BS21">
-        <f t="shared" si="30"/>
-        <v>-8.2490186298322481</v>
-      </c>
-      <c r="BT21">
-        <f t="shared" si="31"/>
         <v>-103.07865689008256</v>
       </c>
     </row>
@@ -42751,35 +42759,35 @@
         <v>-32.505056734646146</v>
       </c>
       <c r="BM22" t="str">
+        <f t="shared" si="22"/>
+        <v>1+1.5849119i</v>
+      </c>
+      <c r="BN22">
+        <f t="shared" si="23"/>
+        <v>-5.4554779623951175</v>
+      </c>
+      <c r="BO22">
         <f t="shared" si="24"/>
+        <v>-57.750127632676929</v>
+      </c>
+      <c r="BP22" t="str">
+        <f t="shared" si="25"/>
         <v>1+1.5849119i</v>
       </c>
-      <c r="BN22">
-        <f t="shared" si="25"/>
+      <c r="BQ22">
+        <f t="shared" si="26"/>
         <v>-5.4554779623951175</v>
       </c>
-      <c r="BO22">
-        <f t="shared" si="26"/>
+      <c r="BR22">
+        <f t="shared" si="27"/>
         <v>-57.750127632676929</v>
       </c>
-      <c r="BP22" t="str">
-        <f t="shared" si="27"/>
-        <v>1+1.5849119i</v>
-      </c>
-      <c r="BQ22">
+      <c r="BS22">
         <f t="shared" si="28"/>
-        <v>-5.4554779623951175</v>
-      </c>
-      <c r="BR22">
+        <v>-10.910955924790235</v>
+      </c>
+      <c r="BT22">
         <f t="shared" si="29"/>
-        <v>-57.750127632676929</v>
-      </c>
-      <c r="BS22">
-        <f t="shared" si="30"/>
-        <v>-10.910955924790235</v>
-      </c>
-      <c r="BT22">
-        <f t="shared" si="31"/>
         <v>-115.50025526535386</v>
       </c>
     </row>
@@ -42909,35 +42917,35 @@
         <v>-43.209769097218057</v>
       </c>
       <c r="BM23" t="str">
+        <f t="shared" si="22"/>
+        <v>1+1.9952954i</v>
+      </c>
+      <c r="BN23">
+        <f t="shared" si="23"/>
+        <v>-6.9733430491681192</v>
+      </c>
+      <c r="BO23">
         <f t="shared" si="24"/>
+        <v>-63.380936451390973</v>
+      </c>
+      <c r="BP23" t="str">
+        <f t="shared" si="25"/>
         <v>1+1.9952954i</v>
       </c>
-      <c r="BN23">
-        <f t="shared" si="25"/>
+      <c r="BQ23">
+        <f t="shared" si="26"/>
         <v>-6.9733430491681192</v>
       </c>
-      <c r="BO23">
-        <f t="shared" si="26"/>
+      <c r="BR23">
+        <f t="shared" si="27"/>
         <v>-63.380936451390973</v>
       </c>
-      <c r="BP23" t="str">
-        <f t="shared" si="27"/>
-        <v>1+1.9952954i</v>
-      </c>
-      <c r="BQ23">
+      <c r="BS23">
         <f t="shared" si="28"/>
-        <v>-6.9733430491681192</v>
-      </c>
-      <c r="BR23">
+        <v>-13.946686098336238</v>
+      </c>
+      <c r="BT23">
         <f t="shared" si="29"/>
-        <v>-63.380936451390973</v>
-      </c>
-      <c r="BS23">
-        <f t="shared" si="30"/>
-        <v>-13.946686098336238</v>
-      </c>
-      <c r="BT23">
-        <f t="shared" si="31"/>
         <v>-126.76187290278195</v>
       </c>
     </row>
@@ -43067,35 +43075,35 @@
         <v>-52.452306333995722</v>
       </c>
       <c r="BM24" t="str">
+        <f t="shared" si="22"/>
+        <v>1+2.5120683i</v>
+      </c>
+      <c r="BN24">
+        <f t="shared" si="23"/>
+        <v>-8.6394631770250321</v>
+      </c>
+      <c r="BO24">
         <f t="shared" si="24"/>
+        <v>-68.293569333002139</v>
+      </c>
+      <c r="BP24" t="str">
+        <f t="shared" si="25"/>
         <v>1+2.5120683i</v>
       </c>
-      <c r="BN24">
-        <f t="shared" si="25"/>
+      <c r="BQ24">
+        <f t="shared" si="26"/>
         <v>-8.6394631770250321</v>
       </c>
-      <c r="BO24">
-        <f t="shared" si="26"/>
+      <c r="BR24">
+        <f t="shared" si="27"/>
         <v>-68.293569333002139</v>
       </c>
-      <c r="BP24" t="str">
-        <f t="shared" si="27"/>
-        <v>1+2.5120683i</v>
-      </c>
-      <c r="BQ24">
+      <c r="BS24">
         <f t="shared" si="28"/>
-        <v>-8.6394631770250321</v>
-      </c>
-      <c r="BR24">
+        <v>-17.278926354050064</v>
+      </c>
+      <c r="BT24">
         <f t="shared" si="29"/>
-        <v>-68.293569333002139</v>
-      </c>
-      <c r="BS24">
-        <f t="shared" si="30"/>
-        <v>-17.278926354050064</v>
-      </c>
-      <c r="BT24">
-        <f t="shared" si="31"/>
         <v>-136.58713866600428</v>
       </c>
     </row>
@@ -43225,35 +43233,35 @@
         <v>-39.091281525724412</v>
       </c>
       <c r="BM25" t="str">
+        <f t="shared" si="22"/>
+        <v>1+3.1623455i</v>
+      </c>
+      <c r="BN25">
+        <f t="shared" si="23"/>
+        <v>-10.414096247356303</v>
+      </c>
+      <c r="BO25">
         <f t="shared" si="24"/>
+        <v>-72.451952737137788</v>
+      </c>
+      <c r="BP25" t="str">
+        <f t="shared" si="25"/>
         <v>1+3.1623455i</v>
       </c>
-      <c r="BN25">
-        <f t="shared" si="25"/>
+      <c r="BQ25">
+        <f t="shared" si="26"/>
         <v>-10.414096247356303</v>
       </c>
-      <c r="BO25">
-        <f t="shared" si="26"/>
+      <c r="BR25">
+        <f t="shared" si="27"/>
         <v>-72.451952737137788</v>
       </c>
-      <c r="BP25" t="str">
-        <f t="shared" si="27"/>
-        <v>1+3.1623455i</v>
-      </c>
-      <c r="BQ25">
+      <c r="BS25">
         <f t="shared" si="28"/>
-        <v>-10.414096247356303</v>
-      </c>
-      <c r="BR25">
+        <v>-20.828192494712606</v>
+      </c>
+      <c r="BT25">
         <f t="shared" si="29"/>
-        <v>-72.451952737137788</v>
-      </c>
-      <c r="BS25">
-        <f t="shared" si="30"/>
-        <v>-20.828192494712606</v>
-      </c>
-      <c r="BT25">
-        <f t="shared" si="31"/>
         <v>-144.90390547427558</v>
       </c>
     </row>
@@ -43383,35 +43391,35 @@
         <v>-31.792107605389646</v>
       </c>
       <c r="BM26" t="str">
+        <f t="shared" si="22"/>
+        <v>1+3.981109i</v>
+      </c>
+      <c r="BN26">
+        <f t="shared" si="23"/>
+        <v>-12.265800295267084</v>
+      </c>
+      <c r="BO26">
         <f t="shared" si="24"/>
+        <v>-75.899803197305175</v>
+      </c>
+      <c r="BP26" t="str">
+        <f t="shared" si="25"/>
         <v>1+3.981109i</v>
       </c>
-      <c r="BN26">
-        <f t="shared" si="25"/>
+      <c r="BQ26">
+        <f t="shared" si="26"/>
         <v>-12.265800295267084</v>
       </c>
-      <c r="BO26">
-        <f t="shared" si="26"/>
+      <c r="BR26">
+        <f t="shared" si="27"/>
         <v>-75.899803197305175</v>
       </c>
-      <c r="BP26" t="str">
-        <f t="shared" si="27"/>
-        <v>1+3.981109i</v>
-      </c>
-      <c r="BQ26">
+      <c r="BS26">
         <f t="shared" si="28"/>
-        <v>-12.265800295267084</v>
-      </c>
-      <c r="BR26">
+        <v>-24.531600590534168</v>
+      </c>
+      <c r="BT26">
         <f t="shared" si="29"/>
-        <v>-75.899803197305175</v>
-      </c>
-      <c r="BS26">
-        <f t="shared" si="30"/>
-        <v>-24.531600590534168</v>
-      </c>
-      <c r="BT26">
-        <f t="shared" si="31"/>
         <v>-151.79960639461035</v>
       </c>
     </row>
@@ -43541,35 +43549,35 @@
         <v>-29.393535823313584</v>
       </c>
       <c r="BM27" t="str">
+        <f t="shared" si="22"/>
+        <v>1+5.0121134i</v>
+      </c>
+      <c r="BN27">
+        <f t="shared" si="23"/>
+        <v>-14.169944667176086</v>
+      </c>
+      <c r="BO27">
         <f t="shared" si="24"/>
+        <v>-78.716699588343204</v>
+      </c>
+      <c r="BP27" t="str">
+        <f t="shared" si="25"/>
         <v>1+5.0121134i</v>
       </c>
-      <c r="BN27">
-        <f t="shared" si="25"/>
+      <c r="BQ27">
+        <f t="shared" si="26"/>
         <v>-14.169944667176086</v>
       </c>
-      <c r="BO27">
-        <f t="shared" si="26"/>
+      <c r="BR27">
+        <f t="shared" si="27"/>
         <v>-78.716699588343204</v>
       </c>
-      <c r="BP27" t="str">
-        <f t="shared" si="27"/>
-        <v>1+5.0121134i</v>
-      </c>
-      <c r="BQ27">
+      <c r="BS27">
         <f t="shared" si="28"/>
-        <v>-14.169944667176086</v>
-      </c>
-      <c r="BR27">
+        <v>-28.339889334352172</v>
+      </c>
+      <c r="BT27">
         <f t="shared" si="29"/>
-        <v>-78.716699588343204</v>
-      </c>
-      <c r="BS27">
-        <f t="shared" si="30"/>
-        <v>-28.339889334352172</v>
-      </c>
-      <c r="BT27">
-        <f t="shared" si="31"/>
         <v>-157.43339917668641</v>
       </c>
     </row>
@@ -43600,35 +43608,35 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="BM28" t="str">
+        <f t="shared" si="22"/>
+        <v>1+6.3098048i</v>
+      </c>
+      <c r="BN28">
+        <f t="shared" si="23"/>
+        <v>-16.108052934028425</v>
+      </c>
+      <c r="BO28">
         <f t="shared" si="24"/>
+        <v>-80.994462826162277</v>
+      </c>
+      <c r="BP28" t="str">
+        <f t="shared" si="25"/>
         <v>1+6.3098048i</v>
       </c>
-      <c r="BN28">
-        <f t="shared" si="25"/>
+      <c r="BQ28">
+        <f t="shared" si="26"/>
         <v>-16.108052934028425</v>
       </c>
-      <c r="BO28">
-        <f t="shared" si="26"/>
+      <c r="BR28">
+        <f t="shared" si="27"/>
         <v>-80.994462826162277</v>
       </c>
-      <c r="BP28" t="str">
-        <f t="shared" si="27"/>
-        <v>1+6.3098048i</v>
-      </c>
-      <c r="BQ28">
+      <c r="BS28">
         <f t="shared" si="28"/>
-        <v>-16.108052934028425</v>
-      </c>
-      <c r="BR28">
+        <v>-32.21610586805685</v>
+      </c>
+      <c r="BT28">
         <f t="shared" si="29"/>
-        <v>-80.994462826162277</v>
-      </c>
-      <c r="BS28">
-        <f t="shared" si="30"/>
-        <v>-32.21610586805685</v>
-      </c>
-      <c r="BT28">
-        <f t="shared" si="31"/>
         <v>-161.98892565232455</v>
       </c>
     </row>
@@ -43655,35 +43663,35 @@
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="BM29" t="str">
+        <f t="shared" si="22"/>
+        <v>1+7.9433443i</v>
+      </c>
+      <c r="BN29">
+        <f t="shared" si="23"/>
+        <v>-18.068357970584664</v>
+      </c>
+      <c r="BO29">
         <f t="shared" si="24"/>
+        <v>-82.824692483217106</v>
+      </c>
+      <c r="BP29" t="str">
+        <f t="shared" si="25"/>
         <v>1+7.9433443i</v>
       </c>
-      <c r="BN29">
-        <f t="shared" si="25"/>
+      <c r="BQ29">
+        <f t="shared" si="26"/>
         <v>-18.068357970584664</v>
       </c>
-      <c r="BO29">
-        <f t="shared" si="26"/>
+      <c r="BR29">
+        <f t="shared" si="27"/>
         <v>-82.824692483217106</v>
       </c>
-      <c r="BP29" t="str">
-        <f t="shared" si="27"/>
-        <v>1+7.9433443i</v>
-      </c>
-      <c r="BQ29">
+      <c r="BS29">
         <f t="shared" si="28"/>
-        <v>-18.068357970584664</v>
-      </c>
-      <c r="BR29">
+        <v>-36.136715941169328</v>
+      </c>
+      <c r="BT29">
         <f t="shared" si="29"/>
-        <v>-82.824692483217106</v>
-      </c>
-      <c r="BS29">
-        <f t="shared" si="30"/>
-        <v>-36.136715941169328</v>
-      </c>
-      <c r="BT29">
-        <f t="shared" si="31"/>
         <v>-165.64938496643421</v>
       </c>
     </row>
@@ -43698,35 +43706,35 @@
         <v>-251.80307300000004</v>
       </c>
       <c r="BM30" t="str">
+        <f t="shared" si="22"/>
+        <v>1+10.000027i</v>
+      </c>
+      <c r="BN30">
+        <f t="shared" si="23"/>
+        <v>-20.043236957500671</v>
+      </c>
+      <c r="BO30">
         <f t="shared" si="24"/>
+        <v>-84.28942217915295</v>
+      </c>
+      <c r="BP30" t="str">
+        <f t="shared" si="25"/>
         <v>1+10.000027i</v>
       </c>
-      <c r="BN30">
-        <f t="shared" si="25"/>
+      <c r="BQ30">
+        <f t="shared" si="26"/>
         <v>-20.043236957500671</v>
       </c>
-      <c r="BO30">
-        <f t="shared" si="26"/>
+      <c r="BR30">
+        <f t="shared" si="27"/>
         <v>-84.28942217915295</v>
       </c>
-      <c r="BP30" t="str">
-        <f t="shared" si="27"/>
-        <v>1+10.000027i</v>
-      </c>
-      <c r="BQ30">
+      <c r="BS30">
         <f t="shared" si="28"/>
-        <v>-20.043236957500671</v>
-      </c>
-      <c r="BR30">
+        <v>-40.086473915001342</v>
+      </c>
+      <c r="BT30">
         <f t="shared" si="29"/>
-        <v>-84.28942217915295</v>
-      </c>
-      <c r="BS30">
-        <f t="shared" si="30"/>
-        <v>-40.086473915001342</v>
-      </c>
-      <c r="BT30">
-        <f t="shared" si="31"/>
         <v>-168.5788443583059</v>
       </c>
     </row>
@@ -43741,35 +43749,35 @@
         <v>-354.87647199999998</v>
       </c>
       <c r="BM31" t="str">
+        <f t="shared" si="22"/>
+        <v>1+12.5899768i</v>
+      </c>
+      <c r="BN31">
+        <f t="shared" si="23"/>
+        <v>-22.027811513695177</v>
+      </c>
+      <c r="BO31">
         <f t="shared" si="24"/>
+        <v>-85.458629962067846</v>
+      </c>
+      <c r="BP31" t="str">
+        <f t="shared" si="25"/>
         <v>1+12.5899768i</v>
       </c>
-      <c r="BN31">
-        <f t="shared" si="25"/>
+      <c r="BQ31">
+        <f t="shared" si="26"/>
         <v>-22.027811513695177</v>
       </c>
-      <c r="BO31">
-        <f t="shared" si="26"/>
+      <c r="BR31">
+        <f t="shared" si="27"/>
         <v>-85.458629962067846</v>
       </c>
-      <c r="BP31" t="str">
-        <f t="shared" si="27"/>
-        <v>1+12.5899768i</v>
-      </c>
-      <c r="BQ31">
+      <c r="BS31">
         <f t="shared" si="28"/>
-        <v>-22.027811513695177</v>
-      </c>
-      <c r="BR31">
+        <v>-44.055623027390354</v>
+      </c>
+      <c r="BT31">
         <f t="shared" si="29"/>
-        <v>-85.458629962067846</v>
-      </c>
-      <c r="BS31">
-        <f t="shared" si="30"/>
-        <v>-44.055623027390354</v>
-      </c>
-      <c r="BT31">
-        <f t="shared" si="31"/>
         <v>-170.91725992413569</v>
       </c>
     </row>
@@ -43784,35 +43792,35 @@
         <v>-359.92659200000003</v>
       </c>
       <c r="BM32" t="str">
+        <f t="shared" si="22"/>
+        <v>1+15.8482349i</v>
+      </c>
+      <c r="BN32">
+        <f t="shared" si="23"/>
+        <v>-24.016874757552714</v>
+      </c>
+      <c r="BO32">
         <f t="shared" si="24"/>
+        <v>-86.389508267046338</v>
+      </c>
+      <c r="BP32" t="str">
+        <f t="shared" si="25"/>
         <v>1+15.8482349i</v>
       </c>
-      <c r="BN32">
-        <f t="shared" si="25"/>
+      <c r="BQ32">
+        <f t="shared" si="26"/>
         <v>-24.016874757552714</v>
       </c>
-      <c r="BO32">
-        <f t="shared" si="26"/>
+      <c r="BR32">
+        <f t="shared" si="27"/>
         <v>-86.389508267046338</v>
       </c>
-      <c r="BP32" t="str">
-        <f t="shared" si="27"/>
-        <v>1+15.8482349i</v>
-      </c>
-      <c r="BQ32">
+      <c r="BS32">
         <f t="shared" si="28"/>
-        <v>-24.016874757552714</v>
-      </c>
-      <c r="BR32">
+        <v>-48.033749515105427</v>
+      </c>
+      <c r="BT32">
         <f t="shared" si="29"/>
-        <v>-86.389508267046338</v>
-      </c>
-      <c r="BS32">
-        <f t="shared" si="30"/>
-        <v>-48.033749515105427</v>
-      </c>
-      <c r="BT32">
-        <f t="shared" si="31"/>
         <v>-172.77901653409268</v>
       </c>
     </row>
@@ -43827,35 +43835,35 @@
         <v>-484.44384400000001</v>
       </c>
       <c r="BM33" t="str">
+        <f t="shared" si="22"/>
+        <v>1+19.9528916i</v>
+      </c>
+      <c r="BN33">
+        <f t="shared" si="23"/>
+        <v>-26.0110118757271</v>
+      </c>
+      <c r="BO33">
         <f t="shared" si="24"/>
+        <v>-87.130847968123575</v>
+      </c>
+      <c r="BP33" t="str">
+        <f t="shared" si="25"/>
         <v>1+19.9528916i</v>
       </c>
-      <c r="BN33">
-        <f t="shared" si="25"/>
+      <c r="BQ33">
+        <f t="shared" si="26"/>
         <v>-26.0110118757271</v>
       </c>
-      <c r="BO33">
-        <f t="shared" si="26"/>
+      <c r="BR33">
+        <f t="shared" si="27"/>
         <v>-87.130847968123575</v>
       </c>
-      <c r="BP33" t="str">
-        <f t="shared" si="27"/>
-        <v>1+19.9528916i</v>
-      </c>
-      <c r="BQ33">
+      <c r="BS33">
         <f t="shared" si="28"/>
-        <v>-26.0110118757271</v>
-      </c>
-      <c r="BR33">
+        <v>-52.022023751454199</v>
+      </c>
+      <c r="BT33">
         <f t="shared" si="29"/>
-        <v>-87.130847968123575</v>
-      </c>
-      <c r="BS33">
-        <f t="shared" si="30"/>
-        <v>-52.022023751454199</v>
-      </c>
-      <c r="BT33">
-        <f t="shared" si="31"/>
         <v>-174.26169593624715</v>
       </c>
     </row>

--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -1833,11 +1833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693220016"/>
-        <c:axId val="693221584"/>
+        <c:axId val="598441088"/>
+        <c:axId val="598443440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693220016"/>
+        <c:axId val="598441088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,12 +1954,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693221584"/>
+        <c:crossAx val="598443440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693221584"/>
+        <c:axId val="598443440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693220016"/>
+        <c:crossAx val="598441088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2297,11 +2297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="601854664"/>
-        <c:axId val="594858264"/>
+        <c:axId val="600704384"/>
+        <c:axId val="600708696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="601854664"/>
+        <c:axId val="600704384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,12 +2358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594858264"/>
+        <c:crossAx val="600708696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="594858264"/>
+        <c:axId val="600708696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2421,7 +2421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601854664"/>
+        <c:crossAx val="600704384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2748,8 +2748,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="594860224"/>
-        <c:axId val="526069808"/>
+        <c:axId val="600709480"/>
+        <c:axId val="600712224"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2964,11 +2964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="597455712"/>
-        <c:axId val="526070592"/>
+        <c:axId val="600714184"/>
+        <c:axId val="600713008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="594860224"/>
+        <c:axId val="600709480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3027,12 +3027,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526069808"/>
+        <c:crossAx val="600712224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526069808"/>
+        <c:axId val="600712224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -3091,12 +3091,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594860224"/>
+        <c:crossAx val="600709480"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526070592"/>
+        <c:axId val="600713008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3141,12 +3141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597455712"/>
+        <c:crossAx val="600714184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="597455712"/>
+        <c:axId val="600714184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3157,7 +3157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526070592"/>
+        <c:crossAx val="600713008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3533,8 +3533,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593892272"/>
-        <c:axId val="593889136"/>
+        <c:axId val="600716144"/>
+        <c:axId val="530591016"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3749,11 +3749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="587799192"/>
-        <c:axId val="587798800"/>
+        <c:axId val="530593368"/>
+        <c:axId val="530594152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593892272"/>
+        <c:axId val="600716144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3812,12 +3812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593889136"/>
+        <c:crossAx val="530591016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593889136"/>
+        <c:axId val="530591016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -3876,12 +3876,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593892272"/>
+        <c:crossAx val="600716144"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587798800"/>
+        <c:axId val="530594152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -3926,13 +3926,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587799192"/>
+        <c:crossAx val="530593368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587799192"/>
+        <c:axId val="530593368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3943,7 +3943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="587798800"/>
+        <c:crossAx val="530594152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4326,8 +4326,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692507808"/>
-        <c:axId val="593372904"/>
+        <c:axId val="530588664"/>
+        <c:axId val="530589056"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4542,11 +4542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692399040"/>
-        <c:axId val="692398648"/>
+        <c:axId val="530590232"/>
+        <c:axId val="530589448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="692507808"/>
+        <c:axId val="530588664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4605,12 +4605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593372904"/>
+        <c:crossAx val="530589056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593372904"/>
+        <c:axId val="530589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -4669,12 +4669,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692507808"/>
+        <c:crossAx val="530588664"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692398648"/>
+        <c:axId val="530589448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4719,12 +4719,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692399040"/>
+        <c:crossAx val="530590232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692399040"/>
+        <c:axId val="530590232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4735,7 +4735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692398648"/>
+        <c:crossAx val="530589448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5103,8 +5103,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692402568"/>
-        <c:axId val="692400608"/>
+        <c:axId val="161773376"/>
+        <c:axId val="161769064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5319,11 +5319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692402960"/>
-        <c:axId val="692401784"/>
+        <c:axId val="161768280"/>
+        <c:axId val="161774552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="692402568"/>
+        <c:axId val="161773376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5382,12 +5382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692400608"/>
+        <c:crossAx val="161769064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692400608"/>
+        <c:axId val="161769064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5446,12 +5446,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692402568"/>
+        <c:crossAx val="161773376"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692401784"/>
+        <c:axId val="161774552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5496,12 +5496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692402960"/>
+        <c:crossAx val="161768280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692402960"/>
+        <c:axId val="161768280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5512,7 +5512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692401784"/>
+        <c:crossAx val="161774552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5873,8 +5873,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692399824"/>
-        <c:axId val="692400216"/>
+        <c:axId val="161769848"/>
+        <c:axId val="161771416"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6089,11 +6089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692395512"/>
-        <c:axId val="692401000"/>
+        <c:axId val="558669928"/>
+        <c:axId val="558671104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="692399824"/>
+        <c:axId val="161769848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6152,12 +6152,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692400216"/>
+        <c:crossAx val="161771416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692400216"/>
+        <c:axId val="161771416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -6216,12 +6216,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692399824"/>
+        <c:crossAx val="161769848"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692401000"/>
+        <c:axId val="558671104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6266,12 +6266,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692395512"/>
+        <c:crossAx val="558669928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692395512"/>
+        <c:axId val="558669928"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6282,7 +6282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692401000"/>
+        <c:crossAx val="558671104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6658,8 +6658,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692396296"/>
-        <c:axId val="692397864"/>
+        <c:axId val="558673848"/>
+        <c:axId val="558675808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6874,11 +6874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692401392"/>
-        <c:axId val="692397472"/>
+        <c:axId val="558673064"/>
+        <c:axId val="558672672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="692396296"/>
+        <c:axId val="558673848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6937,12 +6937,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692397864"/>
+        <c:crossAx val="558675808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692397864"/>
+        <c:axId val="558675808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -7001,12 +7001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692396296"/>
+        <c:crossAx val="558673848"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692397472"/>
+        <c:axId val="558672672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7051,12 +7051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692401392"/>
+        <c:crossAx val="558673064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692401392"/>
+        <c:axId val="558673064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7067,7 +7067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692397472"/>
+        <c:crossAx val="558672672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7443,8 +7443,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="692396688"/>
-        <c:axId val="692398256"/>
+        <c:axId val="596720808"/>
+        <c:axId val="596728648"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -7659,11 +7659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166541936"/>
-        <c:axId val="166539192"/>
+        <c:axId val="596724336"/>
+        <c:axId val="596721592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="692396688"/>
+        <c:axId val="596720808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7722,12 +7722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692398256"/>
+        <c:crossAx val="596728648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="692398256"/>
+        <c:axId val="596728648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -7786,12 +7786,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="692396688"/>
+        <c:crossAx val="596720808"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166539192"/>
+        <c:axId val="596721592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7836,12 +7836,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166541936"/>
+        <c:crossAx val="596724336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166541936"/>
+        <c:axId val="596724336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7852,7 +7852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166539192"/>
+        <c:crossAx val="596721592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7866,7 +7866,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8221,8 +8220,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166540368"/>
-        <c:axId val="166541152"/>
+        <c:axId val="530550912"/>
+        <c:axId val="530543464"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8437,11 +8436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166538800"/>
-        <c:axId val="166539976"/>
+        <c:axId val="530547384"/>
+        <c:axId val="530546208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166540368"/>
+        <c:axId val="530550912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8500,12 +8499,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166541152"/>
+        <c:crossAx val="530543464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166541152"/>
+        <c:axId val="530543464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -8564,12 +8563,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166540368"/>
+        <c:crossAx val="530550912"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166539976"/>
+        <c:axId val="530546208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8614,12 +8613,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166538800"/>
+        <c:crossAx val="530547384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166538800"/>
+        <c:axId val="530547384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8630,7 +8629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166539976"/>
+        <c:crossAx val="530546208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8644,7 +8643,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8763,8 +8761,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -9032,28 +9030,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>26.777112036937371</c:v>
+                  <c:v>18.349332141930159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.487898572106765</c:v>
+                  <c:v>28.457488763966595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.784103318462122</c:v>
+                  <c:v>41.484597621753984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.286002466951672</c:v>
+                  <c:v>49.367118588734272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.025987241920845</c:v>
+                  <c:v>56.494941386998597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.827420491757252</c:v>
+                  <c:v>66.699385197396992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.804201243764425</c:v>
+                  <c:v>73.161670282743401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.555343808258939</c:v>
+                  <c:v>75.03988040426492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9101,11 +9099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166539584"/>
-        <c:axId val="166541544"/>
+        <c:axId val="530546992"/>
+        <c:axId val="160404296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166539584"/>
+        <c:axId val="530546992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9198,12 +9196,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166541544"/>
+        <c:crossAx val="160404296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166541544"/>
+        <c:axId val="160404296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -9261,7 +9259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166539584"/>
+        <c:crossAx val="530546992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9598,8 +9596,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161625272"/>
-        <c:axId val="161624488"/>
+        <c:axId val="598444224"/>
+        <c:axId val="598445008"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9791,11 +9789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161624880"/>
-        <c:axId val="161626448"/>
+        <c:axId val="598435208"/>
+        <c:axId val="598434816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161625272"/>
+        <c:axId val="598444224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -9915,13 +9913,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161624488"/>
+        <c:crossAx val="598445008"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161624488"/>
+        <c:axId val="598445008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10036,12 +10034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161625272"/>
+        <c:crossAx val="598444224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161626448"/>
+        <c:axId val="598434816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -10142,13 +10140,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161624880"/>
+        <c:crossAx val="598435208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161624880"/>
+        <c:axId val="598435208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10158,7 +10156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161626448"/>
+        <c:crossAx val="598434816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10399,11 +10397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699328312"/>
-        <c:axId val="699329096"/>
+        <c:axId val="160405080"/>
+        <c:axId val="159696240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699328312"/>
+        <c:axId val="160405080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,12 +10411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699329096"/>
+        <c:crossAx val="159696240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699329096"/>
+        <c:axId val="159696240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10429,7 +10427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699328312"/>
+        <c:crossAx val="160405080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10693,11 +10691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699325960"/>
-        <c:axId val="699326352"/>
+        <c:axId val="603576960"/>
+        <c:axId val="664911360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699325960"/>
+        <c:axId val="603576960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10754,12 +10752,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699326352"/>
+        <c:crossAx val="664911360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699326352"/>
+        <c:axId val="664911360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10816,7 +10814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699325960"/>
+        <c:crossAx val="603576960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11114,8 +11112,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699328704"/>
-        <c:axId val="699331448"/>
+        <c:axId val="664916456"/>
+        <c:axId val="664919984"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -11296,11 +11294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699330272"/>
-        <c:axId val="699330664"/>
+        <c:axId val="664916848"/>
+        <c:axId val="664921160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699328704"/>
+        <c:axId val="664916456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -11419,13 +11417,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699331448"/>
+        <c:crossAx val="664919984"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699331448"/>
+        <c:axId val="664919984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11539,12 +11537,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699328704"/>
+        <c:crossAx val="664916456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699330664"/>
+        <c:axId val="664921160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -11644,13 +11642,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699330272"/>
+        <c:crossAx val="664916848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699330272"/>
+        <c:axId val="664916848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11660,7 +11658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699330664"/>
+        <c:crossAx val="664921160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11927,11 +11925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699326744"/>
-        <c:axId val="699324000"/>
+        <c:axId val="664919200"/>
+        <c:axId val="664912144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699326744"/>
+        <c:axId val="664919200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11961,12 +11959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699324000"/>
+        <c:crossAx val="664912144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699324000"/>
+        <c:axId val="664912144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11995,7 +11993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699326744"/>
+        <c:crossAx val="664919200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12442,11 +12440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699332232"/>
-        <c:axId val="699331056"/>
+        <c:axId val="664920376"/>
+        <c:axId val="664911752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699332232"/>
+        <c:axId val="664920376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12552,12 +12550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699331056"/>
+        <c:crossAx val="664911752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699331056"/>
+        <c:axId val="664911752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12609,7 +12607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699332232"/>
+        <c:crossAx val="664920376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12834,11 +12832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699322432"/>
-        <c:axId val="699332624"/>
+        <c:axId val="664914104"/>
+        <c:axId val="664914888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699322432"/>
+        <c:axId val="664914104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12848,12 +12846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699332624"/>
+        <c:crossAx val="664914888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699332624"/>
+        <c:axId val="664914888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12864,7 +12862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699322432"/>
+        <c:crossAx val="664914104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13010,11 +13008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699333016"/>
-        <c:axId val="699327136"/>
+        <c:axId val="664913320"/>
+        <c:axId val="664912536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699333016"/>
+        <c:axId val="664913320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13024,7 +13022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699327136"/>
+        <c:crossAx val="664912536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -13033,7 +13031,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699327136"/>
+        <c:axId val="664912536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13044,7 +13042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699333016"/>
+        <c:crossAx val="664913320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13320,11 +13318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699334192"/>
-        <c:axId val="699323216"/>
+        <c:axId val="664909400"/>
+        <c:axId val="664909792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699334192"/>
+        <c:axId val="664909400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13352,12 +13350,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699323216"/>
+        <c:crossAx val="664909792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699323216"/>
+        <c:axId val="664909792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13368,7 +13366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699334192"/>
+        <c:crossAx val="664909400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13569,11 +13567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699323608"/>
-        <c:axId val="699324392"/>
+        <c:axId val="664914496"/>
+        <c:axId val="664912928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699323608"/>
+        <c:axId val="664914496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13583,12 +13581,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699324392"/>
+        <c:crossAx val="664912928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699324392"/>
+        <c:axId val="664912928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13599,7 +13597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699323608"/>
+        <c:crossAx val="664914496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13833,11 +13831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699325176"/>
-        <c:axId val="699325568"/>
+        <c:axId val="664913712"/>
+        <c:axId val="664915280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699325176"/>
+        <c:axId val="664913712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13949,12 +13947,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699325568"/>
+        <c:crossAx val="664915280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699325568"/>
+        <c:axId val="664915280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14066,7 +14064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699325176"/>
+        <c:crossAx val="664913712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14305,11 +14303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161626056"/>
-        <c:axId val="161628016"/>
+        <c:axId val="598448536"/>
+        <c:axId val="600829648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161626056"/>
+        <c:axId val="598448536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -14339,12 +14337,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161628016"/>
+        <c:crossAx val="600829648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161628016"/>
+        <c:axId val="600829648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14373,7 +14371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161626056"/>
+        <c:crossAx val="598448536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14620,11 +14618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699336936"/>
-        <c:axId val="699337328"/>
+        <c:axId val="664917632"/>
+        <c:axId val="664918024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699336936"/>
+        <c:axId val="664917632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14681,12 +14679,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699337328"/>
+        <c:crossAx val="664918024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699337328"/>
+        <c:axId val="664918024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14743,7 +14741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699336936"/>
+        <c:crossAx val="664917632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15041,8 +15039,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699338112"/>
-        <c:axId val="699334976"/>
+        <c:axId val="664918808"/>
+        <c:axId val="664928216"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -15210,11 +15208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699335760"/>
-        <c:axId val="699335368"/>
+        <c:axId val="664926256"/>
+        <c:axId val="664925864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699338112"/>
+        <c:axId val="664918808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -15333,12 +15331,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699334976"/>
+        <c:crossAx val="664928216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699334976"/>
+        <c:axId val="664928216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15450,12 +15448,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699338112"/>
+        <c:crossAx val="664918808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699335368"/>
+        <c:axId val="664925864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15498,12 +15496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699335760"/>
+        <c:crossAx val="664926256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699335760"/>
+        <c:axId val="664926256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15513,7 +15511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699335368"/>
+        <c:crossAx val="664925864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15767,11 +15765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697505888"/>
-        <c:axId val="697504712"/>
+        <c:axId val="664926648"/>
+        <c:axId val="664927040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697505888"/>
+        <c:axId val="664926648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -15801,12 +15799,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697504712"/>
+        <c:crossAx val="664927040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697504712"/>
+        <c:axId val="664927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15835,7 +15833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697505888"/>
+        <c:crossAx val="664926648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15970,11 +15968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697503928"/>
-        <c:axId val="697507064"/>
+        <c:axId val="664924688"/>
+        <c:axId val="664923120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697503928"/>
+        <c:axId val="664924688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16002,12 +16000,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697507064"/>
+        <c:crossAx val="664923120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697507064"/>
+        <c:axId val="664923120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16018,7 +16016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697503928"/>
+        <c:crossAx val="664924688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16217,11 +16215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697502360"/>
-        <c:axId val="697505496"/>
+        <c:axId val="664925080"/>
+        <c:axId val="664925472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697502360"/>
+        <c:axId val="664925080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -16280,12 +16278,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697505496"/>
+        <c:crossAx val="664925472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697505496"/>
+        <c:axId val="664925472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16342,7 +16340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697502360"/>
+        <c:crossAx val="664925080"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16605,11 +16603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697511376"/>
-        <c:axId val="697509416"/>
+        <c:axId val="664923512"/>
+        <c:axId val="664927432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697511376"/>
+        <c:axId val="664923512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16666,12 +16664,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697509416"/>
+        <c:crossAx val="664927432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697509416"/>
+        <c:axId val="664927432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16728,7 +16726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697511376"/>
+        <c:crossAx val="664923512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16994,11 +16992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697507456"/>
-        <c:axId val="697508632"/>
+        <c:axId val="664922336"/>
+        <c:axId val="664927824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697507456"/>
+        <c:axId val="664922336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17055,12 +17053,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697508632"/>
+        <c:crossAx val="664927824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697508632"/>
+        <c:axId val="664927824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17117,7 +17115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697507456"/>
+        <c:crossAx val="664922336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17390,11 +17388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697506280"/>
-        <c:axId val="697505104"/>
+        <c:axId val="664898816"/>
+        <c:axId val="664900384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697506280"/>
+        <c:axId val="664898816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17506,12 +17504,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697505104"/>
+        <c:crossAx val="664900384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697505104"/>
+        <c:axId val="664900384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -17624,7 +17622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697506280"/>
+        <c:crossAx val="664898816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18127,11 +18125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="589024376"/>
-        <c:axId val="589025160"/>
+        <c:axId val="600830040"/>
+        <c:axId val="600826512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="589024376"/>
+        <c:axId val="600830040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18237,12 +18235,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589025160"/>
+        <c:crossAx val="600826512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="589025160"/>
+        <c:axId val="600826512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -18294,7 +18292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589024376"/>
+        <c:crossAx val="600830040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18446,7 +18444,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
               <c:txPr>
                 <a:bodyPr/>
@@ -18739,11 +18736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="589025552"/>
-        <c:axId val="589025944"/>
+        <c:axId val="600830432"/>
+        <c:axId val="600827296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="589025552"/>
+        <c:axId val="600830432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18753,12 +18750,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="589025944"/>
+        <c:crossAx val="600827296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="589025944"/>
+        <c:axId val="600827296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18769,7 +18766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="589025552"/>
+        <c:crossAx val="600830432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19077,6 +19074,22 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>CalPhotonTurnigy!$AM$21:$AM$29</c:f>
@@ -19120,7 +19133,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.33</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.28000000000000003</c:v>
@@ -19159,11 +19172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="589022808"/>
-        <c:axId val="693613352"/>
+        <c:axId val="600826120"/>
+        <c:axId val="600823376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="589022808"/>
+        <c:axId val="600826120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35000"/>
@@ -19194,12 +19207,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="693613352"/>
+        <c:crossAx val="600823376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693613352"/>
+        <c:axId val="600823376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -19230,7 +19243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="589022808"/>
+        <c:crossAx val="600826120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19523,11 +19536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693614528"/>
-        <c:axId val="693614920"/>
+        <c:axId val="602352448"/>
+        <c:axId val="602354408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693614528"/>
+        <c:axId val="602352448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19537,12 +19550,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="693614920"/>
+        <c:crossAx val="602354408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693614920"/>
+        <c:axId val="602354408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19553,7 +19566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="693614528"/>
+        <c:crossAx val="602352448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19947,11 +19960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696569920"/>
-        <c:axId val="696570312"/>
+        <c:axId val="602353624"/>
+        <c:axId val="602354800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696569920"/>
+        <c:axId val="602353624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20008,12 +20021,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696570312"/>
+        <c:crossAx val="602354800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="696570312"/>
+        <c:axId val="602354800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20070,7 +20083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696569920"/>
+        <c:crossAx val="602353624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20687,11 +20700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="601854272"/>
-        <c:axId val="601857016"/>
+        <c:axId val="602357152"/>
+        <c:axId val="602357544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="601854272"/>
+        <c:axId val="602357152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20748,12 +20761,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601857016"/>
+        <c:crossAx val="602357544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="601857016"/>
+        <c:axId val="602357544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20810,7 +20823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601854272"/>
+        <c:crossAx val="602357152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -31236,9 +31249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ16" sqref="AZ16"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS32" sqref="AS32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34198,7 +34211,7 @@
         <v>7.3801227827272476E-4</v>
       </c>
       <c r="AQ21" s="176">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AR21" s="159">
         <v>6.9047658670256907E-8</v>
@@ -38659,8 +38672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV33"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BD20" sqref="BD20"/>
+    <sheetView topLeftCell="AU7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39215,7 +39228,7 @@
         <v>19.999999999999996</v>
       </c>
       <c r="BA3" s="146">
-        <f t="shared" ref="BA2:BA10" si="30">$AX$14+$AY$14*$AV3*$AX$13+$AZ$14*($AV3*$AX$13)^2</f>
+        <f t="shared" ref="BA3:BA10" si="30">$AX$14+$AY$14*$AV3*$AX$13+$AZ$14*($AV3*$AX$13)^2</f>
         <v>4.2446501986836776E-4</v>
       </c>
       <c r="BB3" s="146">
@@ -39223,7 +39236,7 @@
         <v>1.0190599989802014E-7</v>
       </c>
       <c r="BC3" s="146">
-        <f t="shared" ref="BC2:BC10" si="32">$AY$14+2*$AV3*$AZ$14*$AX$13</f>
+        <f t="shared" ref="BC3:BC10" si="32">$AY$14+2*$AV3*$AZ$14*$AX$13</f>
         <v>1.3476434112578325E-7</v>
       </c>
       <c r="BD3" s="146">
@@ -39882,9 +39895,7 @@
       <c r="BI6" s="159">
         <v>0.70091118459969781</v>
       </c>
-      <c r="BJ6" s="159">
-        <v>16.138467712878235</v>
-      </c>
+      <c r="BJ6" s="159"/>
       <c r="BK6" s="159"/>
       <c r="BL6" s="159"/>
       <c r="BM6" t="str">
@@ -40097,7 +40108,7 @@
         <v>8.8118975354312457E-2</v>
       </c>
       <c r="BJ7" s="159">
-        <v>26.777112036937371</v>
+        <v>18.349332141930159</v>
       </c>
       <c r="BK7" s="159">
         <v>0.2622861097452871</v>
@@ -40313,7 +40324,7 @@
         <v>6.2906429754981188E-2</v>
       </c>
       <c r="BJ8" s="159">
-        <v>40.487898572106765</v>
+        <v>28.457488763966595</v>
       </c>
       <c r="BK8" s="159">
         <v>0.15327768207325029</v>
@@ -40529,7 +40540,7 @@
         <v>4.5959283219000051E-2</v>
       </c>
       <c r="BJ9" s="159">
-        <v>48.784103318462122</v>
+        <v>41.484597621753984</v>
       </c>
       <c r="BK9" s="159">
         <v>9.3499270545763416E-2</v>
@@ -40745,7 +40756,7 @@
         <v>3.9517474546856557E-2</v>
       </c>
       <c r="BJ10" s="159">
-        <v>56.286002466951672</v>
+        <v>49.367118588734272</v>
       </c>
       <c r="BK10" s="159">
         <v>8.2313306461443872E-2</v>
@@ -40929,7 +40940,7 @@
         <v>3.5072283984146982E-2</v>
       </c>
       <c r="BJ11" s="159">
-        <v>67.025987241920845</v>
+        <v>56.494941386998597</v>
       </c>
       <c r="BK11" s="159">
         <v>6.3631390354086409E-2</v>
@@ -41110,7 +41121,7 @@
         <v>3.0207645977385542E-2</v>
       </c>
       <c r="BJ12" s="159">
-        <v>73.827420491757252</v>
+        <v>66.699385197396992</v>
       </c>
       <c r="BK12" s="159">
         <v>4.8062113370621579E-2</v>
@@ -41288,7 +41299,7 @@
         <v>2.7768510934620131E-2</v>
       </c>
       <c r="BJ13" s="159">
-        <v>75.804201243764425</v>
+        <v>73.161670282743401</v>
       </c>
       <c r="BK13" s="159">
         <v>3.9676981378982325E-2</v>
@@ -41472,7 +41483,7 @@
         <v>2.7131780912102672E-2</v>
       </c>
       <c r="BJ14" s="159">
-        <v>78.555343808258939</v>
+        <v>75.03988040426492</v>
       </c>
       <c r="BK14" s="159">
         <v>3.7281900353922377E-2</v>

--- a/myESC-Particle-DEV/saves/calibration20161019.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19650" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19656" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="CalPhotonTurnigy" sheetId="4" r:id="rId1"/>
@@ -13,12 +18,12 @@
     <sheet name="CalArduinoHiTec" sheetId="1" r:id="rId4"/>
     <sheet name="CalPhotonHiTec" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="220">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -1125,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1461,6 +1466,7 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1532,6 +1538,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1698,11 +1724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212932096"/>
-        <c:axId val="212934016"/>
+        <c:axId val="195317744"/>
+        <c:axId val="195318136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212932096"/>
+        <c:axId val="195317744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,6 +1788,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1800,12 +1846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212934016"/>
+        <c:crossAx val="195318136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212934016"/>
+        <c:axId val="195318136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,6 +1906,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1898,7 +1964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212932096"/>
+        <c:crossAx val="195317744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1996,6 +2062,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2104,11 +2190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215523328"/>
-        <c:axId val="215525248"/>
+        <c:axId val="547097824"/>
+        <c:axId val="547095472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215523328"/>
+        <c:axId val="547097824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,12 +2251,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215525248"/>
+        <c:crossAx val="547095472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215525248"/>
+        <c:axId val="547095472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2228,7 +2314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215523328"/>
+        <c:crossAx val="547097824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2381,31 +2467,31 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>0.34599999999999997</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28199999999999997</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2420,11 +2506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305461504"/>
-        <c:axId val="305459584"/>
+        <c:axId val="547100176"/>
+        <c:axId val="547098608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305461504"/>
+        <c:axId val="547100176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2437,13 +2523,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305459584"/>
+        <c:crossAx val="547098608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305459584"/>
+        <c:axId val="547098608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305461504"/>
+        <c:crossAx val="547100176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2826,11 +2912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215650688"/>
-        <c:axId val="215652608"/>
+        <c:axId val="547099392"/>
+        <c:axId val="547277432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215650688"/>
+        <c:axId val="547099392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,12 +3009,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215652608"/>
+        <c:crossAx val="547277432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215652608"/>
+        <c:axId val="547277432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -2986,7 +3072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215650688"/>
+        <c:crossAx val="547099392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3129,6 +3215,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3298,11 +3404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213091072"/>
-        <c:axId val="213092608"/>
+        <c:axId val="547277040"/>
+        <c:axId val="547279784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213091072"/>
+        <c:axId val="547277040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3359,12 +3465,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213092608"/>
+        <c:crossAx val="547279784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213092608"/>
+        <c:axId val="547279784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213091072"/>
+        <c:crossAx val="547277040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3518,6 +3624,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3699,8 +3825,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213149184"/>
-        <c:axId val="213151104"/>
+        <c:axId val="547282920"/>
+        <c:axId val="547282528"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3881,11 +4007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213163392"/>
-        <c:axId val="213161472"/>
+        <c:axId val="547283312"/>
+        <c:axId val="547278216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213149184"/>
+        <c:axId val="547282920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -3946,6 +4072,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3984,13 +4130,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213151104"/>
+        <c:crossAx val="547282528"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213151104"/>
+        <c:axId val="547282528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4046,6 +4192,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4084,12 +4250,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213149184"/>
+        <c:crossAx val="547282920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213161472"/>
+        <c:axId val="547278216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -4131,6 +4297,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -4169,13 +4355,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213163392"/>
+        <c:crossAx val="547283312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213163392"/>
+        <c:axId val="547283312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,7 +4371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213161472"/>
+        <c:crossAx val="547278216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4452,11 +4638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213217664"/>
-        <c:axId val="213219584"/>
+        <c:axId val="547283704"/>
+        <c:axId val="547278608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213217664"/>
+        <c:axId val="547283704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4486,12 +4672,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213219584"/>
+        <c:crossAx val="547278608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213219584"/>
+        <c:axId val="547278608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4520,7 +4706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213217664"/>
+        <c:crossAx val="547283704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4589,6 +4775,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4947,11 +5153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213250048"/>
-        <c:axId val="213251968"/>
+        <c:axId val="547280960"/>
+        <c:axId val="547279392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213250048"/>
+        <c:axId val="547280960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,6 +5211,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5037,12 +5263,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213251968"/>
+        <c:crossAx val="547279392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213251968"/>
+        <c:axId val="547279392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5094,7 +5320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213250048"/>
+        <c:crossAx val="547280960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5319,11 +5545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215960192"/>
-        <c:axId val="215974272"/>
+        <c:axId val="547281352"/>
+        <c:axId val="547284096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215960192"/>
+        <c:axId val="547281352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,12 +5559,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215974272"/>
+        <c:crossAx val="547284096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215974272"/>
+        <c:axId val="547284096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,7 +5575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215960192"/>
+        <c:crossAx val="547281352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5495,11 +5721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216072576"/>
-        <c:axId val="216074496"/>
+        <c:axId val="548093768"/>
+        <c:axId val="548097688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216072576"/>
+        <c:axId val="548093768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5509,7 +5735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216074496"/>
+        <c:crossAx val="548097688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -5518,7 +5744,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216074496"/>
+        <c:axId val="548097688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5529,7 +5755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216072576"/>
+        <c:crossAx val="548093768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5805,11 +6031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216103936"/>
-        <c:axId val="216118400"/>
+        <c:axId val="548092592"/>
+        <c:axId val="548096904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216103936"/>
+        <c:axId val="548092592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5837,12 +6063,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216118400"/>
+        <c:crossAx val="548096904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216118400"/>
+        <c:axId val="548096904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5853,7 +6079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216103936"/>
+        <c:crossAx val="548092592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5933,6 +6159,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6111,8 +6357,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215096320"/>
-        <c:axId val="215106688"/>
+        <c:axId val="195320096"/>
+        <c:axId val="195318528"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6304,11 +6550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215123072"/>
-        <c:axId val="215108608"/>
+        <c:axId val="195318920"/>
+        <c:axId val="195320880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215096320"/>
+        <c:axId val="195320096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -6370,6 +6616,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6408,13 +6674,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215106688"/>
+        <c:crossAx val="195318528"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215106688"/>
+        <c:axId val="195318528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6471,6 +6737,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6509,12 +6795,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215096320"/>
+        <c:crossAx val="195320096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215108608"/>
+        <c:axId val="195320880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="240"/>
@@ -6557,6 +6843,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -6595,13 +6901,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215123072"/>
+        <c:crossAx val="195318920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215123072"/>
+        <c:axId val="195318920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,7 +6917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215108608"/>
+        <c:crossAx val="195320880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6871,11 +7177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216212608"/>
-        <c:axId val="216214144"/>
+        <c:axId val="548097296"/>
+        <c:axId val="548095336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216212608"/>
+        <c:axId val="548097296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6885,12 +7191,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216214144"/>
+        <c:crossAx val="548095336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216214144"/>
+        <c:axId val="548095336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6901,7 +7207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216212608"/>
+        <c:crossAx val="548097296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6980,6 +7286,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7115,11 +7441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216260992"/>
-        <c:axId val="216262912"/>
+        <c:axId val="548092984"/>
+        <c:axId val="548096512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216260992"/>
+        <c:axId val="548092984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,6 +7499,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7211,12 +7557,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216262912"/>
+        <c:crossAx val="548096512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216262912"/>
+        <c:axId val="548096512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7270,6 +7616,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7308,7 +7674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216260992"/>
+        <c:crossAx val="548092984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7410,6 +7776,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7567,11 +7953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216296448"/>
-        <c:axId val="216314624"/>
+        <c:axId val="548098080"/>
+        <c:axId val="548094160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216296448"/>
+        <c:axId val="548098080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7628,12 +8014,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216314624"/>
+        <c:crossAx val="548094160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216314624"/>
+        <c:axId val="548094160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7690,7 +8076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216296448"/>
+        <c:crossAx val="548098080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7787,6 +8173,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7968,8 +8374,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216379392"/>
-        <c:axId val="216381312"/>
+        <c:axId val="548094944"/>
+        <c:axId val="548095728"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8137,11 +8543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216393216"/>
-        <c:axId val="216391680"/>
+        <c:axId val="548092200"/>
+        <c:axId val="548098864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216379392"/>
+        <c:axId val="548094944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -8202,6 +8608,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8240,12 +8666,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216381312"/>
+        <c:crossAx val="548095728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216381312"/>
+        <c:axId val="548095728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8299,6 +8725,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8337,12 +8783,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216379392"/>
+        <c:crossAx val="548094944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216391680"/>
+        <c:axId val="548098864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8385,12 +8831,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216393216"/>
+        <c:crossAx val="548092200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216393216"/>
+        <c:axId val="548092200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8400,7 +8846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216391680"/>
+        <c:crossAx val="548098864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8654,11 +9100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216418560"/>
-        <c:axId val="216424832"/>
+        <c:axId val="547498496"/>
+        <c:axId val="547496928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216418560"/>
+        <c:axId val="547498496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8688,12 +9134,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216424832"/>
+        <c:crossAx val="547496928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216424832"/>
+        <c:axId val="547496928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8722,7 +9168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216418560"/>
+        <c:crossAx val="547498496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8857,11 +9303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216454272"/>
-        <c:axId val="216456192"/>
+        <c:axId val="547498888"/>
+        <c:axId val="547501240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216454272"/>
+        <c:axId val="547498888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8889,12 +9335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216456192"/>
+        <c:crossAx val="547501240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216456192"/>
+        <c:axId val="547501240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8905,7 +9351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216454272"/>
+        <c:crossAx val="547498888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9104,11 +9550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216547712"/>
-        <c:axId val="216549248"/>
+        <c:axId val="547501632"/>
+        <c:axId val="547495752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216547712"/>
+        <c:axId val="547501632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -9167,12 +9613,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216549248"/>
+        <c:crossAx val="547495752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216549248"/>
+        <c:axId val="547495752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9229,7 +9675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216547712"/>
+        <c:crossAx val="547501632"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9492,11 +9938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216606976"/>
-        <c:axId val="216608768"/>
+        <c:axId val="547502808"/>
+        <c:axId val="547499280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216606976"/>
+        <c:axId val="547502808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9553,12 +9999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216608768"/>
+        <c:crossAx val="547499280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216608768"/>
+        <c:axId val="547499280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9615,7 +10061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216606976"/>
+        <c:crossAx val="547502808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9881,11 +10327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216646016"/>
-        <c:axId val="216647552"/>
+        <c:axId val="547502416"/>
+        <c:axId val="547497712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216646016"/>
+        <c:axId val="547502416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9942,12 +10388,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216647552"/>
+        <c:crossAx val="547497712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216647552"/>
+        <c:axId val="547497712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10004,7 +10450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216646016"/>
+        <c:crossAx val="547502416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10101,6 +10547,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10257,11 +10723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216767872"/>
-        <c:axId val="215704704"/>
+        <c:axId val="547497320"/>
+        <c:axId val="547498104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216767872"/>
+        <c:axId val="547497320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10315,6 +10781,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10353,12 +10839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215704704"/>
+        <c:crossAx val="547498104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215704704"/>
+        <c:axId val="547498104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10413,6 +10899,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10451,7 +10957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216767872"/>
+        <c:crossAx val="547497320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10691,11 +11197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215144320"/>
-        <c:axId val="215158784"/>
+        <c:axId val="195314608"/>
+        <c:axId val="195319312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215144320"/>
+        <c:axId val="195314608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10726,12 +11232,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215158784"/>
+        <c:crossAx val="195319312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215158784"/>
+        <c:axId val="195319312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10761,7 +11267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215144320"/>
+        <c:crossAx val="195314608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10831,6 +11337,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -11213,11 +11739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215190528"/>
-        <c:axId val="215200896"/>
+        <c:axId val="195321272"/>
+        <c:axId val="195319704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215190528"/>
+        <c:axId val="195321272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11272,6 +11798,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -11304,12 +11850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215200896"/>
+        <c:crossAx val="195319704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215200896"/>
+        <c:axId val="195319704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11361,7 +11907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215190528"/>
+        <c:crossAx val="195321272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11806,11 +12352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215304448"/>
-        <c:axId val="215322624"/>
+        <c:axId val="195316176"/>
+        <c:axId val="189995976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215304448"/>
+        <c:axId val="195316176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11820,12 +12366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215322624"/>
+        <c:crossAx val="189995976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215322624"/>
+        <c:axId val="189995976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11836,7 +12382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215304448"/>
+        <c:crossAx val="195316176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11954,28 +12500,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8455.3722510014177</c:v>
+                  <c:v>8334.7660985153307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13113.210822435807</c:v>
+                  <c:v>13026.303246203512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19116.102584104236</c:v>
+                  <c:v>19072.624788159832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22748.368245688755</c:v>
+                  <c:v>22731.169201035049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26032.868991128955</c:v>
+                  <c:v>26039.432684734289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30735.076698960533</c:v>
+                  <c:v>30775.659971083536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33712.897666288161</c:v>
+                  <c:v>33775.02490679879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34578.376890285275</c:v>
+                  <c:v>34646.76570838788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11987,28 +12533,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.26361244228616765</c:v>
+                  <c:v>0.26347437729902756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1695730621144928</c:v>
+                  <c:v>0.12905525592830341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1094884265059754</c:v>
+                  <c:v>7.2306864265641271E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7456003440439115E-2</c:v>
+                  <c:v>6.2699967885530311E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6755564443698202E-2</c:v>
+                  <c:v>4.7283148803977743E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8899151908320242E-2</c:v>
+                  <c:v>3.500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9044356185778716E-2</c:v>
+                  <c:v>2.858597582971964E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5388749731949826E-2</c:v>
+                  <c:v>2.62687194788601E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12203,31 +12749,31 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.34599999999999997</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28199999999999997</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5999999999999993E-2</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12242,11 +12788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215345024"/>
-        <c:axId val="215351296"/>
+        <c:axId val="547097040"/>
+        <c:axId val="547096256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215345024"/>
+        <c:axId val="547097040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35000"/>
@@ -12277,12 +12823,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215351296"/>
+        <c:crossAx val="547096256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215351296"/>
+        <c:axId val="547096256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -12313,7 +12859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215345024"/>
+        <c:crossAx val="547097040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12534,28 +13080,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8455.3722510014177</c:v>
+                  <c:v>8334.7660985153307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13113.210822435807</c:v>
+                  <c:v>13026.303246203512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19116.102584104236</c:v>
+                  <c:v>19072.624788159832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22748.368245688755</c:v>
+                  <c:v>22731.169201035049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26032.868991128955</c:v>
+                  <c:v>26039.432684734289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30735.076698960533</c:v>
+                  <c:v>30775.659971083536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33712.897666288161</c:v>
+                  <c:v>33775.02490679879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34578.376890285275</c:v>
+                  <c:v>34646.76570838788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12579,11 +13125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215393408"/>
-        <c:axId val="215394944"/>
+        <c:axId val="547099000"/>
+        <c:axId val="547098216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215393408"/>
+        <c:axId val="547099000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12593,12 +13139,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215394944"/>
+        <c:crossAx val="547098216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215394944"/>
+        <c:axId val="547098216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12609,7 +13155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215393408"/>
+        <c:crossAx val="547099000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12623,7 +13169,7 @@
           <c:x val="0.12856846781577544"/>
           <c:y val="0.2770371879860597"/>
           <c:w val="0.72068043455019248"/>
-          <c:h val="0.13678749365783061"/>
+          <c:h val="0.1504901717489302"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -13003,11 +13549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215424384"/>
-        <c:axId val="215442944"/>
+        <c:axId val="547100960"/>
+        <c:axId val="547101352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215424384"/>
+        <c:axId val="547100960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13064,12 +13610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215442944"/>
+        <c:crossAx val="547101352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215442944"/>
+        <c:axId val="547101352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13126,7 +13672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215424384"/>
+        <c:crossAx val="547100960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13743,11 +14289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215476864"/>
-        <c:axId val="215483136"/>
+        <c:axId val="547102528"/>
+        <c:axId val="547101744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215476864"/>
+        <c:axId val="547102528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13804,12 +14350,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215483136"/>
+        <c:crossAx val="547101744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215483136"/>
+        <c:axId val="547101744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13866,7 +14412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215476864"/>
+        <c:crossAx val="547102528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23020,14 +23566,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>33867</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:to>
@@ -23142,16 +23688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>687917</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>78315</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>493185</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>264583</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>260348</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>357717</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23788,7 +24334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -23823,7 +24369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24034,55 +24580,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT38" sqref="AT38"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="5.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="7.88671875" customWidth="1"/>
     <col min="29" max="29" width="10" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
     <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" customWidth="1"/>
-    <col min="34" max="35" width="11.5703125" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" customWidth="1"/>
-    <col min="43" max="43" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" customWidth="1"/>
+    <col min="34" max="35" width="11.5546875" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" customWidth="1"/>
+    <col min="43" max="44" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.28515625" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.33203125" customWidth="1"/>
+    <col min="49" max="49" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="86.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -24230,7 +24776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B2" s="113">
         <f t="shared" ref="B2:B7" si="1">C2/180+1</f>
         <v>1.0000055555555556</v>
@@ -24299,11 +24845,11 @@
       </c>
       <c r="AK2" s="96">
         <f t="shared" ref="AK2:AK15" si="10">($AE$31+$AF$31*AJ2*$AE$26)/$AE$26</f>
-        <v>-18.379858705839208</v>
+        <v>-18.907319518350299</v>
       </c>
       <c r="AL2" s="96">
         <f t="shared" ref="AL2:AL15" si="11">($AE$32+$AF$32*AK2*$AE$26)/$AE$26</f>
-        <v>7.9564345991660124E-2</v>
+        <v>7.9793218228958712E-2</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AN15" si="12">MAX($AE$31+$AF$31*AI2, 0)</f>
@@ -24314,7 +24860,7 @@
       <c r="AS2" s="127"/>
       <c r="AT2" s="127"/>
     </row>
-    <row r="3" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B3" s="113">
         <f t="shared" si="1"/>
         <v>1.0408972290491105</v>
@@ -24397,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="95">
-        <f>$AE$45*(O3/$AE$26/100)^3</f>
+        <f>$AE$44*(O3/$AE$26/100)^3</f>
         <v>9.76843480821773E-87</v>
       </c>
       <c r="Z3" s="127">
@@ -24405,7 +24951,7 @@
         <v>9.469612348787209E-129</v>
       </c>
       <c r="AB3">
-        <f>SQRT(Y3/$AE$37/$AE$38)</f>
+        <f>SQRT(Y3/$AE$36/$AE$37)</f>
         <v>1.9388187636407961E-42</v>
       </c>
       <c r="AC3" s="4">
@@ -24438,11 +24984,11 @@
       </c>
       <c r="AK3" s="96">
         <f t="shared" si="10"/>
-        <v>-18.379858705839208</v>
+        <v>-18.907319518350299</v>
       </c>
       <c r="AL3" s="96">
         <f t="shared" si="11"/>
-        <v>7.9564345991660124E-2</v>
+        <v>7.9793218228958712E-2</v>
       </c>
       <c r="AN3">
         <f t="shared" si="12"/>
@@ -24539,7 +25085,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="95">
-        <f t="shared" ref="Y4:Y14" si="23">$AE$45*(O4/$AE$26/100)^3</f>
+        <f>$AE$44*(O4/$AE$26/100)^3</f>
         <v>1.9963943404514357E-2</v>
       </c>
       <c r="Z4" s="127">
@@ -24551,7 +25097,7 @@
         <v>0.86020026068297573</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB15" si="24">SQRT(Y4/$AE$37/$AE$38)</f>
+        <f>SQRT(Y4/$AE$36/$AE$37)</f>
         <v>2.7717106329049916</v>
       </c>
       <c r="AC4" s="4">
@@ -24563,7 +25109,7 @@
         <v>1.7278759594743859E-27</v>
       </c>
       <c r="AE4" s="158">
-        <f t="shared" ref="AE4:AE15" si="25">AD4/AB4</f>
+        <f t="shared" ref="AE4:AE15" si="23">AD4/AB4</f>
         <v>6.2339695167363955E-28</v>
       </c>
       <c r="AG4" s="95">
@@ -24584,18 +25130,18 @@
       </c>
       <c r="AK4" s="96">
         <f t="shared" si="10"/>
-        <v>-12.342682530228062</v>
+        <v>-12.826465521236472</v>
       </c>
       <c r="AL4" s="96">
         <f t="shared" si="11"/>
-        <v>6.2588081558872348</v>
+        <v>6.2612708809312894</v>
       </c>
       <c r="AN4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO4" s="127">
-        <f t="shared" ref="AO4:AO15" si="26">MAX($AE$33+$AI4*($AF$33+$AI4*$AG$33), 0)</f>
+        <f t="shared" ref="AO4:AO15" si="24">MAX($AE$33+$AI4*($AF$33+$AI4*$AG$33), 0)</f>
         <v>2.8885232311502262E-4</v>
       </c>
       <c r="AP4" s="127">
@@ -24603,14 +25149,14 @@
         <v>1.568357211313355E-4</v>
       </c>
       <c r="AQ4" s="146">
-        <f t="shared" ref="AQ4:AQ15" si="27">MAX($AF$33+$AG$33*2*AI4,1E-32)</f>
+        <f t="shared" ref="AQ4:AQ15" si="25">MAX($AF$33+$AG$33*2*AI4,1E-32)</f>
         <v>1.0000000000000001E-32</v>
       </c>
       <c r="AR4" s="95"/>
       <c r="AS4" s="127"/>
       <c r="AU4" s="95"/>
       <c r="AW4" s="128">
-        <f t="shared" ref="AW4:AW15" si="28">$X$33/$X$32</f>
+        <f t="shared" ref="AW4:AW15" si="26">$X$33/$X$32</f>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX4" s="96"/>
@@ -24696,11 +25242,11 @@
         <v>3.3049115580287588E-3</v>
       </c>
       <c r="X5" s="150">
-        <f t="shared" ref="X5:X15" si="29">W5-$W$4</f>
+        <f t="shared" ref="X5:X15" si="27">W5-$W$4</f>
         <v>3.2982065767668631E-4</v>
       </c>
       <c r="Y5" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O5/$AE$26/100)^3</f>
         <v>2.5318084473527055E-2</v>
       </c>
       <c r="Z5" s="147">
@@ -24708,11 +25254,11 @@
         <v>3.9513090032507601E-2</v>
       </c>
       <c r="AA5" s="97">
-        <f t="shared" ref="AA5:AA15" si="30">Z5/U5*100</f>
+        <f t="shared" ref="AA5:AA15" si="28">Z5/U5*100</f>
         <v>1.0216964894375449</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y5/$AE$36/$AE$37)</f>
         <v>3.1213332962707385</v>
       </c>
       <c r="AC5" s="175">
@@ -24724,7 +25270,7 @@
         <v>1.7278759594743859E-27</v>
       </c>
       <c r="AE5" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.5356983553752252E-28</v>
       </c>
       <c r="AG5" s="95">
@@ -24745,33 +25291,33 @@
       </c>
       <c r="AK5" s="96">
         <f t="shared" si="10"/>
-        <v>-9.1774864809422372</v>
+        <v>-9.6383698804793578</v>
       </c>
       <c r="AL5" s="96">
         <f t="shared" si="11"/>
-        <v>9.4984880204019451</v>
+        <v>9.5021219191657913</v>
       </c>
       <c r="AN5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO5" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.9093165395329351E-4</v>
       </c>
       <c r="AP5" s="127">
-        <f t="shared" ref="AP5:AP15" si="31">AI5*AO5/5252</f>
+        <f t="shared" ref="AP5:AP15" si="29">AI5*AO5/5252</f>
         <v>1.5802034350535392E-4</v>
       </c>
       <c r="AQ5" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E-32</v>
       </c>
       <c r="AR5" s="95"/>
       <c r="AS5" s="127"/>
       <c r="AU5" s="95"/>
       <c r="AW5" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX5" s="96"/>
@@ -24853,15 +25399,15 @@
         <v>6.1868854583200013E-3</v>
       </c>
       <c r="W6" s="150">
-        <f t="shared" ref="W6:W15" si="32">$V6/$O6*5252</f>
+        <f t="shared" ref="W6:W15" si="30">$V6/$O6*5252</f>
         <v>3.5742874669806306E-3</v>
       </c>
       <c r="X6" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>5.9919656662855807E-4</v>
       </c>
       <c r="Y6" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O6/$AE$26/100)^3</f>
         <v>3.397763728266736E-2</v>
       </c>
       <c r="Z6" s="147">
@@ -24869,11 +25415,11 @@
         <v>6.1430562354518103E-2</v>
       </c>
       <c r="AA6" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>1.3315219126773705</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y6/$AE$36/$AE$37)</f>
         <v>3.6159407932613967</v>
       </c>
       <c r="AC6" s="175">
@@ -24885,7 +25431,7 @@
         <v>1.7278759594743859E-27</v>
       </c>
       <c r="AE6" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.7784962704434349E-28</v>
       </c>
       <c r="AG6" s="95">
@@ -24906,26 +25452,26 @@
       </c>
       <c r="AK6" s="96">
         <f t="shared" si="10"/>
-        <v>-6.3142183705895407</v>
+        <v>-6.7543865698740113</v>
       </c>
       <c r="AL6" s="96">
         <f t="shared" si="11"/>
-        <v>12.429134937489346</v>
+        <v>12.433828291753372</v>
       </c>
       <c r="AN6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO6" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.7100500229004468E-4</v>
       </c>
       <c r="AP6" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1.8556431418170516E-4</v>
       </c>
       <c r="AQ6" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.3761701698468599E-9</v>
       </c>
       <c r="AR6" s="95">
@@ -24935,11 +25481,11 @@
       <c r="AS6" s="127"/>
       <c r="AU6" s="95"/>
       <c r="AW6" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX6" s="96">
-        <f t="shared" ref="AX6:AX15" si="33">$X$35/$X$32/$X$30/AQ6</f>
+        <f t="shared" ref="AX6:AX15" si="31">$X$35/$X$32/$X$30/AQ6</f>
         <v>7755.1208650508042</v>
       </c>
     </row>
@@ -25020,15 +25566,15 @@
         <v>6.6171925976800001E-3</v>
       </c>
       <c r="W7" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>3.5911945373782541E-3</v>
       </c>
       <c r="X7" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>6.1610363702618159E-4</v>
       </c>
       <c r="Y7" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O7/$AE$26/100)^3</f>
         <v>4.0987356954355909E-2</v>
       </c>
       <c r="Z7" s="147">
@@ -25036,11 +25582,11 @@
         <v>8.1389728207219222E-2</v>
       </c>
       <c r="AA7" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>1.6494217825572755</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y7/$AE$36/$AE$37)</f>
         <v>3.9714553098827987</v>
       </c>
       <c r="AC7" s="175">
@@ -25052,7 +25598,7 @@
         <v>1.7278759594743859E-27</v>
       </c>
       <c r="AE7" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.3507375122027426E-28</v>
       </c>
       <c r="AG7" s="95">
@@ -25073,26 +25619,26 @@
       </c>
       <c r="AK7" s="96">
         <f t="shared" si="10"/>
-        <v>-3.700259384426984</v>
+        <v>-4.1215160875596348</v>
       </c>
       <c r="AL7" s="96">
         <f t="shared" si="11"/>
-        <v>15.104605954852985</v>
+        <v>15.110266516209885</v>
       </c>
       <c r="AN7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO7" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.0975801042066519E-4</v>
       </c>
       <c r="AP7" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>2.7692873868451255E-4</v>
       </c>
       <c r="AQ7" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>5.3397375198359203E-8</v>
       </c>
       <c r="AR7" s="95">
@@ -25102,11 +25648,11 @@
       <c r="AS7" s="127"/>
       <c r="AU7" s="95"/>
       <c r="AW7" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX7" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1361.7398354943984</v>
       </c>
     </row>
@@ -25115,7 +25661,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="113">
-        <f t="shared" ref="B8:B26" si="34">C8/180+1</f>
+        <f t="shared" ref="B8:B26" si="32">C8/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C8" s="140">
@@ -25148,15 +25694,15 @@
         <v>25</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L15" si="35">LN(K8)</f>
+        <f t="shared" ref="L8:L15" si="33">LN(K8)</f>
         <v>3.2188758248682006</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:N15" si="36">1/G8/0.000001</f>
+        <f t="shared" ref="M8:N15" si="34">1/G8/0.000001</f>
         <v>306.74846625766872</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>148.36795252225519</v>
       </c>
       <c r="O8" s="3">
@@ -25192,15 +25738,15 @@
         <v>2.1361890410319998E-2</v>
       </c>
       <c r="W8" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>6.0958005649683674E-3</v>
       </c>
       <c r="X8" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>3.1207096646162949E-3</v>
       </c>
       <c r="Y8" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O8/$AE$26/100)^3</f>
         <v>0.28195005411935081</v>
       </c>
       <c r="Z8" s="147">
@@ -25208,11 +25754,11 @@
         <v>1.4684291617572443</v>
       </c>
       <c r="AA8" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>9.2182656756196923</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y8/$AE$36/$AE$37)</f>
         <v>10.416236069496557</v>
       </c>
       <c r="AC8" s="175">
@@ -25224,7 +25770,7 @@
         <v>25.636141831964185</v>
       </c>
       <c r="AE8" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.4611713541169045</v>
       </c>
       <c r="AF8" s="151"/>
@@ -25246,30 +25792,30 @@
       </c>
       <c r="AK8" s="96">
         <f t="shared" si="10"/>
-        <v>18.349332141930159</v>
+        <v>18.087600040180838</v>
       </c>
       <c r="AL8" s="96">
         <f t="shared" si="11"/>
-        <v>37.673071407358293</v>
+        <v>37.686890674124193</v>
       </c>
       <c r="AM8" s="97">
-        <f t="shared" ref="AM8:AM15" si="37">AN8/$AE$26</f>
-        <v>18.349332141930159</v>
+        <f t="shared" ref="AM8:AM15" si="35">AN8/$AE$26</f>
+        <v>18.087600040180838</v>
       </c>
       <c r="AN8" s="174">
         <f t="shared" si="12"/>
-        <v>8455.3722510014177</v>
+        <v>8334.7660985153307</v>
       </c>
       <c r="AO8" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.6996162202028583E-3</v>
       </c>
       <c r="AP8" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>8.9176138084568844E-3</v>
       </c>
       <c r="AQ8" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>4.2473051183708176E-7</v>
       </c>
       <c r="AR8" s="95">
@@ -25278,25 +25824,25 @@
       </c>
       <c r="AS8" s="127"/>
       <c r="AT8" s="153">
-        <f>$AE$39*$AE$38*$AE$43^2*$AE$37*PI()/240*($AB8-$AE$44)/$AE$40*$AE$41</f>
-        <v>-1.4197667295296781E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB8-$AE$43)/$AE$39*$AE$40</f>
+        <v>-1.4205107110783354E-7</v>
       </c>
       <c r="AU8" s="151">
-        <f>-$AE$42/AT8</f>
-        <v>0.26361244228616765</v>
+        <f>-$AE$41/AT8</f>
+        <v>0.26347437729902756</v>
       </c>
       <c r="AW8" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX8" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>171.198750482842</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C9" s="73">
@@ -25321,7 +25867,7 @@
         <v>6.04</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ref="J9:J15" si="38">E9*F9</f>
+        <f t="shared" ref="J9:J15" si="36">E9*F9</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K9" s="1">
@@ -25329,15 +25875,15 @@
         <v>35</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>373.13432835820896</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>220.65313327449252</v>
       </c>
       <c r="O9" s="3">
@@ -25373,15 +25919,15 @@
         <v>3.4237713143319998E-2</v>
       </c>
       <c r="W9" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>8.0318023011493427E-3</v>
       </c>
       <c r="X9" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>5.0567114007972706E-3</v>
       </c>
       <c r="Y9" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O9/$AE$26/100)^3</f>
         <v>0.50748195050056688</v>
       </c>
       <c r="Z9" s="147">
@@ -25389,11 +25935,11 @@
         <v>3.5458930123707444</v>
       </c>
       <c r="AA9" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>13.888545999933982</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y9/$AE$36/$AE$37)</f>
         <v>13.974459619196972</v>
       </c>
       <c r="AC9" s="175">
@@ -25405,7 +25951,7 @@
         <v>38.126124436769338</v>
       </c>
       <c r="AE9" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.728271824149449</v>
       </c>
       <c r="AF9" s="151"/>
@@ -25427,57 +25973,57 @@
       </c>
       <c r="AK9" s="96">
         <f t="shared" si="10"/>
-        <v>28.457488763966602</v>
+        <v>28.268887253045815</v>
       </c>
       <c r="AL9" s="96">
         <f t="shared" si="11"/>
-        <v>48.019094518047247</v>
+        <v>48.036653966213251</v>
       </c>
       <c r="AM9" s="97">
-        <f t="shared" si="37"/>
-        <v>28.457488763966595</v>
+        <f t="shared" si="35"/>
+        <v>28.268887253045815</v>
       </c>
       <c r="AN9" s="174">
         <f t="shared" si="12"/>
-        <v>13113.210822435807</v>
+        <v>13026.303246203512</v>
       </c>
       <c r="AO9" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>5.1338954187745353E-3</v>
       </c>
       <c r="AP9" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>2.1625919408211122E-2</v>
       </c>
       <c r="AQ9" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>5.9496012809140091E-7</v>
       </c>
       <c r="AR9" s="95">
-        <f t="shared" ref="AR9:AR15" si="39">$X$36/AQ9</f>
+        <f t="shared" ref="AR9:AR15" si="37">$X$36/AQ9</f>
         <v>6.2906429754981188E-2</v>
       </c>
       <c r="AS9" s="127"/>
       <c r="AT9" s="153">
-        <f t="shared" ref="AT9:AT15" si="40">$AE$39*$AE$38*$AE$43^2*$AE$37*PI()/240*($AB9-$AE$44)/$AE$40*$AE$41</f>
-        <v>-2.2071204611217308E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB9-$AE$43)/$AE$39*$AE$40</f>
+        <v>-2.9000614686773219E-7</v>
       </c>
       <c r="AU9" s="151">
-        <f t="shared" ref="AU9:AU15" si="41">-$AE$42/AT9</f>
-        <v>0.1695730621144928</v>
+        <f>-$AE$41/AT9</f>
+        <v>0.12905525592830341</v>
       </c>
       <c r="AW9" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX9" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>122.21547207155994</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.3</v>
       </c>
       <c r="C10" s="73">
@@ -25502,7 +26048,7 @@
         <v>8.24</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>53.526600000000002</v>
       </c>
       <c r="K10" s="1">
@@ -25510,15 +26056,15 @@
         <v>54</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3.9889840465642745</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>465.11627906976747</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>314.46540880503147</v>
       </c>
       <c r="O10" s="3">
@@ -25554,15 +26100,15 @@
         <v>6.5812746644320005E-2</v>
       </c>
       <c r="W10" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.2385739542638876E-2</v>
       </c>
       <c r="X10" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>9.4106486422868042E-3</v>
       </c>
       <c r="Y10" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O10/$AE$26/100)^3</f>
         <v>0.98290060580504701</v>
       </c>
       <c r="Z10" s="147">
@@ -25570,11 +26116,11 @@
         <v>9.5578262506065865</v>
       </c>
       <c r="AA10" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>19.475338635402696</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y10/$AE$36/$AE$37)</f>
         <v>19.448205025325478</v>
       </c>
       <c r="AC10" s="175">
@@ -25586,7 +26132,7 @@
         <v>54.335721996049891</v>
       </c>
       <c r="AE10" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.7938682220438258</v>
       </c>
       <c r="AF10" s="151"/>
@@ -25608,60 +26154,60 @@
       </c>
       <c r="AK10" s="96">
         <f t="shared" si="10"/>
-        <v>41.484597621753984</v>
+        <v>41.390244765971858</v>
       </c>
       <c r="AL10" s="96">
         <f t="shared" si="11"/>
-        <v>61.352759037481228</v>
+        <v>61.375138726574363</v>
       </c>
       <c r="AM10" s="97">
-        <f t="shared" si="37"/>
-        <v>41.484597621753984</v>
+        <f t="shared" si="35"/>
+        <v>41.390244765971858</v>
       </c>
       <c r="AN10" s="174">
         <f t="shared" si="12"/>
-        <v>19116.102584104236</v>
+        <v>19072.624788159832</v>
       </c>
       <c r="AO10" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>9.4698404838995734E-3</v>
       </c>
       <c r="AP10" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>5.0985534571040117E-2</v>
       </c>
       <c r="AQ10" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>8.1434728488810894E-7</v>
       </c>
       <c r="AR10" s="95">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4.5959283219000058E-2</v>
       </c>
       <c r="AS10" s="127"/>
       <c r="AT10" s="153">
-        <f t="shared" si="40"/>
-        <v>-3.4183354989354728E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB10-$AE$43)/$AE$39*$AE$40</f>
+        <v>-5.176108504345801E-7</v>
       </c>
       <c r="AU10" s="151">
-        <f>-$AE$42/AT10</f>
-        <v>0.1094884265059754</v>
+        <f>-$AE$41/AT10</f>
+        <v>7.2306864265641271E-2</v>
       </c>
       <c r="AW10" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX10" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>89.290324002783549</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>64</v>
       </c>
       <c r="B11" s="113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C11" s="140">
@@ -25686,7 +26232,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>62.419400000000003</v>
       </c>
       <c r="K11" s="1">
@@ -25694,15 +26240,15 @@
         <v>64</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>348.43205574912895</v>
       </c>
       <c r="O11" s="3">
@@ -25738,15 +26284,15 @@
         <v>7.7738187085920007E-2</v>
       </c>
       <c r="W11" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.3745458938700147E-2</v>
       </c>
       <c r="X11" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.0770368038348075E-2</v>
       </c>
       <c r="Y11" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O11/$AE$26/100)^3</f>
         <v>1.1851433231911994</v>
       </c>
       <c r="Z11" s="147">
@@ -25754,11 +26300,11 @@
         <v>12.654676236558226</v>
       </c>
       <c r="AA11" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>21.829939534537253</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y11/$AE$36/$AE$37)</f>
         <v>21.355520448756128</v>
       </c>
       <c r="AC11" s="175">
@@ -25770,7 +26316,7 @@
         <v>60.204737263915909</v>
       </c>
       <c r="AE11" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.819165068272667</v>
       </c>
       <c r="AF11" s="151"/>
@@ -25788,57 +26334,57 @@
       </c>
       <c r="AK11" s="152">
         <f t="shared" si="10"/>
-        <v>49.367118588734293</v>
+        <v>49.329794273079528</v>
       </c>
       <c r="AL11" s="152">
         <f t="shared" si="11"/>
-        <v>69.420772538288901</v>
+        <v>69.446068887600987</v>
       </c>
       <c r="AM11" s="173">
-        <f t="shared" si="37"/>
-        <v>49.367118588734272</v>
+        <f t="shared" si="35"/>
+        <v>49.329794273079528</v>
       </c>
       <c r="AN11" s="8">
         <f t="shared" si="12"/>
-        <v>22748.368245688755</v>
+        <v>22731.169201035049</v>
       </c>
       <c r="AO11" s="150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.2749008265139302E-2</v>
       </c>
       <c r="AP11" s="150">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>7.7678636969085335E-2</v>
       </c>
       <c r="AQ11" s="153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9.4709537828432563E-7</v>
       </c>
       <c r="AR11" s="151">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>3.9517474546856564E-2</v>
       </c>
       <c r="AS11" s="150"/>
       <c r="AT11" s="153">
-        <f t="shared" si="40"/>
-        <v>-3.8403809086702366E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB11-$AE$43)/$AE$39*$AE$40</f>
+        <v>-5.969192452079957E-7</v>
       </c>
       <c r="AU11" s="151">
-        <f t="shared" si="41"/>
-        <v>9.7456003440439115E-2</v>
+        <f>-$AE$41/AT11</f>
+        <v>6.2699967885530311E-2</v>
       </c>
       <c r="AW11" s="150">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX11" s="152">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>76.775090012758156</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C12" s="73">
@@ -25863,7 +26409,7 @@
         <v>10.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K12" s="1">
@@ -25871,15 +26417,15 @@
         <v>89</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>564.9717514124294</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>416.66666666666669</v>
       </c>
       <c r="O12" s="3">
@@ -25915,15 +26461,15 @@
         <v>0.11325528885812</v>
       </c>
       <c r="W12" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.7547094923943962E-2</v>
       </c>
       <c r="X12" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.457200402359189E-2</v>
       </c>
       <c r="Y12" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O12/$AE$26/100)^3</f>
         <v>1.7615914080107602</v>
       </c>
       <c r="Z12" s="147">
@@ -25931,11 +26477,11 @@
         <v>22.932558091663331</v>
       </c>
       <c r="AA12" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>27.153756109107007</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y12/$AE$36/$AE$37)</f>
         <v>26.036182950687113</v>
       </c>
       <c r="AC12" s="175">
@@ -25947,7 +26493,7 @@
         <v>71.994831644766094</v>
       </c>
       <c r="AE12" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.7651838128932069</v>
       </c>
       <c r="AF12" s="151"/>
@@ -25969,57 +26515,57 @@
       </c>
       <c r="AK12" s="96">
         <f t="shared" si="10"/>
-        <v>56.494941386998597</v>
+        <v>56.509185513746289</v>
       </c>
       <c r="AL12" s="96">
         <f t="shared" si="11"/>
-        <v>76.716328212502532</v>
+        <v>76.744261971507669</v>
       </c>
       <c r="AM12" s="97">
-        <f t="shared" si="37"/>
-        <v>56.494941386998597</v>
+        <f t="shared" si="35"/>
+        <v>56.509185513746289</v>
       </c>
       <c r="AN12" s="174">
         <f t="shared" si="12"/>
-        <v>26032.868991128955</v>
+        <v>26039.432684734289</v>
       </c>
       <c r="AO12" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.6139758156510163E-2</v>
       </c>
       <c r="AP12" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0.10868458955176756</v>
       </c>
       <c r="AQ12" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.0671337379029437E-6</v>
       </c>
       <c r="AR12" s="95">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>3.5072283984146989E-2</v>
       </c>
       <c r="AS12" s="127"/>
       <c r="AT12" s="153">
-        <f t="shared" si="40"/>
-        <v>-4.8761047848523966E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB12-$AE$43)/$AE$39*$AE$40</f>
+        <v>-7.9154663873924901E-7</v>
       </c>
       <c r="AU12" s="151">
-        <f t="shared" si="41"/>
-        <v>7.6755564443698202E-2</v>
+        <f>-$AE$41/AT12</f>
+        <v>4.7283148803977743E-2</v>
       </c>
       <c r="AW12" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX12" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>68.138912992609036</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.6944444444444444</v>
       </c>
       <c r="C13" s="73">
@@ -26044,7 +26590,7 @@
         <v>14</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>135.96</v>
       </c>
       <c r="K13" s="1">
@@ -26052,15 +26598,15 @@
         <v>125</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4.8283137373023015</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>657.89473684210532</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>500.00000000000006</v>
       </c>
       <c r="O13" s="3">
@@ -26096,15 +26642,15 @@
         <v>0.17635774957912001</v>
       </c>
       <c r="W13" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2.3464516153334967E-2</v>
       </c>
       <c r="X13" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.0489425252982894E-2</v>
       </c>
       <c r="Y13" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O13/$AE$26/100)^3</f>
         <v>2.7815970600379454</v>
       </c>
       <c r="Z13" s="147">
@@ -26112,11 +26658,11 @@
         <v>45.502583489373642</v>
       </c>
       <c r="AA13" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>34.600104425074448</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y13/$AE$36/$AE$37)</f>
         <v>32.716876317630934</v>
       </c>
       <c r="AC13" s="175">
@@ -26128,12 +26674,12 @@
         <v>86.39379797371933</v>
       </c>
       <c r="AE13" s="163">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.6406493436282674</v>
       </c>
       <c r="AF13" s="159">
-        <f>$AS$29/($AE$38*$AE$43*$AE$37*$AB13^2/4/$AE13)/(PI()*$AE$43/60/($AB13-$AE$44))</f>
-        <v>-0.76977604277267009</v>
+        <f>$AS$29/($AE$37*$AE$42*$AE$36*($AB13-$AE$43)^2/4/$AE13)/(PI()*$AE$42/60/($AB13-$AE$43))</f>
+        <v>-1.4465197554381539</v>
       </c>
       <c r="AG13" s="95">
         <f>C13/$AE$27*$AE$22</f>
@@ -26153,57 +26699,57 @@
       </c>
       <c r="AK13" s="96">
         <f t="shared" si="10"/>
-        <v>66.699385197396978</v>
+        <v>66.787456534469484</v>
       </c>
       <c r="AL13" s="96">
         <f t="shared" si="11"/>
-        <v>87.16090435450127</v>
+        <v>87.192613922723197</v>
       </c>
       <c r="AM13" s="97">
-        <f t="shared" si="37"/>
-        <v>66.699385197396992</v>
+        <f t="shared" si="35"/>
+        <v>66.787456534469484</v>
       </c>
       <c r="AN13" s="174">
         <f t="shared" si="12"/>
-        <v>30735.076698960533</v>
+        <v>30775.659971083536</v>
       </c>
       <c r="AO13" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.1697533384729531E-2</v>
       </c>
       <c r="AP13" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0.16602338252609797</v>
       </c>
       <c r="AQ13" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.2389849090794855E-6</v>
       </c>
       <c r="AR13" s="95">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>3.0207645977385553E-2</v>
       </c>
       <c r="AS13" s="127"/>
       <c r="AT13" s="153">
-        <f t="shared" si="40"/>
-        <v>-6.3543898837547304E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB13-$AE$43)/$AE$39*$AE$40</f>
+        <v>-1.0693376429941804E-6</v>
       </c>
       <c r="AU13" s="134">
-        <f t="shared" si="41"/>
-        <v>5.8899151908320242E-2</v>
+        <f>-$AE$41/AT13</f>
+        <v>3.500000000000001E-2</v>
       </c>
       <c r="AW13" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX13" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>58.687827741557669</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.8611111111111112</v>
       </c>
       <c r="C14" s="73">
@@ -26228,7 +26774,7 @@
         <v>15.8</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>192.75</v>
       </c>
       <c r="K14" s="1">
@@ -26236,15 +26782,15 @@
         <v>155</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>5.0434251169192468</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>733.13782991202345</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>574.71264367816093</v>
       </c>
       <c r="O14" s="3">
@@ -26280,15 +26826,15 @@
         <v>0.25251438895912004</v>
       </c>
       <c r="W14" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>3.0149073309822319E-2</v>
       </c>
       <c r="X14" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.7173982409470245E-2</v>
       </c>
       <c r="Y14" s="95">
-        <f t="shared" si="23"/>
+        <f>$AE$44*(O14/$AE$26/100)^3</f>
         <v>3.8493009912054741</v>
       </c>
       <c r="Z14" s="147">
@@ -26296,11 +26842,11 @@
         <v>74.07429631585768</v>
       </c>
       <c r="AA14" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>39.338455683080163</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y14/$AE$36/$AE$37)</f>
         <v>38.487141683695697</v>
       </c>
       <c r="AC14" s="175">
@@ -26312,7 +26858,7 @@
         <v>99.303216061746326</v>
       </c>
       <c r="AE14" s="158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.5801660429310118</v>
       </c>
       <c r="AF14" s="151"/>
@@ -26334,57 +26880,57 @@
       </c>
       <c r="AK14" s="96">
         <f t="shared" si="10"/>
-        <v>73.161670282743415</v>
+        <v>73.296495023434872</v>
       </c>
       <c r="AL14" s="96">
         <f t="shared" si="11"/>
-        <v>93.775260793646453</v>
+        <v>93.809361511845779</v>
       </c>
       <c r="AM14" s="97">
-        <f t="shared" si="37"/>
-        <v>73.161670282743401</v>
+        <f t="shared" si="35"/>
+        <v>73.296495023434872</v>
       </c>
       <c r="AN14" s="174">
         <f t="shared" si="12"/>
-        <v>33712.897666288161</v>
+        <v>33775.02490679879</v>
       </c>
       <c r="AO14" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.5645549843300849E-2</v>
       </c>
       <c r="AP14" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0.21113753539938881</v>
       </c>
       <c r="AQ14" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.3478150698435463E-6</v>
       </c>
       <c r="AR14" s="95">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.7768510934620141E-2</v>
       </c>
       <c r="AS14" s="127"/>
       <c r="AT14" s="153">
-        <f t="shared" si="40"/>
-        <v>-7.6312180270089662E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB14-$AE$43)/$AE$39*$AE$40</f>
+        <v>-1.3092719915436728E-6</v>
       </c>
       <c r="AU14" s="151">
-        <f t="shared" si="41"/>
-        <v>4.9044356185778716E-2</v>
+        <f>-$AE$41/AT14</f>
+        <v>2.858597582971964E-2</v>
       </c>
       <c r="AW14" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX14" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>53.949042821495425</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C15" s="73">
@@ -26409,7 +26955,7 @@
         <v>17.2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>209.1</v>
       </c>
       <c r="K15" s="1">
@@ -26417,15 +26963,15 @@
         <v>165</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>759.87841945288756</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>595.2380952380953</v>
       </c>
       <c r="O15" s="3">
@@ -26461,11 +27007,11 @@
         <v>0.27444009865912</v>
       </c>
       <c r="W15" s="150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>3.1613816132925514E-2</v>
       </c>
       <c r="X15" s="150">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.863872523257344E-2</v>
       </c>
       <c r="Y15" s="134">
@@ -26477,11 +27023,11 @@
         <v>91.297248929319878</v>
       </c>
       <c r="AA15" s="97">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>44.611417920296624</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="24"/>
+        <f>SQRT(Y15/$AE$36/$AE$37)</f>
         <v>41.264733453849395</v>
       </c>
       <c r="AC15" s="175">
@@ -26493,7 +27039,7 @@
         <v>102.84975949252301</v>
       </c>
       <c r="AE15" s="165">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>2.4924372674683695</v>
       </c>
       <c r="AF15" s="151"/>
@@ -26515,57 +27061,57 @@
       </c>
       <c r="AK15" s="96">
         <f t="shared" si="10"/>
-        <v>75.03988040426492</v>
+        <v>75.188293637994533</v>
       </c>
       <c r="AL15" s="96">
         <f t="shared" si="11"/>
-        <v>95.697669206039706</v>
+        <v>95.732464892354869</v>
       </c>
       <c r="AM15" s="97">
-        <f t="shared" si="37"/>
-        <v>75.03988040426492</v>
+        <f t="shared" si="35"/>
+        <v>75.188293637994533</v>
       </c>
       <c r="AN15" s="174">
         <f t="shared" si="12"/>
-        <v>34578.376890285275</v>
+        <v>34646.76570838788</v>
       </c>
       <c r="AO15" s="127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2.6855314322647372E-2</v>
       </c>
       <c r="AP15" s="127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0.22563380169031633</v>
       </c>
       <c r="AQ15" s="146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1.3794456628573665E-6</v>
       </c>
       <c r="AR15" s="95">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.7131780912102679E-2</v>
       </c>
       <c r="AS15" s="127"/>
       <c r="AT15" s="153">
-        <f t="shared" si="40"/>
-        <v>-8.2458357469254159E-7</v>
+        <f>$AE$38*$AE$37*$AE$42^2*$AE$36*PI()/240*($AB15-$AE$43)/$AE$39*$AE$40</f>
+        <v>-1.4247674895198362E-6</v>
       </c>
       <c r="AU15" s="151">
-        <f t="shared" si="41"/>
-        <v>4.5388749731949826E-2</v>
+        <f>-$AE$41/AT15</f>
+        <v>2.62687194788601E-2</v>
       </c>
       <c r="AW15" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.0526315789473683E-4</v>
       </c>
       <c r="AX15" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>52.711995025471928</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="C16" s="117">
@@ -26600,10 +27146,10 @@
       <c r="AW16" s="128"/>
       <c r="AX16" s="96"/>
     </row>
-    <row r="17" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.05</v>
       </c>
       <c r="C18" s="73">
@@ -26622,51 +27168,51 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
       <c r="J18" s="2">
-        <f t="shared" ref="J18:J26" si="42">E18*F18</f>
+        <f t="shared" ref="J18:J26" si="38">E18*F18</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" ref="K18:K26" si="43">C18</f>
+        <f t="shared" ref="K18:K26" si="39">C18</f>
         <v>9</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:L26" si="44">LN(K18)</f>
+        <f t="shared" ref="L18:L26" si="40">LN(K18)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" ref="M18:M26" si="45">1/G18/0.000001</f>
+        <f t="shared" ref="M18:M26" si="41">1/G18/0.000001</f>
         <v>162.33766233766235</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
-        <f t="shared" ref="O18:O26" si="46">M18*60/$X$29</f>
+        <f t="shared" ref="O18:O26" si="42">M18*60/$X$29</f>
         <v>9740.2597402597403</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <f t="shared" ref="Q18:Q26" si="47">O18/$X$40*100</f>
+        <f t="shared" ref="Q18:Q26" si="43">O18/$X$40*100</f>
         <v>21.137716450216452</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
-        <f t="shared" ref="S18:S26" si="48">K18</f>
+        <f t="shared" ref="S18:S26" si="44">K18</f>
         <v>9</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:T26" si="49">J18</f>
+        <f t="shared" ref="T18:T26" si="45">J18</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18">
-        <f t="shared" ref="V18:V26" si="50">T18*0.001341022</f>
+        <f t="shared" ref="V18:V26" si="46">T18*0.001341022</f>
         <v>7.8465879264000005E-3</v>
       </c>
       <c r="W18" s="150">
-        <f t="shared" ref="W18:W26" si="51">$V18/$O18*5252</f>
+        <f t="shared" ref="W18:W26" si="47">$V18/$O18*5252</f>
         <v>4.230922058383821E-3</v>
       </c>
       <c r="X18" s="150">
-        <f t="shared" ref="X18:X26" si="52">W18-$W$4</f>
+        <f t="shared" ref="X18:X26" si="48">W18-$W$4</f>
         <v>1.2558311580317485E-3</v>
       </c>
       <c r="AN18" s="157" t="s">
@@ -26677,9 +27223,9 @@
       <c r="AQ18" s="157"/>
       <c r="AR18" s="157"/>
     </row>
-    <row r="19" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C19" s="73">
@@ -26698,51 +27244,51 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
       <c r="J19" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>2.5649493574615367</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>196.85039370078741</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>11811.023622047245</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>25.631561679790028</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>13</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>7.7969999999999997</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>1.0455948534E-2</v>
       </c>
       <c r="W19" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>4.6494396639814237E-3</v>
       </c>
       <c r="X19" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>1.6743487636293511E-3</v>
       </c>
       <c r="AM19" s="5" t="s">
@@ -26767,9 +27313,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.1444444444444444</v>
       </c>
       <c r="C20" s="73">
@@ -26788,51 +27334,51 @@
       <c r="H20" s="119"/>
       <c r="I20" s="119"/>
       <c r="J20" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>18.150000000000002</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>26</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>3.2580965380214821</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>314.46540880503147</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>18867.92452830189</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>40.946016771488473</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>26</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>18.150000000000002</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>2.4339549300000006E-2</v>
       </c>
       <c r="W20" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>6.7750595849508004E-3</v>
       </c>
       <c r="X20" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>3.7999686845987279E-3</v>
       </c>
       <c r="AM20" s="5"/>
@@ -26847,9 +27393,9 @@
       <c r="AR20" s="157"/>
       <c r="AS20" s="157"/>
     </row>
-    <row r="21" spans="1:46" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.2</v>
       </c>
       <c r="C21" s="73">
@@ -26868,51 +27414,51 @@
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>28.516800000000003</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>36</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>3.5835189384561099</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>22641.509433962266</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>49.135220125786169</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>36</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>28.516800000000003</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>3.8241656169600007E-2</v>
       </c>
       <c r="W21" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>8.8706620372876483E-3</v>
       </c>
       <c r="X21" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>5.8955711369355762E-3</v>
       </c>
       <c r="AD21" s="5" t="s">
@@ -26922,7 +27468,7 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AM21" s="5">
-        <f t="shared" ref="AM21:AM29" si="53">AN21*$AE$26</f>
+        <f t="shared" ref="AM21:AM29" si="49">AN21*$AE$26</f>
         <v>7372.8</v>
       </c>
       <c r="AN21" s="157">
@@ -26935,18 +27481,19 @@
         <v>7.3801227827272476E-4</v>
       </c>
       <c r="AQ21" s="172">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="AR21" s="157">
-        <v>6.9047658670256907E-8</v>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="AR21" s="185">
+        <f>$AE$41/AQ21</f>
+        <v>1.0879888809533816E-7</v>
       </c>
       <c r="AS21" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="C22" s="73">
@@ -26965,51 +27512,51 @@
       <c r="H22" s="119"/>
       <c r="I22" s="119"/>
       <c r="J22" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>51.68</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>56</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>4.0253516907351496</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>483.09178743961354</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>28985.507246376812</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>62.902576489533011</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>56</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>51.68</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>6.9304016960000006E-2</v>
       </c>
       <c r="W22" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1.255747204905024E-2</v>
       </c>
       <c r="X22" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>9.5823811486981676E-3</v>
       </c>
       <c r="AD22" s="62" t="s">
@@ -27028,7 +27575,7 @@
       <c r="AK22" s="28"/>
       <c r="AL22" s="29"/>
       <c r="AM22" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>9216</v>
       </c>
       <c r="AN22" s="157">
@@ -27041,18 +27588,19 @@
         <v>6.978697406499287E-4</v>
       </c>
       <c r="AQ22" s="172">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="AR22" s="157">
-        <v>1.3476434112578325E-7</v>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AR22" s="185">
+        <f>$AE$41/AQ22</f>
+        <v>1.3810633765607499E-7</v>
       </c>
       <c r="AS22" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C23" s="73">
@@ -27071,51 +27619,51 @@
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="J23" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>59.349000000000004</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>64</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>500.00000000000006</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>30000.000000000004</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>65.104166666666671</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>64</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>59.349000000000004</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>7.9588314678000011E-2</v>
       </c>
       <c r="W23" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1.39332609562952E-2</v>
       </c>
       <c r="X23" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>1.0958170055943128E-2</v>
       </c>
       <c r="AD23" s="65" t="s">
@@ -27138,7 +27686,7 @@
       </c>
       <c r="AL23" s="31"/>
       <c r="AM23" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>11520</v>
       </c>
       <c r="AN23" s="157">
@@ -27151,18 +27699,19 @@
         <v>8.2156541787077825E-4</v>
       </c>
       <c r="AQ23" s="172">
-        <v>0.2</v>
-      </c>
-      <c r="AR23" s="157">
-        <v>2.1691019419519116E-7</v>
+        <v>0.185</v>
+      </c>
+      <c r="AR23" s="185">
+        <f>$AE$41/AQ23</f>
+        <v>2.0230712164754772E-7</v>
       </c>
       <c r="AS23" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C24" s="73">
@@ -27181,51 +27730,51 @@
       <c r="H24" s="119"/>
       <c r="I24" s="119"/>
       <c r="J24" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>84.545999999999992</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>89</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>568.18181818181813</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>34090.909090909088</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>73.982007575757564</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>89</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>84.545999999999992</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.11337804601199999</v>
       </c>
       <c r="W24" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1.7466870597880702E-2</v>
       </c>
       <c r="X24" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>1.449177969752863E-2</v>
       </c>
       <c r="AB24" s="147"/>
@@ -27249,7 +27798,7 @@
       </c>
       <c r="AL24" s="31"/>
       <c r="AM24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>16588.8</v>
       </c>
       <c r="AN24" s="157">
@@ -27262,18 +27811,19 @@
         <v>2.7131440751281396E-3</v>
       </c>
       <c r="AQ24" s="172">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="AR24" s="157">
-        <v>3.9763107094788859E-7</v>
+        <v>0.121</v>
+      </c>
+      <c r="AR24" s="185">
+        <f>$AE$41/AQ24</f>
+        <v>3.0931254136195313E-7</v>
       </c>
       <c r="AS24" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.7944444444444443</v>
       </c>
       <c r="C25" s="73">
@@ -27292,51 +27842,51 @@
       <c r="H25" s="119"/>
       <c r="I25" s="119"/>
       <c r="J25" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>153.26999999999998</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>143</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>4.962844630259907</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>699.30069930069931</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>41958.041958041955</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>91.054778554778551</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>143</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>153.26999999999998</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.20553844193999998</v>
       </c>
       <c r="W25" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>2.5727794880141638E-2</v>
       </c>
       <c r="X25" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>2.2752703979789565E-2</v>
       </c>
       <c r="AC25" s="97"/>
@@ -27363,7 +27913,7 @@
         <v>146</v>
       </c>
       <c r="AM25" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>20736</v>
       </c>
       <c r="AN25" s="157">
@@ -27376,18 +27926,19 @@
         <v>7.1180011608729891E-3</v>
       </c>
       <c r="AQ25" s="172">
-        <v>0.11</v>
-      </c>
-      <c r="AR25" s="157">
-        <v>5.4549360647282279E-7</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AR25" s="185">
+        <f>$AE$41/AQ25</f>
+        <v>3.8986268234162836E-7</v>
       </c>
       <c r="AS25" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C26" s="73">
@@ -27406,51 +27957,51 @@
       <c r="H26" s="119"/>
       <c r="I26" s="119"/>
       <c r="J26" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>214.45920000000001</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>165</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>781.25000000000011</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>46875.000000000007</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>101.72526041666667</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>165</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>214.45920000000001</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.28759450530240005</v>
       </c>
       <c r="W26" s="150">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>3.2222855292761705E-2</v>
       </c>
       <c r="X26" s="150">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>2.9247764392409632E-2</v>
       </c>
       <c r="AD26" s="65" t="s">
@@ -27476,7 +28027,7 @@
         <v>142</v>
       </c>
       <c r="AM26" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>23040</v>
       </c>
       <c r="AN26" s="157">
@@ -27489,16 +28040,17 @@
         <v>1.1143313366134135E-2</v>
       </c>
       <c r="AQ26" s="172">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="AR26" s="157">
-        <v>6.2763945954223071E-7</v>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AR26" s="185">
+        <f>$AE$41/AQ26</f>
+        <v>5.2713827471544122E-7</v>
       </c>
       <c r="AS26" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -27540,7 +28092,7 @@
         <v>142</v>
       </c>
       <c r="AM27" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>23961.600000000002</v>
       </c>
       <c r="AN27" s="157">
@@ -27553,16 +28105,17 @@
         <v>1.3128852647530663E-2</v>
       </c>
       <c r="AQ27" s="172">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AR27" s="157">
-        <v>6.6049780076999385E-7</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AR27" s="185">
+        <f>$AE$41/AQ27</f>
+        <v>5.8479402351244256E-7</v>
       </c>
       <c r="AS27" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -27611,7 +28164,7 @@
         <v>142</v>
       </c>
       <c r="AM28" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>25344</v>
       </c>
       <c r="AN28" s="157">
@@ -27624,16 +28177,17 @@
         <v>1.6549422883591874E-2</v>
       </c>
       <c r="AQ28" s="172">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="AR28" s="157">
-        <v>7.0978531261163862E-7</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AR28" s="185">
+        <f>$AE$41/AQ28</f>
+        <v>6.6833602687136296E-7</v>
       </c>
       <c r="AS28" s="157" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -27678,11 +28232,11 @@
       </c>
       <c r="AF29" s="67">
         <f>X54</f>
-        <v>14542.877489600349</v>
+        <v>14542.877489600363</v>
       </c>
       <c r="AG29" s="68">
         <f>X53</f>
-        <v>-351.26655108461694</v>
+        <v>-351.26655108462336</v>
       </c>
       <c r="AI29" s="19" t="s">
         <v>135</v>
@@ -27698,7 +28252,7 @@
         <v>147</v>
       </c>
       <c r="AM29" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>28569.600000000002</v>
       </c>
       <c r="AN29" s="157">
@@ -27711,18 +28265,19 @@
         <v>2.6818816528704516E-2</v>
       </c>
       <c r="AQ29" s="134">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="AR29" s="157">
-        <v>8.2478950690880957E-7</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AR29" s="185">
+        <f>$AE$41/AQ29</f>
+        <v>1.0693376429941806E-6</v>
       </c>
       <c r="AS29" s="136">
-        <f>-AR29/$AE$41</f>
-        <v>-1.1180846555655822E-6</v>
+        <f>-AR29/$AE$40</f>
+        <v>-1.4495941088429112E-6</v>
       </c>
       <c r="AT29" s="146"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="13" t="s">
         <v>30</v>
@@ -27784,7 +28339,7 @@
       </c>
       <c r="AL30" s="31"/>
     </row>
-    <row r="31" spans="1:46" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="15" t="s">
         <v>31</v>
@@ -27824,11 +28379,11 @@
       </c>
       <c r="AE31" s="66">
         <f>AA56</f>
-        <v>-8469.4388916507069</v>
+        <v>-8712.4928340558181</v>
       </c>
       <c r="AF31" s="69">
         <f>AA55</f>
-        <v>0.97555662398469367</v>
+        <v>0.98261459063146772</v>
       </c>
       <c r="AG31" s="31"/>
       <c r="AI31" s="19" t="s">
@@ -27843,7 +28398,7 @@
       </c>
       <c r="AL31" s="31"/>
     </row>
-    <row r="32" spans="1:46" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -27877,11 +28432,11 @@
       </c>
       <c r="AE32" s="66">
         <f>AA54</f>
-        <v>8705.4061069276213</v>
+        <v>8893.4325759458807</v>
       </c>
       <c r="AF32" s="69">
         <f>AA53</f>
-        <v>1.0235321332609688</v>
+        <v>1.0165476207184487</v>
       </c>
       <c r="AG32" s="31"/>
       <c r="AI32" s="21" t="s">
@@ -27896,7 +28451,7 @@
       </c>
       <c r="AL32" s="33"/>
     </row>
-    <row r="33" spans="2:50" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -27943,7 +28498,7 @@
         <v>1.782679103068748E-11</v>
       </c>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -27991,7 +28546,7 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -28020,21 +28575,20 @@
       <c r="Y35" t="s">
         <v>74</v>
       </c>
-      <c r="AD35" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE35" s="160">
-        <v>31.3</v>
-      </c>
-      <c r="AF35" s="160">
-        <v>-1.58</v>
-      </c>
+      <c r="AD35" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE35" s="69">
+        <f>Y15</f>
+        <v>4.4249528005034611</v>
+      </c>
+      <c r="AF35" s="30"/>
       <c r="AG35" s="31"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="151"/>
     </row>
-    <row r="36" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -28066,11 +28620,11 @@
         <v>112</v>
       </c>
       <c r="AD36" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE36" s="69">
-        <f>Y15</f>
-        <v>4.4249528005034611</v>
+        <v>178</v>
+      </c>
+      <c r="AE36" s="160">
+        <f>$X$43</f>
+        <v>2.1213604393365078E-3</v>
       </c>
       <c r="AF36" s="30"/>
       <c r="AG36" s="31"/>
@@ -28078,16 +28632,16 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="151"/>
     </row>
-    <row r="37" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W37" t="s">
         <v>35</v>
       </c>
       <c r="AD37" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE37" s="160">
-        <f>$X$43</f>
-        <v>2.1213604393365078E-3</v>
+        <f>$X$42</f>
+        <v>1.2250000000000001</v>
       </c>
       <c r="AF37" s="30"/>
       <c r="AG37" s="31"/>
@@ -28101,7 +28655,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W38" s="34">
         <v>240</v>
       </c>
@@ -28113,11 +28667,11 @@
       <c r="AA38" s="37"/>
       <c r="AB38" s="30"/>
       <c r="AD38" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE38" s="160">
-        <f>$X$42</f>
-        <v>1.2250000000000001</v>
+        <v>180</v>
+      </c>
+      <c r="AE38" s="162">
+        <f>$AF$13</f>
+        <v>-1.4465197554381539</v>
       </c>
       <c r="AF38" s="30"/>
       <c r="AG38" s="31"/>
@@ -28135,7 +28689,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -28159,11 +28713,11 @@
         <v>36</v>
       </c>
       <c r="AD39" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE39" s="162">
-        <f>$AF$13</f>
-        <v>-0.76977604277267009</v>
+        <v>182</v>
+      </c>
+      <c r="AE39" s="92">
+        <f>AE13</f>
+        <v>2.6406493436282674</v>
       </c>
       <c r="AF39" s="30"/>
       <c r="AG39" s="31"/>
@@ -28177,7 +28731,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:50" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -28219,11 +28773,11 @@
         <v>156</v>
       </c>
       <c r="AD40" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE40" s="92">
-        <f>AE13</f>
-        <v>2.6406493436282674</v>
+        <v>183</v>
+      </c>
+      <c r="AE40" s="162">
+        <f>1/1.3556</f>
+        <v>0.73768073177928595</v>
       </c>
       <c r="AF40" s="30"/>
       <c r="AG40" s="31"/>
@@ -28237,7 +28791,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -28275,11 +28829,11 @@
         <v>158</v>
       </c>
       <c r="AD41" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE41" s="162">
-        <f>1/1.3556</f>
-        <v>0.73768073177928595</v>
+        <v>184</v>
+      </c>
+      <c r="AE41" s="179">
+        <f>$X$36</f>
+        <v>3.7426817504796325E-8</v>
       </c>
       <c r="AF41" s="30"/>
       <c r="AG41" s="31"/>
@@ -28293,7 +28847,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -28329,11 +28883,11 @@
         <v>169</v>
       </c>
       <c r="AD42" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE42" s="179">
-        <f>$X$36</f>
-        <v>3.7426817504796325E-8</v>
+        <v>199</v>
+      </c>
+      <c r="AE42" s="160">
+        <f>AA43/1000</f>
+        <v>5.5E-2</v>
       </c>
       <c r="AF42" s="30"/>
       <c r="AG42" s="31"/>
@@ -28350,7 +28904,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -28396,12 +28950,11 @@
       <c r="AB43" t="s">
         <v>93</v>
       </c>
-      <c r="AD43" s="65" t="s">
-        <v>199</v>
+      <c r="AD43" s="161" t="s">
+        <v>211</v>
       </c>
       <c r="AE43" s="160">
-        <f>AA43/1000</f>
-        <v>5.5E-2</v>
+        <v>7</v>
       </c>
       <c r="AF43" s="30"/>
       <c r="AG43" s="31"/>
@@ -28412,7 +28965,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="73">
         <v>87</v>
       </c>
@@ -28456,14 +29009,15 @@
       <c r="AC44" t="s">
         <v>176</v>
       </c>
-      <c r="AD44" s="161" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE44" s="160">
-        <v>4</v>
-      </c>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="31"/>
+      <c r="AD44" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE44" s="183">
+        <f>$Y$15</f>
+        <v>4.4249528005034611</v>
+      </c>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="33"/>
       <c r="AW44" s="164" t="s">
         <v>189</v>
       </c>
@@ -28471,16 +29025,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:50" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:50" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="73">
         <v>90</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" ref="C45:C50" si="54">B45/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C45:C50" si="50">B45/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
       <c r="D45" s="88">
-        <f t="shared" ref="D45:D50" si="55">(C45-1)*180</f>
+        <f t="shared" ref="D45:D50" si="51">(C45-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E45" s="6"/>
@@ -28511,29 +29065,20 @@
       <c r="AA45" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AD45" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE45" s="183">
-        <f>$Y$15</f>
-        <v>4.4249528005034611</v>
-      </c>
-      <c r="AF45" s="32"/>
-      <c r="AG45" s="33"/>
       <c r="AU45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B46" s="73">
         <v>100</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>1.568888888888889</v>
       </c>
       <c r="D46" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E46" s="6"/>
@@ -28567,7 +29112,7 @@
       </c>
       <c r="AA46" s="89">
         <f>AA56/X40*100</f>
-        <v>-18.379858705839208</v>
+        <v>-18.907319518350299</v>
       </c>
       <c r="AB46" t="s">
         <v>106</v>
@@ -28576,16 +29121,16 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B47" s="73">
         <v>110</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>1.6727777777777779</v>
       </c>
       <c r="D47" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E47" s="6"/>
@@ -28622,16 +29167,16 @@
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:50" x14ac:dyDescent="0.3">
       <c r="B48" s="73">
         <v>114</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>1.7143333333333333</v>
       </c>
       <c r="D48" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>128.57999999999998</v>
       </c>
       <c r="W48" s="19"/>
@@ -28642,21 +29187,21 @@
       <c r="Z48" s="61"/>
       <c r="AA48" s="89">
         <f>(AA47-AA46)/(X47-X46)</f>
-        <v>19.075971741167841</v>
+        <v>19.18146390367006</v>
       </c>
       <c r="AI48" s="104"/>
       <c r="AQ48" s="3"/>
     </row>
-    <row r="49" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B49" s="73">
         <v>127.5</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>1.8545833333333333</v>
       </c>
       <c r="D49" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>153.82499999999999</v>
       </c>
       <c r="W49" s="19"/>
@@ -28665,20 +29210,20 @@
       <c r="Z49" s="61"/>
       <c r="AA49" s="89">
         <f>AA47-AA48*(X47-X46)</f>
-        <v>-18.379858705839212</v>
+        <v>-18.907319518350306</v>
       </c>
       <c r="AR49" s="3"/>
     </row>
-    <row r="50" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="80">
         <v>136.4</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>1.9470444444444444</v>
       </c>
       <c r="D50" s="88">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>170.46799999999999</v>
       </c>
       <c r="W50" s="21"/>
@@ -28689,45 +29234,45 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W53" s="49" t="s">
         <v>121</v>
       </c>
       <c r="X53" s="50">
-        <f>INDEX(LINEST($P$4:$P$15,$D$4:$D$15^{1,2},FALSE,FALSE),1)</f>
-        <v>-351.26655108461694</v>
+        <f>INDEX(LINEST($P$8:$P$15,$D$8:$D$15^{1,2},FALSE,FALSE),1)</f>
+        <v>-351.26655108462336</v>
       </c>
       <c r="Y53" s="28"/>
       <c r="Z53" s="51" t="s">
         <v>123</v>
       </c>
       <c r="AA53" s="52">
-        <f>INDEX(LINEST($O$4:$O$15,$P$4:$P$15),1)</f>
-        <v>1.0235321332609688</v>
+        <f>INDEX(LINEST($O$8:$O$15,$P$8:$P$15),1)</f>
+        <v>1.0165476207184487</v>
       </c>
     </row>
-    <row r="54" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W54" s="43"/>
       <c r="X54" s="54">
-        <f>INDEX(LINEST($P$4:$P$15,$D$4:$D$15^{1,2},FALSE,FALSE),2)</f>
-        <v>14542.877489600349</v>
+        <f>INDEX(LINEST($P$8:$P$15,$D$8:$D$15^{1,2},FALSE,FALSE),2)</f>
+        <v>14542.877489600363</v>
       </c>
       <c r="Y54" s="30"/>
       <c r="Z54" s="44"/>
       <c r="AA54" s="46">
-        <f>INDEX(LINEST($O$4:$O$15,$P$4:$P$15),2)</f>
-        <v>8705.4061069276213</v>
+        <f>INDEX(LINEST($O$8:$O$15,$P$8:$P$15),2)</f>
+        <v>8893.4325759458807</v>
       </c>
     </row>
-    <row r="55" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W55" s="43"/>
       <c r="X55" s="54">
-        <f>INDEX(LINEST($P$4:$P$15,$D$4:$D$15^{1,2},FALSE,FALSE),3)</f>
+        <f>INDEX(LINEST($P$8:$P$15,$D$8:$D$15^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
       <c r="Y55" s="30"/>
@@ -28735,11 +29280,11 @@
         <v>122</v>
       </c>
       <c r="AA55" s="46">
-        <f>INDEX(LINEST($P$4:$P$15,$O$4:$O$15),1)</f>
-        <v>0.97555662398469367</v>
+        <f>INDEX(LINEST($P$8:$P$15,$O$8:$O$15),1)</f>
+        <v>0.98261459063146772</v>
       </c>
     </row>
-    <row r="56" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W56" s="43" t="s">
         <v>21</v>
       </c>
@@ -28750,14 +29295,14 @@
       <c r="Y56" s="30"/>
       <c r="Z56" s="44"/>
       <c r="AA56" s="46">
-        <f>INDEX(LINEST($P$4:$P$15,$O$4:$O$15),2)</f>
-        <v>-8469.4388916507069</v>
+        <f>INDEX(LINEST($P$8:$P$15,$O$8:$O$15),2)</f>
+        <v>-8712.4928340558181</v>
       </c>
       <c r="AB56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W57" s="43"/>
       <c r="X57" s="54">
         <f>INDEX(LINEST($O$8:$O$15,$L$8:$L$15),2)</f>
@@ -28767,14 +29312,14 @@
       <c r="Z57" s="30"/>
       <c r="AA57" s="31"/>
     </row>
-    <row r="58" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W58" s="19"/>
       <c r="X58" s="30"/>
       <c r="Y58" s="30"/>
       <c r="Z58" s="30"/>
       <c r="AA58" s="31"/>
     </row>
-    <row r="59" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:44" x14ac:dyDescent="0.3">
       <c r="G59" s="176" t="s">
         <v>212</v>
       </c>
@@ -28792,14 +29337,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W60" s="19"/>
       <c r="X60" s="30"/>
       <c r="Y60" s="30"/>
       <c r="Z60" s="30"/>
       <c r="AA60" s="31"/>
     </row>
-    <row r="61" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W61" s="43" t="s">
         <v>92</v>
       </c>
@@ -28818,7 +29363,7 @@
       <c r="AF61" s="45"/>
       <c r="AG61" s="149"/>
     </row>
-    <row r="62" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:44" x14ac:dyDescent="0.3">
       <c r="W62" s="43"/>
       <c r="X62" s="180">
         <f>INDEX(LINEST($X$4:$X$15,$O$4:$O$15^{1,2}),2)</f>
@@ -28833,7 +29378,7 @@
       <c r="AF62" s="45"/>
       <c r="AG62" s="149"/>
     </row>
-    <row r="63" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W63" s="55"/>
       <c r="X63" s="182">
         <f>INDEX(LINEST($X$4:$X$15,$O$4:$O$15^{1,2}),3)</f>
@@ -28848,7 +29393,7 @@
       <c r="AF63" s="45"/>
       <c r="AG63" s="149"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -28862,9 +29407,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B67" s="113">
-        <f t="shared" ref="B67:B72" si="56">C67/180+1</f>
+        <f t="shared" ref="B67:B72" si="52">C67/180+1</f>
         <v>1.0611111111111111</v>
       </c>
       <c r="C67" s="142">
@@ -28900,19 +29445,19 @@
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3">
-        <f t="shared" ref="O67:O82" si="57">M67*60/$X$29</f>
+        <f t="shared" ref="O67:O82" si="53">M67*60/$X$29</f>
         <v>8746.3556851311951</v>
       </c>
       <c r="P67" s="3">
-        <f t="shared" ref="P67:P82" si="58">N67*60/$X$29</f>
+        <f t="shared" ref="P67:P82" si="54">N67*60/$X$29</f>
         <v>0</v>
       </c>
       <c r="Q67" s="3">
-        <f t="shared" ref="Q67:Q82" si="59">O67/$X$40*100</f>
+        <f t="shared" ref="Q67:Q82" si="55">O67/$X$40*100</f>
         <v>18.980806608357629</v>
       </c>
       <c r="R67" s="3">
-        <f t="shared" ref="R67:R82" si="60">P67/$X$40*100</f>
+        <f t="shared" ref="R67:R82" si="56">P67/$X$40*100</f>
         <v>0</v>
       </c>
       <c r="S67" s="3">
@@ -28937,13 +29482,13 @@
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="shared" ref="Y67:Y84" si="61">-X67/2/O67</f>
+        <f t="shared" ref="Y67:Y84" si="57">-X67/2/O67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B68" s="113">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="C68" s="142">
@@ -28979,19 +29524,19 @@
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>9708.7378640776697</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>21.069309600862997</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S68" s="3">
@@ -29004,7 +29549,7 @@
       </c>
       <c r="U68" s="4"/>
       <c r="V68">
-        <f t="shared" ref="V68:V84" si="62">(T68-$T$3)*0.001341022</f>
+        <f t="shared" ref="V68:V84" si="58">(T68-$T$3)*0.001341022</f>
         <v>5.9576511576400013E-3</v>
       </c>
       <c r="W68" s="127">
@@ -29012,17 +29557,17 @@
         <v>3.2228271396323046E-3</v>
       </c>
       <c r="X68" s="150">
-        <f t="shared" ref="X68:X84" si="63">W68-$W$67</f>
+        <f t="shared" ref="X68:X84" si="59">W68-$W$67</f>
         <v>1.967106745261603E-4</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.0130599738097255E-8</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B69" s="113">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="C69" s="142">
@@ -29058,19 +29603,19 @@
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>10273.972602739726</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>22.295947488584474</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S69" s="3">
@@ -29083,25 +29628,25 @@
       </c>
       <c r="U69" s="4"/>
       <c r="V69">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>6.4615267639200015E-3</v>
       </c>
       <c r="W69" s="127">
-        <f t="shared" ref="W69:W84" si="64">$V69/$O69*5252</f>
+        <f t="shared" ref="W69:W84" si="60">$V69/$O69*5252</f>
         <v>3.3030980202398302E-3</v>
       </c>
       <c r="X69" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2.7698155513368591E-4</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.3479769016506046E-8</v>
       </c>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B70" s="113">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C70" s="142">
@@ -29137,19 +29682,19 @@
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>11363.636363636364</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>24.660669191919194</v>
       </c>
       <c r="R70" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S70" s="3">
@@ -29162,25 +29707,25 @@
       </c>
       <c r="U70" s="4"/>
       <c r="V70">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>7.52844386712E-3</v>
       </c>
       <c r="W70" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>3.479466072730053E-3</v>
       </c>
       <c r="X70" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>4.5334960762390868E-4</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.9947382735451983E-8</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B71" s="113">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>1.0777777777777777</v>
       </c>
       <c r="C71" s="142">
@@ -29216,19 +29761,19 @@
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>12244.897959183674</v>
       </c>
       <c r="P71" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q71" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>26.573129251700685</v>
       </c>
       <c r="R71" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S71" s="3">
@@ -29241,25 +29786,25 @@
       </c>
       <c r="U71" s="4"/>
       <c r="V71">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>8.3539636001000016E-3</v>
       </c>
       <c r="W71" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>3.5831263742642254E-3</v>
       </c>
       <c r="X71" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>5.5700990915808109E-4</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-2.2744571290621641E-8</v>
       </c>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B72" s="113">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="C72" s="142">
@@ -29278,67 +29823,67 @@
       <c r="H72" s="143"/>
       <c r="I72" s="142"/>
       <c r="J72" s="2">
-        <f t="shared" ref="J72:J84" si="65">E72*F72</f>
+        <f t="shared" ref="J72:J84" si="61">E72*F72</f>
         <v>12.79233</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" ref="K72:K84" si="66">C72</f>
+        <f t="shared" ref="K72:K84" si="62">C72</f>
         <v>20</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" ref="L72:L84" si="67">LN(K72)</f>
+        <f t="shared" ref="L72:L84" si="63">LN(K72)</f>
         <v>2.9957322735539909</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" ref="M72:M84" si="68">1/G72/0.000001</f>
+        <f t="shared" ref="M72:M84" si="64">1/G72/0.000001</f>
         <v>285.71428571428572</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>17142.857142857145</v>
       </c>
       <c r="P72" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q72" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>37.202380952380956</v>
       </c>
       <c r="R72" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" ref="S72:S84" si="69">K72</f>
+        <f t="shared" ref="S72:S84" si="65">K72</f>
         <v>20</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" ref="T72:T84" si="70">J72</f>
+        <f t="shared" ref="T72:T84" si="66">J72</f>
         <v>12.79233</v>
       </c>
       <c r="U72" s="4"/>
       <c r="V72">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>1.1187194420379999E-2</v>
       </c>
       <c r="W72" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>3.4273834639237518E-3</v>
       </c>
       <c r="X72" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>4.0126699881760756E-4</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.1703620798846885E-8</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B73" s="113">
-        <f t="shared" ref="B73:B84" si="71">C73/180+1</f>
+        <f t="shared" ref="B73:B84" si="67">C73/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C73" s="142">
@@ -29357,67 +29902,67 @@
       <c r="H73" s="142"/>
       <c r="I73" s="142"/>
       <c r="J73" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>17.3124</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>332.22591362126246</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>19933.554817275748</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>43.258582502768547</v>
       </c>
       <c r="R73" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S73" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>25</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>17.3124</v>
       </c>
       <c r="U73" s="4"/>
       <c r="V73">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>1.7248707731919999E-2</v>
       </c>
       <c r="W73" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>4.5446090192368654E-3</v>
       </c>
       <c r="X73" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>1.5184925541307211E-3</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-3.8088854899445583E-8</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B74" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C74" s="142">
@@ -29436,67 +29981,67 @@
       <c r="H74" s="142"/>
       <c r="I74" s="142"/>
       <c r="J74" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>23.790480000000002</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>3.4011973816621555</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>22641.509433962266</v>
       </c>
       <c r="P74" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>49.135220125786169</v>
       </c>
       <c r="R74" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>30</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>23.790480000000002</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>2.5935955529680001E-2</v>
       </c>
       <c r="W74" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>6.0161906978496715E-3</v>
       </c>
       <c r="X74" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2.9900742327435273E-3</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-6.6030805973086218E-8</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B75" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C75" s="142">
@@ -29515,67 +30060,67 @@
       <c r="H75" s="142"/>
       <c r="I75" s="142"/>
       <c r="J75" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>28.926969999999997</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>35</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>400.00000000000006</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>24000.000000000004</v>
       </c>
       <c r="P75" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>52.083333333333336</v>
       </c>
       <c r="R75" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S75" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>35</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>28.926969999999997</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>3.2824101622459995E-2</v>
       </c>
       <c r="W75" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>7.1830075717149939E-3</v>
       </c>
       <c r="X75" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>4.1568911066088496E-3</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-8.6601898054351018E-8</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B76" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C76" s="142">
@@ -29594,67 +30139,67 @@
       <c r="H76" s="142"/>
       <c r="I76" s="142"/>
       <c r="J76" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>32.374200000000002</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>40</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>3.6888794541139363</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>440.52863436123351</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>26431.718061674012</v>
       </c>
       <c r="P76" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>57.360499265785613</v>
       </c>
       <c r="R76" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S76" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>40</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>32.374200000000002</v>
       </c>
       <c r="U76" s="4"/>
       <c r="V76">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>3.7446912891520003E-2</v>
       </c>
       <c r="W76" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>7.4407265561536179E-3</v>
       </c>
       <c r="X76" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>4.4146100910474736E-3</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-8.3509707555648035E-8</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B77" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C77" s="142">
@@ -29673,67 +30218,67 @@
       <c r="H77" s="142"/>
       <c r="I77" s="142"/>
       <c r="J77" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>42.16</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>50</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>3.912023005428146</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>29702.970297029704</v>
       </c>
       <c r="P77" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>64.459570957095707</v>
       </c>
       <c r="R77" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S77" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>50</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>42.16</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>5.0569885979119995E-2</v>
       </c>
       <c r="W77" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>8.9416323857987191E-3</v>
       </c>
       <c r="X77" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>5.9155159206925748E-3</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-9.957785133165834E-8</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B78" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C78" s="142">
@@ -29752,67 +30297,67 @@
       <c r="H78" s="142"/>
       <c r="I78" s="142"/>
       <c r="J78" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>52.727999999999994</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>60</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>4.0943445622221004</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>534.75935828877004</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>32085.561497326202</v>
       </c>
       <c r="P78" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q78" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>69.630124777183596</v>
       </c>
       <c r="R78" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S78" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>60</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>52.727999999999994</v>
       </c>
       <c r="U78" s="4"/>
       <c r="V78">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>6.4741806475119998E-2</v>
       </c>
       <c r="W78" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>1.0597413657095125E-2</v>
       </c>
       <c r="X78" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>7.5712971919889805E-3</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.1798604790849495E-7</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B79" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C79" s="142">
@@ -29831,67 +30376,67 @@
       <c r="H79" s="142"/>
       <c r="I79" s="142"/>
       <c r="J79" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>64.944000000000003</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>75</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>606.06060606060612</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>36363.636363636368</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q79" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>78.914141414141426</v>
       </c>
       <c r="R79" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S79" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>75</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>64.944000000000003</v>
       </c>
       <c r="U79" s="4"/>
       <c r="V79">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>8.1123731227120008E-2</v>
       </c>
       <c r="W79" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>1.1716700501132942E-2</v>
       </c>
       <c r="X79" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>8.6905840360267973E-3</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.1949553049536844E-7</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B80" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.5</v>
       </c>
       <c r="C80" s="142">
@@ -29910,67 +30455,67 @@
       <c r="H80" s="142"/>
       <c r="I80" s="142"/>
       <c r="J80" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>81.4572</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>90</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>4.499809670330265</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>662.25165562913912</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>39735.099337748346</v>
       </c>
       <c r="P80" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>86.230684326710815</v>
       </c>
       <c r="R80" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S80" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>90</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>81.4572</v>
       </c>
       <c r="U80" s="4"/>
       <c r="V80">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.10326829571752001</v>
       </c>
       <c r="W80" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>1.3649521409228446E-2</v>
       </c>
       <c r="X80" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>1.0623404944122301E-2</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.3367784554687227E-7</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B81" s="113">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C81" s="142">
@@ -29989,67 +30534,67 @@
       <c r="H81" s="142"/>
       <c r="I81" s="142"/>
       <c r="J81" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>94.001099999999994</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>109</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>4.6913478822291435</v>
       </c>
       <c r="M81" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>680.27210884353735</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>40816.326530612241</v>
       </c>
       <c r="P81" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>88.577097505668917</v>
       </c>
       <c r="R81" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>109</v>
       </c>
       <c r="T81" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>94.001099999999994</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.12008994158332</v>
       </c>
       <c r="W81" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>1.5452453143292119E-2</v>
       </c>
       <c r="X81" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>1.2426336678185976E-2</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.5222262430777822E-7</v>
       </c>
     </row>
-    <row r="82" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="116">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C82" s="142">
@@ -30068,67 +30613,67 @@
       <c r="H82" s="142"/>
       <c r="I82" s="142"/>
       <c r="J82" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>117.19680000000001</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>130</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>4.8675344504555822</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>724.63768115942037</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>43478.260869565223</v>
       </c>
       <c r="P82" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q82" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>94.353864734299535</v>
       </c>
       <c r="R82" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S82" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>130</v>
       </c>
       <c r="T82" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>117.19680000000001</v>
       </c>
       <c r="U82" s="4"/>
       <c r="V82">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.15119588558872002</v>
       </c>
       <c r="W82" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>1.8263858195575022E-2</v>
       </c>
       <c r="X82" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>1.5237741730468879E-2</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.7523402990039207E-7</v>
       </c>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B83" s="144">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.8277777777777777</v>
       </c>
       <c r="C83" s="142">
@@ -30147,19 +30692,19 @@
       <c r="H83" s="142"/>
       <c r="I83" s="142"/>
       <c r="J83" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>139.86000000000001</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>149</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>5.0039463059454592</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>763.35877862595419</v>
       </c>
       <c r="O83" s="1">
@@ -30171,34 +30716,34 @@
         <v>99.395674300254456</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>149</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>139.86000000000001</v>
       </c>
       <c r="U83" s="4"/>
       <c r="V83">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.18158773537912004</v>
       </c>
       <c r="W83" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>2.0822423498943188E-2</v>
       </c>
       <c r="X83" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>1.7796307033837045E-2</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-1.942763517860544E-7</v>
       </c>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B84" s="144">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C84" s="142">
@@ -30217,19 +30762,19 @@
       <c r="H84" s="142"/>
       <c r="I84" s="142"/>
       <c r="J84" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>177.22499999999999</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>164</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>5.0998664278241987</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>798.72204472843453</v>
       </c>
       <c r="O84" s="1">
@@ -30241,32 +30786,32 @@
         <v>104.00026624068157</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>164</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>177.22499999999999</v>
       </c>
       <c r="U84" s="4"/>
       <c r="V84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.23169502240912002</v>
       </c>
       <c r="W84" s="127">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>2.539185911052097E-2</v>
       </c>
       <c r="X84" s="150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2.2365742645414827E-2</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>-2.3334924826716135E-7</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>117</v>
       </c>
@@ -30277,7 +30822,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B88" s="113">
         <f>C88/180+1</f>
         <v>1.0611111111111111</v>
@@ -30302,40 +30847,40 @@
         <v>7.9545599999999999</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" ref="K88:K102" si="72">C88</f>
+        <f t="shared" ref="K88:K102" si="68">C88</f>
         <v>11</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" ref="L88:L102" si="73">LN(K88)</f>
+        <f t="shared" ref="L88:L102" si="69">LN(K88)</f>
         <v>2.3978952727983707</v>
       </c>
       <c r="M88" s="3">
-        <f t="shared" ref="M88:M102" si="74">1/G88/0.000001</f>
+        <f t="shared" ref="M88:M102" si="70">1/G88/0.000001</f>
         <v>204.91803278688525</v>
       </c>
       <c r="N88" s="3"/>
       <c r="O88" s="3">
-        <f t="shared" ref="O88:O100" si="75">M88*60/$X$29</f>
+        <f t="shared" ref="O88:O100" si="71">M88*60/$X$29</f>
         <v>12295.081967213115</v>
       </c>
       <c r="P88" s="3">
-        <f t="shared" ref="P88:P100" si="76">N88*60/$X$29</f>
+        <f t="shared" ref="P88:P100" si="72">N88*60/$X$29</f>
         <v>0</v>
       </c>
       <c r="Q88" s="3">
-        <f t="shared" ref="Q88:Q100" si="77">O88/$X$40*100</f>
+        <f t="shared" ref="Q88:Q100" si="73">O88/$X$40*100</f>
         <v>26.682035519125684</v>
       </c>
       <c r="R88" s="3">
-        <f t="shared" ref="R88:R100" si="78">P88/$X$40*100</f>
+        <f t="shared" ref="R88:R100" si="74">P88/$X$40*100</f>
         <v>0</v>
       </c>
       <c r="S88" s="3">
-        <f t="shared" ref="S88:S102" si="79">K88</f>
+        <f t="shared" ref="S88:S102" si="75">K88</f>
         <v>11</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" ref="T88:T102" si="80">J88</f>
+        <f t="shared" ref="T88:T102" si="76">J88</f>
         <v>7.9545599999999999</v>
       </c>
       <c r="U88" s="4"/>
@@ -30352,11 +30897,11 @@
         <v>0</v>
       </c>
       <c r="Y88">
-        <f t="shared" ref="Y88:Y102" si="81">-X88/2/O88</f>
+        <f t="shared" ref="Y88:Y102" si="77">-X88/2/O88</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B89" s="113">
         <f>C89/180+1</f>
         <v>1.0833333333333333</v>
@@ -30377,65 +30922,65 @@
       <c r="H89" s="143"/>
       <c r="I89" s="142"/>
       <c r="J89" s="2">
-        <f t="shared" ref="J89:J102" si="82">E89*F89</f>
+        <f t="shared" ref="J89:J102" si="78">E89*F89</f>
         <v>10.736400000000001</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>15</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>2.7080502011022101</v>
       </c>
       <c r="M89" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>256.41025641025641</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3">
+        <f t="shared" si="71"/>
+        <v>15384.615384615385</v>
+      </c>
+      <c r="P89" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <f t="shared" si="73"/>
+        <v>33.386752136752136</v>
+      </c>
+      <c r="R89" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <f t="shared" si="75"/>
-        <v>15384.615384615385</v>
-      </c>
-      <c r="P89" s="3">
+        <v>15</v>
+      </c>
+      <c r="T89" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <f t="shared" si="77"/>
-        <v>33.386752136752136</v>
-      </c>
-      <c r="R89" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <f t="shared" si="79"/>
-        <v>15</v>
-      </c>
-      <c r="T89" s="4">
-        <f t="shared" si="80"/>
         <v>10.736400000000001</v>
       </c>
       <c r="U89" s="4"/>
       <c r="V89">
-        <f t="shared" ref="V89:V102" si="83">T89*0.001341022</f>
+        <f t="shared" ref="V89:V102" si="79">T89*0.001341022</f>
         <v>1.4397748600800004E-2</v>
       </c>
       <c r="W89" s="127">
-        <f t="shared" ref="W89:W102" si="84">$V89/$O89*5252</f>
+        <f t="shared" ref="W89:W102" si="80">$V89/$O89*5252</f>
         <v>4.9151034173411049E-3</v>
       </c>
       <c r="X89" s="127">
-        <f t="shared" ref="X89:X102" si="85">W89-$W$88</f>
+        <f t="shared" ref="X89:X102" si="81">W89-$W$88</f>
         <v>3.5845674991758555E-4</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-1.1649844372321531E-8</v>
       </c>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B90" s="113">
         <f>C90/180+1</f>
         <v>1.1111111111111112</v>
@@ -30456,67 +31001,67 @@
       <c r="H90" s="143"/>
       <c r="I90" s="142"/>
       <c r="J90" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>14.331199999999999</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>20</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>2.9957322735539909</v>
       </c>
       <c r="M90" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>306.74846625766872</v>
       </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3">
+        <f t="shared" si="71"/>
+        <v>18404.907975460123</v>
+      </c>
+      <c r="P90" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <f t="shared" si="73"/>
+        <v>39.941206543967276</v>
+      </c>
+      <c r="R90" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
         <f t="shared" si="75"/>
-        <v>18404.907975460123</v>
-      </c>
-      <c r="P90" s="3">
+        <v>20</v>
+      </c>
+      <c r="T90" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="3">
-        <f t="shared" si="77"/>
-        <v>39.941206543967276</v>
-      </c>
-      <c r="R90" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="3">
-        <f t="shared" si="79"/>
-        <v>20</v>
-      </c>
-      <c r="T90" s="4">
-        <f t="shared" si="80"/>
         <v>14.331199999999999</v>
       </c>
       <c r="U90" s="4"/>
       <c r="V90">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1.92184544864E-2</v>
       </c>
       <c r="W90" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>5.4841525476331228E-3</v>
       </c>
       <c r="X90" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>9.2750588020960346E-4</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-2.519724307902756E-8</v>
       </c>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B91" s="113">
-        <f t="shared" ref="B91:B102" si="86">C91/180+1</f>
+        <f t="shared" ref="B91:B102" si="82">C91/180+1</f>
         <v>1.1388888888888888</v>
       </c>
       <c r="C91" s="142">
@@ -30535,67 +31080,67 @@
       <c r="H91" s="142"/>
       <c r="I91" s="142"/>
       <c r="J91" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>18.75488</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>25</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="M91" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>348.43205574912895</v>
       </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3">
+        <f t="shared" si="71"/>
+        <v>20905.923344947736</v>
+      </c>
+      <c r="P91" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <f t="shared" si="73"/>
+        <v>45.368757259001164</v>
+      </c>
+      <c r="R91" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <f t="shared" si="75"/>
-        <v>20905.923344947736</v>
-      </c>
-      <c r="P91" s="3">
+        <v>25</v>
+      </c>
+      <c r="T91" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <f t="shared" si="77"/>
-        <v>45.368757259001164</v>
-      </c>
-      <c r="R91" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <f t="shared" si="79"/>
-        <v>25</v>
-      </c>
-      <c r="T91" s="4">
-        <f t="shared" si="80"/>
         <v>18.75488</v>
       </c>
       <c r="U91" s="4"/>
       <c r="V91">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>2.5150706687360001E-2</v>
       </c>
       <c r="W91" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>6.3183773011363711E-3</v>
       </c>
       <c r="X91" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1.7617306337128517E-3</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-4.21347243229657E-8</v>
       </c>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B92" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="C92" s="142">
@@ -30614,67 +31159,67 @@
       <c r="H92" s="142"/>
       <c r="I92" s="142"/>
       <c r="J92" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>22.945799999999998</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>30</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>3.4011973816621555</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>378.78787878787881</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3">
+        <f t="shared" si="71"/>
+        <v>22727.272727272728</v>
+      </c>
+      <c r="P92" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <f t="shared" si="73"/>
+        <v>49.321338383838388</v>
+      </c>
+      <c r="R92" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
         <f t="shared" si="75"/>
-        <v>22727.272727272728</v>
-      </c>
-      <c r="P92" s="3">
+        <v>30</v>
+      </c>
+      <c r="T92" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="3">
-        <f t="shared" si="77"/>
-        <v>49.321338383838388</v>
-      </c>
-      <c r="R92" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="3">
-        <f t="shared" si="79"/>
-        <v>30</v>
-      </c>
-      <c r="T92" s="4">
-        <f t="shared" si="80"/>
         <v>22.945799999999998</v>
       </c>
       <c r="U92" s="4"/>
       <c r="V92">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>3.0770822607600001E-2</v>
       </c>
       <c r="W92" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>7.1107678547450686E-3</v>
       </c>
       <c r="X92" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>2.5541211873215492E-3</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-5.6190666121074085E-8</v>
       </c>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B93" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C93" s="142">
@@ -30693,67 +31238,67 @@
       <c r="H93" s="142"/>
       <c r="I93" s="142"/>
       <c r="J93" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>28.194600000000005</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>35</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M93" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>416.66666666666669</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3">
+        <f t="shared" si="71"/>
+        <v>25000</v>
+      </c>
+      <c r="P93" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <f t="shared" si="73"/>
+        <v>54.253472222222221</v>
+      </c>
+      <c r="R93" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
         <f t="shared" si="75"/>
-        <v>25000</v>
-      </c>
-      <c r="P93" s="3">
+        <v>35</v>
+      </c>
+      <c r="T93" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="3">
-        <f t="shared" si="77"/>
-        <v>54.253472222222221</v>
-      </c>
-      <c r="R93" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="3">
-        <f t="shared" si="79"/>
-        <v>35</v>
-      </c>
-      <c r="T93" s="4">
-        <f t="shared" si="80"/>
         <v>28.194600000000005</v>
       </c>
       <c r="U93" s="4"/>
       <c r="V93">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>3.7809578881200012E-2</v>
       </c>
       <c r="W93" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>7.9430363313624987E-3</v>
       </c>
       <c r="X93" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>3.3863896639389794E-3</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-6.7727793278779586E-8</v>
       </c>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B94" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="C94" s="142">
@@ -30772,67 +31317,67 @@
       <c r="H94" s="142"/>
       <c r="I94" s="142"/>
       <c r="J94" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>31.509999999999994</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>3.6888794541139363</v>
       </c>
       <c r="M94" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>444.44444444444451</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3">
+        <f t="shared" si="71"/>
+        <v>26666.666666666672</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <f t="shared" si="73"/>
+        <v>57.870370370370381</v>
+      </c>
+      <c r="R94" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <f t="shared" si="75"/>
-        <v>26666.666666666672</v>
-      </c>
-      <c r="P94" s="3">
+        <v>40</v>
+      </c>
+      <c r="T94" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <f t="shared" si="77"/>
-        <v>57.870370370370381</v>
-      </c>
-      <c r="R94" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <f t="shared" si="79"/>
-        <v>40</v>
-      </c>
-      <c r="T94" s="4">
-        <f t="shared" si="80"/>
         <v>31.509999999999994</v>
       </c>
       <c r="U94" s="4"/>
       <c r="V94">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>4.2255603219999993E-2</v>
       </c>
       <c r="W94" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>8.3222410541789974E-3</v>
       </c>
       <c r="X94" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>3.765594386755478E-3</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-7.0604894751665205E-8</v>
       </c>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B95" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="C95" s="142">
@@ -30851,67 +31396,67 @@
       <c r="H95" s="142"/>
       <c r="I95" s="142"/>
       <c r="J95" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>41.222999999999999</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>50</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>3.912023005428146</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>497.51243781094524</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3">
+        <f t="shared" si="71"/>
+        <v>29850.746268656716</v>
+      </c>
+      <c r="P95" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <f t="shared" si="73"/>
+        <v>64.780265339966832</v>
+      </c>
+      <c r="R95" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="3">
         <f t="shared" si="75"/>
-        <v>29850.746268656716</v>
-      </c>
-      <c r="P95" s="3">
+        <v>50</v>
+      </c>
+      <c r="T95" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="3">
-        <f t="shared" si="77"/>
-        <v>64.780265339966832</v>
-      </c>
-      <c r="R95" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="3">
-        <f t="shared" si="79"/>
-        <v>50</v>
-      </c>
-      <c r="T95" s="4">
-        <f t="shared" si="80"/>
         <v>41.222999999999999</v>
       </c>
       <c r="U95" s="4"/>
       <c r="V95">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>5.5280949906E-2</v>
       </c>
       <c r="W95" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>9.7262408883614527E-3</v>
       </c>
       <c r="X95" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>5.1695942209379333E-3</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-8.6590703200710378E-8</v>
       </c>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B96" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C96" s="142">
@@ -30930,67 +31475,67 @@
       <c r="H96" s="142"/>
       <c r="I96" s="142"/>
       <c r="J96" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>51.816000000000003</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>60</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>4.0943445622221004</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>531.91489361702133</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3">
+        <f t="shared" si="71"/>
+        <v>31914.89361702128</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <f t="shared" si="73"/>
+        <v>69.259751773049643</v>
+      </c>
+      <c r="R96" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <f t="shared" si="75"/>
-        <v>31914.89361702128</v>
-      </c>
-      <c r="P96" s="3">
+        <v>60</v>
+      </c>
+      <c r="T96" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <f t="shared" si="77"/>
-        <v>69.259751773049643</v>
-      </c>
-      <c r="R96" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <f t="shared" si="79"/>
-        <v>60</v>
-      </c>
-      <c r="T96" s="4">
-        <f t="shared" si="80"/>
         <v>51.816000000000003</v>
       </c>
       <c r="U96" s="4"/>
       <c r="V96">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>6.9486395952000013E-2</v>
       </c>
       <c r="W96" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>1.1434866614916992E-2</v>
       </c>
       <c r="X96" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>6.8782199474934731E-3</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-1.0775877917739773E-7</v>
       </c>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B97" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="C97" s="142">
@@ -31009,67 +31554,67 @@
       <c r="H97" s="142"/>
       <c r="I97" s="142"/>
       <c r="J97" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>66.481399999999994</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>75</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>4.3174881135363101</v>
       </c>
       <c r="M97" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>613.49693251533745</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3">
+        <f t="shared" si="71"/>
+        <v>36809.815950920245</v>
+      </c>
+      <c r="P97" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <f t="shared" si="73"/>
+        <v>79.882413087934552</v>
+      </c>
+      <c r="R97" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
         <f t="shared" si="75"/>
-        <v>36809.815950920245</v>
-      </c>
-      <c r="P97" s="3">
+        <v>75</v>
+      </c>
+      <c r="T97" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q97" s="3">
-        <f t="shared" si="77"/>
-        <v>79.882413087934552</v>
-      </c>
-      <c r="R97" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S97" s="3">
-        <f t="shared" si="79"/>
-        <v>75</v>
-      </c>
-      <c r="T97" s="4">
-        <f t="shared" si="80"/>
         <v>66.481399999999994</v>
       </c>
       <c r="U97" s="4"/>
       <c r="V97">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>8.9153019990799998E-2</v>
       </c>
       <c r="W97" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>1.2720293456940682E-2</v>
       </c>
       <c r="X97" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>8.1636467895171635E-3</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-1.1088953555760814E-7</v>
       </c>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B98" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.5</v>
       </c>
       <c r="C98" s="142">
@@ -31088,67 +31633,67 @@
       <c r="H98" s="142"/>
       <c r="I98" s="142"/>
       <c r="J98" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>80.820000000000007</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>90</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>4.499809670330265</v>
       </c>
       <c r="M98" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>657.89473684210532</v>
       </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3">
+        <f t="shared" si="71"/>
+        <v>39473.68421052632</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <f t="shared" si="73"/>
+        <v>85.663377192982466</v>
+      </c>
+      <c r="R98" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
         <f t="shared" si="75"/>
-        <v>39473.68421052632</v>
-      </c>
-      <c r="P98" s="3">
+        <v>90</v>
+      </c>
+      <c r="T98" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q98" s="3">
-        <f t="shared" si="77"/>
-        <v>85.663377192982466</v>
-      </c>
-      <c r="R98" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="3">
-        <f t="shared" si="79"/>
-        <v>90</v>
-      </c>
-      <c r="T98" s="4">
-        <f t="shared" si="80"/>
         <v>80.820000000000007</v>
       </c>
       <c r="U98" s="4"/>
       <c r="V98">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.10838139804000002</v>
       </c>
       <c r="W98" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>1.4420217263487361E-2</v>
       </c>
       <c r="X98" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>9.8635705960638427E-3</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-1.2493856088347532E-7</v>
       </c>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B99" s="113">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.6055555555555556</v>
       </c>
       <c r="C99" s="142">
@@ -31167,67 +31712,67 @@
       <c r="H99" s="142"/>
       <c r="I99" s="142"/>
       <c r="J99" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>99.012000000000015</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>109</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>4.6913478822291435</v>
       </c>
       <c r="M99" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>719.42446043165478</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3">
+        <f t="shared" si="71"/>
+        <v>43165.467625899284</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <f t="shared" si="73"/>
+        <v>93.675059952038382</v>
+      </c>
+      <c r="R99" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
         <f t="shared" si="75"/>
-        <v>43165.467625899284</v>
-      </c>
-      <c r="P99" s="3">
+        <v>109</v>
+      </c>
+      <c r="T99" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q99" s="3">
-        <f t="shared" si="77"/>
-        <v>93.675059952038382</v>
-      </c>
-      <c r="R99" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S99" s="3">
-        <f t="shared" si="79"/>
-        <v>109</v>
-      </c>
-      <c r="T99" s="4">
-        <f t="shared" si="80"/>
         <v>99.012000000000015</v>
       </c>
       <c r="U99" s="4"/>
       <c r="V99">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.13277727026400002</v>
       </c>
       <c r="W99" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>1.6155187509381233E-2</v>
       </c>
       <c r="X99" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1.1598540841957713E-2</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-1.3434976475267684E-7</v>
       </c>
     </row>
-    <row r="100" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="116">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="C100" s="142">
@@ -31246,67 +31791,67 @@
       <c r="H100" s="142"/>
       <c r="I100" s="142"/>
       <c r="J100" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>118.28099999999999</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>130</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>4.8675344504555822</v>
       </c>
       <c r="M100" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>740.74074074074076</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3">
+        <f t="shared" si="71"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="P100" s="3">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <f t="shared" si="73"/>
+        <v>96.450617283950621</v>
+      </c>
+      <c r="R100" s="3">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <f t="shared" si="75"/>
-        <v>44444.444444444445</v>
-      </c>
-      <c r="P100" s="3">
+        <v>130</v>
+      </c>
+      <c r="T100" s="4">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <f t="shared" si="77"/>
-        <v>96.450617283950621</v>
-      </c>
-      <c r="R100" s="3">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <f t="shared" si="79"/>
-        <v>130</v>
-      </c>
-      <c r="T100" s="4">
-        <f t="shared" si="80"/>
         <v>118.28099999999999</v>
       </c>
       <c r="U100" s="4"/>
       <c r="V100">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.15861742318200001</v>
       </c>
       <c r="W100" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>1.8743820897416941E-2</v>
       </c>
       <c r="X100" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1.418717422999342E-2</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-1.5960571008742599E-7</v>
       </c>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B101" s="144">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.8444444444444446</v>
       </c>
       <c r="C101" s="142">
@@ -31325,19 +31870,19 @@
       <c r="H101" s="142"/>
       <c r="I101" s="142"/>
       <c r="J101" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>152.48400000000001</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>152</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>5.0238805208462765</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>781.25000000000011</v>
       </c>
       <c r="O101" s="1">
@@ -31349,34 +31894,34 @@
         <v>101.72526041666667</v>
       </c>
       <c r="S101" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>152</v>
       </c>
       <c r="T101" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>152.48400000000001</v>
       </c>
       <c r="U101" s="4"/>
       <c r="V101">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.20448439864800003</v>
       </c>
       <c r="W101" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>2.2910977316251649E-2</v>
       </c>
       <c r="X101" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>1.8354330648828129E-2</v>
       </c>
       <c r="Y101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-1.9577952692083334E-7</v>
       </c>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B102" s="144">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.911111111111111</v>
       </c>
       <c r="C102" s="142">
@@ -31395,19 +31940,19 @@
       <c r="H102" s="142"/>
       <c r="I102" s="142"/>
       <c r="J102" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>183.08879999999999</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>164</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>5.0998664278241987</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>809.06148867313925</v>
       </c>
       <c r="O102" s="1">
@@ -31419,35 +31964,35 @@
         <v>105.346548004315</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>164</v>
       </c>
       <c r="T102" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>183.08879999999999</v>
       </c>
       <c r="U102" s="4"/>
       <c r="V102">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.24552610875360001</v>
       </c>
       <c r="W102" s="127">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>2.6563764337382487E-2</v>
       </c>
       <c r="X102" s="127">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>2.2007117669958966E-2</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>-2.2667331200057733E-7</v>
       </c>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.3">
       <c r="W103" s="127"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
       <c r="W104" s="127"/>
     </row>
   </sheetData>
@@ -31462,20 +32007,20 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
@@ -32180,34 +32725,34 @@
       <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="5.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="5.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" customWidth="1"/>
     <col min="28" max="32" width="10" customWidth="1"/>
-    <col min="33" max="34" width="11.5703125" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" customWidth="1"/>
+    <col min="33" max="34" width="11.5546875" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" customWidth="1"/>
+    <col min="36" max="36" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -32351,7 +32896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2" s="113">
         <f>C2/180+1</f>
         <v>1.0000055555555556</v>
@@ -32451,7 +32996,7 @@
       </c>
       <c r="AT2" s="127"/>
     </row>
-    <row r="3" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B3" s="113">
         <f>C3/180+1</f>
         <v>1.0408972290491105</v>
@@ -32555,7 +33100,7 @@
       </c>
       <c r="AT3" s="127"/>
     </row>
-    <row r="4" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B4" s="113">
         <f>C4/180+1</f>
         <v>1.0444444444444445</v>
@@ -32992,7 +33537,7 @@
         <v>140.36831132451306</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="113">
         <f t="shared" si="20"/>
         <v>1.1944444444444444</v>
@@ -33156,7 +33701,7 @@
         <v>89.02920118038908</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="113">
         <f>C8/180+1</f>
         <v>1.3</v>
@@ -33323,7 +33868,7 @@
         <v>69.057733567578751</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="113">
         <f>C9/180+1</f>
         <v>1.3555555555555556</v>
@@ -33487,7 +34032,7 @@
         <v>63.133192475440495</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="113">
         <f t="shared" si="20"/>
         <v>1.4944444444444445</v>
@@ -33654,7 +34199,7 @@
         <v>59.446045167387481</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="113">
         <f>C11/180+1</f>
         <v>1.6944444444444444</v>
@@ -33821,7 +34366,7 @@
         <v>55.735294426179998</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113">
         <f t="shared" si="20"/>
         <v>1.8611111111111112</v>
@@ -33988,7 +34533,7 @@
         <v>53.989619512496461</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="113">
         <f t="shared" si="20"/>
         <v>1.9166666666666665</v>
@@ -34140,7 +34685,7 @@
         <v>53.545703576661204</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="116">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -34252,8 +34797,8 @@
         <v>52.967936718397489</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="120">
         <f t="shared" si="20"/>
         <v>1.05</v>
@@ -34336,7 +34881,7 @@
         <v>1.7315348118957217E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="120">
         <f t="shared" si="20"/>
         <v>1.0722222222222222</v>
@@ -34419,7 +34964,7 @@
         <v>1.569205489636638E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="120">
         <f t="shared" si="20"/>
         <v>1.1444444444444444</v>
@@ -34502,7 +35047,7 @@
         <v>1.4313825859483471E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="120">
         <f t="shared" si="20"/>
         <v>1.2</v>
@@ -34585,7 +35130,7 @@
         <v>1.5617711557610891E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="120">
         <f t="shared" si="20"/>
         <v>1.3111111111111111</v>
@@ -34668,7 +35213,7 @@
         <v>1.7269829737113207E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="120">
         <f t="shared" si="20"/>
         <v>1.3555555555555556</v>
@@ -34751,7 +35296,7 @@
         <v>1.8513914639332356E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="120">
         <f t="shared" si="20"/>
         <v>1.4944444444444445</v>
@@ -34834,7 +35379,7 @@
         <v>2.0424115647170323E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120">
         <f t="shared" si="20"/>
         <v>1.7944444444444443</v>
@@ -34922,7 +35467,7 @@
       <c r="AE23" s="97"/>
       <c r="AF23" s="97"/>
     </row>
-    <row r="24" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="120">
         <f t="shared" si="20"/>
         <v>1.9166666666666665</v>
@@ -35005,7 +35550,7 @@
         <v>2.7402455483041491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -35024,7 +35569,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:32" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -35056,7 +35601,7 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -35101,7 +35646,7 @@
       <c r="AE27" s="64"/>
       <c r="AF27" s="29"/>
     </row>
-    <row r="28" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="13" t="s">
         <v>30</v>
@@ -35148,7 +35693,7 @@
       <c r="AE28" s="45"/>
       <c r="AF28" s="31"/>
     </row>
-    <row r="29" spans="1:32" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="15" t="s">
         <v>31</v>
@@ -35192,7 +35737,7 @@
       <c r="AE29" s="30"/>
       <c r="AF29" s="31"/>
     </row>
-    <row r="30" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -35230,7 +35775,7 @@
       <c r="AE30" s="30"/>
       <c r="AF30" s="31"/>
     </row>
-    <row r="31" spans="1:32" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -35270,7 +35815,7 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="31"/>
     </row>
-    <row r="32" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -35308,7 +35853,7 @@
       <c r="AE32" s="30"/>
       <c r="AF32" s="31"/>
     </row>
-    <row r="33" spans="2:48" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -35346,7 +35891,7 @@
       <c r="AE33" s="30"/>
       <c r="AF33" s="31"/>
     </row>
-    <row r="34" spans="2:48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -35391,7 +35936,7 @@
         <v>-170.6101401015417</v>
       </c>
     </row>
-    <row r="35" spans="2:48" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.3">
       <c r="AC35" s="65" t="s">
         <v>21</v>
       </c>
@@ -35405,7 +35950,7 @@
       </c>
       <c r="AF35" s="31"/>
     </row>
-    <row r="36" spans="2:48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V36" t="s">
         <v>35</v>
       </c>
@@ -35422,7 +35967,7 @@
       </c>
       <c r="AF36" s="31"/>
     </row>
-    <row r="37" spans="2:48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -35464,7 +36009,7 @@
       </c>
       <c r="AF37" s="31"/>
     </row>
-    <row r="38" spans="2:48" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -35502,7 +36047,7 @@
         <v>1.1535982759687281E-11</v>
       </c>
     </row>
-    <row r="39" spans="2:48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -35540,7 +36085,7 @@
         <v>1.8108928058840401E-10</v>
       </c>
     </row>
-    <row r="40" spans="2:48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -35581,7 +36126,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="2:48" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>51</v>
       </c>
@@ -35608,7 +36153,7 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="2:48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="73">
         <v>87</v>
       </c>
@@ -35640,7 +36185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:48" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:48" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="73">
         <v>90</v>
       </c>
@@ -35680,7 +36225,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:48" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B44" s="73">
         <v>100</v>
       </c>
@@ -35728,7 +36273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B45" s="73">
         <v>110</v>
       </c>
@@ -35770,7 +36315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B46" s="73">
         <v>114</v>
       </c>
@@ -35799,7 +36344,7 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B47" s="73">
         <v>127.5</v>
       </c>
@@ -35820,7 +36365,7 @@
         <v>-22.202069774198108</v>
       </c>
     </row>
-    <row r="48" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="80">
         <v>136.4</v>
       </c>
@@ -35840,12 +36385,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="22:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="22:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V51" s="49" t="s">
         <v>121</v>
       </c>
@@ -35862,7 +36407,7 @@
         <v>0.96825304239840437</v>
       </c>
     </row>
-    <row r="52" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V52" s="43"/>
       <c r="W52" s="54">
         <f>INDEX(LINEST($P$4:$P$13,$D$4:$D$13^{1,2},FALSE,FALSE),2)</f>
@@ -35875,7 +36420,7 @@
         <v>10153.923989583083</v>
       </c>
     </row>
-    <row r="53" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V53" s="43"/>
       <c r="W53" s="54">
         <f>INDEX(LINEST($P$4:$P$13,$D$4:$D$13^{1,2},FALSE,FALSE),3)</f>
@@ -35890,7 +36435,7 @@
         <v>1.0237466617461022</v>
       </c>
     </row>
-    <row r="54" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V54" s="43" t="s">
         <v>21</v>
       </c>
@@ -35908,7 +36453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V55" s="43"/>
       <c r="W55" s="54">
         <f>INDEX(LINEST($O$6:$O$13,$L$6:$L$13),2)</f>
@@ -35918,14 +36463,14 @@
       <c r="Y55" s="30"/>
       <c r="Z55" s="31"/>
     </row>
-    <row r="56" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V56" s="19"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
       <c r="Y56" s="30"/>
       <c r="Z56" s="31"/>
     </row>
-    <row r="57" spans="22:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="22:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V57" s="107" t="s">
         <v>62</v>
       </c>
@@ -35940,8 +36485,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="22:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="22:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V59" s="49" t="s">
         <v>87</v>
       </c>
@@ -35957,7 +36502,7 @@
         <v>1.8108928058840401E-10</v>
       </c>
     </row>
-    <row r="60" spans="22:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V60" s="43"/>
       <c r="W60" s="122">
         <f>INDEX(LINEST($V$4:$V$13,$O$4:$O$13^{1,2},FALSE,FALSE),2)</f>
@@ -35969,7 +36514,7 @@
         <v>-2.2861135714873372E-6</v>
       </c>
     </row>
-    <row r="61" spans="22:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="22:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V61" s="55"/>
       <c r="W61" s="123">
         <f>INDEX(LINEST($V$4:$V$13,$O$4:$O$13^{1,2},FALSE,FALSE),3)</f>
@@ -35997,38 +36542,38 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.140625" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.7109375" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.109375" customWidth="1"/>
+    <col min="24" max="24" width="5.88671875" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.6640625" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" customWidth="1"/>
     <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.5546875" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="57.6" x14ac:dyDescent="0.3">
@@ -36130,7 +36675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B2" s="98">
         <f>C2/180+1</f>
         <v>1.2611111111111111</v>
@@ -36335,7 +36880,7 @@
         <v>64.781299356256554</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="77">
         <v>1.4649999999999999</v>
       </c>
@@ -36452,7 +36997,7 @@
         <v>78.22647469434753</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="77">
         <v>1.568888888888889</v>
       </c>
@@ -36569,7 +37114,7 @@
         <v>101.53477123592863</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="77">
         <v>1.6727777777777779</v>
       </c>
@@ -36686,7 +37231,7 @@
         <v>124.38009476401257</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="77">
         <v>1.7143333333333333</v>
       </c>
@@ -36803,7 +37348,7 @@
         <v>128.89128991089385</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="77">
         <v>1.8545833333333333</v>
       </c>
@@ -36905,7 +37450,7 @@
         <v>154.50943448945659</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="79">
         <v>1.9470444444444444</v>
       </c>
@@ -37007,7 +37552,7 @@
         <v>176.67627097160877</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N10" s="1">
         <v>9.34</v>
       </c>
@@ -37028,16 +37573,16 @@
       </c>
       <c r="AF10" s="97"/>
     </row>
-    <row r="11" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V11" s="3">
         <f>D11*D11*$AA$35+D11*$AA$36+$AA$37</f>
         <v>0</v>
       </c>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -37061,7 +37606,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -37092,7 +37637,7 @@
       </c>
       <c r="AF15" s="30"/>
     </row>
-    <row r="16" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -37133,7 +37678,7 @@
       <c r="AE16" s="7"/>
       <c r="AF16" s="30"/>
     </row>
-    <row r="17" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>30</v>
@@ -37173,7 +37718,7 @@
       </c>
       <c r="AF17" s="30"/>
     </row>
-    <row r="18" spans="1:36" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
         <v>31</v>
@@ -37209,7 +37754,7 @@
       </c>
       <c r="AF18" s="30"/>
     </row>
-    <row r="19" spans="1:36" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -37261,7 +37806,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
     </row>
-    <row r="21" spans="1:36" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -37303,7 +37848,7 @@
       <c r="AI21" s="64"/>
       <c r="AJ21" s="29"/>
     </row>
-    <row r="22" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -37339,7 +37884,7 @@
       <c r="AI22" s="45"/>
       <c r="AJ22" s="31"/>
     </row>
-    <row r="23" spans="1:36" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -37374,7 +37919,7 @@
       <c r="AI23" s="30"/>
       <c r="AJ23" s="31"/>
     </row>
-    <row r="24" spans="1:36" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z24" s="38" t="s">
         <v>6</v>
       </c>
@@ -37399,7 +37944,7 @@
       <c r="AI24" s="30"/>
       <c r="AJ24" s="31"/>
     </row>
-    <row r="25" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="AG25" s="65" t="s">
         <v>27</v>
       </c>
@@ -37410,7 +37955,7 @@
       <c r="AI25" s="30"/>
       <c r="AJ25" s="31"/>
     </row>
-    <row r="26" spans="1:36" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -37446,7 +37991,7 @@
       <c r="AI26" s="30"/>
       <c r="AJ26" s="31"/>
     </row>
-    <row r="27" spans="1:36" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -37490,7 +38035,7 @@
       <c r="AI27" s="30"/>
       <c r="AJ27" s="31"/>
     </row>
-    <row r="28" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -37548,7 +38093,7 @@
         <v>-475.97454575994487</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>55</v>
       </c>
@@ -37602,7 +38147,7 @@
       </c>
       <c r="AJ29" s="31"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>51</v>
       </c>
@@ -37655,7 +38200,7 @@
       </c>
       <c r="AJ30" s="31"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B31" s="73">
         <v>87</v>
       </c>
@@ -37708,7 +38253,7 @@
       </c>
       <c r="AJ31" s="31"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="73">
         <v>90</v>
       </c>
@@ -37760,7 +38305,7 @@
       </c>
       <c r="AJ32" s="33"/>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="73">
         <v>100</v>
       </c>
@@ -37793,7 +38338,7 @@
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
     </row>
-    <row r="34" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="73">
         <v>110</v>
       </c>
@@ -37828,7 +38373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B35" s="73">
         <v>114</v>
       </c>
@@ -37859,7 +38404,7 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B36" s="73">
         <v>127.5</v>
       </c>
@@ -37883,7 +38428,7 @@
         <v>4180.4182204512181</v>
       </c>
     </row>
-    <row r="37" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="80">
         <v>136.4</v>
       </c>
@@ -37909,7 +38454,7 @@
         <v>0.94199104022164515</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
       <c r="Z38" s="43" t="s">
         <v>59</v>
       </c>
@@ -37927,7 +38472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z39" s="55"/>
       <c r="AA39" s="102">
         <f>INDEX(LINEST($R$3:$R$9,$K$3:$K$9,FALSE),2)</f>
@@ -37952,40 +38497,40 @@
       <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="6.140625" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="6.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" customWidth="1"/>
     <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.5546875" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="58.15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -38060,7 +38605,7 @@
         <v>Charger Pwr, W</v>
       </c>
     </row>
-    <row r="2" spans="1:39" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="74">
         <f>C2/180+1</f>
         <v>1</v>
@@ -38139,7 +38684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="74">
         <v>1.1637222222222223</v>
       </c>
@@ -38225,7 +38770,7 @@
         <v>18.954000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="77">
         <v>1.2052777777777779</v>
       </c>
@@ -38311,7 +38856,7 @@
         <v>23.065999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="77">
         <v>1.3299444444444444</v>
       </c>
@@ -38397,7 +38942,7 @@
         <v>44.176200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="77">
         <v>1.4442222222222223</v>
       </c>
@@ -38483,7 +39028,7 @@
         <v>77.8596</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="77">
         <v>1.5169444444444444</v>
       </c>
@@ -38569,7 +39114,7 @@
         <v>100.6914</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="77">
         <v>1.6208333333333333</v>
       </c>
@@ -38655,7 +39200,7 @@
         <v>155.69400000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="79">
         <v>1.7766666666666666</v>
       </c>
@@ -38734,8 +39279,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -38759,7 +39304,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:39" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -38803,7 +39348,7 @@
       <c r="AL12" s="30"/>
       <c r="AM12" s="30"/>
     </row>
-    <row r="13" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -38862,7 +39407,7 @@
       <c r="AL13" s="30"/>
       <c r="AM13" s="30"/>
     </row>
-    <row r="14" spans="1:39" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="13" t="s">
         <v>30</v>
@@ -38920,7 +39465,7 @@
       <c r="AL14" s="30"/>
       <c r="AM14" s="30"/>
     </row>
-    <row r="15" spans="1:39" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>31</v>
@@ -38974,7 +39519,7 @@
       <c r="AL15" s="30"/>
       <c r="AM15" s="30"/>
     </row>
-    <row r="16" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -39055,7 +39600,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
     </row>
-    <row r="18" spans="2:40" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -39108,7 +39653,7 @@
       <c r="AI18" s="64"/>
       <c r="AJ18" s="29"/>
     </row>
-    <row r="19" spans="2:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -39155,7 +39700,7 @@
       <c r="AI19" s="45"/>
       <c r="AJ19" s="31"/>
     </row>
-    <row r="20" spans="2:40" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -39190,7 +39735,7 @@
       <c r="AI20" s="30"/>
       <c r="AJ20" s="31"/>
     </row>
-    <row r="21" spans="2:40" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z21" s="38" t="s">
         <v>6</v>
       </c>
@@ -39216,7 +39761,7 @@
       <c r="AI21" s="30"/>
       <c r="AJ21" s="31"/>
     </row>
-    <row r="22" spans="2:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
       <c r="AE22" s="8"/>
       <c r="AG22" s="65" t="s">
         <v>27</v>
@@ -39228,7 +39773,7 @@
       <c r="AI22" s="30"/>
       <c r="AJ22" s="31"/>
     </row>
-    <row r="23" spans="2:40" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -39265,7 +39810,7 @@
       <c r="AJ23" s="31"/>
       <c r="AN23" s="3"/>
     </row>
-    <row r="24" spans="2:40" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -39309,7 +39854,7 @@
       <c r="AI24" s="30"/>
       <c r="AJ24" s="31"/>
     </row>
-    <row r="25" spans="2:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -39367,7 +39912,7 @@
         <v>-435.01106108560197</v>
       </c>
     </row>
-    <row r="26" spans="2:40" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -39421,7 +39966,7 @@
       </c>
       <c r="AJ26" s="31"/>
     </row>
-    <row r="27" spans="2:40" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -39474,7 +40019,7 @@
       </c>
       <c r="AJ27" s="31"/>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B28" s="85">
         <v>61</v>
       </c>
@@ -39527,7 +40072,7 @@
       </c>
       <c r="AJ28" s="31"/>
     </row>
-    <row r="29" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="73">
         <v>65</v>
       </c>
@@ -39579,7 +40124,7 @@
       </c>
       <c r="AJ29" s="33"/>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B30" s="73">
         <v>77</v>
       </c>
@@ -39612,7 +40157,7 @@
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
     </row>
-    <row r="31" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="73">
         <v>88</v>
       </c>
@@ -39650,7 +40195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B32" s="73">
         <v>95</v>
       </c>
@@ -39678,7 +40223,7 @@
         <v>1.0602056822563426</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B33" s="73">
         <v>105</v>
       </c>
@@ -39704,7 +40249,7 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
     </row>
-    <row r="34" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="80">
         <v>120</v>
       </c>
@@ -39731,7 +40276,7 @@
       </c>
       <c r="AK34" s="3"/>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.3">
       <c r="Z35" s="43" t="s">
         <v>21</v>
       </c>
@@ -39746,7 +40291,7 @@
         <v>-3925.570398689204</v>
       </c>
     </row>
-    <row r="36" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z36" s="55"/>
       <c r="AA36" s="56" t="e">
         <f>INDEX(LINEST($R$2:$R$9,#REF!),2)</f>
